--- a/climate_tracker/assumptions.xlsx
+++ b/climate_tracker/assumptions.xlsx
@@ -9,26 +9,24 @@
   <sheets>
     <sheet name="Historical emissions" sheetId="1" r:id="rId1"/>
     <sheet name="NDC and other targets" sheetId="2" r:id="rId2"/>
-    <sheet name="Current policy projections" sheetId="3" r:id="rId3"/>
-    <sheet name="Planned policy projections" sheetId="4" r:id="rId4"/>
-    <sheet name="Proposed 2040 target" sheetId="5" r:id="rId5"/>
-    <sheet name="Net-zero target" sheetId="6" r:id="rId6"/>
-    <sheet name="Global Warming Potentials" sheetId="7" r:id="rId7"/>
-    <sheet name="Current policy &amp; planned polic" sheetId="8" r:id="rId8"/>
-    <sheet name="Global Warming Potential value" sheetId="9" r:id="rId9"/>
-    <sheet name="Mid-Century Long-Term Low Gree" sheetId="10" r:id="rId10"/>
-    <sheet name="COVID-19 impact" sheetId="11" r:id="rId11"/>
-    <sheet name="Net-zero target and other long" sheetId="12" r:id="rId12"/>
-    <sheet name="Global Warming Potentials valu" sheetId="13" r:id="rId13"/>
-    <sheet name="Black carbon" sheetId="14" r:id="rId14"/>
-    <sheet name="Net zero target and other long" sheetId="15" r:id="rId15"/>
+    <sheet name="Current policy &amp; planned polic" sheetId="3" r:id="rId3"/>
+    <sheet name="Global Warming Potential value" sheetId="4" r:id="rId4"/>
+    <sheet name="Current policy projections" sheetId="5" r:id="rId5"/>
+    <sheet name="Mid-Century Long-Term Low Gree" sheetId="6" r:id="rId6"/>
+    <sheet name="COVID-19 impact" sheetId="7" r:id="rId7"/>
+    <sheet name="Global Warming Potentials" sheetId="8" r:id="rId8"/>
+    <sheet name="Net-zero target and other long" sheetId="9" r:id="rId9"/>
+    <sheet name="Global Warming Potentials valu" sheetId="10" r:id="rId10"/>
+    <sheet name="Black carbon" sheetId="11" r:id="rId11"/>
+    <sheet name="Planned policy projections" sheetId="12" r:id="rId12"/>
+    <sheet name="Net zero target and other long" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="191">
   <si>
     <t>country_name</t>
   </si>
@@ -36,577 +34,565 @@
     <t>assumption_description</t>
   </si>
   <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Bhutan</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Viet Nam</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>UAE</t>
+  </si>
+  <si>
+    <t>Türkiye</t>
+  </si>
+  <si>
+    <t>The Gambia</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Russian Federation</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Iran (Islamic Republic of)</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
     <t>EU</t>
   </si>
   <si>
-    <t>Colombia</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>Chile</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>Brazil</t>
-  </si>
-  <si>
-    <t>Bhutan</t>
-  </si>
-  <si>
-    <t>Australia</t>
-  </si>
-  <si>
-    <t>Argentina</t>
-  </si>
-  <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>Viet Nam</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>UAE</t>
-  </si>
-  <si>
-    <t>Türkiye</t>
-  </si>
-  <si>
-    <t>The Gambia</t>
-  </si>
-  <si>
-    <t>Thailand</t>
-  </si>
-  <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
-    <t>South Korea</t>
-  </si>
-  <si>
-    <t>South Africa</t>
-  </si>
-  <si>
-    <t>Singapore</t>
-  </si>
-  <si>
-    <t>Saudi Arabia</t>
-  </si>
-  <si>
-    <t>Russian Federation</t>
-  </si>
-  <si>
-    <t>Philippines</t>
-  </si>
-  <si>
-    <t>Peru</t>
-  </si>
-  <si>
-    <t>Norway</t>
-  </si>
-  <si>
-    <t>Nigeria</t>
-  </si>
-  <si>
-    <t>New Zealand</t>
-  </si>
-  <si>
-    <t>Nepal</t>
-  </si>
-  <si>
-    <t>Morocco</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Kenya</t>
-  </si>
-  <si>
-    <t>Kazakhstan</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>Iran (Islamic Republic of)</t>
-  </si>
-  <si>
-    <t>Ethiopia</t>
-  </si>
-  <si>
-    <t>Egypt</t>
+    <t>Historical emissions for 1990-2021 are taken from PRIMAP (Gütschow et al., 2022) . LULUCF LULUCF data for 1990-2018 is from the Third Biennial Report (BUR3). Data in the BUR3 uses global warming potential values from the IPCC’s fifth assessment report (AR5). The CAT uses AR4 values for all countries to ensure comparability of data. We have taken emissions for the land category (3B) and harvested wood products (3D1) only. No conversion is needed as these are CO 2 emissions only. There is insufficient data to extract any land sector emissions from the 3C category. This category is between 8-12 MtCO 2 e (AR5) for the time series, thus our historic series may slightly overestimate Colombian emissions, excluding land use.</t>
+  </si>
+  <si>
+    <t>Historical emissions data excl. the LULUCF sector for all GHGs was obtained from the PRIMAP-hist national historical emissions time series and covers the period from 1990 to 2022 (Gütschow et al. , 2024). This gas-by-gas breakdown by sector: energy, industrial process, agriculture, and waste. Historical emissions data for the LULUCF sector are based on the Chinese inventory as submitted to the UNFCCC for the years 1994, 2005, 2010, 2012, 2014 and 2018 and is not extrapolated onwards due to accounting uncertainties (Government of China, 2023). As of September 2018, the CAT uses 100-year Global Warming Potentials (GWPs) from the IPCC Fourth Assessment Report (AR4). We estimated China‘s energy-related CO 2 emission in 2023 based on growth rates on fossil fuel consumptions projected by Global Carbon Budget (Friedlingstein et al., 2023) and the TPED from World Energy Outlook (WEO) (IEA, 2023b) Stated Policies Scenario (STEPS) and China Energy Transformation Outlook (CETO) (ERI et al., 2023) Baseline Scenario (BLS).</t>
+  </si>
+  <si>
+    <t>Historical emissions from 1990 to 2022 were taken from the PRIMAP National Historical Greenhouse Gas Emissions Database (Gütschow and Pflüger, 2023). The data is provided in AR4. LULUCF data from 1990 to 2020 is taken from the Greenhouse Gas Inventory presented alongside Chile’s Fifth Biennial Update Report to the UNFCCC (Ministerio del Medio Ambiente, 2023).</t>
+  </si>
+  <si>
+    <t>Historical emissions data is from Canada’s national GHG inventory and covers the period to 2022 (Environment and Climate Change Canada, 2024).</t>
+  </si>
+  <si>
+    <t>Historical emissions from 1990 to 2020 are taken from Brazil’s annual estimated GHG emissions inventory (Ministerio da Ciencia Tecnologia e Inovacaoes, 2022). We estimated emissions for 2021 and 2022 using the sectoral growth rates for each sector as reported by the Greenhouse Gas Emissions and Removals Estimation System (SEEG) initiative (SEEG, 2023b). LULUCF emissions from 1990 to 2020 are taken directly from Brazil’s annual estimated GHG emissions inventory (Ministerio da Ciencia Tecnologia e Inovacaoes, 2022).</t>
+  </si>
+  <si>
+    <t>Historical emissions for the period 1994-2020 are from the national GHG inventory reporting from Bhutan’s first Biennial Update Report (BUR1) (Royal Government of Bhutan 2022). The BUR1 covers emissions from the three main GHGs (CO 2 , CH 4 and N 2 O) and some F-gases (HFCs, but not PFCs, NF 3 or SF 6 ). To complete the timeseries for the period 1990-1993, we have applied sectoral growth rates from the PRIMAPhist data series for Bhutan to the BUR1 data (Gütschow et al. 2022). We have not used PRIMAP growth rates to estimate emissions in 2021 as alternative methods produced more accurate results. PRIMAP data shows emissions essentially unchanged from 2019 levels in 2020 and a slight 2% increase in 2021. By contrast, government data reports an 18% drop in emissions (excluding LULUCF) in 2020 – which is more consistent with the economic slowdown the country experienced. As the economy continued to contract in 2021, we would expect emissions to fall as well. 2021-2022 historical emissions estimate Energy and industry emissions for 2021 and 2022 are calculated using IMF GDP growth rates as a proxy for emission growth rates (IMF 2022). We assume that the pandemic had minimal impact on the agriculture and waste sectors, so we use a pre-COVID 5-year trend (2015-2019) to estimate emissions for 2021 and 2022. For reference, Bhutan reported a 4-5% drop in those sectors in 2020, compared to a 20-25% drop in energy and industry emissions. LULUCF LULUCF emissions data for the period 1994-2020 is taken from the First Biennial Update Report (Royal Government of Bhutan 2022).</t>
+  </si>
+  <si>
+    <t>Historical emissions data cover the period 1990–2024. They are taken from Australia's National Inventory Report 2022, available from Australia’s National Greenhouse Accounts (DCCEEW, 2024b), and from the March 2024 Quarterly Update of Australia’s National Greenhouse Gas Inventory, published in August 2024 (DCCEEW, 2024i). Emissions from the Quarterly Update are converted to AR4 using the AR5/AR4 ratio from National Inventory Report 2022 (DCCEEW, 2024b).</t>
+  </si>
+  <si>
+    <t>Historical emissions in all sectors excluding LULUCF for the period 1990–2020 as well as LULUCF emissions for 1990–2020 were taken from the national GHG inventory submitted as part of Argentina’s Fifth BUR submitted in December 2023 to the UNFCCC (Government of Argentina, 2023a). These were extended until 2022 using growth rates from PRIMAP v2.5 Final (Gütschow &amp; Pflüger, 2023).</t>
+  </si>
+  <si>
+    <t>Historical emissions data were obtained from latest government data, the New Zealand’s Greenhouse Gas Inventory 1990-2020 published in April 2022 (Ministry for the Environment 2022g). Emissions for 2021 have been estimated by the CAT. The energy sector emissions in 2021 are estimated using GDP growth rate from IMF as proxy (IMF 2022). For industry, agriculture, waste and other emissions, the pre-COVID 5 year trend (2015-2019) has been applied.</t>
+  </si>
+  <si>
+    <t>The historical dataset between 1990 and 2021 is based on PRIMAP National Historical Greenhouse Gas Emission Database 2022 (Gütschow, Günther and Pflüger, 2022). We took the 1994 and 2000 LULUCF values from the GHG emissions profiles for Non-Annex I countries (UNFCCC, 2015), the 2011 LULUCF value from Nepal’s GHG inventory for the Third National Communication (Tribhuvan University, 2019), and the 2019 LULUCF value from Nepal’s LTS 2021.</t>
+  </si>
+  <si>
+    <t>Historical emissions excl. LULUCF for the period 1990–2021 are taken from PRIMAP (Gütschow et al. , 2022). LULUCF values up to 2000 were taken from Morocco’s First Biennial Update Report (Kingdom of Morocco, 2016b), while values after 2000 were taken from the Fourth National Communication submitted to the UNFCCC in 2021 (Kingdom of Morocco, 2022a).</t>
+  </si>
+  <si>
+    <t>Historical data between 1990 and 2019 is taken from Mexico’s National Inventory of Greenhouse Gases and Compounds (INEGyCEI in Spanish) (INECC, 2021b). Since the 2021 version of the inventory does not provide emissions and removals from forestry between 1990 and 1999, we have used the ones from the previous version of the inventory for that period (INECC, 2018c). For years 2020 and 2021, we estimate emissions based on a sectoral approach. For the energy and industry sectors we assume a correlation between emissions and GDP, and thus apply economic growth forecasts from the IMF (IMF, 2022). For agriculture and waste sectors, we extend the last five years of pre-COVID historic trend. Mexico’s emissions inventory was developed using the IPCC’s 2006 inventory guidelines and its 2019 update and takes Global Warming Potentials (GWPs) from the IPCC’s Fifth Assessment Report (AR5). Since the inventory provides granular information specifying all gases and sectors per year, we were able to convert these to AR4 (Fourth Assessment Report) GWPs by averaging emissions excl. LULUCF for the years 1990- 2019.</t>
+  </si>
+  <si>
+    <t>Historical emissions for the years 1990–2019, excluding LULUCF, are taken from PRIMAP data (Gütschow et al., 2021). LULUCF emissions for the years 1994, 1995, 2000, 2005, and 2010 are taken from the data reported to the UNFCCC GHG inventory database and interpolated between years. To estimate emissions for 2020, we applied a gas-by-gas approach. For direct CO 2 emissions, we applied growth rates from the Global Carbon Budget to the latest historical data point. For non-CO 2 emissions, we used a sectoral split. For energy non-CO 2 emissions, we estimated the emissions intensity (GHG emissions/GDP) from pre-COVID scenarios and apply it to 2020 GDP projections (see below). We assume that the impact of the pandemic on industry, agriculture, waste, and other non-CO 2 emissions will be minimal, and so have extended the historical 5-year trend. To estimate emissions for 2021, we applied the same method, but used the emissions intensity approach for direct CO 2 emissions as well.</t>
+  </si>
+  <si>
+    <t>Historical emissions for the period 1990-2021 are from PRIMAPhist dataset (for energy, industry, agriculture and waste) (Gütschow et al., 2022a). Energy emissions for 2022 are calculated using CO 2 emissions growth rate data from the Energy Institute Statistical Review of World Energy 2023 (Energy Institute, 2023). Industry’s emissions for 2022 have been estimated using GDP growth rate. We used the 5-year trend (2017-2021) to estimate emissions for the agriculture, waste and other sectors. LULUCF LULUCF data is from the third Biennial Update Report (Viet Nam Government, 2020b). These estimates are calculated using global warming potential (GWP) values from the IPCC’s Fifth Assessment Report (AR5). We have not converted these into AR4 values assuming contribution from non-CO 2 gases is negligible.</t>
+  </si>
+  <si>
+    <t>Historical emissions data for 1990–2021 were obtained from the UK Government (BEIS &amp; DESNZ, 2023a). Provisional emissions data for 2022 was also included to extend the time series to 2021 (BEIS &amp; DESNZ, 2023b). The UK provides inventory data to the UNFCCC that includes emissions from Overseas Territories and Crown Dependencies, which are not covered by UK climate policy and are not included in government emission projections. For this reason, we have chosen to use national emissions statistics rather than UNFCCC inventory emissions.</t>
+  </si>
+  <si>
+    <t>Historical emissions are based on the 1990–2022 inventory emissions developed by the US Environmental Protection Agency (EPA) (U.S. Environmental Protection Agency, 2024k). The national inventory was reported in AR5 Global Warming Potential (GWP) values. We converted all values to AR4 GWP.</t>
+  </si>
+  <si>
+    <t>Historical emissions for the years 1994, 2000, 2005, 2014, and 2021 are taken from the UAE’s 5 th National Communication to the UNFCCC (Government of the UAE, 2024a). For the years between 1994 and 2021 emissions are estimated by interpolating values between reported values. For the period 1990-1994 and 2021-2022 we estimate values by using growth rates from PRIMAP-hist (Gütschow et al., 2024). The UAE now includes an F-gases estimate in its latest national inventory data, submitted along with its 5 th National Communication to the UNFCCC (Government of the UAE, 2024a). However, there are still significant limitations regarding the UAE’s F-gases reporting, mainly related to data availability. To address this, the UAE plans to broaden its monitoring and reporting activities, including exchanges with relevant stakeholders. While F-gases currently represent a negligible share of the UAE’s total GHG emissions (only 0.15 MtCO 2 e in 2021), this can change once the UAE updates its inventory again. The historical data used in our previous assessment estimated emissions to be around 15% higher in 2022 compared to our current assessment. The data from PRIMAP-hist (Gütschow et al., 2024) was based on the UAE’s latest inventory published in 2016, and used different methods to fill the gaps in the inventory and extend the estimates until 2022. The new GHG inventory published by the UAE in 2024 presents a significant upgrade in terms of data quality. The difference in economy-wide emissions estimates is mostly explained by a decrease in industrial process emissions, which are roughly half in the UAE’s own inventory compared to PRIMAP in 2022, and to differences in fugitive emissions data for 2021. According to PRIMAP’s estimates, the emissions they calculated for the UAE in 2022 based on their old inventory are 98% higher than the ones calculated based on the UAE’s new inventory for 2022. The UAE’s old inventory published in 2015 (Ministry of Energy, 2015) includes estimates for 1994 and 2014, while the new inventory published in 2024 (Government of the UAE, 2024a) includes an estimate only for 2021.</t>
+  </si>
+  <si>
+    <t>Historical emissions for 1990-2021 are taken from the common reporting format tables in Türkiye’s 2023 National Inventory Report (Republic of Türkiye Ministry of Energy and Natural Resources, 2023). To estimate 2022 emissions, we apply GHG sectoral growth rates for 2022 from the Turkish Statistical Institute’s (TURKSTAT) to 2021 historical emissions for energy and industry, agriculture and waste sectors (Turkish Statistical Institute, 2024).</t>
+  </si>
+  <si>
+    <t>The Gambia’s historical emissions are based on the 2010 GHG emissions reported by The Gambia’s Third National Communication (Republic of The Gambia, 2020). We have completed the time series from 1990-2019 using growth rates from PRIMAP (Gütschow et al., 2021). We consider the government reported data to be the most up to date estimate available and so use it as a starting point, rather than simply using the entire PRIMAP data set. Our estimates are about 0.5MtCO 2 e higher than PRIMAP. 2020-2021 estimates To estimate historic emissions in 2020-2021, we first derived individual gas estimates for 2019 using the ratios for CO 2 , CH 4 , and N 2 O in PRIMAP. As PRIMAP did not provide data for F-gases, we estimated F-gas emissions in 2019 using the ratio of CH 4 to F-gases in the US EPA’s non-CO 2 projections (U.S. Environmental Protection Agency, 2019). To estimate CO 2 emissions, we used the growth rate from the Global Carbon Budget (Global Carbon Project, 2022) for 2020 and GDP growth rate for 2021 (IMF, 2022). For CH 4 and N 2 O, we extended the series from 2019-2021 using the 5-year trend from 2015-2019. For F-gases, we applied the GDP growth rate for 2020 and 2021 to approximate the impact of COVID-19 on the industry (IMF, 2022).</t>
+  </si>
+  <si>
+    <t>To first establish historical emissions from 1990–2000, data excl. the LULUCF sector for 1994 and 2000 was obtained from Thailand’s Second Biennial Update Report (BUR2), with emissions interpolated in between (ONEP, 2017). Historical emissions from 1990 to 1994 were extrapolated backwards based on emission trends. The time series was harmonized to Thailand’s Third Biennial Update Report (BUR3), in AR4 GWPs, by applying emissions growth rates backwards from the BUR3’s earliest inventory year (2000) to the base year of 1990 (Ministry of Natural Resources and Environment, 2020b). Historical emissions data from 2000–2016 were taken from the BUR3. From 2016 to 2021, all GHGs follow the growth rates of PRIMAP-hist national historical emissions time series (Gütschow and Pflüger, 2022).</t>
+  </si>
+  <si>
+    <t>Historical emissions data for 1990-2022 are taken from the April 2024 update of Switzerland’s GHG inventory (Bundesamt für Umwelt BAFU, 2024b).</t>
+  </si>
+  <si>
+    <t>Historical emissions in South Korea were taken from the PRIMAP National Historical Greenhouse Gas Emissions Database (Gütschow &amp; Pflüger, 2022). This data is provided in AR4. The latest historical datapoint in this set is 2021.</t>
+  </si>
+  <si>
+    <t>For historical data, GHG inventory data submitted to the UNFCCC accessed via the UNFCCC data portal was used for 1990 and 1994 (UNFCCC, 2019) and the National GHG Inventory Report published by the Ministry of Forestry, Fisheries and the Environment in 2022 was used for 2000 to 2020 (DFFE, 2023), with linear interpolation between 1990–1994 and 1994–2000. We used multiple sources because no single source provides a full data set from 1990-2021. For the year 2021, we use growth rates from PRIMAP historical emissions applied to the 2020 inventory data points (Gütschow &amp; Pflüger, 2023). Important to highlight, the University of Cape Town’s technical emissions scenario analysis which informed the 2021 NDC update found significantly lower emission levels compared to the 2023 National GHG Inventory report due to the use of different methodologies and data sources (Marquard et al., 2021). For 2017, for example, there is a 15 MtCO 2 e difference between both estimates. We currently rely on official estimates provided by the Government of South Africa as explained above.</t>
+  </si>
+  <si>
+    <t>Historical emissions for the period 2000-2020 were taken from national greenhouse gas inventory data, covering CO 2 , CH 4 , N 2 O and F-gases (Department of Statistics Singapore, 2023). This was supplemented with data from the Fifth Biennial Update Report (BUR5) which provides emissions by sector for years 1994, 2000, 2010, 2012, 2014, 2016 and 2018 (National Environment Agency, 2022). To estimate emissions for 2021-22, we applied a gas-by-gas approach. For energy CO 2 emissions, which accounted for 93% of Singapore’s emissions in 2018, we applied growth rates for energy CO 2 from the APEC Energy Demand and Supply Outlook, 8thedition for the years 2020/21 and 2021/22 (APEC, 2022). For non-energy CO 2 , we used the growth in GDP as a proxy for the growth in non-energy CO 2 emissions, assuming constant elasticity of emissions and GDP (IMF, 2023). For non-CO 2 emissions, we have extrapolated emissions using a five-year average from historic emissions. For historical years where national greenhouse gas inventory data was not available, i.e., 1990-93 and 1995-99, we also applied a gas-by-gas approach. For energy CO 2 emissions, we applied a linear regression using IEA energy-related CO 2 (IEA, 2023). For non-energy CO 2 and non-CO 2 , we extrapolated linearly from historical data points. A weighted average from the Fifth Biennial Update Report (BUR5) was used to convert HFCs and PFCs from Global Warming Potentials (GWPs) used in the IPPC’s Fifth Assessment Report (AR5) to those used in the Fourth Assessment Report (AR4) as these gases are not reported separately in the Department of Statistics data (Department of Statistics Singapore, 2023). All other gases are converted to AR4 GWPs on a gas-by-gas basis. Singapore is a city-state with one of the highest population densities in the world and is nearly completely dependent on imports for food. Most of the remaining natural areas are sanctuaries. We therefore do not consider emissions related to LULUCF sector for the analysis, as they are negligible.</t>
+  </si>
+  <si>
+    <t>Historical emissions from 1990 to 2022 are taken from PRIMAP National Greenhouse Gas Emission Database 2023 (Gütschow and Pflüger, 2023). Saudi Arabia’s own national inventory data from the UNFCCC only extends to 2012. LULUCF values for 1990, 2000, 2010 and 2012 are still taken from the UNFCCC emissions inventory (2018).</t>
+  </si>
+  <si>
+    <t>Historical emissions levels are taken from the inventory data submitted to the UNFCCC until the last available year, here 2020 (Russian Federation, 2022b). To estimate emissions for 2021, we applied a gas-by-gas approach. We applied growth rates from PRIMAP to historic 2020 emissions for each gas (Gütschow &amp; Pflüger, 2022).</t>
+  </si>
+  <si>
+    <t>The historical GHG emissions between 1990 and 2021 are taken from the PRIMAP database (Gütschow &amp; Pflüger, 2023). For the LULUCF sector, the historical GHG emissions data is taken from UNFCCC database as officially reported by the country for years 1994 and 2000, and 2010 emissions were taken from the government website (NICCDIES, 2021; UNFCCC, 2017).</t>
+  </si>
+  <si>
+    <t>Historical emissions from 1990 to 2019 are taken from PRIMAPhist (Gütschow et al., 2021). To estimate emissions for 2020 and 2021, we applied the following approach: For the energy and industry sectors, we assumed a directly proportional development of these sectors’ emissions with GDP growth rates from IMF for 2020–2021. For all other sectors, we assumed a continuation of a 5-year trend. We assume that the impact of the pandemic on agriculture, waste and other emissions is minimal and so have extrapolated emissions for 2015–2019 up to 2021 using a 5-year average from historical emissions. The LULUCF data points until 2016 were taken from the national inventory of emissions (INGEI, 2021).</t>
+  </si>
+  <si>
+    <t>Greenhouse gas emission inventories for 1990–2020 are based on the National Inventory Report 2022 submitted to the UNFCCC (Government of Norway, 2022).</t>
+  </si>
+  <si>
+    <t>Nigeria’s NDC update provided revised historical emissions for 2010 and 2018 using AR5 global warming potentials (GWPs) (Federal Government of Nigeria, 2021). We converted 2018 emissions to AR4 using sector-by-sector gas shares from PRIMAP for the same year (Gütschow &amp; Pflüger, 2022). Land use was excluded using the AFOLU sub-sector breakdown provided for 2018 in the NDC update. The NDC update notes that the significant jump observed in emissions between 2017 and 2018 depicted in Nigeria’s sector-by-sector bar chart of historical emissions is due to differences in data sources for the energy sector for those years. We have used PRIMAP sector growth rates to extend the historical time series, both back to 1990 and forwards to 2021, rather than the data provided in the NDC until 2010, as it is likely a more accurate depiction of the year over year change. There is a significant difference between the emissions reported in the NDC and PRIMAP estimates (around 100Mt higher in PRIMAP than the NDC in recent years), largely due to the differences in estimates for energy sector emissions. We have continued to base our estimates around governments sources for consistency with the national dialog, but strongly urge the government to focus on its inventory and trying to understand the differences between its figures and international sources of data.</t>
+  </si>
+  <si>
+    <t>Historical data are based on the most recent national inventory submissions reported in AR4 GWPs (Republic of Kazakhstan, 2023b). The historical emissions time series published in 2023 differs to an extent from the previous historical emissions time series. The main differences are in the agriculture and LULUCF sectors, with total emissions increasing by a range of 15 to 55 MtCO 2 e between 1994 and 2004 and by 16 and 63 MtCO 2 e between 2003 and 2013, respectively.</t>
+  </si>
+  <si>
+    <t>Historical emissions data were obtained from the UNFCCC GHG inventory and cover the period from 1990 to 2021 submitted in Common Reporting Format (Government of Japan, 2023a). The submission to the UNFCCC is supplemented by the National Inventory Report data file, which provides sector level emissions after allocation of electricity-related emissions to end-use sectors (Government of Japan, 2023b).</t>
+  </si>
+  <si>
+    <t>Historical emissions data (excluding LULUCF) for the period 1990-2021 are taken from PRIMAP (Gütschow &amp; Pflüger, 2023). LULUCF data for the years 1994 and 2000 are taken from the UNFCCC emissions inventory, and the 2010 data is from the Third National Communication (Department of Environment of Iran, 2017).</t>
+  </si>
+  <si>
+    <t>Historical data until 2022 for all sectors apart from LULUCF are taken from the PRIMAP-hist dataset (Gütschow and Pflüger, 2023). A full series of LULUCF emissions is constructed by combining data from Indonesia’s Third Biennial Update Report (BUR3) for 2000-2019 and data reported to the UNFCCC GHG inventory database for 1990-1999 (Republic of Indonesia, 2021a).</t>
+  </si>
+  <si>
+    <t>Historical emissions are taken from the PRIMAP data for the period 1990-2022 (Gütschow &amp; Pflüger, 2023). LULUCF emissions are taken directly from India’s third Biennial Report (MoEFCC, 2021). These estimates are calculated using global warming potential (GWP) values from the IPCC’s second assessment report. We have not converted these into AR4 values as the contribution from non-CO 2 gases is negligible.</t>
+  </si>
+  <si>
+    <t>Historical emissions are taken from the Federal Environment Agency published in March 2024 (UBA, 2024b). UBA provides the data using Global Warming Potentials from AR5, we convert the data using Global Warming Potentials from AR4 (see more detail below). Note there is an unexplained jump from -18 to -80 MtCO 2 in sinks from forests in the inventory data from 1990 to 1991.</t>
+  </si>
+  <si>
+    <t>Ethiopia provided revised historical data for 2010 in its NDC update using global warming potential values (GWPs) from the IPCC’s fifth assessment report (AR5) (Federal Democratic Republic of Ethiopia, 2021). The government provides sector-level emissions data, but no information on the gas-by-gas breakdown. It also provided information on emissions data from livestock and managed soils, which we take to be the entirety of agriculture sector emissions. To complete the sector information for the industry and managed soils sectors, we used the sector-by-sector emission ratios for the NDC’s 2020 business as usual estimate. We use the gas-by-gas breakdown in PRIMAP for the year 2010 to estimate sectoral emissions by gas and then converted these from AR5 to AR4 values (Gütschow, J.; Günther, A.; Jeffery, L.; Gieseke, 2021). The NDC update covers the three main gases (CO 2 , CH 4 and N 2 O). We added an estimate for HFCs using PRIMAP data for 2010 and scaling this estimate to our industry sector’s emissions total for 2010. We used PRIMAP growth rates for the energy, industry, agriculture, and waste to extend the historical time series for 1990-2019 based off of the 2010 estimate provided in the NDC update. To estimate emissions for 2020 and 2021, we applied a sectoral approach. For energy and industry, we applied growth rates from Global Carbon Budget for the year 2020 (Global Carbon Project, 2021), and the GDP growth rates from IMF for 2021, assuming a directly proportional development of CO 2 emissions. For agriculture and waste, we assume a continuation of a 5-year trend. We assume that the impact of the pandemic on agriculture, waste and other emissions is minimal and so have extrapolated emissions for 2015–2019 up to 2021 using a 5-year average from historical emissions.</t>
+  </si>
+  <si>
+    <t>Historical emissions from 1990 to 2021 are taken from PRIMAP (Gütschow and Pflüger, 2023).</t>
   </si>
   <si>
     <t>Historical emissions between 1990 and 2022 are based on the national inventory submitted by the EU to the UNFCCC (European Environment Agency, 2024). The data is presented in AR5 GWP values, so we convert it to AR4 GWP using gas-by-gas conversions.</t>
   </si>
   <si>
-    <t>Historical emissions for 1990-2021 are taken from PRIMAP (Gütschow et al., 2022) . LULUCF LULUCF data for 1990-2018 is from the Third Biennial Report (BUR3). Data in the BUR3 uses global warming potential values from the IPCC’s fifth assessment report (AR5). The CAT uses AR4 values for all countries to ensure comparability of data. We have taken emissions for the land category (3B) and harvested wood products (3D1) only. No conversion is needed as these are CO 2 emissions only. There is insufficient data to extract any land sector emissions from the 3C category. This category is between 8-12 MtCO 2 e (AR5) for the time series, thus our historic series may slightly overestimate Colombian emissions, excluding land use.</t>
-  </si>
-  <si>
-    <t>Historical emissions data excl. the LULUCF sector for all GHGs was obtained from the PRIMAP-hist national historical emissions time series and covers the period from 1990 to 2022 (Gütschow et al. , 2024). This gas-by-gas breakdown by sector: energy, industrial process, agriculture, and waste. Historical emissions data for the LULUCF sector are based on the Chinese inventory as submitted to the UNFCCC for the years 1994, 2005, 2010, 2012, 2014 and 2018 and is not extrapolated onwards due to accounting uncertainties (Government of China, 2023). As of September 2018, the CAT uses 100-year Global Warming Potentials (GWPs) from the IPCC Fourth Assessment Report (AR4). We estimated China‘s energy-related CO 2 emission in 2023 based on growth rates on fossil fuel consumptions projected by Global Carbon Budget (Friedlingstein et al., 2023) and the TPED from World Energy Outlook (WEO) (IEA, 2023b) Stated Policies Scenario (STEPS) and China Energy Transformation Outlook (CETO) (ERI et al., 2023) Baseline Scenario (BLS).</t>
-  </si>
-  <si>
-    <t>Historical emissions from 1990 to 2022 were taken from the PRIMAP National Historical Greenhouse Gas Emissions Database (Gütschow and Pflüger, 2023). The data is provided in AR4. LULUCF data from 1990 to 2020 is taken from the Greenhouse Gas Inventory presented alongside Chile’s Fifth Biennial Update Report to the UNFCCC (Ministerio del Medio Ambiente, 2023).</t>
-  </si>
-  <si>
-    <t>Historical emissions data is from Canada’s national GHG inventory and covers the period to 2022 (Environment and Climate Change Canada, 2024).</t>
-  </si>
-  <si>
-    <t>Historical emissions from 1990 to 2020 are taken from Brazil’s annual estimated GHG emissions inventory (Ministerio da Ciencia Tecnologia e Inovacaoes, 2022). We estimated emissions for 2021 and 2022 using the sectoral growth rates for each sector as reported by the Greenhouse Gas Emissions and Removals Estimation System (SEEG) initiative (SEEG, 2023b). LULUCF emissions from 1990 to 2020 are taken directly from Brazil’s annual estimated GHG emissions inventory (Ministerio da Ciencia Tecnologia e Inovacaoes, 2022).</t>
-  </si>
-  <si>
-    <t>Historical emissions for the period 1994-2020 are from the national GHG inventory reporting from Bhutan’s first Biennial Update Report (BUR1) (Royal Government of Bhutan 2022). The BUR1 covers emissions from the three main GHGs (CO 2 , CH 4 and N 2 O) and some F-gases (HFCs, but not PFCs, NF 3 or SF 6 ). To complete the timeseries for the period 1990-1993, we have applied sectoral growth rates from the PRIMAPhist data series for Bhutan to the BUR1 data (Gütschow et al. 2022). We have not used PRIMAP growth rates to estimate emissions in 2021 as alternative methods produced more accurate results. PRIMAP data shows emissions essentially unchanged from 2019 levels in 2020 and a slight 2% increase in 2021. By contrast, government data reports an 18% drop in emissions (excluding LULUCF) in 2020 – which is more consistent with the economic slowdown the country experienced. As the economy continued to contract in 2021, we would expect emissions to fall as well. 2021-2022 historical emissions estimate Energy and industry emissions for 2021 and 2022 are calculated using IMF GDP growth rates as a proxy for emission growth rates (IMF 2022). We assume that the pandemic had minimal impact on the agriculture and waste sectors, so we use a pre-COVID 5-year trend (2015-2019) to estimate emissions for 2021 and 2022. For reference, Bhutan reported a 4-5% drop in those sectors in 2020, compared to a 20-25% drop in energy and industry emissions. LULUCF LULUCF emissions data for the period 1994-2020 is taken from the First Biennial Update Report (Royal Government of Bhutan 2022).</t>
-  </si>
-  <si>
-    <t>Historical emissions data cover the period 1990–2024. They are taken from Australia's National Inventory Report 2022, available from Australia’s National Greenhouse Accounts (DCCEEW, 2024b), and from the March 2024 Quarterly Update of Australia’s National Greenhouse Gas Inventory, published in August 2024 (DCCEEW, 2024i). Emissions from the Quarterly Update are converted to AR4 using the AR5/AR4 ratio from National Inventory Report 2022 (DCCEEW, 2024b).</t>
-  </si>
-  <si>
-    <t>Historical emissions in all sectors excluding LULUCF for the period 1990–2020 as well as LULUCF emissions for 1990–2020 were taken from the national GHG inventory submitted as part of Argentina’s Fifth BUR submitted in December 2023 to the UNFCCC (Government of Argentina, 2023a). These were extended until 2022 using growth rates from PRIMAP v2.5 Final (Gütschow &amp; Pflüger, 2023).</t>
-  </si>
-  <si>
-    <t>Historical data until 2022 for all sectors apart from LULUCF are taken from the PRIMAP-hist dataset (Gütschow and Pflüger, 2023). A full series of LULUCF emissions is constructed by combining data from Indonesia’s Third Biennial Update Report (BUR3) for 2000-2019 and data reported to the UNFCCC GHG inventory database for 1990-1999 (Republic of Indonesia, 2021a).</t>
-  </si>
-  <si>
-    <t>Historical emissions are taken from the PRIMAP data for the period 1990-2022 (Gütschow &amp; Pflüger, 2023). LULUCF emissions are taken directly from India’s third Biennial Report (MoEFCC, 2021). These estimates are calculated using global warming potential (GWP) values from the IPCC’s second assessment report. We have not converted these into AR4 values as the contribution from non-CO 2 gases is negligible.</t>
-  </si>
-  <si>
-    <t>Historical emissions are taken from the Federal Environment Agency published in March 2024 (UBA, 2024b). UBA provides the data using Global Warming Potentials from AR5, we convert the data using Global Warming Potentials from AR4 (see more detail below). Note there is an unexplained jump from -18 to -80 MtCO 2 in sinks from forests in the inventory data from 1990 to 1991.</t>
-  </si>
-  <si>
-    <t>Historical emissions for the period 1990-2021 are from PRIMAPhist dataset (for energy, industry, agriculture and waste) (Gütschow et al., 2022a). Energy emissions for 2022 are calculated using CO 2 emissions growth rate data from the Energy Institute Statistical Review of World Energy 2023 (Energy Institute, 2023). Industry’s emissions for 2022 have been estimated using GDP growth rate. We used the 5-year trend (2017-2021) to estimate emissions for the agriculture, waste and other sectors. LULUCF LULUCF data is from the third Biennial Update Report (Viet Nam Government, 2020b). These estimates are calculated using global warming potential (GWP) values from the IPCC’s Fifth Assessment Report (AR5). We have not converted these into AR4 values assuming contribution from non-CO 2 gases is negligible.</t>
-  </si>
-  <si>
-    <t>Historical emissions data for 1990–2021 were obtained from the UK Government (BEIS &amp; DESNZ, 2023a). Provisional emissions data for 2022 was also included to extend the time series to 2021 (BEIS &amp; DESNZ, 2023b). The UK provides inventory data to the UNFCCC that includes emissions from Overseas Territories and Crown Dependencies, which are not covered by UK climate policy and are not included in government emission projections. For this reason, we have chosen to use national emissions statistics rather than UNFCCC inventory emissions.</t>
-  </si>
-  <si>
-    <t>Historical emissions are based on the 1990–2022 inventory emissions developed by the US Environmental Protection Agency (EPA) (U.S. Environmental Protection Agency, 2024k). The national inventory was reported in AR5 Global Warming Potential (GWP) values. We converted all values to AR4 GWP.</t>
-  </si>
-  <si>
-    <t>Historical emissions for the years 1994, 2000, 2005, 2014, and 2021 are taken from the UAE’s 5 th National Communication to the UNFCCC (Government of the UAE, 2024a). For the years between 1994 and 2021 emissions are estimated by interpolating values between reported values. For the period 1990-1994 and 2021-2022 we estimate values by using growth rates from PRIMAP-hist (Gütschow et al., 2024). The UAE now includes an F-gases estimate in its latest national inventory data, submitted along with its 5 th National Communication to the UNFCCC (Government of the UAE, 2024a). However, there are still significant limitations regarding the UAE’s F-gases reporting, mainly related to data availability. To address this, the UAE plans to broaden its monitoring and reporting activities, including exchanges with relevant stakeholders. While F-gases currently represent a negligible share of the UAE’s total GHG emissions (only 0.15 MtCO 2 e in 2021), this can change once the UAE updates its inventory again. The historical data used in our previous assessment estimated emissions to be around 15% higher in 2022 compared to our current assessment. The data from PRIMAP-hist (Gütschow et al., 2024) was based on the UAE’s latest inventory published in 2016, and used different methods to fill the gaps in the inventory and extend the estimates until 2022. The new GHG inventory published by the UAE in 2024 presents a significant upgrade in terms of data quality. The difference in economy-wide emissions estimates is mostly explained by a decrease in industrial process emissions, which are roughly half in the UAE’s own inventory compared to PRIMAP in 2022, and to differences in fugitive emissions data for 2021. According to PRIMAP’s estimates, the emissions they calculated for the UAE in 2022 based on their old inventory are 98% higher than the ones calculated based on the UAE’s new inventory for 2022. The UAE’s old inventory published in 2015 (Ministry of Energy, 2015) includes estimates for 1994 and 2014, while the new inventory published in 2024 (Government of the UAE, 2024a) includes an estimate only for 2021.</t>
-  </si>
-  <si>
-    <t>Historical emissions for 1990-2021 are taken from the common reporting format tables in Türkiye’s 2023 National Inventory Report (Republic of Türkiye Ministry of Energy and Natural Resources, 2023). To estimate 2022 emissions, we apply GHG sectoral growth rates for 2022 from the Turkish Statistical Institute’s (TURKSTAT) to 2021 historical emissions for energy and industry, agriculture and waste sectors (Turkish Statistical Institute, 2024).</t>
-  </si>
-  <si>
-    <t>The Gambia’s historical emissions are based on the 2010 GHG emissions reported by The Gambia’s Third National Communication (Republic of The Gambia, 2020). We have completed the time series from 1990-2019 using growth rates from PRIMAP (Gütschow et al., 2021). We consider the government reported data to be the most up to date estimate available and so use it as a starting point, rather than simply using the entire PRIMAP data set. Our estimates are about 0.5MtCO 2 e higher than PRIMAP. 2020-2021 estimates To estimate historic emissions in 2020-2021, we first derived individual gas estimates for 2019 using the ratios for CO 2 , CH 4 , and N 2 O in PRIMAP. As PRIMAP did not provide data for F-gases, we estimated F-gas emissions in 2019 using the ratio of CH 4 to F-gases in the US EPA’s non-CO 2 projections (U.S. Environmental Protection Agency, 2019). To estimate CO 2 emissions, we used the growth rate from the Global Carbon Budget (Global Carbon Project, 2022) for 2020 and GDP growth rate for 2021 (IMF, 2022). For CH 4 and N 2 O, we extended the series from 2019-2021 using the 5-year trend from 2015-2019. For F-gases, we applied the GDP growth rate for 2020 and 2021 to approximate the impact of COVID-19 on the industry (IMF, 2022).</t>
-  </si>
-  <si>
-    <t>To first establish historical emissions from 1990–2000, data excl. the LULUCF sector for 1994 and 2000 was obtained from Thailand’s Second Biennial Update Report (BUR2), with emissions interpolated in between (ONEP, 2017). Historical emissions from 1990 to 1994 were extrapolated backwards based on emission trends. The time series was harmonized to Thailand’s Third Biennial Update Report (BUR3), in AR4 GWPs, by applying emissions growth rates backwards from the BUR3’s earliest inventory year (2000) to the base year of 1990 (Ministry of Natural Resources and Environment, 2020b). Historical emissions data from 2000–2016 were taken from the BUR3. From 2016 to 2021, all GHGs follow the growth rates of PRIMAP-hist national historical emissions time series (Gütschow and Pflüger, 2022).</t>
-  </si>
-  <si>
-    <t>Historical emissions data for 1990-2022 are taken from the April 2024 update of Switzerland’s GHG inventory (Bundesamt für Umwelt BAFU, 2024b).</t>
-  </si>
-  <si>
-    <t>Historical emissions in South Korea were taken from the PRIMAP National Historical Greenhouse Gas Emissions Database (Gütschow &amp; Pflüger, 2022). This data is provided in AR4. The latest historical datapoint in this set is 2021.</t>
-  </si>
-  <si>
-    <t>For historical data, GHG inventory data submitted to the UNFCCC accessed via the UNFCCC data portal was used for 1990 and 1994 (UNFCCC, 2019) and the National GHG Inventory Report published by the Ministry of Forestry, Fisheries and the Environment in 2022 was used for 2000 to 2020 (DFFE, 2023), with linear interpolation between 1990–1994 and 1994–2000. We used multiple sources because no single source provides a full data set from 1990-2021. For the year 2021, we use growth rates from PRIMAP historical emissions applied to the 2020 inventory data points (Gütschow &amp; Pflüger, 2023). Important to highlight, the University of Cape Town’s technical emissions scenario analysis which informed the 2021 NDC update found significantly lower emission levels compared to the 2023 National GHG Inventory report due to the use of different methodologies and data sources (Marquard et al., 2021). For 2017, for example, there is a 15 MtCO 2 e difference between both estimates. We currently rely on official estimates provided by the Government of South Africa as explained above.</t>
-  </si>
-  <si>
-    <t>Historical emissions for the period 2000-2020 were taken from national greenhouse gas inventory data, covering CO 2 , CH 4 , N 2 O and F-gases (Department of Statistics Singapore, 2023). This was supplemented with data from the Fifth Biennial Update Report (BUR5) which provides emissions by sector for years 1994, 2000, 2010, 2012, 2014, 2016 and 2018 (National Environment Agency, 2022). To estimate emissions for 2021-22, we applied a gas-by-gas approach. For energy CO 2 emissions, which accounted for 93% of Singapore’s emissions in 2018, we applied growth rates for energy CO 2 from the APEC Energy Demand and Supply Outlook, 8thedition for the years 2020/21 and 2021/22 (APEC, 2022). For non-energy CO 2 , we used the growth in GDP as a proxy for the growth in non-energy CO 2 emissions, assuming constant elasticity of emissions and GDP (IMF, 2023). For non-CO 2 emissions, we have extrapolated emissions using a five-year average from historic emissions. For historical years where national greenhouse gas inventory data was not available, i.e., 1990-93 and 1995-99, we also applied a gas-by-gas approach. For energy CO 2 emissions, we applied a linear regression using IEA energy-related CO 2 (IEA, 2023). For non-energy CO 2 and non-CO 2 , we extrapolated linearly from historical data points. A weighted average from the Fifth Biennial Update Report (BUR5) was used to convert HFCs and PFCs from Global Warming Potentials (GWPs) used in the IPPC’s Fifth Assessment Report (AR5) to those used in the Fourth Assessment Report (AR4) as these gases are not reported separately in the Department of Statistics data (Department of Statistics Singapore, 2023). All other gases are converted to AR4 GWPs on a gas-by-gas basis. Singapore is a city-state with one of the highest population densities in the world and is nearly completely dependent on imports for food. Most of the remaining natural areas are sanctuaries. We therefore do not consider emissions related to LULUCF sector for the analysis, as they are negligible.</t>
-  </si>
-  <si>
-    <t>Historical emissions from 1990 to 2022 are taken from PRIMAP National Greenhouse Gas Emission Database 2023 (Gütschow and Pflüger, 2023). Saudi Arabia’s own national inventory data from the UNFCCC only extends to 2012. LULUCF values for 1990, 2000, 2010 and 2012 are still taken from the UNFCCC emissions inventory (2018).</t>
-  </si>
-  <si>
-    <t>Historical emissions levels are taken from the inventory data submitted to the UNFCCC until the last available year, here 2020 (Russian Federation, 2022b). To estimate emissions for 2021, we applied a gas-by-gas approach. We applied growth rates from PRIMAP to historic 2020 emissions for each gas (Gütschow &amp; Pflüger, 2022).</t>
-  </si>
-  <si>
-    <t>The historical GHG emissions between 1990 and 2021 are taken from the PRIMAP database (Gütschow &amp; Pflüger, 2023). For the LULUCF sector, the historical GHG emissions data is taken from UNFCCC database as officially reported by the country for years 1994 and 2000, and 2010 emissions were taken from the government website (NICCDIES, 2021; UNFCCC, 2017).</t>
-  </si>
-  <si>
-    <t>Historical emissions from 1990 to 2019 are taken from PRIMAPhist (Gütschow et al., 2021). To estimate emissions for 2020 and 2021, we applied the following approach: For the energy and industry sectors, we assumed a directly proportional development of these sectors’ emissions with GDP growth rates from IMF for 2020–2021. For all other sectors, we assumed a continuation of a 5-year trend. We assume that the impact of the pandemic on agriculture, waste and other emissions is minimal and so have extrapolated emissions for 2015–2019 up to 2021 using a 5-year average from historical emissions. The LULUCF data points until 2016 were taken from the national inventory of emissions (INGEI, 2021).</t>
-  </si>
-  <si>
-    <t>Greenhouse gas emission inventories for 1990–2020 are based on the National Inventory Report 2022 submitted to the UNFCCC (Government of Norway, 2022).</t>
-  </si>
-  <si>
-    <t>Nigeria’s NDC update provided revised historical emissions for 2010 and 2018 using AR5 global warming potentials (GWPs) (Federal Government of Nigeria, 2021). We converted 2018 emissions to AR4 using sector-by-sector gas shares from PRIMAP for the same year (Gütschow &amp; Pflüger, 2022). Land use was excluded using the AFOLU sub-sector breakdown provided for 2018 in the NDC update. The NDC update notes that the significant jump observed in emissions between 2017 and 2018 depicted in Nigeria’s sector-by-sector bar chart of historical emissions is due to differences in data sources for the energy sector for those years. We have used PRIMAP sector growth rates to extend the historical time series, both back to 1990 and forwards to 2021, rather than the data provided in the NDC until 2010, as it is likely a more accurate depiction of the year over year change. There is a significant difference between the emissions reported in the NDC and PRIMAP estimates (around 100Mt higher in PRIMAP than the NDC in recent years), largely due to the differences in estimates for energy sector emissions. We have continued to base our estimates around governments sources for consistency with the national dialog, but strongly urge the government to focus on its inventory and trying to understand the differences between its figures and international sources of data.</t>
-  </si>
-  <si>
-    <t>Historical emissions data were obtained from latest government data, the New Zealand’s Greenhouse Gas Inventory 1990-2020 published in April 2022 (Ministry for the Environment 2022g). Emissions for 2021 have been estimated by the CAT. The energy sector emissions in 2021 are estimated using GDP growth rate from IMF as proxy (IMF 2022). For industry, agriculture, waste and other emissions, the pre-COVID 5 year trend (2015-2019) has been applied.</t>
-  </si>
-  <si>
-    <t>The historical dataset between 1990 and 2021 is based on PRIMAP National Historical Greenhouse Gas Emission Database 2022 (Gütschow, Günther and Pflüger, 2022). We took the 1994 and 2000 LULUCF values from the GHG emissions profiles for Non-Annex I countries (UNFCCC, 2015), the 2011 LULUCF value from Nepal’s GHG inventory for the Third National Communication (Tribhuvan University, 2019), and the 2019 LULUCF value from Nepal’s LTS 2021.</t>
-  </si>
-  <si>
-    <t>Historical emissions excl. LULUCF for the period 1990–2021 are taken from PRIMAP (Gütschow et al. , 2022). LULUCF values up to 2000 were taken from Morocco’s First Biennial Update Report (Kingdom of Morocco, 2016b), while values after 2000 were taken from the Fourth National Communication submitted to the UNFCCC in 2021 (Kingdom of Morocco, 2022a).</t>
-  </si>
-  <si>
-    <t>Historical data between 1990 and 2019 is taken from Mexico’s National Inventory of Greenhouse Gases and Compounds (INEGyCEI in Spanish) (INECC, 2021b). Since the 2021 version of the inventory does not provide emissions and removals from forestry between 1990 and 1999, we have used the ones from the previous version of the inventory for that period (INECC, 2018c). For years 2020 and 2021, we estimate emissions based on a sectoral approach. For the energy and industry sectors we assume a correlation between emissions and GDP, and thus apply economic growth forecasts from the IMF (IMF, 2022). For agriculture and waste sectors, we extend the last five years of pre-COVID historic trend. Mexico’s emissions inventory was developed using the IPCC’s 2006 inventory guidelines and its 2019 update and takes Global Warming Potentials (GWPs) from the IPCC’s Fifth Assessment Report (AR5). Since the inventory provides granular information specifying all gases and sectors per year, we were able to convert these to AR4 (Fourth Assessment Report) GWPs by averaging emissions excl. LULUCF for the years 1990- 2019.</t>
-  </si>
-  <si>
-    <t>Historical emissions for the years 1990–2019, excluding LULUCF, are taken from PRIMAP data (Gütschow et al., 2021). LULUCF emissions for the years 1994, 1995, 2000, 2005, and 2010 are taken from the data reported to the UNFCCC GHG inventory database and interpolated between years. To estimate emissions for 2020, we applied a gas-by-gas approach. For direct CO 2 emissions, we applied growth rates from the Global Carbon Budget to the latest historical data point. For non-CO 2 emissions, we used a sectoral split. For energy non-CO 2 emissions, we estimated the emissions intensity (GHG emissions/GDP) from pre-COVID scenarios and apply it to 2020 GDP projections (see below). We assume that the impact of the pandemic on industry, agriculture, waste, and other non-CO 2 emissions will be minimal, and so have extended the historical 5-year trend. To estimate emissions for 2021, we applied the same method, but used the emissions intensity approach for direct CO 2 emissions as well.</t>
-  </si>
-  <si>
-    <t>Historical data are based on the most recent national inventory submissions reported in AR4 GWPs (Republic of Kazakhstan, 2023b). The historical emissions time series published in 2023 differs to an extent from the previous historical emissions time series. The main differences are in the agriculture and LULUCF sectors, with total emissions increasing by a range of 15 to 55 MtCO 2 e between 1994 and 2004 and by 16 and 63 MtCO 2 e between 2003 and 2013, respectively.</t>
-  </si>
-  <si>
-    <t>Historical emissions data were obtained from the UNFCCC GHG inventory and cover the period from 1990 to 2021 submitted in Common Reporting Format (Government of Japan, 2023a). The submission to the UNFCCC is supplemented by the National Inventory Report data file, which provides sector level emissions after allocation of electricity-related emissions to end-use sectors (Government of Japan, 2023b).</t>
-  </si>
-  <si>
-    <t>Historical emissions data (excluding LULUCF) for the period 1990-2021 are taken from PRIMAP (Gütschow &amp; Pflüger, 2023). LULUCF data for the years 1994 and 2000 are taken from the UNFCCC emissions inventory, and the 2010 data is from the Third National Communication (Department of Environment of Iran, 2017).</t>
-  </si>
-  <si>
-    <t>Ethiopia provided revised historical data for 2010 in its NDC update using global warming potential values (GWPs) from the IPCC’s fifth assessment report (AR5) (Federal Democratic Republic of Ethiopia, 2021). The government provides sector-level emissions data, but no information on the gas-by-gas breakdown. It also provided information on emissions data from livestock and managed soils, which we take to be the entirety of agriculture sector emissions. To complete the sector information for the industry and managed soils sectors, we used the sector-by-sector emission ratios for the NDC’s 2020 business as usual estimate. We use the gas-by-gas breakdown in PRIMAP for the year 2010 to estimate sectoral emissions by gas and then converted these from AR5 to AR4 values (Gütschow, J.; Günther, A.; Jeffery, L.; Gieseke, 2021). The NDC update covers the three main gases (CO 2 , CH 4 and N 2 O). We added an estimate for HFCs using PRIMAP data for 2010 and scaling this estimate to our industry sector’s emissions total for 2010. We used PRIMAP growth rates for the energy, industry, agriculture, and waste to extend the historical time series for 1990-2019 based off of the 2010 estimate provided in the NDC update. To estimate emissions for 2020 and 2021, we applied a sectoral approach. For energy and industry, we applied growth rates from Global Carbon Budget for the year 2020 (Global Carbon Project, 2021), and the GDP growth rates from IMF for 2021, assuming a directly proportional development of CO 2 emissions. For agriculture and waste, we assume a continuation of a 5-year trend. We assume that the impact of the pandemic on agriculture, waste and other emissions is minimal and so have extrapolated emissions for 2015–2019 up to 2021 using a 5-year average from historical emissions.</t>
-  </si>
-  <si>
-    <t>Historical emissions from 1990 to 2021 are taken from PRIMAP (Gütschow and Pflüger, 2023).</t>
+    <t>NDC targets were obtained from the Colombia’s updated NDC submitted to the UNFCCC in December 2020 and were calculated excluding LULUCF. In its updated NDC, Colombia provided a sectoral breakdown for its BAU projections, including disaggregating its net AFOLU emissions by IPCC category. We have assumed net LULUCF emissions for Colombia’s BAU projections are equivalent to IPCC category 3B. While there are some net emissions in 3C, historically, these have been negligible. We estimate the extent to which Colombia will use land sector reductions to achieve its NDC based on the estimates provided in Annex M1 of its NDC update and the accompanying mitigation annex and exclude these from our estimate. The listed measures are not enough to achieve Colombia’s emissions limit, based on its BAU projections. In past assessments to account for the uncertainty around the extent to which future mitigation measures will rely on the land sector, we used a range. The lower bound was based solely on the LULUCF measures as listed in the NDC. For the upper end of the range, we applied the relative ratio of LULUCF mitigation measures to other mitigation measures, as contained in the NDC Annex, and apply that to the additional emission reductions needed to achieve the target. In other words, we assumed that Colombia would adopt additional LULUCF measures at the same ratio as those listed in its NDC to account for the needed NDC reductions. In its latest Biennial Report, Colombia has provided further information on the mitigation measures it will undertake to achieve its NDC, while some of these measures may address land sector emissions to a small degree, they are largely focused on other sectors, principally the waste sector. As such, it is unlikely that Colombia will announce additional LULUCF measures at the same ratio and thus we have dropped the top end of our NDC range. Note: In this assessment, we have used a AR5 to AR4 conversion factor based on the a gas-by-gas breakdown for 2018 emissions from the BUR3, so the quantification of the target varies slightly from the numbers used in previous assessments.</t>
+  </si>
+  <si>
+    <t>For China’s updated NDC targets, we quantify the peaking target, the non-fossil target, renewable energy capacity target, and the carbon intensity target separately. For the quantification of all targets, we also incorporate achievement of the demand-side policies in China’s current policies pathway (CPP). The elements of China’s targets that we quantify apply to CO 2 only (excl. LULUCF), given the scope of the targets. To calculate total GHG emissions (excl. LULUCF), we add non-CO 2 emissions based on our current policies projections as described below. Peaking Target: Since the NDC contains the target of peaking CO 2 emissions before 2030, the implications for what an “NDC scenario” constitutes can be interpreted in a variety of ways—for instance, the least ambitious way would be to assume emissions simply peak by 2030 while a more ambitious interpretation would be to assume that this peaking happens earlier at an arbitrary date. According to our current policy projections, China’s emissions are due to peak around 2025 in both scenarios but either roughly plateau (CPP max) or drop (CPP min). The quantification of the peaking target range is equivalent to the emissions level in our CPP in 2030. Non-Fossil Target: China’s NDC non-fossil target has been increased to 25% in 2030 in its updated NDC while China’s 14th FYP includes the now intermediary target of 20% by 2025. In our CPP projections, China is projected to overachieve these targets comfortably. To calculate energy-related CO 2 emissions based on the 2030 target, we: - Recalculate the total primary energy demand (TPED) from WEO (IEA, 2023b) STEPS and CETO (ERI et al. , 2023) BLS - Align TPED to the CPP scenarios. Technology shares for non-fossil sources are decreased to achieve the 25% share target (no more, no less), while coal and gas are assumed to replace the gap from decreased non-fossil sources - Adjust individual non-fossil energy sources equally based on their relative share of non-fossil energy demand in the CPPs Renewable Capacity Target: The NDC includes a target of 1,200 GW of wind and solar installed by 2030. In our CPP range, China is projected to overachieve this target comfortably for both technologies. To quantify emission levels under this target, solar and wind capacity is revised downward to 1,200 GW in total according to their respective ratio expected in 2030. Based on CPP min, we expect approximately 330 GW of wind power and 870 GW of solar PV installed in China; based on CPP max, we expect approximately 485 GW of wind power and 715 GW of solar PV installed in China. Like the quantification of the non-fossil share targets, other elements are assumed to be the same as the CPPs. For example, other supply technologies are expected to supply the same amount of power. Overall primary energy demand in the country is also assumed to be the same as the CPPs. We assume that the difference in energy supplied (less wind and solar) is supplied by coal and gas. Given that fossil fuel capacity is not replaced by wind and solar one-for-one, overall power capacity in China’s energy system decreases with the achievement of this target. Carbon Intensity Targets: For the calculation of the intensity targets for 2020 and 2030, we use historical emissions data from China’s most recent inventory submission to the UNFCCC and historical GDP data from China’s Statistical Yearbook up to 2018 (China, 2018). For historical years after 2018, we deviate from official Chinese data due to annual inconsistencies; we now apply latest official growth rates from the Chinese government (rather than absolute numbers), validated by international organisations such as the World Bank and IMF, to establish data until the latest historical year. GDP projections until 2030 are mainly based off IMF (2023) until 2028 and supplemented with near-term forecasts from a mix of domestic and international sources (thus establishing an optimistic and pessimistic range for growth). We also integrate the underlying GDP forecast from WEO STEPS 2023 as part of the range (IEA, 2023b). We assume that the carbon intensity target applies to all CO 2 emissions excluding LULUCF. The emissions quantification for carbon intensity targets changes annually, due to updated forecasts in China’s GDP trajectory. A note on the global aggregation: China’s rating is based on the two NDC emissions targets which are estimated to have the lowest emission levels: the lower end of the carbon intensity target in 2030 and the upper end of the peaking target (which is the CPP max). We employ this method as we try to capture the likely range of China’s emissions levels when achieving their NDC, but there is uncertainty on absolute emission levels as China has several targets: China’s peaking target is guaranteed to be achieved by definition, but which of China’s remaining NDC targets is achieved (or if they all are) is uncertain. We exclude the most pessimistic interpretations—target with the highest expected emissions—as we would be assuming they emit more than the CPP analysis shows. We also do not take only the most optimistic interpretation—lower bound of China’s carbon intensity target— as this is not constrained target (fluctuating year to year depending on economic forecasts). If we only took one target, we would then be assuming China’s other quantitative targets are completely null. The emission levels of all of China’s targets are dependent on future developments (e.g., growth in energy consumption, GDP). We thus take a median approach to capture the middle range (median) of the two most stringent targets to be conservative: the minimum of the carbon intensity target and the maximum of the next most ambitious target, the peaking target.</t>
+  </si>
+  <si>
+    <t>No assumptions or calculations were made with respect to the unconditional NDC target for 2030 as it already included an absolute target for emissions excl. LULUCF. The NDC also included a peak year (2025) and an emissions budget (excl. LULUCF) for the period between 2020 and 2030 (Government of Chile, 2020a). These numbers were taken directly into our calculations and no additional assumptions were needed. The range for the conditional NDC target has been updated from the previous assessment due to an update in historical emissions. We used the 2016 historical emissions value (incl. LULUCF) from Chile’s latest National Inventory Report (BUR5) to recalculate the new range (Ministerio del Medio Ambiente, 2023). For the new conditional target – a reduction of up to 45% in net emissions by 2030, compared to 2016 levels – we assumed that reductions from “net emissions” refers to economy-wide emissions incl. LULUCF. This translates into an emissions target of 25.1 MtCO 2 e (incl. LULUCF) by 2030. Chile has not provided further details on the extent to which it will rely on LULUCF to meet the conditional target, thus we have developed a range based on the following assumptions: For the lower end of the range, we assumed that the further emissions reductions needed to meet the conditional target, as compared to the unconditional target, will come from reductions in all sectors except LULUCF. Thus, we assume the 45% reduction would apply to emissions excluding LULUCF. This translates into an 88 MtCO 2 e emissions level by 2030 (excl. LULUCF). For the same year, we assume the LULUCF sink would remain at -63.1 MtCO 2 e, its most recent historical value. For the upper end of the range, we assumed that the further emissions reductions needed to meet the conditional target as compared to the unconditional target will come entirely from removals in the LULUCF sector. This means emissions excluding LULUCF by 2030 will remain at 95 MtCO 2 e (as in the unconditional target), while the LULUCF sink increases to -69.9 MtCO 2 e.</t>
+  </si>
+  <si>
+    <t>NDC We calculate a 40-45% reduction from base year emissions (2005) excluding LULUCF and then subtract the projected LULUCF contribution in 2030. That LULUCF contribution ranges from our own estimates based on the trend over the last decade (up to 35 MtCO 2 e source) at one end, to the values in the government’s 2023 emissions projections (up to -45 MtCO 2 e sink in the additional measures scenario) at the other end. These government estimated sink contributions are higher than the government’s previous estimates of -12 to -27 MtCO 2 e in its 8 th National Communication (Government of Canada, 2022a). The reason that we added our own estimates to the LULUCF contribution is that in the 2024 inventory, Canada revised its approach to LULUCF, making it an overall source rather than sink. However, the 2023 projections still take the former approach, meaning there is an inconsistency between the government’s projection and the inventory until the new projections are published. Hence, we added our own simplified estimates and show a range within which the actually expected values might likely fall. Canada is still considering the extent to which it will rely on international carbon market credits (‘internationally transferred mitigation outcomes’ or ITMOs), however, it did indicate that it may use credits obtained under the Western Climate Initiative (a regional carbon market between some Canadian provinces and American states) for compliance with its 2030 target in its 8 th National Communication (Government of Canada, 2022a). In its latest emissions projection report, that estimate for 2030 is 0.6 MtCO 2 e (Environment and Climate Change Canada, 2023b). We have added these potential credits to the NDC values we rate against modelled domestic pathways (i.e. the reductions that Canada should achieve within its borders), but subtract them in the NDC value we rate against the country’s fair share allocation.</t>
+  </si>
+  <si>
+    <t>NDC targets Bhutan’s NDC target is to remain carbon neutral. In other words, Bhutan must keep emissions below the level of its LULUCF sink. In its second NDC, Bhutan states that its LULUCF sink is based on 2015 as its base year; it uses the same estimate in its Third National Communication (NC3) (Royal Government of Bhutan 2021, 2020a). Bhutan reported a net LULUCF sink of 7.8 MtCO 2 e in its NC3 (Royal Government of Bhutan 2020a). We use this estimate for our NDC quantification. It is worth nothing that Bhutan reported a larger net sink capacity of 8.9 MtCO 2 e in its first Biennial Report (Royal Government of Bhutan 2022). If Bhutan were to update the source of its carbon neutral target to this document, it could, in theory, allow for even further emissions growth. We do not use the NDC emissions estimate for our CAT ratings (see Targets tab for the full explanation). Instead, we rate where Bhutan’s emissions will be in 2030 under a business-as-usual trajectory against Bhutan’s fair share contribution level. We rate where Bhutan’s emissions will be in 2030 if its sectoral measures are fully implemented against where its emissions would need to be based on global least cost modelled pathway for 1.5°C. CAT estimate for rating against fair share The methods used to develop a BAU projection for Bhutan are described in the ‘current policy projection’ section below. We use the upper range of the estimate as the basis for the rating. CAT estimate for rating against modelled domestic pathways We use mitigation potentials provided in Bhutan’s second NDC and its sectoral LEDS to estimate where Bhutan’s 2030 emissions would be if it receives the necessary support (Royal Government of Bhutan 2021; Ministry of Information and Communications 2021; Ministry of Works and Human Settlement 2021; Ministry of Economic Affairs 2021a; Ministry of Agriculture and Forests 2021). The estimates are cumulative potential for the decade, so we divide by 10 to derive an annual figure for 2030. We subtract these estimates from our BAU projections and rate the upper end of the range. Several measures included in the LEDS for human settlement and industries quantify the mitigation potential based on emissions avoided through enhanced export of renewable energy to India (thereby displacing more GHG intensive sources of power). We exclude these emissions reductions as they occur outside of Bhutan’s borders. The measures included in our quantifications are: For industries: Reductant substitution by biogenic charcoal Cement blending Refuse Derived Fuel (RDF) use in cement plants Direct hot charging For human settlement: Replacement of LPG and firewood by electricity Increase in composting and recycling Wastewater management Bhutan does not provide a breakdown of the emissions reductions associated with shifting to electric cookstoves from LPG and firewood. We use the estimates provided in the LEDS for the 2019 share of each source and assume that LPG will produce roughly twice as many emissions to derive the LPG share. The mitigation potential is based on a 50/50 grid factor split with India, so we double the estimate to consider only the impact in Bhutan. The mitigation potential provided for transport section actions differs between the NDC and the LEDS. We take the estimate in the LEDS as it is more clearly linked to measures that would be implemented provided sufficient support is made available. GWP conversion Bhutan’s second NDC uses Global Warming Potentials from the IPCC’s Second Assessment Report (SAR). As the NDC refers to a number of LEDS estimates, we assume that the LEDS also use SAR values, though this is not explicitly stated in those reports. No information was given on the gas-by-gas breakdown. We have assumed that the mitigation potential relates to CO 2 emissions only for transport and industry and thus no conversion is needed. For agriculture, we used the same approach adopted for our current policy projections (see below) and a 4:1 split between CH 4 and N 2 O for the rest of the measures proposed. For the human settlement sector, we used the same approach adopted for our current policy projections (see below) for the composting and wastewater management and assume that the electric cookstove relates to CO 2 only. Net zero target Bhutan is carbon neutral and has committed to remaining so. We include Bhutan in our Optimistic scenario as part of our 2100 temperature warming estimates; however, we do not quantify a separate long-term emissions target for Bhutan but rather include them in a conservative global estimate.</t>
+  </si>
+  <si>
+    <t>Conclusions of the present CAT assessment are subject to uncertainty in light of Australia’s frequent revisions of its emissions data. The government has repeatedly revised emissions projections downwards. This has typically not been backed by stronger climate policies but is rather the result of a change in assumptions. The government has set an emissions reductions target of 43% below 2005 levels including LULUCF. To recalculate this target excluding LULUCF, we determine the targeted emissions level in 2030 including LULUCF (i.e. 43% below 2005 levels), then subtract LULUCF sequestration projected by the government for 2030. We then compare this projected emissions level excluding LULUCF in 2030 to 2005 emissions excluding LULUCF. We recalculate the NDC target excluding LULUCF every time the historical and projected emissions are updated. There have been significant recalculations of the LULUCF sector sequestration estimates for 2030, ranging from 1 MtCO 2 e projected in 2018 to 57 MtCO 2 e projected in 2023 (DCCEEW, 2023b). We derive LULUCF projections in this CAT update by harmonising the government’s 2023 LULUCF projections with the 2022 LULUCF data point from the latest Quarterly inventory (DCCEEW, 2023b, 2024i), which results in 2030 LULUCF sequestration of 79 MtCO 2 e in 2030.</t>
+  </si>
+  <si>
+    <t>NDC absolute emissions levels including LULUCF are provided directly in the NDC for the unconditional target (Government of Argentina, 2021). To obtain the NDC emissions level excluding LULUCF, the CAT uses a Business-As-Usual scenario for the LULUCF sector developed by UNICEN (Keesler &amp; Blanco, 2024). This scenario shows that under current policies, LULUCF emissions in Argentina will steadily decrease, reaching 15.2 MtCO 2 e by 2030. We also recalculate the target, that is originally communicated as an absolute number calculated using SAR GWP, to AR4 GWP. To do so, we calculate the difference in emissions between the last inventory year (2020) and the target year (2030) in SAR and apply the growth rate to the last historical value (from 2022) in AR4.</t>
+  </si>
+  <si>
+    <t>Target emissions levels were calculated from New Zealand’s Greenhouse Gas Inventory 1990-2020 (Ministry for the Environment 2022g). The target for 2020 (5% below 1990) is based in the gross emissions in 1990 (i.e., LULUCF emissions are not included in the base year). The comparison calculations using the CP1 surplus and Kyoto Protocol forestry activities data is from the latest net position report (Ministry for the Environment 2021a). The target for 2030 (Paris Agreement Nationally Determined Contribution or NDC) is a 50% emissions reduction below 2005 levels The same target is reiterated in New Zealand’s updated NDC (New Zealand Government 2021a). New Zealand uses a gross-net approach (Ministry for the Environment 2021d). A gross-net approach is when a Party does not include the LULUCF sector in its base year (gross) but accounts for net emissions and removals from LULUCF for the target year (net). Such an approach is a logical and categorical error. In the year 2005, New Zealand had a LULUCF carbon sink of 25 MtCO 2 e. However, New Zealand has chosen to exclude the carbon sink to ensure a higher baseline to apply the 30% reduction from 2005 levels. New Zealand then includes the LULUCF carbon sink in the target year 2030, which allows for higher emissions elsewhere in the economy. Such an approach undermines the purpose of the Paris Agreement as it allows for net emissions to continue to increase. For the 2030 pledge, the CAT has estimated levels of emissions excl. LULUCF resulting from the NDC by subtracting Kyoto Protocol forestry activity emissions in 2030 from the targeted level (2030 data from: (Ministry for the Environment 2021c)). The 2050 Long-Term Target has been quantified using the latest government historical data (Ministry for the Environment 2021b). The CAT estimates the target by subtracting LULUCF and including methane emissions. The projected LULUCF emissions for 2050 are based on the latest government projections (Ministry for the Environment 2021c). The government LULUCF projections provide a range based on “lower removals” and “upper removals”. These projections appear to be very optimistic when compared to government policy in the sector. CH4 emissions for 2017 were also available in the government data (Ministry for the Environment 2021b). We include emissions from methane and exclude LULUCF.</t>
+  </si>
+  <si>
+    <t>Nepal's unconditional NDC target is an activity-based target for the energy sector i.e. add 5 GW of clean energy generation by 2030. We assume that the clean energy generation from the unconditional target would cover more than just electricity generation e.g. emissions reductions from switching to EVs or electric stoves. Given that the unconditional target does not provide an absolute emissions reduction target and the assumption that the unconditional target covers the whole energy sector, the CAT cannot quantify this target. Instead, the CAT uses current policy projections. The NDC provided limited details on some of the sectoral targets, so it was not possible to estimate the impact of all of them. In particular, the first ‘energy generation’ target (expand clean energy generation from 1.4 GW to 15 GW) and the second target for the transport sector (develop 200 km of the electric rail network) were not quantified. This means the total reduction under the conditional NDC could potentially be higher than our estimates. The second NDC also includes separate targets for the forestry sector but these are not included in our calculations as the CAT assesses NDCs without emissions from the forestry sector. Some of the conditional targets from the second NDC are: Energy generation: (1) by 2030, expand clean energy generation from approximately 1.4 GW to 15 GW, of which 5-10% will be generated from mini and micro-hydro power, solar, wind and bio-energy (not included in the CAT calculations), (2) by 2030, ensure 15% of the total energy demand is supplied from clean energy sources. Transport: by 2030, increasing sales of e-vehicles to cover 90% of all private passenger vehicle sales including two-wheelers and 60% of all four-wheeler public passenger vehicle sales. This target will reduce emissions by 1.1 MtCO 2 e from a projected BAU, which is around a 28% decrease in emissions. Residential: (1) by 2025, Nepal aims to install 500,000 improved cookstoves specifically in rural areas, (2) by 2025, install additional 200,000 household-biogas plants and 500 large scale biogas plants, (3) by 2030, ensure 25% of households use electric stoves as their primary mode of cooking. These three combined targets will reduce emissions by 0.5 MtCO 2 e from a projected BAU, which is around a 23% decrease in emissions. Waste: by 2025, 380 million liters/day of wastewater will be treated before being discharged, and 60,000 cubic meters/year of fecal sludge will be managed. These targets will reduce emissions by 0.28 MtCO 2 e from a projected BAU. Given that not enough data was provided in the NDC to allow us to calculate an economy-wide BAU, we assumed the ‘BAU scenario’ as referred to in the NDC submission, to be the same as the ‘pre COVID-19 current policy projection’ which were estimated through harmonising 2019’s historical emissions (exclude LULUCF) with growth emissions' estimates from Nepal’s 2nd National Communication. The pre-COVID19 current policy projection maximum value upper range is using ‘NC2 Medium Growth (MG) scenario’ harmonised to 2019 emissions and is then used for the upper end of the BAU range for the conditional NDC. Meanwhile, the pre-COVID19 current policy projection minimum value uses ‘NC2 BAU scenario’ harmonised to 2019 emissions and is then used for the lower end of the BAU range for the conditional NDC. We estimated a range for the conditional NDC as follows: Conditional NDC upper end of the range: Taking into account only the emission reduction estimated for actions in the transport, residential and waste sectors. The assumption is that the reductions reported in the NDC for electrification in the transport and residential sectors already reflect the change in the energy mix (target of 15% energy demand from clean sources) and therefore the associated emissions reduction. Thus, the NDC could reduce emissions by 1.9 MtCO 2 e in 2030, compared to BAU. Conditional NDC lower end of the range: Taking into account only the emission reduction from the second target for the ‘energy generation’ sector (15% of the total energy demand to be supplied with clean energy) and the reductions from the waste sector. The assumption is that the emissions reduction reported for transport and residential sector in the NDC represent only a part of the impact of this target and are included in the overall reduction calculated for the 15% target. We also assume that all clean energy would have an emission factor of zero MtCO 2 e. Under these assumptions, we estimate that the NDC could reduce emissions by 3.8 MtCO 2 e in 2030. We assume Nepal is applying GWP values from the Second Assessment Report (SAR), in line with its previous National Communications and NDC submission. We have converted these values into those from the Fourth Assessment Report – as those are the values used across all CAT assessments.</t>
+  </si>
+  <si>
+    <t>LULUCF Morocco’s NDC targets apply to all sectors. In the CAT, we exclude LULUCF from the NDC target calculations. As Morocco’s new pledge only provides economy-wide business-as-usual (BAU) values, we have taken BAU LULUCF values for 2030 from the Fourth National Communication submitted to the UNFCCC in 2021 (Kingdom of Morocco, 2022a), and deducted these from the economy-wide 2030 BAU scenario presented in the NDC. We have also excluded LULUCF-related mitigation measures from the long list of mitigation measures used to determine the mitigation target. In this update, the CAT also excluded the LULUCF-related mitigation measures planned in the agricultural sector.</t>
+  </si>
+  <si>
+    <t>The 2022 NDC update specifies that 5% of the 35% unconditional target is to be achieved with already agreed international support for clean energies. We have thus estimated the unconditional target – to be achieved with own resources – as a 30% reduction from BAU in 2030. Due to the lack of a detailed sectoral contribution towards the achievement of the 2022 NDC update – particularly the forestry sector, we have estimated a range of the contributions of this sector based on the emissions and sinks in the BAU baseline and the historical BAU base year (2013): The lower end of the range is taken directly from the 2022 NDC BAU. This is quite optimistic as it assumes no reduction of the baseline emissions sources under the baseline. The upper end is taken form the last inventory (Gobierno de México, 2022; INECC, 2021c). This assumption on the other hand implies no change in both sources and emissions from the land use, land use change and forestry sector from the historical base year used in the BAU. Historically. The LULUCF sector in Mexico has been a stable sink of around 200MtCO 2 during the last 20 years. Our calculations of the emissions level for the NDC targets, excluding LULUCF emissions, is: Unconditional target: 786-863 MtCO 2 e in 2030 Conditional target: 689-766 MtCO 2 e in 2030 As land use, land use change and forestry emissions are mostly CO 2 , we have not converted these numbers to AR4 GWPs. We did not harmonise the NDC baseline scenario to the historical emissions pathway as in previous NDC submissions, the NDC target depended directly on the reference scenario included in the NDC (they provided absolute numbers linked to the targeted reduction). We have re-calculated the absolute emissions level of the 2020 NDC using the same assumptions on the contribution of the forestry sector, and thus the numbers in the table vary from previous updates. This leads to even higher emissions than originally estimated for both unconditional and conditional targets. The rating of the unconditional 2020 NDC worsens by one category from “Insufficient” to “Highly insufficient”. Although not specified in the submission, historically, Mexico has reported emissions using Global Warming Potentials (GWPs) from the IPCC 5th Assessment Report (AR5) which we converted to GWPs of the IPCC’s Fourth Assessment Report (AR4). The 2022 NDC update also includes an adaptation component as well as a target to reduce black carbon (BC) between 51%-70% below BAU. Given that reductions in BC are generally not additional to those in CO 2 emissions, we do not quantify the additionality of the BC target (see box below on BC for more details). Black Carbon and Mexico’s NDC Mexico’s NDC includes a target to reduce black carbon (BC) emissions, which has substantial co-benefits for human health. However, reductions in black carbon are generally not additional to reductions in CO 2 emissions, because large fractions of black-carbon emissions stem from the same emission sources as CO 2 . Emission reduction policies therefore often reduce CO 2 and black carbon simultaneously, and this is already included in calculations of the emissions reductions in greenhouse gases required to hold warming well below 2°C globally, such as the “emissions gap” and “fair share” reductions (see next section on Fair Share ). From the climate perspective, however, there is no established scientific method to compare the climate benefits of black-carbon reductions to those of CO 2 and other greenhouse gases. In the AR5, the IPCC does not provide calculations of GWP for BC comparable to those provided for greenhouse gases, merely noting the inherent difficulties in doing so and limiting itself to just displaying estimates from the pre-AR5 literature. While Mexico’s NDC specify a metric to compare BC with CO 2 (GWP of 900), this is based on a single literature source (pre-dating IPCC AR5), which itself notes very large uncertainties of around 100%. Long-term target The long-term target from Mexico’s Mid-century Strategy (MCS) is not considered as a “net zero target” and thus, is not included in our assessment. In previous analyses we had taken this target directly form the documents, which provides absolute numbers for expected emissions in 2050. As the MCS does not provide further details on the LULUCF share to the target, we assumed 2050 LULUCF emissions will range between the emissions levels in 2030 for "baseline" and "unconditional target" scenarios from the 2016 NDC. We had converted the reported numbers from AR5 to AR4 GWPs using an average conversion based on the inventory’s granular information on all gases and sectors per year.</t>
+  </si>
+  <si>
+    <t>Unconditional target: The NDC states that Kenya will bear 21% of the estimated required mitigation costs itself. In the absence of information on sectoral mitigation costs, we assume that this 21% financial contribution is equivalent to a 21% share of the targeted emission reductions. On that basis, we calculate the unconditional contribution to be equivalent to an unconditional target of 7% below BAU, including LULUCF – or 4% below BAU, excluding LULUCF emissions. This corresponds to emissions levels of 126 MtCO 2 e by 2030 (excluding LULUCF) (expressed in AR4 values) (see further assumptions on GWP below). In its first NDC, Kenya included a separate target of 47% below BAU by 2030 for the LULUCF sector. While explicit reference to this target has been dropped in the update, we assume that Kenya will meet about half of its NDC with reductions in land sector emissions. Conditional target: If the target is met, emissions in 2030 will be 108 MtCO 2 e (excl. LULUCF). The conditional contribution is equivalent to a 17% reduction below BAU by 2030 (excl. LULUCF).</t>
+  </si>
+  <si>
+    <t>The UK’s 2030 NDC target of at least a 68% reduction below 1990 levels is expressed using 100 year global warming potentials (GWP 100 ) from the IPCC’s Fifth Assessment Report (AR5) (Government of the UK, 2022). In addition, the UK Government has specified that the target reference year includes F-gas emissions from 1995. Thus, to quantify the expected 2030 emissions, we apply the 68% reduction to a reference emissions level consisting of the UK’s emissions in 1990 but including F-gas from 1995 instead of 1990, all expressed in AR5 GWPs. As the CAT presents all data across countries in GWP from the IPCC Fourth Assessment Report (AR4), the 2030 emissions implied by the NDC target in AR5 GWPs are then converted back into AR4 GWP. This is done by calculating a historical conversion factor from AR5 GWPs to AR4 GWPs, using historical data from 2021. This conversion factor can then be used to calculate the NDC in 2030 in AR4 GWPs. The UK’s 2030 (NDC) and 2035 (Sixth Carbon Budget) emissions targets includes LULUCF emissions. This needs to be subtracted for comparability with other countries. We use projections from the CCC’s Sixth Carbon Budget to estimate LULUCF emissions in 2030 and 2035 (CCC, 2020). While the government’s approach to achieving the NDC and Sixth Carbon Budget differs somewhat from the CCC, there is strong alignment on afforestation pledges, and so LULUCF emissions will likely be closely aligned with the CCC’s projections, if these targets are to be met. The UK’s 2035 emissions target additionally includes emissions from international aviation and shipping. These emissions were added to the 1990 baseline when calculating what a 78% reduction would entail. Projected 2035 emissions from international aviation and shipping were then removed from the implied 2035 target, as these emissions are captured under our IMO and ICAO assessments and would be double counted if they remained as part of the UK’s total emissions. Data is taken from the UK’s Carbon Budget Delivery Plan (DESNZ, 2023a). The UK’s 2050 net-zero target also includes both LULUCF and international aviation and shipping, which need to be removed. In the absence of long-term projections from the UK Government, we use the Sixth Carbon Budget to calculate LULUCF and international shipping emissions in 2050, while the high ambition scenario from the recent Jet Zero strategy is used to estimate aviation emissions in 2050 (CCC, 2020; Department for Transport, 2022).</t>
+  </si>
+  <si>
+    <t>2030 NDC target For the 2030 NDC target, we apply the indicated target of 50%–52% reduction to the 2005 base year including LULUCF, and then subtract the projected emissions for the LULUCF sector. The LULUCF emission projections in 2030 were taken from the 5th Biennial Report which reported sinks of 0.6–0.8 GtCO 2 e/year in 2030 (U.S. Department of State, 2022). 2050 net zero target For the net zero target, we assume total GHG emissions in 2050 are balanced by projected sinks in 2050. The LULUCF sinks in 2050 were taken from the US long-term strategy (LTS) submitted to the UNFCCC in November 2021 (U.S. Department of State, 2021). Since the document does not provide exact figures, we have extracted the approximated figures from the graphs in the report. The reading of the graphs results in an approximation of minus 0.6-1.4 GtCO 2 e/year for LULUCF sinks in 2050, we add this sink to the residual estimate in 2050 to get 0.6-1.5 GtCO 2 e/year in 2050. We include also estimates for 2040 in our pathway using a similar approach.</t>
+  </si>
+  <si>
+    <t>NDC target values are calculated based on the conditional and unconditional mitigation actions and their estimated impact in The Gambia’s NDC submitted in 2021 (Republic of The Gambia, 2021a). The Gambia’s NDC includes information on the extent to which the land sector is included in its 2030 BAU as well as the extent to which it intends to rely on that sector to meet its conditional and unconditional targets. We have excluded these emissions from our calculations.</t>
+  </si>
+  <si>
+    <t>Thailand’s 2020 NAMA targets, 7–20% under business-as-usual (BAU) (applying to the energy and transport sector) are quantified (Ministry of Natural Resources and Environment, 2014). As there is no BAU published for 2020, we calculate the value in 2020 based on reports from BUR3 that the country had achieved a 15.76% GHG emission reduction from BAU as of 2018 (Ministry of Natural Resources and Environment, 2020b). Based on our calculations, the BAU for 2020 was set at 469 MtCO 2 e/year excl. LULUCF, implying 2020 emission level targets of between 375 to 436 MtCO 2 e/year. According to our analysis, Thailand overachieved the range of its targets with emission levels at 342 MtCO 2 e/year in 2020, largely due to the economic down-turn caused by COVID-19. Prior to COVID-19, Thailand was on track to be safely within the range. The Second NDC targets for 2030 consists of a 30% unconditional and 40% conditional target in emissions reduction under BAU (Government of the Kingdom of Thailand, 2022). The targets exclude emissions from LULUCF. As noted in Thailand’s NDC submission, the BAU for 2030 was set at 555 MtCO 2 e/year excluding LULUCF, implying unconditional and conditional targets of 389 and 333 MtCO 2 e/year respectively. Thailand’s LT-LEDS (revised) we build the emissions pathway from 2030 to 2065 based on modelling results from ONEP and confirmed in the official document. Data points include CO 2 and GHG emissions over five-year timesteps. The level of LULUCF sinks are also extracted from documents along the same time series, stabilising at -120 MtCO 2 /yr after 2037 (ONEP, 2022). As the CAT excludes LULUCF (see explanation ), we calculate GHG emission levels at five year timesteps from 2030 to 2065 by subtracting LULUCF sinks from net GHGs. We linearly interpolate emission levels between the timesteps as data is not available on an annual resolution.</t>
+  </si>
+  <si>
+    <t>We calculated the 2030 targets using the most recent national inventory (Bundesamt für Umwelt BAFU, 2024b). Switzerland has not officially communicated the domestic share of its NDC target and has removed any specific information from the current version of the CO 2 Reduction Act. In a previous draft from 2021 it stated that 33% (66% of 50%) of emissions will be reduced domestically (by 2030 below 1990 levels). From other official communication documents, it becomes evident that there is a consensus by the Federal Council that at least 30% will be reduced within the borders. After proposals for a 75% and a 70% (of the 50%) reduction were rejected in parliament in 2024, the Environment Minister Albert Rösti announced that he would propose a 66% share to the Federal Council (Das Schweizer Parlament, 2024). Due to a lack of clearer information, we have therefore decided to take a range between 30% and 33% by 2030 below 1990 levels as Switzerland’s domestic share. Switzerland’s NDC includes LULUCF. The NDC states the desire to use a reference level for forest land, while emissions for other land uses will be included both in the target and baseline years. To assess LULUCF emissions in 2030, we take an average between the two projections WEM (with existing measures) and WAM (with additional measures) as to reach the 2030 target the emissions reduction pathway would need to be in between the two scenarios. Since there is some uncertainty on both the accounted LULUCF emissions and the target itself, we show the target as a range, with the lower end of the range representing emission levels of 33% reductions without the accounted LULUCF emissions.</t>
+  </si>
+  <si>
+    <t>The updated 2021 NDC sets a new target of 40% below 2018 levels (total emissions excl. LULUCF in 2018 compared to net emissions in 2030 – incl. reductions from LULUCF and international credits). The government report on the NDC update, published in October 2021, provides a breakdown of emissions per sector, in addition to details on targeted reductions and removals from LULUCF, CCUS, and overseas (Republic of Korea, 2021b). We convert the domestic and overall targets from SAR to AR4 following the method outlined below. We recalculate the 2020 NDC with this information on the contribution of LULUCF sinks and international credits. This results in a 1 MtCO 2 e increase to 541 MtCO 2 e from our previous calculations that used assumptions on the use of LULUCF and international credits from South Korea’s first NDC (see assumptions in September 2021 assessment). South Korea uses GWP values from the IPCC’s Second Assessment Report (SAR). We convert to AR4 GWP values to ease comparison of countries’ targets and emission trajectories. We use detailed emissions data per gas from the national inventory (SAR), and the SAR/AR4 GWPs to derive a full emissions dataset in AR4. We use the ratio of total emissions in SAR and AR4 in 2017 to convert the BAU to AR4 (the annual difference between SAR and AR4 is around 4.5 MtCO 2 e, with low variance). We apply the reduction stated in the NDC to the total emissions in AR4 GWPs.</t>
+  </si>
+  <si>
+    <t>Singapore’s updated NDC provides an absolute emissions level (60 MtCO 2 e) for 2030 in AR5 GWP (Singapore Government, 2022), which translates to 60.3 MtCO 2 e in AR4 GWP. The conversion between AR5 and AR4 is insignificant because Singapore’s emissions are predominantly CO2 (94% in 2020).</t>
+  </si>
+  <si>
+    <t>2021 NDC As Saudi Arabia has not communicated the business as usual (BAU) scenario for its NDC target, we quantified the target based on a business-as-usual scenario developed by the King Abdullah Petroleum Studies and Research Center (KAPSARC). The lower end of the NDC range reflects the KAPSARC BAU scenario, excluding land use, land use change and forestry (LULUCF). For the upper end of the range, we have assumed that LULUCF measures would contribute 200 MtCO 2 e of the total 278 MtCO 2 e emissions reductions in the NDC. This number is based on the announcements made at the Saudi Green Initiative Forum in 2021 (Kingdom of Saudi Arabia, 2021d). In 2012, the latest year for which national data is available, the land use and forestry sink stood at just 9 MtCO 2 e, with forests covering a mere 0.5% of Saudi Arabia’s total land area in 2020. The Global Warming Potential (GWP) values used for the NDC have not been communicated. We have assumed these to be expressed in either AR4 or SAR and have included both calculations in our range.</t>
+  </si>
+  <si>
+    <t>The NDC target is calculated using LULUCF projections from the Fourth Biennial Report to the UNFCCC and historic emissions from the latest inventory data (Russian Federation, 2019a, 2022b). For the 2030 NDC target, we assume that LULUCF emissions are included in the NDC target. The 2060 net zero target is calculated by assuming that Russia’s LULUCF sink for 2050 (-1200 MtCO 2 e) would remain constant until 2060 (Russian Federation, 2022c). We make this assumption because Russia’s LTS does not have a projection to 2060 which would outline what the level of reductions required to reach net zero emissions.</t>
+  </si>
+  <si>
+    <t>The updated NDC target is based on a cumulative BAU of 3,340.3 MtCO 2 e for the period of 2020-2030; however, the update does not include any details on how this BAU was calculated. An annual sector by sector breakdown was subsequently published by the Climate Change Commission (CCC, 2022). We use this information as the basis of our calculations. GWP values The NDC update and CCC document do not mention the Global Warming Potential values used. The CCC has used GWP from the IPCC’s Fourth Assessment Report (AR4) in past stakeholder consultations and so we assume that that is the basis upon which these NDC calculations have been prepared (Climate Change Commission, 2020). LULUCF The NDC update and CCC document to not explicitly discuss the role of the land sector in the NDC target. The 3,340.3 MtCO 2 e cumulative BAU does include LULUCF, the details for which are provided in the CCC’s document. The NDC update describes the target sectoral coverage as ‘agriculture, wastes, industry, transport, and energy’. We take this statement to mean that efforts in the land sector do not fall within the scope of the Philippines’ target. According to the CCC’s figures, the land use represents a small net sink in 2020 (-24 MtCO 2 e), which will shrink over the course of the decade to become a small source of emissions in 2030 (3.8 MtCO 2 e). Target quantification We apply the target reductions to the 2030 BAU value provided in the CCC’s document to calculate 2030 emissions including LULUCF. As the CAT excludes LULUCF from its analysis and the Philippines will not rely on LULUCF measures to achieve its NDC target, we subtract the LULUCF BAU emissions (3.8 MtCO 2 e) to derive the target value excluding LULUCF.</t>
+  </si>
+  <si>
+    <t>The pledge for 2030 is based on the latest NDC submission document from December 2020 (Gobierno del Peru, 2020). Peru’s submission covers emissions from all sectors and six gases (CO 2 , CH 4 , N 2 O, HFCs, PFCs and SF6). The previous NDC covered only CO 2 , CH 4 and N 2 O, for all sectors. An absolute emissions level, including LULUCF, is provided directly in the NDC for the unconditional and conditional targets. To distinguish emissions reductions that are attributable to the LULUCF sector, the CAT assumes that the share of LULUCF mitigation efforts will be the same as it was in the first NDC submission, for both unconditional and conditional targets. The assessment of Peru’s first NDC considers the mitigation split presented in the roadmap for NDC implementation (Government of Peru, 2018). According to the technical background document of the first NDC, for the unconditional target, 76% of the 20% emission reductions below BAU will be obtained from measures in the LULUCF sector. For the conditional target, 69% of the 30% emission reductions below BAU will be obtained in the LULUCF sector.</t>
+  </si>
+  <si>
+    <t>The NDC and long-term target were calculated from the most recent national inventory submissions.</t>
+  </si>
+  <si>
+    <t>NDC targets Nigeria’s NDC update uses global warming potentials (GWP) values from the IPCC’s fifth assessment report (AR5). CAT uses GWP values from the fourth assessment report (AR4) to ensure comparability across countries. The NDC provides a sector-by-sector breakdown of emissions in 2018 and 2030. We have converted from AR5 to AR4 using the gas-by-gas breakdown for each sector from PRIMAP for the year 2018. We have not converted HFCs as we do not have information on individual gases; however, these gases represent only 1 MtCO 2 e in 2018. The final NDC update provides LULUCF emissions for 2018 and AFOLU emissions for the 2030 BAU. To estimate LULUCF emissions in the 2030 BAU, we applied the same ratio of LULUCF/AFOLU as in 2018. The update provides no information on the extent to which Nigeria intends to rely on reducing land sector emissions to meet its NDC targets. However, the update does estimate the potential of nature-based solutions as about 115 MtCO 2 e. Of these solutions, the top three are identified as agroforestry, improved forest management, and forest restoration, making up about 89 MtCO 2 e of the total potential. We use the 89 MtCO 2 e estimate as the upper bound of our estimate for the contribution of the land sector in meeting Nigeria’s conditional target and a proportional share of the 89 MtCO 2 e estimate for the unconditional target. We assume this estimate is all CO 2 and thus there is no need to convert from AR5 values. For the lower bound, we assume the land sector contributes an equal share as remaining sectors for both targets. The Third National Communication identified significant abatement potential in the land sector, though its estimation of land sector emissions may have been higher than what is now reported in the final NDC update. Overall, there is significant uncertainty in the land sector emissions and our estimates are best guesses based on the available data. Net zero target Nigeria has not provided detailed information about how it intends to reach its net zero target. We have quantified the target for the purposes of our ‘Optimistic’ global temperature estimate. We assume emissions (excluding LULUCF) are reduced 50% below 2018 levels by 2050 in line with Nigeria’s long-term vision and assume the country reaches 0 emissions in 2070 (DCC, 2021). The long-term vision does not specify the role that LULUCF will play in meeting this target, so we assume the 50% target applies equally to LULUCF and non-LULUCF emissions.</t>
+  </si>
+  <si>
+    <t>The NDC was quantified based on the latest national inventory submission and information provided in the Fifth Biennial Report (Republic of Kazakhstan, 2023a). Kazakhstan’s unconditional NDC is an emissions reduction target of 15% by 2030 and its conditional NDC is an emissions reduction target of 25% by 2030 (both compared to 1990 emission levels). Since the targets include LULUCF, they were converted to values excluding LULUCF using projections for LULUCF emissions “with current measures” from BR5. As the historical emissions used in the CAT’s previous assessment slightly differ from this year’s historical emissions (see historical emissions section), there is a difference in the calculated targeted emission levels from the NDC between the two analyses. Based on calculations from the CAT’s previous assessment, the unconditional NDC equalled an emissions level of 331 MtCO 2 e in 2030 (excluding LULUCF). Based on the updated historical emissions data, the unconditional NDC (a reduction of 15% compared to 1990 emission levels) equals an emissions level of 318 MtCO 2 e in 2030. The conditional NDC (a 25% reduction compared to 1990 levels) equals an emissions level of 280 MtCO 2 e in 2030 (excluding LULUCF).</t>
+  </si>
+  <si>
+    <t>The target emission level in 2030 provided in the updated NDC submitted in October 2021 is directly used in this assessment.</t>
+  </si>
+  <si>
+    <t>To quantify the 2030 NDC target we use the BAU and the sectoral distribution from Indonesia’s NDC document – taken at face value and without harmonisation to historical data (Republic of Indonesia, 2016). We consider that NDC targets are presented in SAR GWP. Therefore, we convert the values to AR4 GWP assuming that the 10-year historical ratio between emissions in SAR and AR4 remains stable up to 2030. The CAT takes the absolute emissions level excluding LULUCF by 2030 given in the official documents for the unconditional targets. The NDC does not provide an absolute emissions level for the 2020 target. To quantify the 2020 pledge, the CAT assumes the sectoral contribution to emissions reduction from Indonesia’s BUR2, which implicitly assumes that the 2020 pledge and the NDC targets are based on the same BAU. The BUR2 shows that the LULUCF sector is responsible for around 80% of the emissions reduction in 2020.</t>
+  </si>
+  <si>
+    <t>2030 target Emissions intensity target Historical GDP data for 1990-2018 is from Reserve Bank of India’s GDP data and 2019-2022 is from IMF (IMF, 2023; India, 2020). We estimate 2030 GDP using IMF GDP growth estimates for 2023-2028 and trend estimates for the rest of the decade (IMF, 2023). We calculate the emissions intensity in 2005 using our historical emissions estimate and RBI GDP data and then apply a 45% reduction. We multiply this emissions intensity level with our 2030 GDP estimate to derive our emissions estimate. As India has a separate target to enhance its carbon sink, we assume that LULUCF has been excluded from its emissions intensity target. It has not provided a historical estimate for LULUCF for 2005 in its GHG inventory. 50% non-fossil installed capacity target The 50% capacity target is based on the current policy pathway (details below) and is calculated by replacing non-fossil power with fossil power. This is necessary because, as discussed above, the NEP2023 includes more than 50% non-fossil capacity. We use the generation factor of the underlying scenario (WEO2023 or NEP2023) to calculate the extent of non-fossil generation and then subtract that from total generation to derive the new level of fossil generation. We use the emissions factor of the underlying scenario to determine the level of emissions and then harmonise the anticipated higher emissions to our current policy scenario.</t>
+  </si>
+  <si>
+    <t>2030 NDC target Ethiopia provides an estimate of each sector’s mitigation contribution to meeting its unconditional and conditional targets in its final NDC update submitted in July 2021 (Federal Democratic Republic of Ethiopia, 2021). These estimates are given using AR5 GWP values. We exclude the contribution of LULUCF, which we assume to be CO2 only, and then convert all other sector from AR5 to AR4 using the gas-by-gas breakdown for 2010 historic data from PRIMAP (Gütschow, J.; Günther, A.; Jeffery, L.; Gieseke, 2021). The estimate provided in the final NDC update is for the main three gases only (CO 2 , CH 4 and N 2 O). Our historical and current policy projections also include HFCs, however their contribution is very small and we have not taken it into account here.</t>
   </si>
   <si>
     <t>Since our last update in February 2024, the CAT has not changed its methodology for quantifying the EU’s 2030 absolute emissions target. Our current approach aligns with the EEA’s quantification of the target (European Environment Agency, 2023c). Note that the EEA’s NDC quantification includes international aviation. We take the EU’s 1990 emissions including LULUCF in AR5 GWP, excluding indirect CO 2 emissions and emissions from international aviation, and apply a 55% reduction to this value (European Environment Agency, 2024). Then we add the difference between the sink (217 MtCO 2 e) in 1990 and the sink of 225 MtCO 2 e that the EU is allowed to use towards achieving its NDC target as outlined in the European Climate Law. As the CAT excludes LULUCF from absolute target values, we then remove sink of 225 MtCO 2 e and convert the value from AR5 to AR4 using a conversion factor based on emissions in 1990. While the LULUCF Regulation, passed in April 2023, adopts an EU-wide LULUCF sink of 310 MtCO 2 e, the EU has made clear that this additional sink capacity will help it exceed its 55% target and not count towards achieving it (European Parliament, 2022; European Parliament &amp; Council of the European Union, 2023b). As such, we do not exclude this additional LULUCF capacity from our quantification of the target. CO 2 emissions from intra-EU flights, (as well as those departing flights to Switzerland and the United Kingdom) fall within the scope of the NDC as they are covered under the EU ETS. However, we do not consider these emissions to be part of the target quantification itself (as described above), but relevant to assessing compliance with it. As such, intra-EU CO 2 aviation are not included in our NDC target calculations.</t>
   </si>
   <si>
-    <t>NDC targets were obtained from the Colombia’s updated NDC submitted to the UNFCCC in December 2020 and were calculated excluding LULUCF. In its updated NDC, Colombia provided a sectoral breakdown for its BAU projections, including disaggregating its net AFOLU emissions by IPCC category. We have assumed net LULUCF emissions for Colombia’s BAU projections are equivalent to IPCC category 3B. While there are some net emissions in 3C, historically, these have been negligible. We estimate the extent to which Colombia will use land sector reductions to achieve its NDC based on the estimates provided in Annex M1 of its NDC update and the accompanying mitigation annex and exclude these from our estimate. The listed measures are not enough to achieve Colombia’s emissions limit, based on its BAU projections. In past assessments to account for the uncertainty around the extent to which future mitigation measures will rely on the land sector, we used a range. The lower bound was based solely on the LULUCF measures as listed in the NDC. For the upper end of the range, we applied the relative ratio of LULUCF mitigation measures to other mitigation measures, as contained in the NDC Annex, and apply that to the additional emission reductions needed to achieve the target. In other words, we assumed that Colombia would adopt additional LULUCF measures at the same ratio as those listed in its NDC to account for the needed NDC reductions. In its latest Biennial Report, Colombia has provided further information on the mitigation measures it will undertake to achieve its NDC, while some of these measures may address land sector emissions to a small degree, they are largely focused on other sectors, principally the waste sector. As such, it is unlikely that Colombia will announce additional LULUCF measures at the same ratio and thus we have dropped the top end of our NDC range. Note: In this assessment, we have used a AR5 to AR4 conversion factor based on the a gas-by-gas breakdown for 2018 emissions from the BUR3, so the quantification of the target varies slightly from the numbers used in previous assessments.</t>
-  </si>
-  <si>
-    <t>For China’s updated NDC targets, we quantify the peaking target, the non-fossil target, renewable energy capacity target, and the carbon intensity target separately. For the quantification of all targets, we also incorporate achievement of the demand-side policies in China’s current policies pathway (CPP). The elements of China’s targets that we quantify apply to CO 2 only (excl. LULUCF), given the scope of the targets. To calculate total GHG emissions (excl. LULUCF), we add non-CO 2 emissions based on our current policies projections as described below. Peaking Target: Since the NDC contains the target of peaking CO 2 emissions before 2030, the implications for what an “NDC scenario” constitutes can be interpreted in a variety of ways—for instance, the least ambitious way would be to assume emissions simply peak by 2030 while a more ambitious interpretation would be to assume that this peaking happens earlier at an arbitrary date. According to our current policy projections, China’s emissions are due to peak around 2025 in both scenarios but either roughly plateau (CPP max) or drop (CPP min). The quantification of the peaking target range is equivalent to the emissions level in our CPP in 2030. Non-Fossil Target: China’s NDC non-fossil target has been increased to 25% in 2030 in its updated NDC while China’s 14th FYP includes the now intermediary target of 20% by 2025. In our CPP projections, China is projected to overachieve these targets comfortably. To calculate energy-related CO 2 emissions based on the 2030 target, we: - Recalculate the total primary energy demand (TPED) from WEO (IEA, 2023b) STEPS and CETO (ERI et al. , 2023) BLS - Align TPED to the CPP scenarios. Technology shares for non-fossil sources are decreased to achieve the 25% share target (no more, no less), while coal and gas are assumed to replace the gap from decreased non-fossil sources - Adjust individual non-fossil energy sources equally based on their relative share of non-fossil energy demand in the CPPs Renewable Capacity Target: The NDC includes a target of 1,200 GW of wind and solar installed by 2030. In our CPP range, China is projected to overachieve this target comfortably for both technologies. To quantify emission levels under this target, solar and wind capacity is revised downward to 1,200 GW in total according to their respective ratio expected in 2030. Based on CPP min, we expect approximately 330 GW of wind power and 870 GW of solar PV installed in China; based on CPP max, we expect approximately 485 GW of wind power and 715 GW of solar PV installed in China. Like the quantification of the non-fossil share targets, other elements are assumed to be the same as the CPPs. For example, other supply technologies are expected to supply the same amount of power. Overall primary energy demand in the country is also assumed to be the same as the CPPs. We assume that the difference in energy supplied (less wind and solar) is supplied by coal and gas. Given that fossil fuel capacity is not replaced by wind and solar one-for-one, overall power capacity in China’s energy system decreases with the achievement of this target. Carbon Intensity Targets: For the calculation of the intensity targets for 2020 and 2030, we use historical emissions data from China’s most recent inventory submission to the UNFCCC and historical GDP data from China’s Statistical Yearbook up to 2018 (China, 2018). For historical years after 2018, we deviate from official Chinese data due to annual inconsistencies; we now apply latest official growth rates from the Chinese government (rather than absolute numbers), validated by international organisations such as the World Bank and IMF, to establish data until the latest historical year. GDP projections until 2030 are mainly based off IMF (2023) until 2028 and supplemented with near-term forecasts from a mix of domestic and international sources (thus establishing an optimistic and pessimistic range for growth). We also integrate the underlying GDP forecast from WEO STEPS 2023 as part of the range (IEA, 2023b). We assume that the carbon intensity target applies to all CO 2 emissions excluding LULUCF. The emissions quantification for carbon intensity targets changes annually, due to updated forecasts in China’s GDP trajectory. A note on the global aggregation: China’s rating is based on the two NDC emissions targets which are estimated to have the lowest emission levels: the lower end of the carbon intensity target in 2030 and the upper end of the peaking target (which is the CPP max). We employ this method as we try to capture the likely range of China’s emissions levels when achieving their NDC, but there is uncertainty on absolute emission levels as China has several targets: China’s peaking target is guaranteed to be achieved by definition, but which of China’s remaining NDC targets is achieved (or if they all are) is uncertain. We exclude the most pessimistic interpretations—target with the highest expected emissions—as we would be assuming they emit more than the CPP analysis shows. We also do not take only the most optimistic interpretation—lower bound of China’s carbon intensity target— as this is not constrained target (fluctuating year to year depending on economic forecasts). If we only took one target, we would then be assuming China’s other quantitative targets are completely null. The emission levels of all of China’s targets are dependent on future developments (e.g., growth in energy consumption, GDP). We thus take a median approach to capture the middle range (median) of the two most stringent targets to be conservative: the minimum of the carbon intensity target and the maximum of the next most ambitious target, the peaking target.</t>
-  </si>
-  <si>
-    <t>No assumptions or calculations were made with respect to the unconditional NDC target for 2030 as it already included an absolute target for emissions excl. LULUCF. The NDC also included a peak year (2025) and an emissions budget (excl. LULUCF) for the period between 2020 and 2030 (Government of Chile, 2020a). These numbers were taken directly into our calculations and no additional assumptions were needed. The range for the conditional NDC target has been updated from the previous assessment due to an update in historical emissions. We used the 2016 historical emissions value (incl. LULUCF) from Chile’s latest National Inventory Report (BUR5) to recalculate the new range (Ministerio del Medio Ambiente, 2023). For the new conditional target – a reduction of up to 45% in net emissions by 2030, compared to 2016 levels – we assumed that reductions from “net emissions” refers to economy-wide emissions incl. LULUCF. This translates into an emissions target of 25.1 MtCO 2 e (incl. LULUCF) by 2030. Chile has not provided further details on the extent to which it will rely on LULUCF to meet the conditional target, thus we have developed a range based on the following assumptions: For the lower end of the range, we assumed that the further emissions reductions needed to meet the conditional target, as compared to the unconditional target, will come from reductions in all sectors except LULUCF. Thus, we assume the 45% reduction would apply to emissions excluding LULUCF. This translates into an 88 MtCO 2 e emissions level by 2030 (excl. LULUCF). For the same year, we assume the LULUCF sink would remain at -63.1 MtCO 2 e, its most recent historical value. For the upper end of the range, we assumed that the further emissions reductions needed to meet the conditional target as compared to the unconditional target will come entirely from removals in the LULUCF sector. This means emissions excluding LULUCF by 2030 will remain at 95 MtCO 2 e (as in the unconditional target), while the LULUCF sink increases to -69.9 MtCO 2 e.</t>
-  </si>
-  <si>
-    <t>NDC We calculate a 40-45% reduction from base year emissions (2005) excluding LULUCF and then subtract the projected LULUCF contribution in 2030. That LULUCF contribution ranges from our own estimates based on the trend over the last decade (up to 35 MtCO 2 e source) at one end, to the values in the government’s 2023 emissions projections (up to -45 MtCO 2 e sink in the additional measures scenario) at the other end. These government estimated sink contributions are higher than the government’s previous estimates of -12 to -27 MtCO 2 e in its 8 th National Communication (Government of Canada, 2022a). The reason that we added our own estimates to the LULUCF contribution is that in the 2024 inventory, Canada revised its approach to LULUCF, making it an overall source rather than sink. However, the 2023 projections still take the former approach, meaning there is an inconsistency between the government’s projection and the inventory until the new projections are published. Hence, we added our own simplified estimates and show a range within which the actually expected values might likely fall. Canada is still considering the extent to which it will rely on international carbon market credits (‘internationally transferred mitigation outcomes’ or ITMOs), however, it did indicate that it may use credits obtained under the Western Climate Initiative (a regional carbon market between some Canadian provinces and American states) for compliance with its 2030 target in its 8 th National Communication (Government of Canada, 2022a). In its latest emissions projection report, that estimate for 2030 is 0.6 MtCO 2 e (Environment and Climate Change Canada, 2023b). We have added these potential credits to the NDC values we rate against modelled domestic pathways (i.e. the reductions that Canada should achieve within its borders), but subtract them in the NDC value we rate against the country’s fair share allocation.</t>
-  </si>
-  <si>
-    <t>NDC targets Bhutan’s NDC target is to remain carbon neutral. In other words, Bhutan must keep emissions below the level of its LULUCF sink. In its second NDC, Bhutan states that its LULUCF sink is based on 2015 as its base year; it uses the same estimate in its Third National Communication (NC3) (Royal Government of Bhutan 2021, 2020a). Bhutan reported a net LULUCF sink of 7.8 MtCO 2 e in its NC3 (Royal Government of Bhutan 2020a). We use this estimate for our NDC quantification. It is worth nothing that Bhutan reported a larger net sink capacity of 8.9 MtCO 2 e in its first Biennial Report (Royal Government of Bhutan 2022). If Bhutan were to update the source of its carbon neutral target to this document, it could, in theory, allow for even further emissions growth. We do not use the NDC emissions estimate for our CAT ratings (see Targets tab for the full explanation). Instead, we rate where Bhutan’s emissions will be in 2030 under a business-as-usual trajectory against Bhutan’s fair share contribution level. We rate where Bhutan’s emissions will be in 2030 if its sectoral measures are fully implemented against where its emissions would need to be based on global least cost modelled pathway for 1.5°C. CAT estimate for rating against fair share The methods used to develop a BAU projection for Bhutan are described in the ‘current policy projection’ section below. We use the upper range of the estimate as the basis for the rating. CAT estimate for rating against modelled domestic pathways We use mitigation potentials provided in Bhutan’s second NDC and its sectoral LEDS to estimate where Bhutan’s 2030 emissions would be if it receives the necessary support (Royal Government of Bhutan 2021; Ministry of Information and Communications 2021; Ministry of Works and Human Settlement 2021; Ministry of Economic Affairs 2021a; Ministry of Agriculture and Forests 2021). The estimates are cumulative potential for the decade, so we divide by 10 to derive an annual figure for 2030. We subtract these estimates from our BAU projections and rate the upper end of the range. Several measures included in the LEDS for human settlement and industries quantify the mitigation potential based on emissions avoided through enhanced export of renewable energy to India (thereby displacing more GHG intensive sources of power). We exclude these emissions reductions as they occur outside of Bhutan’s borders. The measures included in our quantifications are: For industries: Reductant substitution by biogenic charcoal Cement blending Refuse Derived Fuel (RDF) use in cement plants Direct hot charging For human settlement: Replacement of LPG and firewood by electricity Increase in composting and recycling Wastewater management Bhutan does not provide a breakdown of the emissions reductions associated with shifting to electric cookstoves from LPG and firewood. We use the estimates provided in the LEDS for the 2019 share of each source and assume that LPG will produce roughly twice as many emissions to derive the LPG share. The mitigation potential is based on a 50/50 grid factor split with India, so we double the estimate to consider only the impact in Bhutan. The mitigation potential provided for transport section actions differs between the NDC and the LEDS. We take the estimate in the LEDS as it is more clearly linked to measures that would be implemented provided sufficient support is made available. GWP conversion Bhutan’s second NDC uses Global Warming Potentials from the IPCC’s Second Assessment Report (SAR). As the NDC refers to a number of LEDS estimates, we assume that the LEDS also use SAR values, though this is not explicitly stated in those reports. No information was given on the gas-by-gas breakdown. We have assumed that the mitigation potential relates to CO 2 emissions only for transport and industry and thus no conversion is needed. For agriculture, we used the same approach adopted for our current policy projections (see below) and a 4:1 split between CH 4 and N 2 O for the rest of the measures proposed. For the human settlement sector, we used the same approach adopted for our current policy projections (see below) for the composting and wastewater management and assume that the electric cookstove relates to CO 2 only. Net zero target Bhutan is carbon neutral and has committed to remaining so. We include Bhutan in our Optimistic scenario as part of our 2100 temperature warming estimates; however, we do not quantify a separate long-term emissions target for Bhutan but rather include them in a conservative global estimate.</t>
-  </si>
-  <si>
-    <t>Conclusions of the present CAT assessment are subject to uncertainty in light of Australia’s frequent revisions of its emissions data. The government has repeatedly revised emissions projections downwards. This has typically not been backed by stronger climate policies but is rather the result of a change in assumptions. The government has set an emissions reductions target of 43% below 2005 levels including LULUCF. To recalculate this target excluding LULUCF, we determine the targeted emissions level in 2030 including LULUCF (i.e. 43% below 2005 levels), then subtract LULUCF sequestration projected by the government for 2030. We then compare this projected emissions level excluding LULUCF in 2030 to 2005 emissions excluding LULUCF. We recalculate the NDC target excluding LULUCF every time the historical and projected emissions are updated. There have been significant recalculations of the LULUCF sector sequestration estimates for 2030, ranging from 1 MtCO 2 e projected in 2018 to 57 MtCO 2 e projected in 2023 (DCCEEW, 2023b). We derive LULUCF projections in this CAT update by harmonising the government’s 2023 LULUCF projections with the 2022 LULUCF data point from the latest Quarterly inventory (DCCEEW, 2023b, 2024i), which results in 2030 LULUCF sequestration of 79 MtCO 2 e in 2030.</t>
-  </si>
-  <si>
-    <t>NDC absolute emissions levels including LULUCF are provided directly in the NDC for the unconditional target (Government of Argentina, 2021). To obtain the NDC emissions level excluding LULUCF, the CAT uses a Business-As-Usual scenario for the LULUCF sector developed by UNICEN (Keesler &amp; Blanco, 2024). This scenario shows that under current policies, LULUCF emissions in Argentina will steadily decrease, reaching 15.2 MtCO 2 e by 2030. We also recalculate the target, that is originally communicated as an absolute number calculated using SAR GWP, to AR4 GWP. To do so, we calculate the difference in emissions between the last inventory year (2020) and the target year (2030) in SAR and apply the growth rate to the last historical value (from 2022) in AR4.</t>
-  </si>
-  <si>
-    <t>To quantify the 2030 NDC target we use the BAU and the sectoral distribution from Indonesia’s NDC document – taken at face value and without harmonisation to historical data (Republic of Indonesia, 2016). We consider that NDC targets are presented in SAR GWP. Therefore, we convert the values to AR4 GWP assuming that the 10-year historical ratio between emissions in SAR and AR4 remains stable up to 2030. The CAT takes the absolute emissions level excluding LULUCF by 2030 given in the official documents for the unconditional targets. The NDC does not provide an absolute emissions level for the 2020 target. To quantify the 2020 pledge, the CAT assumes the sectoral contribution to emissions reduction from Indonesia’s BUR2, which implicitly assumes that the 2020 pledge and the NDC targets are based on the same BAU. The BUR2 shows that the LULUCF sector is responsible for around 80% of the emissions reduction in 2020.</t>
-  </si>
-  <si>
-    <t>2030 target Emissions intensity target Historical GDP data for 1990-2018 is from Reserve Bank of India’s GDP data and 2019-2022 is from IMF (IMF, 2023; India, 2020). We estimate 2030 GDP using IMF GDP growth estimates for 2023-2028 and trend estimates for the rest of the decade (IMF, 2023). We calculate the emissions intensity in 2005 using our historical emissions estimate and RBI GDP data and then apply a 45% reduction. We multiply this emissions intensity level with our 2030 GDP estimate to derive our emissions estimate. As India has a separate target to enhance its carbon sink, we assume that LULUCF has been excluded from its emissions intensity target. It has not provided a historical estimate for LULUCF for 2005 in its GHG inventory. 50% non-fossil installed capacity target The 50% capacity target is based on the current policy pathway (details below) and is calculated by replacing non-fossil power with fossil power. This is necessary because, as discussed above, the NEP2023 includes more than 50% non-fossil capacity. We use the generation factor of the underlying scenario (WEO2023 or NEP2023) to calculate the extent of non-fossil generation and then subtract that from total generation to derive the new level of fossil generation. We use the emissions factor of the underlying scenario to determine the level of emissions and then harmonise the anticipated higher emissions to our current policy scenario.</t>
-  </si>
-  <si>
-    <t>The UK’s 2030 NDC target of at least a 68% reduction below 1990 levels is expressed using 100 year global warming potentials (GWP 100 ) from the IPCC’s Fifth Assessment Report (AR5) (Government of the UK, 2022). In addition, the UK Government has specified that the target reference year includes F-gas emissions from 1995. Thus, to quantify the expected 2030 emissions, we apply the 68% reduction to a reference emissions level consisting of the UK’s emissions in 1990 but including F-gas from 1995 instead of 1990, all expressed in AR5 GWPs. As the CAT presents all data across countries in GWP from the IPCC Fourth Assessment Report (AR4), the 2030 emissions implied by the NDC target in AR5 GWPs are then converted back into AR4 GWP. This is done by calculating a historical conversion factor from AR5 GWPs to AR4 GWPs, using historical data from 2021. This conversion factor can then be used to calculate the NDC in 2030 in AR4 GWPs. The UK’s 2030 (NDC) and 2035 (Sixth Carbon Budget) emissions targets includes LULUCF emissions. This needs to be subtracted for comparability with other countries. We use projections from the CCC’s Sixth Carbon Budget to estimate LULUCF emissions in 2030 and 2035 (CCC, 2020). While the government’s approach to achieving the NDC and Sixth Carbon Budget differs somewhat from the CCC, there is strong alignment on afforestation pledges, and so LULUCF emissions will likely be closely aligned with the CCC’s projections, if these targets are to be met. The UK’s 2035 emissions target additionally includes emissions from international aviation and shipping. These emissions were added to the 1990 baseline when calculating what a 78% reduction would entail. Projected 2035 emissions from international aviation and shipping were then removed from the implied 2035 target, as these emissions are captured under our IMO and ICAO assessments and would be double counted if they remained as part of the UK’s total emissions. Data is taken from the UK’s Carbon Budget Delivery Plan (DESNZ, 2023a). The UK’s 2050 net-zero target also includes both LULUCF and international aviation and shipping, which need to be removed. In the absence of long-term projections from the UK Government, we use the Sixth Carbon Budget to calculate LULUCF and international shipping emissions in 2050, while the high ambition scenario from the recent Jet Zero strategy is used to estimate aviation emissions in 2050 (CCC, 2020; Department for Transport, 2022).</t>
-  </si>
-  <si>
-    <t>2030 NDC target For the 2030 NDC target, we apply the indicated target of 50%–52% reduction to the 2005 base year including LULUCF, and then subtract the projected emissions for the LULUCF sector. The LULUCF emission projections in 2030 were taken from the 5th Biennial Report which reported sinks of 0.6–0.8 GtCO 2 e/year in 2030 (U.S. Department of State, 2022). 2050 net zero target For the net zero target, we assume total GHG emissions in 2050 are balanced by projected sinks in 2050. The LULUCF sinks in 2050 were taken from the US long-term strategy (LTS) submitted to the UNFCCC in November 2021 (U.S. Department of State, 2021). Since the document does not provide exact figures, we have extracted the approximated figures from the graphs in the report. The reading of the graphs results in an approximation of minus 0.6-1.4 GtCO 2 e/year for LULUCF sinks in 2050, we add this sink to the residual estimate in 2050 to get 0.6-1.5 GtCO 2 e/year in 2050. We include also estimates for 2040 in our pathway using a similar approach.</t>
-  </si>
-  <si>
-    <t>NDC target values are calculated based on the conditional and unconditional mitigation actions and their estimated impact in The Gambia’s NDC submitted in 2021 (Republic of The Gambia, 2021a). The Gambia’s NDC includes information on the extent to which the land sector is included in its 2030 BAU as well as the extent to which it intends to rely on that sector to meet its conditional and unconditional targets. We have excluded these emissions from our calculations.</t>
-  </si>
-  <si>
-    <t>Thailand’s 2020 NAMA targets, 7–20% under business-as-usual (BAU) (applying to the energy and transport sector) are quantified (Ministry of Natural Resources and Environment, 2014). As there is no BAU published for 2020, we calculate the value in 2020 based on reports from BUR3 that the country had achieved a 15.76% GHG emission reduction from BAU as of 2018 (Ministry of Natural Resources and Environment, 2020b). Based on our calculations, the BAU for 2020 was set at 469 MtCO 2 e/year excl. LULUCF, implying 2020 emission level targets of between 375 to 436 MtCO 2 e/year. According to our analysis, Thailand overachieved the range of its targets with emission levels at 342 MtCO 2 e/year in 2020, largely due to the economic down-turn caused by COVID-19. Prior to COVID-19, Thailand was on track to be safely within the range. The Second NDC targets for 2030 consists of a 30% unconditional and 40% conditional target in emissions reduction under BAU (Government of the Kingdom of Thailand, 2022). The targets exclude emissions from LULUCF. As noted in Thailand’s NDC submission, the BAU for 2030 was set at 555 MtCO 2 e/year excluding LULUCF, implying unconditional and conditional targets of 389 and 333 MtCO 2 e/year respectively. Thailand’s LT-LEDS (revised) we build the emissions pathway from 2030 to 2065 based on modelling results from ONEP and confirmed in the official document. Data points include CO 2 and GHG emissions over five-year timesteps. The level of LULUCF sinks are also extracted from documents along the same time series, stabilising at -120 MtCO 2 /yr after 2037 (ONEP, 2022). As the CAT excludes LULUCF (see explanation ), we calculate GHG emission levels at five year timesteps from 2030 to 2065 by subtracting LULUCF sinks from net GHGs. We linearly interpolate emission levels between the timesteps as data is not available on an annual resolution.</t>
-  </si>
-  <si>
-    <t>We calculated the 2030 targets using the most recent national inventory (Bundesamt für Umwelt BAFU, 2024b). Switzerland has not officially communicated the domestic share of its NDC target and has removed any specific information from the current version of the CO 2 Reduction Act. In a previous draft from 2021 it stated that 33% (66% of 50%) of emissions will be reduced domestically (by 2030 below 1990 levels). From other official communication documents, it becomes evident that there is a consensus by the Federal Council that at least 30% will be reduced within the borders. After proposals for a 75% and a 70% (of the 50%) reduction were rejected in parliament in 2024, the Environment Minister Albert Rösti announced that he would propose a 66% share to the Federal Council (Das Schweizer Parlament, 2024). Due to a lack of clearer information, we have therefore decided to take a range between 30% and 33% by 2030 below 1990 levels as Switzerland’s domestic share. Switzerland’s NDC includes LULUCF. The NDC states the desire to use a reference level for forest land, while emissions for other land uses will be included both in the target and baseline years. To assess LULUCF emissions in 2030, we take an average between the two projections WEM (with existing measures) and WAM (with additional measures) as to reach the 2030 target the emissions reduction pathway would need to be in between the two scenarios. Since there is some uncertainty on both the accounted LULUCF emissions and the target itself, we show the target as a range, with the lower end of the range representing emission levels of 33% reductions without the accounted LULUCF emissions.</t>
-  </si>
-  <si>
-    <t>The updated 2021 NDC sets a new target of 40% below 2018 levels (total emissions excl. LULUCF in 2018 compared to net emissions in 2030 – incl. reductions from LULUCF and international credits). The government report on the NDC update, published in October 2021, provides a breakdown of emissions per sector, in addition to details on targeted reductions and removals from LULUCF, CCUS, and overseas (Republic of Korea, 2021b). We convert the domestic and overall targets from SAR to AR4 following the method outlined below. We recalculate the 2020 NDC with this information on the contribution of LULUCF sinks and international credits. This results in a 1 MtCO 2 e increase to 541 MtCO 2 e from our previous calculations that used assumptions on the use of LULUCF and international credits from South Korea’s first NDC (see assumptions in September 2021 assessment). South Korea uses GWP values from the IPCC’s Second Assessment Report (SAR). We convert to AR4 GWP values to ease comparison of countries’ targets and emission trajectories. We use detailed emissions data per gas from the national inventory (SAR), and the SAR/AR4 GWPs to derive a full emissions dataset in AR4. We use the ratio of total emissions in SAR and AR4 in 2017 to convert the BAU to AR4 (the annual difference between SAR and AR4 is around 4.5 MtCO 2 e, with low variance). We apply the reduction stated in the NDC to the total emissions in AR4 GWPs.</t>
-  </si>
-  <si>
-    <t>Singapore’s updated NDC provides an absolute emissions level (60 MtCO 2 e) for 2030 in AR5 GWP (Singapore Government, 2022), which translates to 60.3 MtCO 2 e in AR4 GWP. The conversion between AR5 and AR4 is insignificant because Singapore’s emissions are predominantly CO2 (94% in 2020).</t>
-  </si>
-  <si>
-    <t>2021 NDC As Saudi Arabia has not communicated the business as usual (BAU) scenario for its NDC target, we quantified the target based on a business-as-usual scenario developed by the King Abdullah Petroleum Studies and Research Center (KAPSARC). The lower end of the NDC range reflects the KAPSARC BAU scenario, excluding land use, land use change and forestry (LULUCF). For the upper end of the range, we have assumed that LULUCF measures would contribute 200 MtCO 2 e of the total 278 MtCO 2 e emissions reductions in the NDC. This number is based on the announcements made at the Saudi Green Initiative Forum in 2021 (Kingdom of Saudi Arabia, 2021d). In 2012, the latest year for which national data is available, the land use and forestry sink stood at just 9 MtCO 2 e, with forests covering a mere 0.5% of Saudi Arabia’s total land area in 2020. The Global Warming Potential (GWP) values used for the NDC have not been communicated. We have assumed these to be expressed in either AR4 or SAR and have included both calculations in our range.</t>
-  </si>
-  <si>
-    <t>The NDC target is calculated using LULUCF projections from the Fourth Biennial Report to the UNFCCC and historic emissions from the latest inventory data (Russian Federation, 2019a, 2022b). For the 2030 NDC target, we assume that LULUCF emissions are included in the NDC target. The 2060 net zero target is calculated by assuming that Russia’s LULUCF sink for 2050 (-1200 MtCO 2 e) would remain constant until 2060 (Russian Federation, 2022c). We make this assumption because Russia’s LTS does not have a projection to 2060 which would outline what the level of reductions required to reach net zero emissions.</t>
-  </si>
-  <si>
-    <t>The updated NDC target is based on a cumulative BAU of 3,340.3 MtCO 2 e for the period of 2020-2030; however, the update does not include any details on how this BAU was calculated. An annual sector by sector breakdown was subsequently published by the Climate Change Commission (CCC, 2022). We use this information as the basis of our calculations. GWP values The NDC update and CCC document do not mention the Global Warming Potential values used. The CCC has used GWP from the IPCC’s Fourth Assessment Report (AR4) in past stakeholder consultations and so we assume that that is the basis upon which these NDC calculations have been prepared (Climate Change Commission, 2020). LULUCF The NDC update and CCC document to not explicitly discuss the role of the land sector in the NDC target. The 3,340.3 MtCO 2 e cumulative BAU does include LULUCF, the details for which are provided in the CCC’s document. The NDC update describes the target sectoral coverage as ‘agriculture, wastes, industry, transport, and energy’. We take this statement to mean that efforts in the land sector do not fall within the scope of the Philippines’ target. According to the CCC’s figures, the land use represents a small net sink in 2020 (-24 MtCO 2 e), which will shrink over the course of the decade to become a small source of emissions in 2030 (3.8 MtCO 2 e). Target quantification We apply the target reductions to the 2030 BAU value provided in the CCC’s document to calculate 2030 emissions including LULUCF. As the CAT excludes LULUCF from its analysis and the Philippines will not rely on LULUCF measures to achieve its NDC target, we subtract the LULUCF BAU emissions (3.8 MtCO 2 e) to derive the target value excluding LULUCF.</t>
-  </si>
-  <si>
-    <t>The pledge for 2030 is based on the latest NDC submission document from December 2020 (Gobierno del Peru, 2020). Peru’s submission covers emissions from all sectors and six gases (CO 2 , CH 4 , N 2 O, HFCs, PFCs and SF6). The previous NDC covered only CO 2 , CH 4 and N 2 O, for all sectors. An absolute emissions level, including LULUCF, is provided directly in the NDC for the unconditional and conditional targets. To distinguish emissions reductions that are attributable to the LULUCF sector, the CAT assumes that the share of LULUCF mitigation efforts will be the same as it was in the first NDC submission, for both unconditional and conditional targets. The assessment of Peru’s first NDC considers the mitigation split presented in the roadmap for NDC implementation (Government of Peru, 2018). According to the technical background document of the first NDC, for the unconditional target, 76% of the 20% emission reductions below BAU will be obtained from measures in the LULUCF sector. For the conditional target, 69% of the 30% emission reductions below BAU will be obtained in the LULUCF sector.</t>
-  </si>
-  <si>
-    <t>The NDC and long-term target were calculated from the most recent national inventory submissions.</t>
-  </si>
-  <si>
-    <t>NDC targets Nigeria’s NDC update uses global warming potentials (GWP) values from the IPCC’s fifth assessment report (AR5). CAT uses GWP values from the fourth assessment report (AR4) to ensure comparability across countries. The NDC provides a sector-by-sector breakdown of emissions in 2018 and 2030. We have converted from AR5 to AR4 using the gas-by-gas breakdown for each sector from PRIMAP for the year 2018. We have not converted HFCs as we do not have information on individual gases; however, these gases represent only 1 MtCO 2 e in 2018. The final NDC update provides LULUCF emissions for 2018 and AFOLU emissions for the 2030 BAU. To estimate LULUCF emissions in the 2030 BAU, we applied the same ratio of LULUCF/AFOLU as in 2018. The update provides no information on the extent to which Nigeria intends to rely on reducing land sector emissions to meet its NDC targets. However, the update does estimate the potential of nature-based solutions as about 115 MtCO 2 e. Of these solutions, the top three are identified as agroforestry, improved forest management, and forest restoration, making up about 89 MtCO 2 e of the total potential. We use the 89 MtCO 2 e estimate as the upper bound of our estimate for the contribution of the land sector in meeting Nigeria’s conditional target and a proportional share of the 89 MtCO 2 e estimate for the unconditional target. We assume this estimate is all CO 2 and thus there is no need to convert from AR5 values. For the lower bound, we assume the land sector contributes an equal share as remaining sectors for both targets. The Third National Communication identified significant abatement potential in the land sector, though its estimation of land sector emissions may have been higher than what is now reported in the final NDC update. Overall, there is significant uncertainty in the land sector emissions and our estimates are best guesses based on the available data. Net zero target Nigeria has not provided detailed information about how it intends to reach its net zero target. We have quantified the target for the purposes of our ‘Optimistic’ global temperature estimate. We assume emissions (excluding LULUCF) are reduced 50% below 2018 levels by 2050 in line with Nigeria’s long-term vision and assume the country reaches 0 emissions in 2070 (DCC, 2021). The long-term vision does not specify the role that LULUCF will play in meeting this target, so we assume the 50% target applies equally to LULUCF and non-LULUCF emissions.</t>
-  </si>
-  <si>
-    <t>Target emissions levels were calculated from New Zealand’s Greenhouse Gas Inventory 1990-2020 (Ministry for the Environment 2022g). The target for 2020 (5% below 1990) is based in the gross emissions in 1990 (i.e., LULUCF emissions are not included in the base year). The comparison calculations using the CP1 surplus and Kyoto Protocol forestry activities data is from the latest net position report (Ministry for the Environment 2021a). The target for 2030 (Paris Agreement Nationally Determined Contribution or NDC) is a 50% emissions reduction below 2005 levels The same target is reiterated in New Zealand’s updated NDC (New Zealand Government 2021a). New Zealand uses a gross-net approach (Ministry for the Environment 2021d). A gross-net approach is when a Party does not include the LULUCF sector in its base year (gross) but accounts for net emissions and removals from LULUCF for the target year (net). Such an approach is a logical and categorical error. In the year 2005, New Zealand had a LULUCF carbon sink of 25 MtCO 2 e. However, New Zealand has chosen to exclude the carbon sink to ensure a higher baseline to apply the 30% reduction from 2005 levels. New Zealand then includes the LULUCF carbon sink in the target year 2030, which allows for higher emissions elsewhere in the economy. Such an approach undermines the purpose of the Paris Agreement as it allows for net emissions to continue to increase. For the 2030 pledge, the CAT has estimated levels of emissions excl. LULUCF resulting from the NDC by subtracting Kyoto Protocol forestry activity emissions in 2030 from the targeted level (2030 data from: (Ministry for the Environment 2021c)). The 2050 Long-Term Target has been quantified using the latest government historical data (Ministry for the Environment 2021b). The CAT estimates the target by subtracting LULUCF and including methane emissions. The projected LULUCF emissions for 2050 are based on the latest government projections (Ministry for the Environment 2021c). The government LULUCF projections provide a range based on “lower removals” and “upper removals”. These projections appear to be very optimistic when compared to government policy in the sector. CH4 emissions for 2017 were also available in the government data (Ministry for the Environment 2021b). We include emissions from methane and exclude LULUCF.</t>
-  </si>
-  <si>
-    <t>Nepal's unconditional NDC target is an activity-based target for the energy sector i.e. add 5 GW of clean energy generation by 2030. We assume that the clean energy generation from the unconditional target would cover more than just electricity generation e.g. emissions reductions from switching to EVs or electric stoves. Given that the unconditional target does not provide an absolute emissions reduction target and the assumption that the unconditional target covers the whole energy sector, the CAT cannot quantify this target. Instead, the CAT uses current policy projections. The NDC provided limited details on some of the sectoral targets, so it was not possible to estimate the impact of all of them. In particular, the first ‘energy generation’ target (expand clean energy generation from 1.4 GW to 15 GW) and the second target for the transport sector (develop 200 km of the electric rail network) were not quantified. This means the total reduction under the conditional NDC could potentially be higher than our estimates. The second NDC also includes separate targets for the forestry sector but these are not included in our calculations as the CAT assesses NDCs without emissions from the forestry sector. Some of the conditional targets from the second NDC are: Energy generation: (1) by 2030, expand clean energy generation from approximately 1.4 GW to 15 GW, of which 5-10% will be generated from mini and micro-hydro power, solar, wind and bio-energy (not included in the CAT calculations), (2) by 2030, ensure 15% of the total energy demand is supplied from clean energy sources. Transport: by 2030, increasing sales of e-vehicles to cover 90% of all private passenger vehicle sales including two-wheelers and 60% of all four-wheeler public passenger vehicle sales. This target will reduce emissions by 1.1 MtCO 2 e from a projected BAU, which is around a 28% decrease in emissions. Residential: (1) by 2025, Nepal aims to install 500,000 improved cookstoves specifically in rural areas, (2) by 2025, install additional 200,000 household-biogas plants and 500 large scale biogas plants, (3) by 2030, ensure 25% of households use electric stoves as their primary mode of cooking. These three combined targets will reduce emissions by 0.5 MtCO 2 e from a projected BAU, which is around a 23% decrease in emissions. Waste: by 2025, 380 million liters/day of wastewater will be treated before being discharged, and 60,000 cubic meters/year of fecal sludge will be managed. These targets will reduce emissions by 0.28 MtCO 2 e from a projected BAU. Given that not enough data was provided in the NDC to allow us to calculate an economy-wide BAU, we assumed the ‘BAU scenario’ as referred to in the NDC submission, to be the same as the ‘pre COVID-19 current policy projection’ which were estimated through harmonising 2019’s historical emissions (exclude LULUCF) with growth emissions' estimates from Nepal’s 2nd National Communication. The pre-COVID19 current policy projection maximum value upper range is using ‘NC2 Medium Growth (MG) scenario’ harmonised to 2019 emissions and is then used for the upper end of the BAU range for the conditional NDC. Meanwhile, the pre-COVID19 current policy projection minimum value uses ‘NC2 BAU scenario’ harmonised to 2019 emissions and is then used for the lower end of the BAU range for the conditional NDC. We estimated a range for the conditional NDC as follows: Conditional NDC upper end of the range: Taking into account only the emission reduction estimated for actions in the transport, residential and waste sectors. The assumption is that the reductions reported in the NDC for electrification in the transport and residential sectors already reflect the change in the energy mix (target of 15% energy demand from clean sources) and therefore the associated emissions reduction. Thus, the NDC could reduce emissions by 1.9 MtCO 2 e in 2030, compared to BAU. Conditional NDC lower end of the range: Taking into account only the emission reduction from the second target for the ‘energy generation’ sector (15% of the total energy demand to be supplied with clean energy) and the reductions from the waste sector. The assumption is that the emissions reduction reported for transport and residential sector in the NDC represent only a part of the impact of this target and are included in the overall reduction calculated for the 15% target. We also assume that all clean energy would have an emission factor of zero MtCO 2 e. Under these assumptions, we estimate that the NDC could reduce emissions by 3.8 MtCO 2 e in 2030. We assume Nepal is applying GWP values from the Second Assessment Report (SAR), in line with its previous National Communications and NDC submission. We have converted these values into those from the Fourth Assessment Report – as those are the values used across all CAT assessments.</t>
-  </si>
-  <si>
-    <t>LULUCF Morocco’s NDC targets apply to all sectors. In the CAT, we exclude LULUCF from the NDC target calculations. As Morocco’s new pledge only provides economy-wide business-as-usual (BAU) values, we have taken BAU LULUCF values for 2030 from the Fourth National Communication submitted to the UNFCCC in 2021 (Kingdom of Morocco, 2022a), and deducted these from the economy-wide 2030 BAU scenario presented in the NDC. We have also excluded LULUCF-related mitigation measures from the long list of mitigation measures used to determine the mitigation target. In this update, the CAT also excluded the LULUCF-related mitigation measures planned in the agricultural sector.</t>
-  </si>
-  <si>
-    <t>The 2022 NDC update specifies that 5% of the 35% unconditional target is to be achieved with already agreed international support for clean energies. We have thus estimated the unconditional target – to be achieved with own resources – as a 30% reduction from BAU in 2030. Due to the lack of a detailed sectoral contribution towards the achievement of the 2022 NDC update – particularly the forestry sector, we have estimated a range of the contributions of this sector based on the emissions and sinks in the BAU baseline and the historical BAU base year (2013): The lower end of the range is taken directly from the 2022 NDC BAU. This is quite optimistic as it assumes no reduction of the baseline emissions sources under the baseline. The upper end is taken form the last inventory (Gobierno de México, 2022; INECC, 2021c). This assumption on the other hand implies no change in both sources and emissions from the land use, land use change and forestry sector from the historical base year used in the BAU. Historically. The LULUCF sector in Mexico has been a stable sink of around 200MtCO 2 during the last 20 years. Our calculations of the emissions level for the NDC targets, excluding LULUCF emissions, is: Unconditional target: 786-863 MtCO 2 e in 2030 Conditional target: 689-766 MtCO 2 e in 2030 As land use, land use change and forestry emissions are mostly CO 2 , we have not converted these numbers to AR4 GWPs. We did not harmonise the NDC baseline scenario to the historical emissions pathway as in previous NDC submissions, the NDC target depended directly on the reference scenario included in the NDC (they provided absolute numbers linked to the targeted reduction). We have re-calculated the absolute emissions level of the 2020 NDC using the same assumptions on the contribution of the forestry sector, and thus the numbers in the table vary from previous updates. This leads to even higher emissions than originally estimated for both unconditional and conditional targets. The rating of the unconditional 2020 NDC worsens by one category from “Insufficient” to “Highly insufficient”. Although not specified in the submission, historically, Mexico has reported emissions using Global Warming Potentials (GWPs) from the IPCC 5th Assessment Report (AR5) which we converted to GWPs of the IPCC’s Fourth Assessment Report (AR4). The 2022 NDC update also includes an adaptation component as well as a target to reduce black carbon (BC) between 51%-70% below BAU. Given that reductions in BC are generally not additional to those in CO 2 emissions, we do not quantify the additionality of the BC target (see box below on BC for more details). Black Carbon and Mexico’s NDC Mexico’s NDC includes a target to reduce black carbon (BC) emissions, which has substantial co-benefits for human health. However, reductions in black carbon are generally not additional to reductions in CO 2 emissions, because large fractions of black-carbon emissions stem from the same emission sources as CO 2 . Emission reduction policies therefore often reduce CO 2 and black carbon simultaneously, and this is already included in calculations of the emissions reductions in greenhouse gases required to hold warming well below 2°C globally, such as the “emissions gap” and “fair share” reductions (see next section on Fair Share ). From the climate perspective, however, there is no established scientific method to compare the climate benefits of black-carbon reductions to those of CO 2 and other greenhouse gases. In the AR5, the IPCC does not provide calculations of GWP for BC comparable to those provided for greenhouse gases, merely noting the inherent difficulties in doing so and limiting itself to just displaying estimates from the pre-AR5 literature. While Mexico’s NDC specify a metric to compare BC with CO 2 (GWP of 900), this is based on a single literature source (pre-dating IPCC AR5), which itself notes very large uncertainties of around 100%. Long-term target The long-term target from Mexico’s Mid-century Strategy (MCS) is not considered as a “net zero target” and thus, is not included in our assessment. In previous analyses we had taken this target directly form the documents, which provides absolute numbers for expected emissions in 2050. As the MCS does not provide further details on the LULUCF share to the target, we assumed 2050 LULUCF emissions will range between the emissions levels in 2030 for "baseline" and "unconditional target" scenarios from the 2016 NDC. We had converted the reported numbers from AR5 to AR4 GWPs using an average conversion based on the inventory’s granular information on all gases and sectors per year.</t>
-  </si>
-  <si>
-    <t>Unconditional target: The NDC states that Kenya will bear 21% of the estimated required mitigation costs itself. In the absence of information on sectoral mitigation costs, we assume that this 21% financial contribution is equivalent to a 21% share of the targeted emission reductions. On that basis, we calculate the unconditional contribution to be equivalent to an unconditional target of 7% below BAU, including LULUCF – or 4% below BAU, excluding LULUCF emissions. This corresponds to emissions levels of 126 MtCO 2 e by 2030 (excluding LULUCF) (expressed in AR4 values) (see further assumptions on GWP below). In its first NDC, Kenya included a separate target of 47% below BAU by 2030 for the LULUCF sector. While explicit reference to this target has been dropped in the update, we assume that Kenya will meet about half of its NDC with reductions in land sector emissions. Conditional target: If the target is met, emissions in 2030 will be 108 MtCO 2 e (excl. LULUCF). The conditional contribution is equivalent to a 17% reduction below BAU by 2030 (excl. LULUCF).</t>
-  </si>
-  <si>
-    <t>The NDC was quantified based on the latest national inventory submission and information provided in the Fifth Biennial Report (Republic of Kazakhstan, 2023a). Kazakhstan’s unconditional NDC is an emissions reduction target of 15% by 2030 and its conditional NDC is an emissions reduction target of 25% by 2030 (both compared to 1990 emission levels). Since the targets include LULUCF, they were converted to values excluding LULUCF using projections for LULUCF emissions “with current measures” from BR5. As the historical emissions used in the CAT’s previous assessment slightly differ from this year’s historical emissions (see historical emissions section), there is a difference in the calculated targeted emission levels from the NDC between the two analyses. Based on calculations from the CAT’s previous assessment, the unconditional NDC equalled an emissions level of 331 MtCO 2 e in 2030 (excluding LULUCF). Based on the updated historical emissions data, the unconditional NDC (a reduction of 15% compared to 1990 emission levels) equals an emissions level of 318 MtCO 2 e in 2030. The conditional NDC (a 25% reduction compared to 1990 levels) equals an emissions level of 280 MtCO 2 e in 2030 (excluding LULUCF).</t>
-  </si>
-  <si>
-    <t>The target emission level in 2030 provided in the updated NDC submitted in October 2021 is directly used in this assessment.</t>
-  </si>
-  <si>
-    <t>2030 NDC target Ethiopia provides an estimate of each sector’s mitigation contribution to meeting its unconditional and conditional targets in its final NDC update submitted in July 2021 (Federal Democratic Republic of Ethiopia, 2021). These estimates are given using AR5 GWP values. We exclude the contribution of LULUCF, which we assume to be CO2 only, and then convert all other sector from AR5 to AR4 using the gas-by-gas breakdown for 2010 historic data from PRIMAP (Gütschow, J.; Günther, A.; Jeffery, L.; Gieseke, 2021). The estimate provided in the final NDC update is for the main three gases only (CO 2 , CH 4 and N 2 O). Our historical and current policy projections also include HFCs, however their contribution is very small and we have not taken it into account here.</t>
+    <t>To estimate current policy emissions levels, we subtract those mitigation measures outlined in Colombia’s NDC that are being implemented from the BAU projections provided in the NDC (excl. LULUCF) and harmonise to the last historic year (Gobierno de Colombia, 2020c) (IDEAM, 2021). We use the information provided in the BUR3 to determine which policies are being implemented and which are still in the planning stage. We use the mitigation potential estimates in the BUR3, in cases where those differ from the NDC update, except for fugitive emissions. There we use the estimated reductions from the regulations (Ministry of Mines and Energy (Colombia), 2022). The range of estimates is due to a range of estimates in the energy sector. We apply the same approach for the planned policies scenario, although we also include any new measures reported on in the BUR3 and not just those outlined in the NDC update. The key changes are in the waste sector, as Colombia has now provided mitigation potential estimates for some of the measures it is planning in that sector. We assume all mitigation potential quantifications in the NDC update and BUR3 use AR5 values, which we convert to AR4. The projections do not include measures planned in the land sector. Some of the mitigation measures proposed in agriculture will also affect land use. For the largest measure, sustainable beef production, we assumed that half of the mitigation potential is attributed to land use and the other half to agriculture.</t>
+  </si>
+  <si>
+    <t>The CAT uses Global Warming Potential (GWP) values from the IPCC's Fourth Assessment Report (AR4) for all its figures and time series.</t>
+  </si>
+  <si>
+    <t>Energy-related CO 2 emissions: For our current policy projections (CPP), we establish a conservative (CPP max) and optimistic (CPP min) range based on different scenarios projecting the development of China’s energy sector based on policies and developments. For the CPP max scenario, we start with the CETO (ERI et al. , 2023) BLS — developed by projecting current trends in China's energy system development and calibrated to align with the 2°C goal under the Paris Agreement. The scenario assumes that China meets a range of policy targets including: 25% non-fossil share of energy mix by 2030 (Xinhua News Agency, 2021) 50% renewable energy capacity by 2025 (SASAC, 2021) 39% non-fossil share and 33% RE share (3300 TWh) in electricity generation for 2025 (NDRC and NEA, 2022) Reduce energy intensity of economy by 13.5% from 2021 to 2025 (Xinhua News Agency, 2021) The CETO BLS reveals no short-term projection, only TPEDs for the year of 2025 and 2030. From a conservative perspective, we cannot rule out the possibility that China's emissions will plateau at a high level over the next 5 years. We therefore force the energy-related CO 2 emissions projection for CPP max to stay at 2023 emission level until 2025, and then decline at a rate consistent with the emissions calculated under the CETO BLS. This scenario describes a least ambitious transition in China’s energy system. The CPP max will miss a range of short-term policy targets including: 20% non-fossil share of energy mix by 2025 (Xinhua News Agency, 2021) over 50% of incremental electricity consumption is met by renewables from 2021-2025 (NDRC, 2022) Reduce CO 2 intensity of economy by 18% from 2021 to 2025 (Xinhua News Agency, 2021) For the CPP min scenario, we start with the IEA WEO 2023 STEPS —which for China we take as a basis for the current policies scenario as stated policies are highly certain to be achieved in the country— and calculate total primary energy demand (TPED) based on the Chinese methodology of applying the average efficiency of coal-fired power plants to calculate TPED from non-fossil sources (renewables and nuclear) (IEA, 2022b). We start with an efficiency of 305.5 grams coal equivalent (gce) per kWh (around 8.9 MJ/kWh for Chinese coal-fired power plants), based on NDRC (2021), which improves over time to 300 gce/kWh in 2025 and 295 gce/kWh in 2030 based on a conservative scenario from IEA (2021b). This is deemed as an optimistic end of the CPP as it is an ambitious interpretation of current policies and achieves China’s NDC targets. Given that China’s NDC targets are now subsumed under domestic policies, and that China’s current policy developments are highly likely to overachieve its targets, we employ this as a minimum bound. In addition to the policies in the max scenario and NDC targets, the CPP min additionally integrates: Reduce CO 2 intensity of economy by 18% from 2021 to 2025 Doubling wind and solar generation from 2021 to 2025 (L. Wang, 2022) 20% non-fossil share of energy mix by 2025 over 50% of incremental electricity consumption is met by renewables from 2021-2025 This scenario describes a different projection of China’s energy system, now freed from the national shift from dual-energy to dual-carbon controls (no longer limiting energy demand growth in guidance to policymakers and developers). This scenario shows a growing energy demand off the back of an accelerated power sector transformation: energy demand is met by an exponential rise in renewable (wind and solar) development and integration. Renewables can both meet the rise of demand and also displace fossil fuels, namely coal consumption which drops steeply to 2030. In both scenarios, supply-side targets such as the production capacity of fossil fuels and installed capacity targets from the 14th FYP on energy are not considered binding as these policies will likely result in excess capacity with uncertain outcomes for emissions. After integrating the aforementioned policies into the energy sector results, we calculate energy sector emissions using IEA WEO STEPS (IEA, 2022a) emission factors for fossil fuels in both scenarios and account for developments in carbon, capture and storage (CCS) after 2030. Industrial-process emissions: We project industrial-process CO 2 emissions by applying growth rates from cement process emissions for the non-OECD region based on the IEA Energy Technology Perspectives 2016 report’s 6DS scenario to our latest 2022 value estimates. CO 2 emissions for industry peak have been revised to peak in 2025, five years earlier than China’s building materials peaking plan (MIIT of China, NDRC, MEE, et al. , 2022). According to the China Cement Association, it is predicted that cement clinker will reach peak consumption and production during the "14th FYP" period (2021-2025), with its carbon emissions declining after peaking at approximately 1.45 billion tons (Zhang, 2021). Other non-CO 2 emissions: For non-CO 2 emissions from energy, fugitive emissions, agriculture, industrial processes, and waste, we apply sector-specific growth rates for non-CO 2 emissions from (Lin et al. , 2019) to our latest 2022 value estimates. This source considers recent policies implemented since 2015, leading to improved certainty on Chinese non-CO 2 emissions in 2030, compared to previous assessments. The reference scenario used assumes that no non-CO 2 mitigation measures will be implemented before 2050, except for efforts made to reach the Montreal Protocol targets for HFCs from HCFC-22 production, which are phased out. We additionally quantify the impacts of the Kigali Amendment on HFCs following the staged phaseout schedule eventually leading to an 80% reduction from baseline levels by 2045.</t>
+  </si>
+  <si>
+    <t>Current policy projections have been harmonised to historical emissions up to 2022. We derive our current policy projections using a few different sources. For the upper range of our current policy projections, we use: Energy CO2 emissions: based on the Asian and Pacific Economic Cooperation (APEC) 2022 Outlook. As this scenario includes all current key policies, no additional calculations were added. These policies include Chile’s Energy Efficiency Law, the retirement of coal plants by 2040, with 65% of coal plant capacity shutting down before 2025, the National Electromobility Strategy, as well as its Hydrogen Strategy (APEC, 2022). Energy non-CO2 emissions: based on non-CO 2 emissions projections from the U.S. Environmental Protection Agency (U.S. Environmental Protection Agency, 2019). Industrial processes, agriculture, and waste emissions: based on Chile’s Fifth Biennial Update Report (BUR5) (Ministerio del Medio Ambiente, 2022). For the lower range of our current policy projections, we use: All sectors, including energy: based on the ‘Transición tardía’ projections from Chile’s Fifth Biennial Report (Ministerio del Medio Ambiente, 2022). For ‘other’ sector emissions in both scenarios, we have taken a 10-year historical trend (2010-2019) from PRIMAP (Gütschow and Pflüger, 2023). We also compared our current policy projections to those from Observatorio de Carbono Neutralidad (across all sectors) harmonised to 2022 emissions, but this currently falls between the lower and upper end of our CPP (Observatorio de Carbono Neutralidad, 2024). Some policy developments such as the update on the Distributed Generation Law (also referred to as the “Net Billing” Law) (Law 20.571), which triples the capacity threshold for installed capacity for projects of self-consumption, are not quantified due to lack of available data.</t>
+  </si>
+  <si>
+    <t>Our current policy projection is based on the ‘Reference Case’, which is updated annually by the Government of Canada, harmonised to the last historical year of 2022 (Environment and Climate Change Canada, 2023b). The projections include policy measures in place as of August 2023. In December 2023, Canada adopted its EV sales mandate regulations. We have adjusted our current policy projection to reflect this change. Beyond that change, we consider the current policy projection to be an accurate picture of the policy landscape as of January 2024. The EV sales mandate adjustment is based on the estimated impact of the measure as outlined in the Regulatory Impact Statement and the difference between the reference and with additional measures scenario (Government of Canada, 2023e). We do not include any contribution from LULUCF or market credits from the Western Climate Initiative in our estimates.</t>
+  </si>
+  <si>
+    <t>For the current policies scenario, we present a range which is calculated as described below. Higher end of the range: Energy and Industry sector CO 2 emissions are taken from the latest projections from the World Energy Outlook (IEA, 2023b). Energy, Industry, Agriculture and Waste sector non-CO 2 emissions are taken from the US EPA “Non-CO 2 GHG emissions” report with data available for the period between 1990 to 2030 (U.S. Environmental Protection Agency, 2019). Other CO 2 emissions from the agriculture sector are calculated based on the historical trend of the sector’s CO 2 emissions (2013-2022). Other CO 2 emissions for the waste sector are calculated by taking the average level of the last four years at 2022 levels. All of the above were harmonised to the last historical data point. Lower end of the range: Total GHG emissions excluding LULUCF taken from the 2023 Global Energy and Climate Outlook (JRC, 2023) and harmonised to the last historical data point.</t>
+  </si>
+  <si>
+    <t>To estimate Bhutan’s emissions under current policies, we subtracted the estimated mitigation potential for policies for which we could find evidence of implementation from our business as usual (BAU) estimates. BAU projections The bottom end of our BAU range is based on the low-growth scenario included in Bhutan’s Third National Communication, harmonized to latest historic year. The GDP growth in this scenario is 4.2% (Royal Government of Bhutan 2020a). BUR1 does not provide any updated BAU estimates. The top end of BAU has been derived using IMF GDP growth rates as a proxy for emissions growth for the period 2023-2027 and assuming emissions follow the 5-year trend for the remainder of the decade (2028-2030) (IMF 2022). Average GDP growth under this method is 5%. The Third National Communication’s high-growth scenario assumed 8%; however, in light of the pandemic, we consider the estimates from the IMF to be more likely. Implemented policies The Third National Communication lists the mitigation potential of various sectoral measures (Royal Government of Bhutan 2020a). Several sector LEDS also provided information on the mitigation potential of various measures. We have considered only those measures for which we could find evidence of implementation and subtracted their impact from our BAU estimates to derive our current policy projections. Sector specific policies considered for the current policy projections are outlined below. These mitigation potential estimates are developed using various BAU trajectories, however we have not adjusted for this fact. Transport We could only find evidence of implementation of the Euro VI emissions standard and some EV related measures (EV charging station and promotion of electric taxis) for transport sector (Kuensel Online 2022c; Ministry of Information and Communication 2021a; Kuensel Online 2022b). The Euro VI emission standard has been implemented since January 2022 (Kuensel Online 2022b). To estimate an annual reduction, we divided the cumulative mitigation potential estimate, provided in transport LEDS for the period 2021-2025, by 4 (as the measures was planned to begin in 2022). We assume that the level of annual reductions will remain constant throughout the rest of the decade. This reduction is included in both policy projections. For the EV measures, we used the electric passenger vehicle mitigation potential estimate provided in the transport LEDS. As it is not clear whether all EV related measures associated with this estimate are being implemented, we only included the mitigation potential from this measure in the lower end of the current policy projection. We assume that the emissions estimates provided in the transport LEDS is for CO 2 only. Agriculture &amp; waste While Bhutan did not achieve its organic farming target, we think it is still advancing policy action in this area (see main policy section for details) and is also advancing on its biogas plans (see discussion in the Waste section of the policy tab ). We have taken mitigation potential of organic farming and biogas production from the LEDS of Food Security to estimate the effect of these policy actions (Ministry of Agriculture and Forests 2021). The LEDS does not specify which GWPs are used to calculate its figures, however we assume it to be SAR values as that is what was used in the NDC update. BUR1 does not provide a gas by gas breakdown of emissions for the agriculture sector, however based on the information provided we estimate that emissions are roughly 80% methane and 20% N 2 O (Royal Government of Bhutan 2022). (This breakdown is also consistent with PRIMAP data for the sector for the pre-pandemic period). We use this split to convert the organic farming estimate to AR4 GWP. For biogas production, only methane emissions will be reduced and GWP is converted to AR4 accordingly. The Human Settlement LEDS includes two measures for the waste sector relating to composting and wastewater management for which activities are being implemented (see the discussion in the Waste sector of our policies tab for more details) (Ministry of Works and Human Settlement 2021). We assume that these measures will reduce methane emissions only (the electricity generation associated with the wastewater management is negligible) and have converted the GWP from SAR to AR4 for that gas only. Energy efficiency Roadmap In 2019, Bhutan adopted Energy Efficiency and Conservation Roadmap for building, appliances and industries (Dept. Renewable Energy 2019). As Bhutan’s hydroelectricity is considered to have zero emissions, the energy savings from the appliance measures will have no impact on Bhutan’s emissions (though may allow it to export more electricity to India, offsetting higher emitting sources of power there). Much of the building sector mitigation potential is from biomass use reduction, which will eventually contribute to Bhutan’s sink capacity, and not fossil emissions. CAT estimates are excluding LULUCF, thus we have only considered industry sector mitigation potential from Energy Efficiency Roadmap. This estimate still includes some biomass, albeit a much smaller amount, and we have not adjusted it. We assume all emission reductions are CO 2 only. The Roadmap includes two estimates, the maximum potential reductions for the sector 0.02 MtCO 2 e over a 15-year period as well as an estimate for the selected measures the government will purse, we use the latter.</t>
+  </si>
+  <si>
+    <t>The policies and action projection are based on government projections from 2023 (DCCEEW, 2023b). The CAT always provides policies and action projections excluding LULUCF. To this end, the CAT subtracted the projections provided for LULUCF. The current policy projections are based on the ‘baseline’ scenario of the 2023 projections, adjusted to include mitigation from the New Vehicle Efficiency Standard (NVES) as this measure has now been implemented. The NVES is part of the government’s 2023 ‘with additional measures’ scenario. The government’s baseline scenario includes "current policies and measures and announced policies where there is sufficient detail to make robust assumptions in the modelling” (DCCEEW, 2023b). New policies introduced in the 2023 baseline scenario that were not included in the 2022 version, include: the Safeguard Mechanism reform, the Safeguard Transformation Stream, elements of the National Electric Vehicle Strategy, notably the Fringe Benefits Tax exemption, the Household Energy Upgrade Fund the original framework of the Capacity Investment Scheme (before its November 2023 modification), and the Renewable Energy Guarantee of Origin. The full list of policies integrated in this scenario is available in the 2023 projections (DCCEEW, 2023b).</t>
+  </si>
+  <si>
+    <t>The CAT uses the projections developed by Gabriel Blanco and Daniela Keesler (UNICEN), in the report “Transición energética en la Argentina: Construyendo alternativas”, and “Escenarios 2050 para la Argentina: sector agrícola, ganadero, forestal y otros usos de la tierra” (Blanco &amp; Keesler, 2022; Keesler &amp; Blanco, 2024) to develop our current policy projections. These studies provide projections for all sectors based on current sectoral plans and actions in place, including the exploitation of non-conventional fossil fuels as of 2022. The UNICEN business-as-usual (BAU) scenario for the power sector has the following assumptions: Accounts for the penetration of renewable energy in the power sector following the current trend Adjusts the emissions curve of the power sector to capture the current development of nuclear energy Accounts for barriers in the implementation of energy efficiency measures presented in the sectoral plans (buildings, industry, and transport) Takes into account the significant development plan for the exploration and exploitation of fossil fuels (fracking and off-shore oil and gas production) The document does not mention the carbon tax We apply the growth rates from the UNICEN BAU scenario for the energy, industry, and waste sectors to the 2022 historical data points for those sectors. The agriculture sector projections have the following assumptions: Livestock: An increase in the number of heads of cattle for beef, reaching almost 62 million heads by 2050, representing a 24% increase compared to the current stock, driven by the combined increase in domestic consumption and exports. A 10% increase in the efficiency of beef production by 2050 compared to the current 216 kg/head slaughtered. A 28% growth in beef exports compared to 2020 values, following the trend of international beef trade projected by OECD/FAO (2021). Although global per capita consumption is expected to decline by 5% by 2030, population growth will result in a 0.7% increase in global beef demand in the same period (OECD, 2021) . Agriculture: A 14% increase in the use of synthetic nitrogen fertilizers by 2050 compared to the current 16.6 kg fertilizer/ton of grain, considering usage trends from the last 30 years (1990-2020). No change in the management of harvest residues compared to current practices. A 90% reduction in the burning of forests and grasslands compared to the 1,000,000 ha that are currently burned.</t>
+  </si>
+  <si>
+    <t>The policies and actions projections are based on the scenario presented on the Ministry for the Environment website in March 2022 and harmonised to historical emissions of 2021 (Ministry for the Environment 2022f). The projections include “existing policies including a carbon price of $35 per tonne of CO 2 e in the Emissions Trading Scheme”. The government projections from the Fourth Biennial Report include the effects of key quantifiable policies and measures implemented prior to 2019. Specifically, it includes the New Zealand Emissions Trading Scheme; Efficient Products Programme, Insulation and heating grants programmes; Productive and Low Emissions Business Programme; Kigali Amendment to the Montreal Protocol; National Policy Statement for Freshwater Management; Indirect effects of combined forestry land-use policies on agricultural land use; Afforestation Grant Scheme; Permanent Forest Sink Initiative; Sustainable Land Management Hill Country Erosion Programme; Erosion Control Funding Programme; One Billion Trees Programme; Crown Forestry Joint Ventures; National Environmental Standard for Air Quality (landfill methane); Waste Disposal Levy; Indirect effects of combined agricultural (forestry and land use) policies on waste; and the Tokelau Renewable Energy Project. The policies and actions projections do not include the NZ ETS reforms of June 2020.</t>
+  </si>
+  <si>
+    <t>The current policy scenario is based on projections from Nepal’s Long-term Strategy 2021 for CO 2 emissions from the energy, industry, agriculture and waste sectors (Government of Nepal, 2021); and EPA projections for non-CO 2 emissions (EPA, 2019). The LTS sketches emissions value in the WEM (With Existing Measures) and the WAM (With Additional Measures) scenarios. We based the calculations only on the with WEM scenario. We used interpolation to complete the series from 2019 to 2050. Then, the WEM scenario was harmonised to historical data from PRIMAP 2022 is used for current policy scenario.</t>
+  </si>
+  <si>
+    <t>Current policy projections are based on BAU emissions projections and the mitigation potential provided in the Third Biennial Update Report (Kingdom of Morocco, 2022b) and the Fourth National Communication (Kingdom of Morocco, 2022a). The BAU provided by Morocco only considers mitigation measures in place before 2010, which is used as the base year. In the two documents mentioned above, Morocco has put forward a detailed list of mitigation measures it will implement to reach its 2030 target, separated into conditional and unconditional measures (i.e., measures to be achieved with and without international financial support). There is little information on their state of implementation. However, despite initial delays, Morocco is ramping up efforts to meet its ambitious renewable energy target. As such, we believe Morocco is still on track to meet its 2030 targets. For the lower end of the current policy scenario, we start by determining the value for 2030, using the 2030 BAU minus the unconditional and conditional mitigation potentials. We then interpolate between 2021-2030, assuming Morocco could still catch up to reach the 2030 mitigation level (Morocco is already delayed on their mitigation trajectory in 2020-2021). For the upper end of the current policy scenario, we use the same approach but deduct the unconditional mitigation potential only from the BAU trajectory. There are still uncertainties regarding the extent of climate finance Morocco will receive, and therefore the mitigation measures they will be able to put in place. We also excluded the LULUCF related measures planned the in the agricultural in the current policies projection. It should be noted that plans to ramp up gas and start offshore extraction are not taken into account in the policy projections. Additionally, it is unclear what impact lifetime extension of existing coal fired power plants will have on the CPP range, as there is no information on what is exactly taken into account in the BAU provided by Morocco.</t>
+  </si>
+  <si>
+    <t>Upper range (CPP Max.) The upper bound of our current policy projection is based on a combination of data sources (IEA, 2019; U.S. Environmental Protection Agency, 2019). Energy-related CO 2 emissions are based on growth rates from the Stated Policies Scenario of the IEA Africa Energy Outlook 2019. This scenario assumes a partial implementation of Kenya’s National Electrification Strategy. We assumed other, non-energy CO 2 emissions would grow based on the same growth rate since most non-energy CO 2 emissions come from the industry sector. Industry, agriculture, waste, and other non-CO 2 emissions are based on non-CO 2 emissions projections from the US EPA. We have adjusted these projections to take into consideration the impact of the pandemic (see below) and have harmonised the series to the last historical year. Lower range (CPP Min.) In January 2017, the Ministry of Environment and Forestry released an assessment report containing an updated emissions baseline to inform how sectors could contribute to meeting Kenya’s NDC (Ministry of Environment and Natural Resources, 2017a). The objective of the assessment was to examine expected contributions to emissions reductions from each sector, explore sectoral mitigation actions to meet the NDC target, and examine new information that could impact the achievement of the NDC targets. The update was based on new historical activity data out to 2015 for each emission source as well as new information on drivers of future emissions (2016- 2030), such as GDP growth forecasts by sector, new projections on electricity generation projects and new forecasts for urbanisation. For the lower end of the range, we have taken the updated emissions baseline for all sectors except electricity generation, transport and agriculture (Ministry of Environment and Natural Resources, 2017a). The data for electricity generation is taken from the 2017-2037 Least Cost Power Development Plan (LCPDP), for the transport sector, the data is taken from the 2019/2020 Transport Sector Climate Change Annual Report, which indicates a list of mitigation actions the sector plans to implement that should allow it to achieve its sectoral NDC target, and for the agriculture sector, the data is taken from the Kenyan Climate Smart Agriculture Strategy 2017-2026, which includes an indicative 2026 emissions level based on proposed mitigation actions (Government of Kenya, 2019; Ministry of Agriculture, 2018; Republic of Kenya, 2018). We did not quantify the mitigation actions outlined in National Climate Change Action Plan (NCCAP) for the electricity generation, energy demand, industry, and waste sectors due to uncertainty about their current implementation status. We have adjusted these projections to take into consideration the impact of the pandemic (see below). This scenario is also harmonised to the last historical year.</t>
+  </si>
+  <si>
+    <t>Power CO 2 emissions The emission estimates from the 8th Power Development Plan (PDP8) are based on coal and gas emissions factors derived from the IEA’s Emissions Factors for Viet Nam, and the plan’s power sector emissions targets (204-254 MtCO 2 e in 2030). The yearly coal and gas generation is interpolated to 2030 by taking into account the combined domestic gas and LNG-fired generation values of 157 TWh by 2030 mentioned in the plan, aligning with the overall emissions targets for 2030 (IEA, 2021b; Viet Nam Government, 2023a). The percentage of coal generation within the 2030 power mix was determined based on the anticipated 2030 generation value of 567 TWh included in the PDP8 (Viet Nam Government, 2023a). For post-2030, sectoral current policy projections were interpolated with the 2050 power sector emissions range included in the PDP8. The upper bound of the current policies power sector emissions projections coincides with the upper bound of the range indicated in the PDP8. The lower bound of the current policy projections was calculated using the average of the growth rate of power sector emissions from both ends of the range included in the PDP8 (Viet Nam Government, 2023a). Non power energy CO 2 emissions Non-power energy CO 2 emissions are assumed to follow the same growth rate as in the APEC Energy Demand &amp; Supply Outlook 2022 (APEC, 2022). The current policy projections takes into account the energy savings from the Viet Nam National Energy Efficiency Program 3, but do not include the World Bank funded Viet Nam Scaling Up Energy Efficiency Project which would further reduce energy demand (APEC, 2022). Non-CO 2 emissions The emissions of energy related non-CO 2 greenhouse gases, agriculture and the waste sector are based on non-CO 2 emissions projection of US-EPA (U.S. Environmental Protection Agency, 2019). For the lower end of industrial emissions, we assume that the last historical year (2021) growth rate will continue, and for the upper end we assume average growth rate of the last 5 years (2017-2021) will continue.</t>
+  </si>
+  <si>
+    <t>NOTE: Current policy projections for the UK have not been updated since the September 2023 CAT profile. A new current policy projection will be quantified in 2025. To estimate current policy projections, we use the 2023 progress report from the UK’s Climate Change Committee (CCC, 2023a). In this report, the CCC estimates the impact of current UK policies on emissions. Policies are ranked as ‘credible’, displaying ‘some risks’ to delivery, displaying ‘significant risks’ to delivery, or ‘insufficient’. To calculate the upper range of the current policies trajectory, we take the impact of all credible policies. These are policies where there are proven delivery mechanisms, a credible combination of public/private financing and clear timelines in place. The resulting emissions savings come predominantly from the zero-emissions vehicle mandate to drive EV sales and the renewable electricity supply policies in the power sector. To estimate the lower end of the current policy trajectory, we additionally include the impact of all policies ranked as displaying ‘some risks’. These include policies around home decarbonisation, industrial CCS, hydrogen, and also some policies in the transport and electricity supply sectors. The CCC estimates that in 2030, there are credible policies to cut emissions by 42 MtCO 2 e, relative to the baseline. Policies with some risks to delivery could cut emissions by a further 51 MtCO 2 e in 2030. This gives an emissions level in 2030 (converting to AR4 GWPs and removing international aviation and shipping and LULUCF emissions, all of which are included in the CCC’s estimates) of 340–394 MtCO 2 e. The conversion from AR5 to AR4 GWPs is done in the same way as when calculating the UK’s emissions targets, by calculating the ratio between AR5 and AR4 GWPs for 2021. Future LULUCF and international bunker emissions are taken from the UK’s Net Zero Strategy (UK Government, 2021b). Note: Our data download includes projections until 2035; however, our graphics display the data until 2030 only.</t>
+  </si>
+  <si>
+    <t>The current policy projections were generated in five steps: First, we estimate the total emissions projections under current policies as the aggregation of the energy, industry, agriculture, and waste sectors: GHG emissions in the energy sector: Energy-related CO 2 emissions projections: short-term projections (2023–2025) were taken from the US Energy Information Agency’s (EIA) Short-term Outlook from August 2024 (U.S. Energy Information Administration, 2024e). These projections are harmonised with long-term projections (2024–2035) taken from a model comparison study by the US Environmental Protection Agency (EPA) (U.S. Environmental Protection Agency, 2023d) . The modelling comparison study includes the implementation of the Inflation Reduction Act (IRA). It represents the upper range of emissions projections. Non-CO 2 emissions in the energy sector from EPA’s U.S. State-level Non-CO₂ Greenhouse Gas Mitigation Potential: 2025–2050 (U.S. Environmental Protection Agency, 2022b). All GHGs emissions in the energy sector result from the sum of the CO 2 and non-CO 2 estimates as described above. The resulting projections are harmonised to the latest historical year using growth rates. GHG emissions from industrial processes: the projection of GHG emissions in industrial processes was calculated by type of industry and then aggregated. GHG emissions in the mineral, chemical, and metal industries were projected by applying projected production growth of each industry in terms of value of shipments taken from EIA’s Annual Energy Outlook 2023 (U.S. Energy Information Administration, 2023f), to their respective GHG emissions in the base year. We use two scenarios from the Annual Energy Outlook—the reference scenario and the low economic growth scenario—to create a range of emissions projections. To project the rest of industry processes, we apply the growth rates from industrial process F-gas emissions from the EPA’s U.S. State-level Non-CO₂ Greenhouse Gas Mitigation Potential: 2025–2050, which includes policies that were implemented until early 2015 (U.S. Environmental Protection Agency, 2022b). GHG emissions in the agriculture and waste sectors follow the growth rates of the respective sector in the EPA’s U.S. State-level Non-CO₂ Greenhouse Gas Mitigation Potential: 2025–2050 (U.S. Environmental Protection Agency, 2022b). We did not consider alternative economic growth scenarios for GHG emissions in the agriculture and waste sectors. Second, each of the above emissions categories was harmonised to historical data for each sector by applying the estimated annual percentage change from the projected dataset to the base year. The projections for all sectors were then aggregated to obtain total GHG emissions, excluding LULUCF. These projections are the baseline scenarios. Third, the quantification of the Inflation Reduction Act (IRA) in non-CO 2 emissions and in non-energy sectors: Non-CO 2 emissions: The IRA has the potential to reduce non-CO 2 GHG emissions. The quantification of such impact is based on the assessment of this policy on total GHG emissions (Zero Lab, 2024). We use the mitigation potential range of the current policy scenario (including the IRA) compared to the frozen policy scenario (not including the IRA) on non-CO 2 emissions reported for years 2030 and 2035 and made a linear interpolation for the years in between and zero for 2022. The mitigation potential is subtracted from the baseline scenario emissions, whereby the mitigation effect is 90–100 MtCO 2 e in 2030 and 80–90 MtCO 2 e in 2035. Non-energy CO 2 emissions: The IRA also has the potential to reduce CO 2 emissions in non-energy sectors, mainly in Industry Processes and Product Use (IPPU), which are not quantified in the baseline scenarios. We assume that such emissions reductions will be achieved mainly through Carbon Capture, Utilisation, and Storage (CCUS). The quantification of such impact is based on the assessment of IRA on mitigation potential of CCUS in the study conducted by King, Gaffney, et al. (2024). We assume a range of mitigation potential between zero, to capture the uncertainty around the deployment of CCUS, and the mitigation potential reported in 2030 and 2035, assuming a start of emissions reduction in 2025. We carried out a linear interpolation for the years in between. The resulting mitigation potential for each year is subtracted from the baseline scenarios emissions, resulting in a reduction of the emissions level of up to 77 MtCO 2 e in 2030 and 85 MtCO 2 e in 2035. Fourth, the quantification of the AIM Act, which was not part of the policies considered in the baseline scenario taken from Global Non-CO 2 Greenhouse Gas Emission Projections &amp; Mitigation Potential: Phase down of the production and consumption of hydrofluorocarbons (HFCs) by 85% over the next 15 years. The annual mitigation potential is calculated as a range of between two mitigation potential trajectories for HFC emissions: The first mitigation potential trajectory is based on the HFC emissions projection reported in the 5th Biennial Report in 2020, 2030, 2035, and 2040 (U.S. Department of State, 2022), which considers the implementation of the AIM Act, although does not achieve the proposed target. After harmonising the projections with the latest historical year, we interpolated the years in between and calculated the annual mitigation potential against the baseline scenario. The second is based directly on the annual HFCs consumption caps defined in the AIM Act (U.S. Environmental Protection Agency, 2021a). We then calculated the mitigation potential against the baseline scenario. The resulting mitigation potential range for each year is subtracted from the baseline scenario emissions, resulting in a reduced emission levels of 50–150 MtCO 2 e in 2030 and 100–200 MtCO 2 e in 2035. Fifth, economy wide emission projections from a 2024 study by the Rhodium Group (King, Kolus, et al., 2024) were included in the analysis as well, after deducting LULUCF sinks based on the 5th BUR. The study includes additional policies, including the impact of the EPA's emissions standards for vehicles beginning in model year 2027 (U.S. Environmental Protection Agency, 2024i) and the EPA's pollution standards for fossil fuel power plants (U.S. Environmental Protection Agency, 2024m). This study represents the lower end of the current policy projections range.</t>
+  </si>
+  <si>
+    <t>Lower bound The UAE’s LTS includes current policy projections which are used as a baseline for the net zero scenario (Government of the UAE, 2024b). The current policy projections include all mitigation measures in force up to 2024 in all sectors of the economy, while the net zero scenario includes planned measures and their estimated contribution towards the target. The CAT uses the UAE’s LTS current policy scenario for the lower bound of its own current policy projections. The CAT harmonizes the UAE’s LTS current policy scenarios to the latest available historical GHG emissions data (from 2022) using the growth rates of the original scenario for the period 2022-2035. The UAE only provided data for its current policies for the years 2019, 2030, 2040 and 2050. To create a pathway, the CAT linearly interpolates the values between these years. Because the original projections include emissions and sinks from LULUCF, the CAT assumes that LULUCF emissions remain at 2019 levels (latest historical data available) under current policies. The UAE’s 2019 LULUCF emissions are -1 MtCO 2 e. Upper bound For the upper bound of our current policy projections, we estimate the impacts of the 2050 Energy Strategy on emissions with a range to reflect for uncertainties around the efficiency target and total energy generation. We use IRENA’s Renewable Energy Prospects report as our basis for energy-related CO 2 emissions (Masdar Institute/IRENA, 2015) and calculate the difference in emissions that would result from the 2050 Energy Strategy. The upper end of our range reflects the installed capacity targets for 2030 in the 2050 Energy Strategy, without calculating the impacts of energy efficiency measures. For this projection, we estimate total power generation by technology using capacity factors estimated based on the IRENA REMAP BAU scenario (Masdar Institute/IRENA, 2015). In summary, the CPP upper end of the range for the UAE’s energy-related CO 2 emissions is based on assumptions both about which targets will be implemented, as well as the role of fossil gas in the development of the power system. For CO 2 process emissions (from industry), we continue a linear trend based on total industrial process emissions from the years 2011–2022 until 2030 (Masdar Institute/IRENA, 2015). For non-CO 2 emissions, we apply the growth rate from the Global Anthropogenic Non-CO 2 Greenhouse Gas Emissions: 1990–2030 to PRIMAP historical data (US EPA, 2019). We use the following data sources in our estimates: Energy-related CO 2 from fuel combustion: “Renewable Energy Prospects – United Arab Emirates” (Masdar Institute/IRENA, 2015) CO 2 process emissions (from industry): Own assumption to continue linear trend based on total industrial process emissions from the years 2011–2022 until 2030. Non-CO 2 emissions: Global Anthropogenic Non-CO 2 Greenhouse Gas Emissions: 1990–2030 (US EPA, 2019) Historical installed capacity data: IRENA capacity and generation statistics 2023 (IRENASTAT, 2023) Historical electricity generation data: IEA World Energy Balances 2022 (IEA, 2022) Historical emissions factors: IEA Emissions Factors 2021 (IEA, 2021a).</t>
+  </si>
+  <si>
+    <t>In the previous update from 2023, we used a method for quantifying the current policy projections that relied heavily on the ‘With Measures’ (WM) scenario developed by Türkiye for its 2015 INDC with a historic base year of 2012. Türkiye has not updated its WM scenario since then and by its own admission the WM scenario does not reflect the results of its current policies and measures (Republic of Türkiye Ministry of Environment Urbanisation and Climate Change, 2023). It is working on updated the WM scenario and is expected to share the updated scenario in the Ninth National Communication. We have therefore chosen to no longer use the WM scenario and construct our current policy projections based on the best available sources. To construct the current policy projections, we use a sectoral and gas-by-gas approach. We start by applying the historical ratio from 2021 of CO 2 , CH 4 , N 2 0, and F-gases in the Energy, Industry, Agriculture, and Waste sectors to the estimated GHG emissions for each sector in 2022 (Republic of Türkiye Ministry of Energy and Natural Resources, 2023). For the upper bound of our current policies projections, we apply the Baseline Scenario’s growth rate for total CO 2 from the Istanbul Policy Centre’s report “Turkey’s Decarbonization Pathway: Net Zero in 2050” (Şahin et al., 2021). We apply growth rates for non-CO 2 emissions from the US Environmental Protection Agency’s (US EPA) projections to each non-CO2 gas in energy and industry (U.S. Environmental Protection Agency, 2019). For the agriculture and waste sectors, we apply US EPA’s total non-CO 2 growth rate for the respective agriculture and waste sectors to all gases in those sectors in 2022. While the US EPA estimates are for non-CO 2 emissions only, the amount of CO 2 emitted by the agriculture and waste sectors is so small as to be non-existent, so we use the growth rates for the sector as a whole. For the lower bound of our current policies projections, we use the World Energy Outlook (WEO) (IEA, 2023). We subtract the EU’s total energy CO 2 in the State Policies Scenario (STEPS) from Europe’s STEPS total energy CO 2 to get other-Europe total energy CO 2 which includes other countries than just Türkiye. Then we apply the growth rate of STEPS other-Europe energy CO 2 to historical CO 2 from energy in 2022. For industry CO 2 , we apply the growth rate STEPS other-Europe industry CO 2 to historical CO 2 from industry in 2022. For non-CO 2 from energy and industry as well as all gases in agriculture and waste, we follow the same method as indicated above. Finally, we sum all the individual gas projections and sectoral projections together to have an upper and lower bound for all GHG emissions under current policy projections.</t>
+  </si>
+  <si>
+    <t>The lower bound of our current policy projection assumes that GHG emissions will grow according to the 5-year trend extension (2015-2019). We have not accounted for any potential policy measures The Gambia has proposed due to a lack of data regarding the status of their implementation and thus were not able to create a policy projection based on the updated business as usual (BAU) projection provided in The Gambia’s 2021 NDC (Republic of The Gambia, 2021a). The upper bound of our current policy projection uses the growth rates from the IEA’s Africa Energy Outlook 2019 Stated Policies Scenario for CO 2 emissions and the US EPA’s growth rates for non-CO 2 emissions (IEA, 2019; U.S. Environmental Protection Agency, 2019). The AEO SPS covers the entire continent. We were not able to find any estimates for The Gambia specifically and thus used the AEO SPS as a proxy.</t>
+  </si>
+  <si>
+    <t>For our current policy projections, we use a study be the Zurich University of Applied Sciences (ZHAW), which is the only scenario analysis identified that quantifies the impacts of the new RE Act of June 2024 (Rohrer et al., 2024). The study builds on the modelled Energy perspectives 2050+ (scenario WWB) (Bundesamt für Energie, 2022), which are also used for the “with existing measures” scenario submitted to the UNFCCC in Switzerland’s 5th Biennial Update Report (Swiss Federal Office for the Environment, 2022). The projection is then harmonised to actual 2022 emissions from the most recent national inventory (Bundesamt für Umwelt BAFU, 2024b).</t>
+  </si>
+  <si>
+    <t>Current policy projections are calculated based on emissions reductions below the BAU scenario from the 8th Edition of APEC Energy Demand and Supply Outlook (APERC, 2019) and the US EPA non-CO 2 emission projections until 2030 (US EPA, 2019). Non-energy related CO 2 emissions are assumed to remain constant at the 2021 level. The APEC BAU is not used as a current policy scenario as its forecast for renewables share in power generation (7.6%) is comparable to the 2020 share of renewables (6%) (IEA, 2021c) and much lower than other studies, which range from 14% to 20% (J. H. Hong et al., 2019; Keramidas et al., 2018; Wood Mackenzie, 2019). With no change to the five-year trend in renewables share, this would reach around 15% in 2030. We therefore consider the 10 th Electricity Plan for the upper bound of current policies projections – 21.6% of RE in 2030. We derive the emissions projection from the APEC BAU by assuming additional generation from renewables replaces coal-fired power generation. We consider the targeted share under the revised Renewable Portfolio Standard (RPS) of 25% power generation from RE by 2030 (MOTIE, 2020) for the lower bound current policies projections. The average electricity CO 2 emission factors for each fossil fuel type in South Korea were assumed to be similar to the values forecast for Japan in the IEA’s World Energy Outlook 2020 (IEA, 2020).</t>
+  </si>
+  <si>
+    <t>Lower bound projection The lower bound of the current policy projections is based on a combination of the IEA World Energy Outlook (WEO) 2020 for CO 2 emissions from fuel combustion (IEA, 2020) and non-CO 2 emissions from the US EPA (2019). For other CO 2 emissions (fugitive CO 2 emissions and process emissions), we used historical data from the National GHG Inventory Report extended to 2021 with growth rates from PRIMAP and assume a direct correlation to emissions from coal-fired power plants afterwards (DFFE, 2023; Gütschow &amp; Pflüger, 2023). The WEO2020 Stated Policies Scenario for CO 2 emissions from fuel combustion assumes full implementation of the 2019 Integrated Resource Plan with COVID-19 delay. For this reason, we do not further need to adjust installed energy capacities by 2030 as in past CAT assessments for South Africa using the Current Policies Scenario available in previous WEO reports. For non-CO 2 emissions, we applied the growth rate from US EPA (2019) projections until 2030 to historical emissions. For CO 2 process emissions and fugitive CO 2 emissions, historical emissions data from PRIMAP (Gütschow &amp; Pflüger, 2023) was used to check the correlation to emissions from coal-fired power plants. For projections, CAT assumes that this correlation will continue, meaning that we assume CO 2 process emissions to develop with the same trend as the CO 2 emissions from coal fired power plants in our current policy projections. Upper bound projection The upper bound of the current policy projections is based on the ‘existing policies scenario with reference growth rate’ by the University of Cape Town’s technical emissions scenario analysis to inform the 2021 NDC update (Marquard et al., 2021). The ‘existing policy scenario’ assumes the full implementation of the IRP2019, a new world-scale crude refinery coming online in 2028 in line with government procurements, other crude refining capacity and coal-to-liquids capacity available until 2050, and the forecasted modernisations introduced by the 1st and 2nd National Waste Management Strategies. We harmonise the scenario’s growth rates for total emissions excluding land use emissions to the latest historical datapoint of 2021. This harmonisation process results in significantly higher final estimates for 2030 than assumed by the University of Cape Town’s ‘existing policies scenario with reference growth rate’ (502MtCO 2 e compared to 479 MtCO 2 e excluding LULUCF). Note that the University uses GWP values from the IPCC’s Second Assessment Report (SAR), while the CAT uses GWP values from the Fourth Assessment Report (AR4).</t>
+  </si>
+  <si>
+    <t>Our current policy projection (CPP) for energy CO 2 is constructed using projections from the APEC Energy Demand and Supply Outlook for sectoral CO 2 emissions, energy balance, and energy mix (APEC, 2022). We have adjusted these projections to take into account the most recent developments announced by Singapore’s Energy Market Authority, as follows: Total electricity demand was revised upwards consistent with government base case projections outlined in (Energy Market Authority, 2023c). This is 22% higher than APEC projections for electricity demand in 2030. Electricity imports were increased to align with the government's targets. The emissions associated with this electricity was excluded from Singapore's domestic emissions, as these will occur outside of Singapore’s borders. Minimum and maximum trajectories for imports were constructed consistent with the government’s projections, which is the difference between our CPP min and CPP max scenarios (Energy Market Authority, 2023a). The gap between the increased electricity demand and the increases in solar and electricity imports was assumed to be met by gas-fired generation, consistent with the government’s plans to increase LNG imports and add gas-fired generation capacity (Energy Market Authority, 2022b, 2023d). The historic grid emissions factor (GEF) was applied to this generation. We derive our current policy projections for non-energy CO 2 and non-CO 2 emissions by applying growth rates to the latest historical data. For non-energy CO 2 , we have assumed GDP growth as a proxy for growth in emissions by applying projected IMF GDP growth rates (IMF, 2023). For non-CO 2 emissions, we have applied the growth rate for Singapore’s non-CO 2 emissions from the US EPA Global Non-CO 2 Greenhouse Gas Emission Projections &amp; Mitigation Potential, harmonised to the latest historical year (U.S. Environmental Protection Agency, 2019).</t>
+  </si>
+  <si>
+    <t>We use a business-as-usual (BAU) emissions scenario developed by the King Abdullah Petroleum Studies and Research Center (KAPSARC) for the upper end of our current policy projections (KAPSARC, 2021), adjusted to our latest historical data. Given the slow progress on renewable energy deployment and the lack substantial mitigation policies in other sectors, we estimate the BAU scenario to reflect current developments. The BAU scenario assumes 11 TWh of electricity generated with solar PV by 2030, which we estimate would translate to around 5–6 GW of solar PV capacity by 2030. Given that only 0.4 GW of renewable energy capacity had been installed by end of 2022 (IRENA, 2023), and that only few projects have been tendered since then, 5–6 GW of renewable capacity by 2030 is broadly in line with the current pace of deployment. For the lower end of our current policy scenario, we take the above BAU scenario but replaced it with CO 2 emissions provided in KAPSARC’s latest baseline forecasts of carbon dioxide emissions (KAPSARC, 2023a). We then adjusted the results to our latest historical data.</t>
+  </si>
+  <si>
+    <t>The lower bound of our current policy projection until 2030 is primarily based on the World Energy Outlook (WEO) 2021 Stated Policy scenario projections for CO 2 from energy related activities (IEA, 2021b). For non-CO 2 emissions, we use the US EPA’s growth rates for non-CO 2 emissions and extrapolate the historical trend (U.S. Environmental Protection Agency, 2019). We harmonised these projections to our 2021 estimate. The upper bound of our current policy projection until 2030 is primarily based on the APEC Outlook for Russia for CO 2 emissions (APEC, 2022). While CO 2 from industrial processes is included in WEO 2021 projections, we assume that it is not included in APEC projections because the ratio of CO 2 emissions from industry to total CO 2 emissions is lower in APEC than WEO projections (APEC, 2022; IEA, 2021b). Therefore, we adjusted the APEC scenario by applying the ratio of WEO’s industry emissions to total CO 2 e to calculate additional CO 2 emissions from industrial processes for APEC industry CO 2 emissions. For non-CO 2 emissions, we use the US EPA’s growth rates for non-CO 2 emissions and extrapolate the historical trend (U.S. Environmental Protection Agency, 2019). We harmonised these projections to our 2021 estimate. Previously, we quantified a flaring gas limit and a renewable electricity generation target. We have excluded these targets from the scenario because current policies do not indicate that these targets will be met. Both the WEO and APEC scenarios take into consideration the impact of the COVID-19 pandemic. The CAT has not quantitatively assessed the long-term effect of Russia’s illegal invasion of Ukraine and its numerous implications, for example with regards to a decrease in fossil fuel exports or potential economic decline in Russia.</t>
+  </si>
+  <si>
+    <t>We derive our current policies projection from two principle sources: the 8th edition of the APEC Energy Demand and Supply Outlook and the new Philippines Energy Plan 2020-2040. The lower end of the range is based on the APEC reference scenario (APEC, 2022). This scenario is based on recent trends and current policies, however it is guided by an older Philippines Energy Plan 2018-2040 as well as the AmBisyon Natin 2040 and the “Build Build Build” Program with energy supply and demand continuing to increase. The APEC reference scenario follows recent trends in energy efficiency and renewable energy. APEC scenarios only include energy related CO 2 data. To calculate remaining GHG emissions, the CAT has combined the APEC scenario with non-CO 2 energy data, estimated using a 5-year historical trend, and using the growth rates for non-CO 2 data from the US EPA (2019). All projections data was harmonised with the latest historical year. The upper end of the range is based on the Philippines Energy Plan (2020-2040) reference scenario (Department of Energy, 2022). The PEP 2020-2040 provides emissions for the energy sector, which we add to non-energy CO 2 and non-CO 2 emissions using the same approach as the lower end (described above). The PEP 2020-2040 reference scenario includes the current biofuels blending (2% biodiesel, 10% bioethanol) until 2040, 5% electric vehicles uptake by 2040 and current energy efficiency and conservation efforts maintained to 2040. Both the PEP and APEC scenarios account for the impact of COVID-19. The current policies and action emissions range accounts for the coal moratorium under the PEP 2020-2040 reference scenario. However, there is still an additional 2.6 GW of coal capacity of additional coal capacity added by 2025 in this scenario. Given the uncertainty of the global energy crisis, the CAT accounts for some uncertainty over the moratorium dates. The APEC reference scenario does not assume coal capacity is capped, and therefore does not anticipate the coal moratorium is maintained. APEC also produce a Carbon Neutral scenario, which does account for the coal moratorium, but the impacts are only seen by 2030. The CAT uses the APEC reference scenario to 2030 and takes the same assumption as the Carbon Neutral scenario that additional capacity may continue to 2030. Other moratoriums have been lifted in the past. The Department of Energy had a moratorium in oil and gas activities in the West Philippines sea, which was lifted for energy security reasons (APEC, 2022). The PEP 2020-2040 includes a clean energy scenario (CES) based on clean energy targets, so this is not considered under the CAT current policy and actions trajectory or planned policies. However, when applying the same calculations as applied to the PEP 2020-2040 reference scenario as mentioned above, the CES scenario falls within the CAT current policies and action range. For reference, the clean energy scenario assumes a 35% and 50% share of renewable energy in power generation in 2030 and 2040 respectively. It includes a 5% blending for biodiesel from 2022, a 1.5% increase in fossil gas consumption in transport and industry, a 10% penetration of EVs by 2040, 5% energy savings in oil products and electricity by 2040 and 12% reduction in GHG emissions for the NDC.</t>
+  </si>
+  <si>
+    <t>The current policy projections for total energy-related CO 2 emissions is based on the BAU scenario from the 7th edition of the APEC Energy Demand and Supply Outlook (APEC, 2019). APEC’s BAU scenario assumes that electricity generation will grow by 69% until 2050 due to rapid economic growth, while electricity capacity will increase by 48%. Peru’s generation mix remains dominated by hydropower and gas-fired generation, with wind and solar power together accounting for 6.7% in 2050. This scenario assumes that Peru becomes a net natural gas importer around 2039 as demand rises rapidly and domestic natural gas production declines with the depletion of the Camisea field. The APEC scenarios use historical energy and CO 2 data derived from IEA Energy Balances of non-OECD countries and CO 2 emissions from fuel combustion. The harmonisation of APEC energy-related CO 2 with historical data from PRIMAP-hist results in about a 6 MtCO 2 e decrease in emissions projections for 2030. Non-CO 2 emissions were taken directly from the US EPA “Non-CO 2 GHG emissions” report with data available for the period between 1990 and 2030 (U.S. Environmental Protection Agency, 2019). Other CO 2 emissions were estimated based on their share in the last inventory with data until 2016 (INGEI, 2021) and their expected contribution under BAU in 2030 (Ministry of Environment of Peru, 2020a). Data was interpolated linearly in between years and harmonised with historical data.</t>
+  </si>
+  <si>
+    <t>We use the latest emissions projections under current policies submitted by Norway to the European Environment Agency (EEA) in 2021 harmonised to actual 2020 emissions from Norway’s official GHG emissions inventory submitted to the UNFCCC. The 2021 EEA projections under current policies include the impact of the COVID-19 pandemic.</t>
+  </si>
+  <si>
+    <t>We derive our current policy projections from a combination of the Stated Policies Scenario from IEA’s Africa Energy Outlook 2019 and the Planned Energy Scenario from IRENA’s 2023 Renewable Energy Roadmap Nigeria for energy emissions and from the US EPA for agriculture and waste emissions, and the US EPA and Energy Transition Plan for industry (Federal Republic of Nigeria, 2022; IEA, 2019; IRENA, 2023b; US EPA, 2019). In general, the IEA Africa Energy Outlook 2019 report does not specify which of the policies have been included in the stated policies scenario. The IEA’s Africa Energy Outlook 2022 did not contain updated country level data, hence why we have continued to use the 2019 report (IEA, 2022a). The IEA’s Stated Policies Scenario was used to derive our lower bound projections for energy CO 2 emissions. This scenario assumes development of coal-fired generation in Nigeria; however, all recent coal plant projects have either been cancelled or shelved. Therefore, we have adjusted our lower bound to assume the coal generation in Stated Policies Scenario is met with renewable energy, in line with national targets. For the upper bound, IRENA’s Planned Energy Scenario was used for energy CO 2 emissions. In our lower and upper bound, projections for energy CH 4 and N 2 O are extended using recent historical trends. We have adjusted the energy emission projections from the IEA’s Africa Energy Outlook 2019 to take into consideration the impact of the pandemic. We distilled the emission intensity (GHG emissions/GDP) from the pre-pandemic IEA scenario starting in 2019. This emission intensity estimate was then applied to the most recent GDP projections from the IMF for Nigeria that take into account the effect of the pandemic (IMF, 2022). As these estimates only cover 2022 to 2027, we used the average GDP growth projected by the IMF for 2022-2027 to extend the projections until 2035. Results were then harmonised to our 2021 estimate (see Historical emissions above). The IRENA Planned Energy Scenario already considers the impact of COVID-19.</t>
+  </si>
+  <si>
+    <t>Current policy projections stem from the “with measures” scenario from the Fifth Biennial Report . We harmonise this scenario to historical emissions reported in the latest country inventory using growth rates. The “with measures” scenario includes measures and policies to reduce greenhouse gas emissions that have been taken or are planned to be adopted in the near future. The majority of these measures possess sufficient certainty to be treated as a current policy scenario in our analysis. These include measures to develop the alternative and renewable energy sector in Kazakhstan (Republic of Kazakhstan, 2023a). The Biennial Report’s “with measures” scenario included a target to achieve a 10% share of renewables, in this case wind and solar power, in the country’s energy grid by 2030. However, following the achievement of the 2020 target of 3%, the government announced that they are raising the ambition of the renewables target to a 15% share by 2030 (Satubaldina, 2021). We used electrical power demand and supply projections from Kazakhstan’s Green Economy plan to estimate the emissions reduction potential of this 5% increase (Republic of Kazakhstan, 2015). We first used future coal demand (in TWh) and projected emissions from coal in 2030 under the BAU scenario to develop a coal emissions factor. Since we assume that an increase in renewables will result in a decrease in coal use, we used the difference between coal demand under 10% renewables and coal demand under 15% renewables and the coal emissions factor to determine the emissions reductions potential. This resulted in a reduction of 4 MtCO 2 e, which was subtracted from total emissions under the BR “with measures” scenario to get the new current policy projection.</t>
+  </si>
+  <si>
+    <t>Energy-related CO 2 emissions For the analysis of current policy projections, we used the IEA World Energy Outlook (WEO) 2023 Stated Policies Scenario (STEPS) as a basis (IEA, 2023). The WEO STEPS reflects both implemented policies as well as announced policies (see Annex B.6 of WEO 2023); only for the power sector the electricity mix targets of the updated NDC and the 6th Strategic Energy Plan (METI, 2021c) were assumed to be fully achieved. Since it is premature to assume that the 2030 electricity mix targets would fully be achieved, we explored different shares of renewable and nuclear power generation based on historical trends, estimates by external studies, and current status of nuclear reactor safety examinations. CO 2 emissions from the power sector were re-calculated based on the low and high emission electricity mix cases described below. In the low emissions case , we assumed that: The WEO2023 STEPS scenario projections will be fully achieved, which means that: Nuclear power generation share will reach 20%, the lower range of the 2030 target. The nuclear capacity in operation will reach 30 GW, which will be larger than the total of 25 reactors that have applied for restart and two reactors under construction that applied for future operation to the Nuclear Regulation Authority as of March 2024 (JAIF, 2024). Coal and oil power shares are kept to the NDC target (coal: 19%, oil: 2%). Renewable electricity generation reaches 385 TWh/year in 2030. The resulting share in total generation is 37 %, thus reaching the 36-38 % target. Gas power share is at 20%. In the high emissions case , we assumed that: All 27 reactors that have applied for restart (or future start of operation for plants under construction) as of March 2024 will be in operation by 2030 but only at the capacity factor of 49% (the 2021 level), taking into account the possible court cases and unplanned inspections. The resulting share in total generation is 11%. Oil power shares kept to the NDC target (2%). Renewable energy share reaches 315 TWh/year in 2030, based on the reference scenario for Japan included in the 2022 APEC Energy Demand and Supply Outlook (APEC, 2022). The resulting share in total generation is 30%, falling short of the 36-38% target. Gas and coal power meets the remaining demand with equal shares, leading to 26% share each. After the recalculation of the 2030 electricity mix, CO 2 emissions in 2030 were recalculated— CO 2 emission factors per technology were assumed to be identical to those in the WEO 2023 STEPS. Other emissions The projections for Industrial process CO 2 emissions were based on the growth rates between 2020 and 2030 from the IEA WEO 2023 STEPS, multiplied by the 2020 emissions from the UNFCCC GHG inventory (Government of Japan, 2023b; IEA, 2023). Agricultural &amp; waste CO 2 emissions were extended to 2030 using the trend of emissions intensity per GDP and per capita between 2011-2021 (UN DESA, 2022; World Bank, 2023). Other non-CO 2 emissions were extended to 2030 using the trend of emissions intensity per GDP and per capita between 2011-2021 (UN DESA, 2022; World Bank, 2023). For F-gas emissions, the expected impacts of the Act on Rational Use and Proper Management of Fluorocarbons (2013 amendment) to enhance management of F-gas use as well as the Ozone Layer Protection Act (‘F-gas Act’, 2018 amendment) to regulate the production and imports of F-gases to comply with the Kigali Amendment were considered. Our calculations show that the HFC emission levels are projected to fall far short of the levels targeted under the updated NDC. As described in the current policy projections section, the F-gas Act has not been successful in improving the recovery rate of refrigerants from end-of-life refrigeration and air conditioning equipment which was 41% against the targeted rate of 50% in 2020 (METI &amp; MOEJ, 2021b). The recovery rate even dropped to 40% in 2021 (MoEJ, 2022). Based on the historical trends reported by MOEJ (MoEJ, 2022), we assume that the HFC recovery rate will not improve over time. We also assume that the leakage rates for the in-use stock will also not improve under current policies. Regarding the 2018 amendment of the Ozone Layer Protection Act, the business-as-usual consumption levels are projected to be below the Kigali cap at least until 2025 (METI, 2018a): the Kigali cap for Japan becomes significantly lower only in 2029. Since there is some time lag between consumption and emissions, we assume that the amended Ozone Layer Protection Act will not affect the HFC emission levels up to 2030. The point of departure for the revised F-gas emission projections is the business-as-usual (BAU) projections provided in the background document of the Plan for Global Warming Countermeasures (MOEJ, 2016a) – the Plan projects F-gas emissions to increase from 39 MtCO 2 e/year in 2013 to 77 MtCO 2 e/year in 2030 under a BAU scenario. The three measures: (i) enhanced recovery from end-of-life equipment, (ii) avoidance of leakage from in-use equipment, and (iii) switch to lower GWP F-gas and non-F-gas refrigerants are expected to reduce emissions to the NDC target level of 29 MtCO 2 e/year in 2030. In our assessment, we assume that only part of the NDC implementation plan, i.e. the switch to lower GWP F-gas and non-F-gas refrigerants, would be achieved.</t>
+  </si>
+  <si>
+    <t>There is a high level of uncertainty regarding the emissions development in Iran. This is mostly due to uncertain economic growth projections linked to international economic sanctions. We capture this uncertainty by presenting a range for the current policy projections based on historical trends for agriculture and waste emissions, and GDP elasticity for energy and industry. Iran’s economic situation is expected to have bigger impact on the industry and the energy sector, which is why we apply GDP elasticity combined with historical GDP data with a forecast to obtain a range. Emissions from the energy and industry sector are most susceptible to fluctuations in GDP growth. For the agriculture and waste sector, which are traditionally less impacted by the economic sanctions and overall economic landscape, we just apply 5-year historical trend from 2017-2021. Lower end For the emissions in the agriculture and waste sector, we apply a five-year trend based on historical data for 2017-2021. For the energy and industry sector emissions, the projections are based on the historical trends of GDP elasticity of the sectors’ GHG emissions combined with GDP growth estimates from IMF (IMF, 2023) . Upper end For the emissions in the agriculture and waste sector, we apply a five-year trend based on historical data for 2017-2021. For the energy and emissions sector emissions, the projections are based on historical trends of GDP elasticity of the sectors’ GHG emissions combined with historical GDP growth estimates from the World Bank (World Bank, 2023a).</t>
+  </si>
+  <si>
+    <t>We construct current policy projections by combining a APERC and PLN projections for the power sector, with our own projections of energy non-CO 2 and non-energy emissions. Emissions from the huge pipeline of captive coal plants are largely missing from APERC, IEA, and PLN projections (on-grid). We quantify emissions from these power plants using Global Coal Plant Tracker data on operation start date, lifetime, capacity, and assume default capacity and emissions factors (Global Energy Monitor, 2023). For energy-CO 2 we combine the reference “Business-as-usual” scenario from the Asia Pacific Energy Research Centre (APERC), which "assumes current policies and trends continue" (APEC, 2022) and Indonesia’s 10-year electricity supply plan RUPTL 2021–2030 (Republic of Indonesia, 2021b). We use coal, oil, and gas emission factors from the IEA’s Current Policies Scenario for Southeast Asia to estimate emissions from planned generation. We add these energy-CO 2 projections to energy non-CO 2 and non-energy emissions projections to obtain current policies projections for total emissions excl. LULUCF. For each sector we create a projection based on the growth rates forecast in Indonesia’s Second Biennial Update Report (Republic of Indonesia, 2018a). We develop a range by looking at other possible sector-specific trends. For industry we apply GDP growth rates from our post-COVID GDP series, which includes forecasts from the IMF, World Bank, ADB, and OECD (ADB, 2023; IMF, 2023; OECD, 2023; World Bank, 2023). For agriculture, waste, and other sectors, we apply a five-year trend. The two alternatives create a minimum and maximum current policies projections for energy non-CO 2 and non-energy emissions. We subsequently harmonise these projections to historical data. The emissions levels are sensitive to the method of harmonisation. Thus, we apply two methods: Apply growth rates of the calculated scenarios to the last historical year (2022); Adjust all future years by the difference of the calculated scenario and the inventory in the last available year (2022). Both methods are included in the range presented for current policy projections.</t>
+  </si>
+  <si>
+    <t>CO 2 emissions Upper end of the scenario range: We use the growth rates from the IEA’s World Energy Outlook 2023 (WEO 2023) Stated Policies Scenario for India’s CO 2 emissions. The IEA’s CO 2 emissions estimate now includes industry process emissions and thus is a good proxy for all of India’s CO 2 emissions (IEA, 2023c). Lower end of the scenario range: We use the CO 2 emissions estimates in the final National Electricity Plan (NEP2023) for 2022-2032 for the power sector and use a 5-year historical trend to extend to 2035 (Ministry of Power, 2023b). India reports data on a Q2 to Q1 of the following year basis. For the sake of simplicity, we allot the data for a fiscal year (e.g. April 2021-March 2022) to the calendar year (e.g. 2021). We use the WEO 2023 data for the rest of the CO 2 emissions. To replace the power sector emissions in the total CO 2 emissions from WEO2023, we replace the power sector emissions in the unharmonised data sets and then assume a constant ratio with our WEO2023 emissions harmonised to the latest historical data to derive estimates for 2030-2035. We use interpolation to complete the timeseries for 2023-2030. NEP’s power sector emissions are lower than WEO’s for the historical timeseries and so assuming a constant ratio throughout would result in an artificial drop in emissions in 2023. Other gases We use the US EPA non-CO 2 emissions projection growth rates for the CH 4 , N 2 0 and F-gases and harmonise these to the latest historical year (U.S. Environmental Protection Agency, 2019). Note: Our data download includes projections until 2035; however, our graphics display the data until 2030 only.</t>
+  </si>
+  <si>
+    <t>The current policy projections are adapted from the projections report (“Projektionsbericht 2024”) published by the kba Agency (UBA) in March 2024, which includes all measures that were agreed by October 2023 (UBA, 2024c). The base year value of 2019 from the projections varies slightly from the latest historical inventory data from 2023, and we harmonise the projections to the inventory by assuming that the relative difference in 2019 for each sector is constant in the future for the projections. UBA provides in their most recent publication the scenario “With implemented measures” . For some sectors, we make corrections to the numbers to reflect most recent policy developments: Power: The UBA projection assumes that the targeted RE capacity additions set early 2022 will be achieved. For solar, this has been the case, but only about a quarter of the targeted wind capacity for 2023 and 2024 has been installed so far. We thus provide a range for this sector and for the upper end of emissions projections for energy supply assume that only half of the additions of wind will be achieved by 2030 and beyond. This assumption would lead to about 107 GW of wind by 2030, as opposed to 145 GW as targeted. The difference in emissions is about 12 MtCO2 in 2030. Transport: The projection report assumes that passenger EV sales will continue to increase every year until 2035: in 2024, registrations of new passenger EVs are projected to increase by 37.7% relative to 2023 and amount to over 720,000 new EVs (KBA, 2023; UBA, 2024a). However, since the publication of the projection report, the German government eliminated its purchase incentives for passenger EVs at the end of 2023. In the first four months of 2024, passenger EV registrations were weaker than expected: only approximately 106,000 passenger EVs have been registered (KBA, 2024b, 2024c, 2024d, 2024a). To consider the lower-than-expected growth in EV registrations, we delay the share of passenger car emissions reduction by one year. Passenger cars accounted for approximately 60% (59.71%) of total road transport emissions between 2018 and 2022 (Eurostat, 2024) Therefore, 60% of sectoral emissions reduction is delayed by one year. Buildings, Industry, Agriculture and Waste: no adjustments, using scenario with implemented measures.</t>
+  </si>
+  <si>
+    <t>We use a combination of data sources to estimate the lower bound of our current policy projection (Federal Democratic Republic of Ethiopia, 2021; IEA, 2019; U.S. Environmental Protection Agency, 2019). Lower bound projections Our energy-related CO 2 emissions are based on growth rates from the Stated Policies Scenario (STEPS) for Ethiopia in the IEA’s Africa Energy Outlook 2019 (IEA, 2019). In general, neither the IEA Africa Energy Outlook 2019 report nor its annexes specify which of the policies have been included in the stated policies scenario. The IEA STEPS scenario was not updated in the IEA Africa Energy Outlook 2022 (IEA, 2022a). For the industry sector, we used the business as usual (BAU) projections from the updated NDC harmonised to our 2021 historical emissions estimate. For the agriculture and waste sectors, we used the US EPA’s non-CO 2 emissions projection but applied these to sector totals as the contribution from CO 2 in these sectors is negligible. For “other” emissions reported in PRIMAP (about 1% of emissions in 2019), we applied US EPA growth rates for N 2 O as these “other” emissions only included N 2 O. Upper bound projections The upper-bound of our current policy projection assumes that GHG emissions will grow according to the revised business as usual (BAU) scenario projections provided in the updated NDC of 2021 (Federal Democratic Republic of Ethiopia, 2021). The base year for the BAU scenario is 2010. We have harmonised the series to the last historical year estimate (2021). This approach could potentially overestimate emission levels as we do not have sufficient information on the state of emissions reduction efforts or current policy implementation, both of which might downward revise the trajectory.</t>
+  </si>
+  <si>
+    <t>We derive the range of projections under current policies according to the following method: Lower end of the range: Historical data shows that per capita emissions have been largely stable in the past. We assume that this correlation remains and apply the average per capita emissions to UN population prospects until 2030. Upper end of the range: We use projections from the IRENA RE Outlook for Egypt for energy related CO 2 emissions. For all other emissions, we assume a continued trend of past emissions up to 2030. We further investigate the impact of the RE targets on emissions. Meeting the target does not decrease emissions of the upper end of the range beyond the lower end. Even when assuming a lower electricity generation growth than in the IRENA reference scenario, the emissions reductions compared to the reference do not lead to lower emissions. We thus assume that the target is covered by our range.</t>
   </si>
   <si>
     <t>The assessment of the EU’s policy projections reflects both policies and measures implemented at the national level (the top end of our range), as well as these adopted at the EU level but not yet transposed by the Member States (the bottom end of our range). To reflect policies adopted at the national level, we use the EEA’s compilation of national projections prepared by Member States in 2023 (European Environment Agency, 2023b). We apply the growth rate from the ‘with existing measures’ (WEM) scenario for total GHG emissions (excl. LULUCF and excl. int. aviation) to total GHG emissions (excl. LULUCF and excl. int. aviation) in 2022. To calculate the bottom end of the range, we replace estimates for power CO 2 emissions in the States Policies (STEPS) projections from the World Energy Outlook (WEO) with those from the Announced Pledges (APS) to account for the implementation of the 42.5% RE share in final gross consumption in the Fit for 55 package. From the Fit for 55 modelled projections, we take the MIX scenario which better reflects the current policies in place. We then take the growth rate of this revised projection for total CO 2 emissions from WEO and apply that to total GHG emission from the energy sector in 2022 and extend out to 2035. Non-CO 2 emissions represent about 3% of energy sector emissions, so we think WEO is a good proxy for the entire sector. For all other sectors, we use sector-specific growth rates from EEA’s 2023 WEM scenario to extend each sector out to 2035 individually. Note: Our data download includes projections until 2035; however, our graphics display the data until 2030 only.</t>
   </si>
   <si>
-    <t>Energy-related CO 2 emissions: For our current policy projections (CPP), we establish a conservative (CPP max) and optimistic (CPP min) range based on different scenarios projecting the development of China’s energy sector based on policies and developments. For the CPP max scenario, we start with the CETO (ERI et al. , 2023) BLS — developed by projecting current trends in China's energy system development and calibrated to align with the 2°C goal under the Paris Agreement. The scenario assumes that China meets a range of policy targets including: 25% non-fossil share of energy mix by 2030 (Xinhua News Agency, 2021) 50% renewable energy capacity by 2025 (SASAC, 2021) 39% non-fossil share and 33% RE share (3300 TWh) in electricity generation for 2025 (NDRC and NEA, 2022) Reduce energy intensity of economy by 13.5% from 2021 to 2025 (Xinhua News Agency, 2021) The CETO BLS reveals no short-term projection, only TPEDs for the year of 2025 and 2030. From a conservative perspective, we cannot rule out the possibility that China's emissions will plateau at a high level over the next 5 years. We therefore force the energy-related CO 2 emissions projection for CPP max to stay at 2023 emission level until 2025, and then decline at a rate consistent with the emissions calculated under the CETO BLS. This scenario describes a least ambitious transition in China’s energy system. The CPP max will miss a range of short-term policy targets including: 20% non-fossil share of energy mix by 2025 (Xinhua News Agency, 2021) over 50% of incremental electricity consumption is met by renewables from 2021-2025 (NDRC, 2022) Reduce CO 2 intensity of economy by 18% from 2021 to 2025 (Xinhua News Agency, 2021) For the CPP min scenario, we start with the IEA WEO 2023 STEPS —which for China we take as a basis for the current policies scenario as stated policies are highly certain to be achieved in the country— and calculate total primary energy demand (TPED) based on the Chinese methodology of applying the average efficiency of coal-fired power plants to calculate TPED from non-fossil sources (renewables and nuclear) (IEA, 2022b). We start with an efficiency of 305.5 grams coal equivalent (gce) per kWh (around 8.9 MJ/kWh for Chinese coal-fired power plants), based on NDRC (2021), which improves over time to 300 gce/kWh in 2025 and 295 gce/kWh in 2030 based on a conservative scenario from IEA (2021b). This is deemed as an optimistic end of the CPP as it is an ambitious interpretation of current policies and achieves China’s NDC targets. Given that China’s NDC targets are now subsumed under domestic policies, and that China’s current policy developments are highly likely to overachieve its targets, we employ this as a minimum bound. In addition to the policies in the max scenario and NDC targets, the CPP min additionally integrates: Reduce CO 2 intensity of economy by 18% from 2021 to 2025 Doubling wind and solar generation from 2021 to 2025 (L. Wang, 2022) 20% non-fossil share of energy mix by 2025 over 50% of incremental electricity consumption is met by renewables from 2021-2025 This scenario describes a different projection of China’s energy system, now freed from the national shift from dual-energy to dual-carbon controls (no longer limiting energy demand growth in guidance to policymakers and developers). This scenario shows a growing energy demand off the back of an accelerated power sector transformation: energy demand is met by an exponential rise in renewable (wind and solar) development and integration. Renewables can both meet the rise of demand and also displace fossil fuels, namely coal consumption which drops steeply to 2030. In both scenarios, supply-side targets such as the production capacity of fossil fuels and installed capacity targets from the 14th FYP on energy are not considered binding as these policies will likely result in excess capacity with uncertain outcomes for emissions. After integrating the aforementioned policies into the energy sector results, we calculate energy sector emissions using IEA WEO STEPS (IEA, 2022a) emission factors for fossil fuels in both scenarios and account for developments in carbon, capture and storage (CCS) after 2030. Industrial-process emissions: We project industrial-process CO 2 emissions by applying growth rates from cement process emissions for the non-OECD region based on the IEA Energy Technology Perspectives 2016 report’s 6DS scenario to our latest 2022 value estimates. CO 2 emissions for industry peak have been revised to peak in 2025, five years earlier than China’s building materials peaking plan (MIIT of China, NDRC, MEE, et al. , 2022). According to the China Cement Association, it is predicted that cement clinker will reach peak consumption and production during the "14th FYP" period (2021-2025), with its carbon emissions declining after peaking at approximately 1.45 billion tons (Zhang, 2021). Other non-CO 2 emissions: For non-CO 2 emissions from energy, fugitive emissions, agriculture, industrial processes, and waste, we apply sector-specific growth rates for non-CO 2 emissions from (Lin et al. , 2019) to our latest 2022 value estimates. This source considers recent policies implemented since 2015, leading to improved certainty on Chinese non-CO 2 emissions in 2030, compared to previous assessments. The reference scenario used assumes that no non-CO 2 mitigation measures will be implemented before 2050, except for efforts made to reach the Montreal Protocol targets for HFCs from HCFC-22 production, which are phased out. We additionally quantify the impacts of the Kigali Amendment on HFCs following the staged phaseout schedule eventually leading to an 80% reduction from baseline levels by 2045.</t>
-  </si>
-  <si>
-    <t>Current policy projections have been harmonised to historical emissions up to 2022. We derive our current policy projections using a few different sources. For the upper range of our current policy projections, we use: Energy CO2 emissions: based on the Asian and Pacific Economic Cooperation (APEC) 2022 Outlook. As this scenario includes all current key policies, no additional calculations were added. These policies include Chile’s Energy Efficiency Law, the retirement of coal plants by 2040, with 65% of coal plant capacity shutting down before 2025, the National Electromobility Strategy, as well as its Hydrogen Strategy (APEC, 2022). Energy non-CO2 emissions: based on non-CO 2 emissions projections from the U.S. Environmental Protection Agency (U.S. Environmental Protection Agency, 2019). Industrial processes, agriculture, and waste emissions: based on Chile’s Fifth Biennial Update Report (BUR5) (Ministerio del Medio Ambiente, 2022). For the lower range of our current policy projections, we use: All sectors, including energy: based on the ‘Transición tardía’ projections from Chile’s Fifth Biennial Report (Ministerio del Medio Ambiente, 2022). For ‘other’ sector emissions in both scenarios, we have taken a 10-year historical trend (2010-2019) from PRIMAP (Gütschow and Pflüger, 2023). We also compared our current policy projections to those from Observatorio de Carbono Neutralidad (across all sectors) harmonised to 2022 emissions, but this currently falls between the lower and upper end of our CPP (Observatorio de Carbono Neutralidad, 2024). Some policy developments such as the update on the Distributed Generation Law (also referred to as the “Net Billing” Law) (Law 20.571), which triples the capacity threshold for installed capacity for projects of self-consumption, are not quantified due to lack of available data.</t>
-  </si>
-  <si>
-    <t>Our current policy projection is based on the ‘Reference Case’, which is updated annually by the Government of Canada, harmonised to the last historical year of 2022 (Environment and Climate Change Canada, 2023b). The projections include policy measures in place as of August 2023. In December 2023, Canada adopted its EV sales mandate regulations. We have adjusted our current policy projection to reflect this change. Beyond that change, we consider the current policy projection to be an accurate picture of the policy landscape as of January 2024. The EV sales mandate adjustment is based on the estimated impact of the measure as outlined in the Regulatory Impact Statement and the difference between the reference and with additional measures scenario (Government of Canada, 2023e). We do not include any contribution from LULUCF or market credits from the Western Climate Initiative in our estimates.</t>
-  </si>
-  <si>
-    <t>For the current policies scenario, we present a range which is calculated as described below. Higher end of the range: Energy and Industry sector CO 2 emissions are taken from the latest projections from the World Energy Outlook (IEA, 2023b). Energy, Industry, Agriculture and Waste sector non-CO 2 emissions are taken from the US EPA “Non-CO 2 GHG emissions” report with data available for the period between 1990 to 2030 (U.S. Environmental Protection Agency, 2019). Other CO 2 emissions from the agriculture sector are calculated based on the historical trend of the sector’s CO 2 emissions (2013-2022). Other CO 2 emissions for the waste sector are calculated by taking the average level of the last four years at 2022 levels. All of the above were harmonised to the last historical data point. Lower end of the range: Total GHG emissions excluding LULUCF taken from the 2023 Global Energy and Climate Outlook (JRC, 2023) and harmonised to the last historical data point.</t>
-  </si>
-  <si>
-    <t>To estimate Bhutan’s emissions under current policies, we subtracted the estimated mitigation potential for policies for which we could find evidence of implementation from our business as usual (BAU) estimates. BAU projections The bottom end of our BAU range is based on the low-growth scenario included in Bhutan’s Third National Communication, harmonized to latest historic year. The GDP growth in this scenario is 4.2% (Royal Government of Bhutan 2020a). BUR1 does not provide any updated BAU estimates. The top end of BAU has been derived using IMF GDP growth rates as a proxy for emissions growth for the period 2023-2027 and assuming emissions follow the 5-year trend for the remainder of the decade (2028-2030) (IMF 2022). Average GDP growth under this method is 5%. The Third National Communication’s high-growth scenario assumed 8%; however, in light of the pandemic, we consider the estimates from the IMF to be more likely. Implemented policies The Third National Communication lists the mitigation potential of various sectoral measures (Royal Government of Bhutan 2020a). Several sector LEDS also provided information on the mitigation potential of various measures. We have considered only those measures for which we could find evidence of implementation and subtracted their impact from our BAU estimates to derive our current policy projections. Sector specific policies considered for the current policy projections are outlined below. These mitigation potential estimates are developed using various BAU trajectories, however we have not adjusted for this fact. Transport We could only find evidence of implementation of the Euro VI emissions standard and some EV related measures (EV charging station and promotion of electric taxis) for transport sector (Kuensel Online 2022c; Ministry of Information and Communication 2021a; Kuensel Online 2022b). The Euro VI emission standard has been implemented since January 2022 (Kuensel Online 2022b). To estimate an annual reduction, we divided the cumulative mitigation potential estimate, provided in transport LEDS for the period 2021-2025, by 4 (as the measures was planned to begin in 2022). We assume that the level of annual reductions will remain constant throughout the rest of the decade. This reduction is included in both policy projections. For the EV measures, we used the electric passenger vehicle mitigation potential estimate provided in the transport LEDS. As it is not clear whether all EV related measures associated with this estimate are being implemented, we only included the mitigation potential from this measure in the lower end of the current policy projection. We assume that the emissions estimates provided in the transport LEDS is for CO 2 only. Agriculture &amp; waste While Bhutan did not achieve its organic farming target, we think it is still advancing policy action in this area (see main policy section for details) and is also advancing on its biogas plans (see discussion in the Waste section of the policy tab ). We have taken mitigation potential of organic farming and biogas production from the LEDS of Food Security to estimate the effect of these policy actions (Ministry of Agriculture and Forests 2021). The LEDS does not specify which GWPs are used to calculate its figures, however we assume it to be SAR values as that is what was used in the NDC update. BUR1 does not provide a gas by gas breakdown of emissions for the agriculture sector, however based on the information provided we estimate that emissions are roughly 80% methane and 20% N 2 O (Royal Government of Bhutan 2022). (This breakdown is also consistent with PRIMAP data for the sector for the pre-pandemic period). We use this split to convert the organic farming estimate to AR4 GWP. For biogas production, only methane emissions will be reduced and GWP is converted to AR4 accordingly. The Human Settlement LEDS includes two measures for the waste sector relating to composting and wastewater management for which activities are being implemented (see the discussion in the Waste sector of our policies tab for more details) (Ministry of Works and Human Settlement 2021). We assume that these measures will reduce methane emissions only (the electricity generation associated with the wastewater management is negligible) and have converted the GWP from SAR to AR4 for that gas only. Energy efficiency Roadmap In 2019, Bhutan adopted Energy Efficiency and Conservation Roadmap for building, appliances and industries (Dept. Renewable Energy 2019). As Bhutan’s hydroelectricity is considered to have zero emissions, the energy savings from the appliance measures will have no impact on Bhutan’s emissions (though may allow it to export more electricity to India, offsetting higher emitting sources of power there). Much of the building sector mitigation potential is from biomass use reduction, which will eventually contribute to Bhutan’s sink capacity, and not fossil emissions. CAT estimates are excluding LULUCF, thus we have only considered industry sector mitigation potential from Energy Efficiency Roadmap. This estimate still includes some biomass, albeit a much smaller amount, and we have not adjusted it. We assume all emission reductions are CO 2 only. The Roadmap includes two estimates, the maximum potential reductions for the sector 0.02 MtCO 2 e over a 15-year period as well as an estimate for the selected measures the government will purse, we use the latter.</t>
-  </si>
-  <si>
-    <t>The policies and action projection are based on government projections from 2023 (DCCEEW, 2023b). The CAT always provides policies and action projections excluding LULUCF. To this end, the CAT subtracted the projections provided for LULUCF. The current policy projections are based on the ‘baseline’ scenario of the 2023 projections, adjusted to include mitigation from the New Vehicle Efficiency Standard (NVES) as this measure has now been implemented. The NVES is part of the government’s 2023 ‘with additional measures’ scenario. The government’s baseline scenario includes "current policies and measures and announced policies where there is sufficient detail to make robust assumptions in the modelling” (DCCEEW, 2023b). New policies introduced in the 2023 baseline scenario that were not included in the 2022 version, include: the Safeguard Mechanism reform, the Safeguard Transformation Stream, elements of the National Electric Vehicle Strategy, notably the Fringe Benefits Tax exemption, the Household Energy Upgrade Fund the original framework of the Capacity Investment Scheme (before its November 2023 modification), and the Renewable Energy Guarantee of Origin. The full list of policies integrated in this scenario is available in the 2023 projections (DCCEEW, 2023b).</t>
-  </si>
-  <si>
-    <t>The CAT uses the projections developed by Gabriel Blanco and Daniela Keesler (UNICEN), in the report “Transición energética en la Argentina: Construyendo alternativas”, and “Escenarios 2050 para la Argentina: sector agrícola, ganadero, forestal y otros usos de la tierra” (Blanco &amp; Keesler, 2022; Keesler &amp; Blanco, 2024) to develop our current policy projections. These studies provide projections for all sectors based on current sectoral plans and actions in place, including the exploitation of non-conventional fossil fuels as of 2022. The UNICEN business-as-usual (BAU) scenario for the power sector has the following assumptions: Accounts for the penetration of renewable energy in the power sector following the current trend Adjusts the emissions curve of the power sector to capture the current development of nuclear energy Accounts for barriers in the implementation of energy efficiency measures presented in the sectoral plans (buildings, industry, and transport) Takes into account the significant development plan for the exploration and exploitation of fossil fuels (fracking and off-shore oil and gas production) The document does not mention the carbon tax We apply the growth rates from the UNICEN BAU scenario for the energy, industry, and waste sectors to the 2022 historical data points for those sectors. The agriculture sector projections have the following assumptions: Livestock: An increase in the number of heads of cattle for beef, reaching almost 62 million heads by 2050, representing a 24% increase compared to the current stock, driven by the combined increase in domestic consumption and exports. A 10% increase in the efficiency of beef production by 2050 compared to the current 216 kg/head slaughtered. A 28% growth in beef exports compared to 2020 values, following the trend of international beef trade projected by OECD/FAO (2021). Although global per capita consumption is expected to decline by 5% by 2030, population growth will result in a 0.7% increase in global beef demand in the same period (OECD, 2021) . Agriculture: A 14% increase in the use of synthetic nitrogen fertilizers by 2050 compared to the current 16.6 kg fertilizer/ton of grain, considering usage trends from the last 30 years (1990-2020). No change in the management of harvest residues compared to current practices. A 90% reduction in the burning of forests and grasslands compared to the 1,000,000 ha that are currently burned.</t>
-  </si>
-  <si>
-    <t>We construct current policy projections by combining a APERC and PLN projections for the power sector, with our own projections of energy non-CO 2 and non-energy emissions. Emissions from the huge pipeline of captive coal plants are largely missing from APERC, IEA, and PLN projections (on-grid). We quantify emissions from these power plants using Global Coal Plant Tracker data on operation start date, lifetime, capacity, and assume default capacity and emissions factors (Global Energy Monitor, 2023). For energy-CO 2 we combine the reference “Business-as-usual” scenario from the Asia Pacific Energy Research Centre (APERC), which "assumes current policies and trends continue" (APEC, 2022) and Indonesia’s 10-year electricity supply plan RUPTL 2021–2030 (Republic of Indonesia, 2021b). We use coal, oil, and gas emission factors from the IEA’s Current Policies Scenario for Southeast Asia to estimate emissions from planned generation. We add these energy-CO 2 projections to energy non-CO 2 and non-energy emissions projections to obtain current policies projections for total emissions excl. LULUCF. For each sector we create a projection based on the growth rates forecast in Indonesia’s Second Biennial Update Report (Republic of Indonesia, 2018a). We develop a range by looking at other possible sector-specific trends. For industry we apply GDP growth rates from our post-COVID GDP series, which includes forecasts from the IMF, World Bank, ADB, and OECD (ADB, 2023; IMF, 2023; OECD, 2023; World Bank, 2023). For agriculture, waste, and other sectors, we apply a five-year trend. The two alternatives create a minimum and maximum current policies projections for energy non-CO 2 and non-energy emissions. We subsequently harmonise these projections to historical data. The emissions levels are sensitive to the method of harmonisation. Thus, we apply two methods: Apply growth rates of the calculated scenarios to the last historical year (2022); Adjust all future years by the difference of the calculated scenario and the inventory in the last available year (2022). Both methods are included in the range presented for current policy projections.</t>
-  </si>
-  <si>
-    <t>CO 2 emissions Upper end of the scenario range: We use the growth rates from the IEA’s World Energy Outlook 2023 (WEO 2023) Stated Policies Scenario for India’s CO 2 emissions. The IEA’s CO 2 emissions estimate now includes industry process emissions and thus is a good proxy for all of India’s CO 2 emissions (IEA, 2023c). Lower end of the scenario range: We use the CO 2 emissions estimates in the final National Electricity Plan (NEP2023) for 2022-2032 for the power sector and use a 5-year historical trend to extend to 2035 (Ministry of Power, 2023b). India reports data on a Q2 to Q1 of the following year basis. For the sake of simplicity, we allot the data for a fiscal year (e.g. April 2021-March 2022) to the calendar year (e.g. 2021). We use the WEO 2023 data for the rest of the CO 2 emissions. To replace the power sector emissions in the total CO 2 emissions from WEO2023, we replace the power sector emissions in the unharmonised data sets and then assume a constant ratio with our WEO2023 emissions harmonised to the latest historical data to derive estimates for 2030-2035. We use interpolation to complete the timeseries for 2023-2030. NEP’s power sector emissions are lower than WEO’s for the historical timeseries and so assuming a constant ratio throughout would result in an artificial drop in emissions in 2023. Other gases We use the US EPA non-CO 2 emissions projection growth rates for the CH 4 , N 2 0 and F-gases and harmonise these to the latest historical year (U.S. Environmental Protection Agency, 2019). Note: Our data download includes projections until 2035; however, our graphics display the data until 2030 only.</t>
-  </si>
-  <si>
-    <t>The current policy projections are adapted from the projections report (“Projektionsbericht 2024”) published by the kba Agency (UBA) in March 2024, which includes all measures that were agreed by October 2023 (UBA, 2024c). The base year value of 2019 from the projections varies slightly from the latest historical inventory data from 2023, and we harmonise the projections to the inventory by assuming that the relative difference in 2019 for each sector is constant in the future for the projections. UBA provides in their most recent publication the scenario “With implemented measures” . For some sectors, we make corrections to the numbers to reflect most recent policy developments: Power: The UBA projection assumes that the targeted RE capacity additions set early 2022 will be achieved. For solar, this has been the case, but only about a quarter of the targeted wind capacity for 2023 and 2024 has been installed so far. We thus provide a range for this sector and for the upper end of emissions projections for energy supply assume that only half of the additions of wind will be achieved by 2030 and beyond. This assumption would lead to about 107 GW of wind by 2030, as opposed to 145 GW as targeted. The difference in emissions is about 12 MtCO2 in 2030. Transport: The projection report assumes that passenger EV sales will continue to increase every year until 2035: in 2024, registrations of new passenger EVs are projected to increase by 37.7% relative to 2023 and amount to over 720,000 new EVs (KBA, 2023; UBA, 2024a). However, since the publication of the projection report, the German government eliminated its purchase incentives for passenger EVs at the end of 2023. In the first four months of 2024, passenger EV registrations were weaker than expected: only approximately 106,000 passenger EVs have been registered (KBA, 2024b, 2024c, 2024d, 2024a). To consider the lower-than-expected growth in EV registrations, we delay the share of passenger car emissions reduction by one year. Passenger cars accounted for approximately 60% (59.71%) of total road transport emissions between 2018 and 2022 (Eurostat, 2024) Therefore, 60% of sectoral emissions reduction is delayed by one year. Buildings, Industry, Agriculture and Waste: no adjustments, using scenario with implemented measures.</t>
-  </si>
-  <si>
-    <t>Power CO 2 emissions The emission estimates from the 8th Power Development Plan (PDP8) are based on coal and gas emissions factors derived from the IEA’s Emissions Factors for Viet Nam, and the plan’s power sector emissions targets (204-254 MtCO 2 e in 2030). The yearly coal and gas generation is interpolated to 2030 by taking into account the combined domestic gas and LNG-fired generation values of 157 TWh by 2030 mentioned in the plan, aligning with the overall emissions targets for 2030 (IEA, 2021b; Viet Nam Government, 2023a). The percentage of coal generation within the 2030 power mix was determined based on the anticipated 2030 generation value of 567 TWh included in the PDP8 (Viet Nam Government, 2023a). For post-2030, sectoral current policy projections were interpolated with the 2050 power sector emissions range included in the PDP8. The upper bound of the current policies power sector emissions projections coincides with the upper bound of the range indicated in the PDP8. The lower bound of the current policy projections was calculated using the average of the growth rate of power sector emissions from both ends of the range included in the PDP8 (Viet Nam Government, 2023a). Non power energy CO 2 emissions Non-power energy CO 2 emissions are assumed to follow the same growth rate as in the APEC Energy Demand &amp; Supply Outlook 2022 (APEC, 2022). The current policy projections takes into account the energy savings from the Viet Nam National Energy Efficiency Program 3, but do not include the World Bank funded Viet Nam Scaling Up Energy Efficiency Project which would further reduce energy demand (APEC, 2022). Non-CO 2 emissions The emissions of energy related non-CO 2 greenhouse gases, agriculture and the waste sector are based on non-CO 2 emissions projection of US-EPA (U.S. Environmental Protection Agency, 2019). For the lower end of industrial emissions, we assume that the last historical year (2021) growth rate will continue, and for the upper end we assume average growth rate of the last 5 years (2017-2021) will continue.</t>
-  </si>
-  <si>
-    <t>NOTE: Current policy projections for the UK have not been updated since the September 2023 CAT profile. A new current policy projection will be quantified in 2025. To estimate current policy projections, we use the 2023 progress report from the UK’s Climate Change Committee (CCC, 2023a). In this report, the CCC estimates the impact of current UK policies on emissions. Policies are ranked as ‘credible’, displaying ‘some risks’ to delivery, displaying ‘significant risks’ to delivery, or ‘insufficient’. To calculate the upper range of the current policies trajectory, we take the impact of all credible policies. These are policies where there are proven delivery mechanisms, a credible combination of public/private financing and clear timelines in place. The resulting emissions savings come predominantly from the zero-emissions vehicle mandate to drive EV sales and the renewable electricity supply policies in the power sector. To estimate the lower end of the current policy trajectory, we additionally include the impact of all policies ranked as displaying ‘some risks’. These include policies around home decarbonisation, industrial CCS, hydrogen, and also some policies in the transport and electricity supply sectors. The CCC estimates that in 2030, there are credible policies to cut emissions by 42 MtCO 2 e, relative to the baseline. Policies with some risks to delivery could cut emissions by a further 51 MtCO 2 e in 2030. This gives an emissions level in 2030 (converting to AR4 GWPs and removing international aviation and shipping and LULUCF emissions, all of which are included in the CCC’s estimates) of 340–394 MtCO 2 e. The conversion from AR5 to AR4 GWPs is done in the same way as when calculating the UK’s emissions targets, by calculating the ratio between AR5 and AR4 GWPs for 2021. Future LULUCF and international bunker emissions are taken from the UK’s Net Zero Strategy (UK Government, 2021b). Note: Our data download includes projections until 2035; however, our graphics display the data until 2030 only.</t>
-  </si>
-  <si>
-    <t>The current policy projections were generated in five steps: First, we estimate the total emissions projections under current policies as the aggregation of the energy, industry, agriculture, and waste sectors: GHG emissions in the energy sector: Energy-related CO 2 emissions projections: short-term projections (2023–2025) were taken from the US Energy Information Agency’s (EIA) Short-term Outlook from August 2024 (U.S. Energy Information Administration, 2024e). These projections are harmonised with long-term projections (2024–2035) taken from a model comparison study by the US Environmental Protection Agency (EPA) (U.S. Environmental Protection Agency, 2023d) . The modelling comparison study includes the implementation of the Inflation Reduction Act (IRA). It represents the upper range of emissions projections. Non-CO 2 emissions in the energy sector from EPA’s U.S. State-level Non-CO₂ Greenhouse Gas Mitigation Potential: 2025–2050 (U.S. Environmental Protection Agency, 2022b). All GHGs emissions in the energy sector result from the sum of the CO 2 and non-CO 2 estimates as described above. The resulting projections are harmonised to the latest historical year using growth rates. GHG emissions from industrial processes: the projection of GHG emissions in industrial processes was calculated by type of industry and then aggregated. GHG emissions in the mineral, chemical, and metal industries were projected by applying projected production growth of each industry in terms of value of shipments taken from EIA’s Annual Energy Outlook 2023 (U.S. Energy Information Administration, 2023f), to their respective GHG emissions in the base year. We use two scenarios from the Annual Energy Outlook—the reference scenario and the low economic growth scenario—to create a range of emissions projections. To project the rest of industry processes, we apply the growth rates from industrial process F-gas emissions from the EPA’s U.S. State-level Non-CO₂ Greenhouse Gas Mitigation Potential: 2025–2050, which includes policies that were implemented until early 2015 (U.S. Environmental Protection Agency, 2022b). GHG emissions in the agriculture and waste sectors follow the growth rates of the respective sector in the EPA’s U.S. State-level Non-CO₂ Greenhouse Gas Mitigation Potential: 2025–2050 (U.S. Environmental Protection Agency, 2022b). We did not consider alternative economic growth scenarios for GHG emissions in the agriculture and waste sectors. Second, each of the above emissions categories was harmonised to historical data for each sector by applying the estimated annual percentage change from the projected dataset to the base year. The projections for all sectors were then aggregated to obtain total GHG emissions, excluding LULUCF. These projections are the baseline scenarios. Third, the quantification of the Inflation Reduction Act (IRA) in non-CO 2 emissions and in non-energy sectors: Non-CO 2 emissions: The IRA has the potential to reduce non-CO 2 GHG emissions. The quantification of such impact is based on the assessment of this policy on total GHG emissions (Zero Lab, 2024). We use the mitigation potential range of the current policy scenario (including the IRA) compared to the frozen policy scenario (not including the IRA) on non-CO 2 emissions reported for years 2030 and 2035 and made a linear interpolation for the years in between and zero for 2022. The mitigation potential is subtracted from the baseline scenario emissions, whereby the mitigation effect is 90–100 MtCO 2 e in 2030 and 80–90 MtCO 2 e in 2035. Non-energy CO 2 emissions: The IRA also has the potential to reduce CO 2 emissions in non-energy sectors, mainly in Industry Processes and Product Use (IPPU), which are not quantified in the baseline scenarios. We assume that such emissions reductions will be achieved mainly through Carbon Capture, Utilisation, and Storage (CCUS). The quantification of such impact is based on the assessment of IRA on mitigation potential of CCUS in the study conducted by King, Gaffney, et al. (2024). We assume a range of mitigation potential between zero, to capture the uncertainty around the deployment of CCUS, and the mitigation potential reported in 2030 and 2035, assuming a start of emissions reduction in 2025. We carried out a linear interpolation for the years in between. The resulting mitigation potential for each year is subtracted from the baseline scenarios emissions, resulting in a reduction of the emissions level of up to 77 MtCO 2 e in 2030 and 85 MtCO 2 e in 2035. Fourth, the quantification of the AIM Act, which was not part of the policies considered in the baseline scenario taken from Global Non-CO 2 Greenhouse Gas Emission Projections &amp; Mitigation Potential: Phase down of the production and consumption of hydrofluorocarbons (HFCs) by 85% over the next 15 years. The annual mitigation potential is calculated as a range of between two mitigation potential trajectories for HFC emissions: The first mitigation potential trajectory is based on the HFC emissions projection reported in the 5th Biennial Report in 2020, 2030, 2035, and 2040 (U.S. Department of State, 2022), which considers the implementation of the AIM Act, although does not achieve the proposed target. After harmonising the projections with the latest historical year, we interpolated the years in between and calculated the annual mitigation potential against the baseline scenario. The second is based directly on the annual HFCs consumption caps defined in the AIM Act (U.S. Environmental Protection Agency, 2021a). We then calculated the mitigation potential against the baseline scenario. The resulting mitigation potential range for each year is subtracted from the baseline scenario emissions, resulting in a reduced emission levels of 50–150 MtCO 2 e in 2030 and 100–200 MtCO 2 e in 2035. Fifth, economy wide emission projections from a 2024 study by the Rhodium Group (King, Kolus, et al., 2024) were included in the analysis as well, after deducting LULUCF sinks based on the 5th BUR. The study includes additional policies, including the impact of the EPA's emissions standards for vehicles beginning in model year 2027 (U.S. Environmental Protection Agency, 2024i) and the EPA's pollution standards for fossil fuel power plants (U.S. Environmental Protection Agency, 2024m). This study represents the lower end of the current policy projections range.</t>
-  </si>
-  <si>
-    <t>Lower bound The UAE’s LTS includes current policy projections which are used as a baseline for the net zero scenario (Government of the UAE, 2024b). The current policy projections include all mitigation measures in force up to 2024 in all sectors of the economy, while the net zero scenario includes planned measures and their estimated contribution towards the target. The CAT uses the UAE’s LTS current policy scenario for the lower bound of its own current policy projections. The CAT harmonizes the UAE’s LTS current policy scenarios to the latest available historical GHG emissions data (from 2022) using the growth rates of the original scenario for the period 2022-2035. The UAE only provided data for its current policies for the years 2019, 2030, 2040 and 2050. To create a pathway, the CAT linearly interpolates the values between these years. Because the original projections include emissions and sinks from LULUCF, the CAT assumes that LULUCF emissions remain at 2019 levels (latest historical data available) under current policies. The UAE’s 2019 LULUCF emissions are -1 MtCO 2 e. Upper bound For the upper bound of our current policy projections, we estimate the impacts of the 2050 Energy Strategy on emissions with a range to reflect for uncertainties around the efficiency target and total energy generation. We use IRENA’s Renewable Energy Prospects report as our basis for energy-related CO 2 emissions (Masdar Institute/IRENA, 2015) and calculate the difference in emissions that would result from the 2050 Energy Strategy. The upper end of our range reflects the installed capacity targets for 2030 in the 2050 Energy Strategy, without calculating the impacts of energy efficiency measures. For this projection, we estimate total power generation by technology using capacity factors estimated based on the IRENA REMAP BAU scenario (Masdar Institute/IRENA, 2015). In summary, the CPP upper end of the range for the UAE’s energy-related CO 2 emissions is based on assumptions both about which targets will be implemented, as well as the role of fossil gas in the development of the power system. For CO 2 process emissions (from industry), we continue a linear trend based on total industrial process emissions from the years 2011–2022 until 2030 (Masdar Institute/IRENA, 2015). For non-CO 2 emissions, we apply the growth rate from the Global Anthropogenic Non-CO 2 Greenhouse Gas Emissions: 1990–2030 to PRIMAP historical data (US EPA, 2019). We use the following data sources in our estimates: Energy-related CO 2 from fuel combustion: “Renewable Energy Prospects – United Arab Emirates” (Masdar Institute/IRENA, 2015) CO 2 process emissions (from industry): Own assumption to continue linear trend based on total industrial process emissions from the years 2011–2022 until 2030. Non-CO 2 emissions: Global Anthropogenic Non-CO 2 Greenhouse Gas Emissions: 1990–2030 (US EPA, 2019) Historical installed capacity data: IRENA capacity and generation statistics 2023 (IRENASTAT, 2023) Historical electricity generation data: IEA World Energy Balances 2022 (IEA, 2022) Historical emissions factors: IEA Emissions Factors 2021 (IEA, 2021a).</t>
-  </si>
-  <si>
-    <t>In the previous update from 2023, we used a method for quantifying the current policy projections that relied heavily on the ‘With Measures’ (WM) scenario developed by Türkiye for its 2015 INDC with a historic base year of 2012. Türkiye has not updated its WM scenario since then and by its own admission the WM scenario does not reflect the results of its current policies and measures (Republic of Türkiye Ministry of Environment Urbanisation and Climate Change, 2023). It is working on updated the WM scenario and is expected to share the updated scenario in the Ninth National Communication. We have therefore chosen to no longer use the WM scenario and construct our current policy projections based on the best available sources. To construct the current policy projections, we use a sectoral and gas-by-gas approach. We start by applying the historical ratio from 2021 of CO 2 , CH 4 , N 2 0, and F-gases in the Energy, Industry, Agriculture, and Waste sectors to the estimated GHG emissions for each sector in 2022 (Republic of Türkiye Ministry of Energy and Natural Resources, 2023). For the upper bound of our current policies projections, we apply the Baseline Scenario’s growth rate for total CO 2 from the Istanbul Policy Centre’s report “Turkey’s Decarbonization Pathway: Net Zero in 2050” (Şahin et al., 2021). We apply growth rates for non-CO 2 emissions from the US Environmental Protection Agency’s (US EPA) projections to each non-CO2 gas in energy and industry (U.S. Environmental Protection Agency, 2019). For the agriculture and waste sectors, we apply US EPA’s total non-CO 2 growth rate for the respective agriculture and waste sectors to all gases in those sectors in 2022. While the US EPA estimates are for non-CO 2 emissions only, the amount of CO 2 emitted by the agriculture and waste sectors is so small as to be non-existent, so we use the growth rates for the sector as a whole. For the lower bound of our current policies projections, we use the World Energy Outlook (WEO) (IEA, 2023). We subtract the EU’s total energy CO 2 in the State Policies Scenario (STEPS) from Europe’s STEPS total energy CO 2 to get other-Europe total energy CO 2 which includes other countries than just Türkiye. Then we apply the growth rate of STEPS other-Europe energy CO 2 to historical CO 2 from energy in 2022. For industry CO 2 , we apply the growth rate STEPS other-Europe industry CO 2 to historical CO 2 from industry in 2022. For non-CO 2 from energy and industry as well as all gases in agriculture and waste, we follow the same method as indicated above. Finally, we sum all the individual gas projections and sectoral projections together to have an upper and lower bound for all GHG emissions under current policy projections.</t>
-  </si>
-  <si>
-    <t>The lower bound of our current policy projection assumes that GHG emissions will grow according to the 5-year trend extension (2015-2019). We have not accounted for any potential policy measures The Gambia has proposed due to a lack of data regarding the status of their implementation and thus were not able to create a policy projection based on the updated business as usual (BAU) projection provided in The Gambia’s 2021 NDC (Republic of The Gambia, 2021a). The upper bound of our current policy projection uses the growth rates from the IEA’s Africa Energy Outlook 2019 Stated Policies Scenario for CO 2 emissions and the US EPA’s growth rates for non-CO 2 emissions (IEA, 2019; U.S. Environmental Protection Agency, 2019). The AEO SPS covers the entire continent. We were not able to find any estimates for The Gambia specifically and thus used the AEO SPS as a proxy.</t>
-  </si>
-  <si>
-    <t>For our current policy projections, we use a study be the Zurich University of Applied Sciences (ZHAW), which is the only scenario analysis identified that quantifies the impacts of the new RE Act of June 2024 (Rohrer et al., 2024). The study builds on the modelled Energy perspectives 2050+ (scenario WWB) (Bundesamt für Energie, 2022), which are also used for the “with existing measures” scenario submitted to the UNFCCC in Switzerland’s 5th Biennial Update Report (Swiss Federal Office for the Environment, 2022). The projection is then harmonised to actual 2022 emissions from the most recent national inventory (Bundesamt für Umwelt BAFU, 2024b).</t>
-  </si>
-  <si>
-    <t>Current policy projections are calculated based on emissions reductions below the BAU scenario from the 8th Edition of APEC Energy Demand and Supply Outlook (APERC, 2019) and the US EPA non-CO 2 emission projections until 2030 (US EPA, 2019). Non-energy related CO 2 emissions are assumed to remain constant at the 2021 level. The APEC BAU is not used as a current policy scenario as its forecast for renewables share in power generation (7.6%) is comparable to the 2020 share of renewables (6%) (IEA, 2021c) and much lower than other studies, which range from 14% to 20% (J. H. Hong et al., 2019; Keramidas et al., 2018; Wood Mackenzie, 2019). With no change to the five-year trend in renewables share, this would reach around 15% in 2030. We therefore consider the 10 th Electricity Plan for the upper bound of current policies projections – 21.6% of RE in 2030. We derive the emissions projection from the APEC BAU by assuming additional generation from renewables replaces coal-fired power generation. We consider the targeted share under the revised Renewable Portfolio Standard (RPS) of 25% power generation from RE by 2030 (MOTIE, 2020) for the lower bound current policies projections. The average electricity CO 2 emission factors for each fossil fuel type in South Korea were assumed to be similar to the values forecast for Japan in the IEA’s World Energy Outlook 2020 (IEA, 2020).</t>
-  </si>
-  <si>
-    <t>Lower bound projection The lower bound of the current policy projections is based on a combination of the IEA World Energy Outlook (WEO) 2020 for CO 2 emissions from fuel combustion (IEA, 2020) and non-CO 2 emissions from the US EPA (2019). For other CO 2 emissions (fugitive CO 2 emissions and process emissions), we used historical data from the National GHG Inventory Report extended to 2021 with growth rates from PRIMAP and assume a direct correlation to emissions from coal-fired power plants afterwards (DFFE, 2023; Gütschow &amp; Pflüger, 2023). The WEO2020 Stated Policies Scenario for CO 2 emissions from fuel combustion assumes full implementation of the 2019 Integrated Resource Plan with COVID-19 delay. For this reason, we do not further need to adjust installed energy capacities by 2030 as in past CAT assessments for South Africa using the Current Policies Scenario available in previous WEO reports. For non-CO 2 emissions, we applied the growth rate from US EPA (2019) projections until 2030 to historical emissions. For CO 2 process emissions and fugitive CO 2 emissions, historical emissions data from PRIMAP (Gütschow &amp; Pflüger, 2023) was used to check the correlation to emissions from coal-fired power plants. For projections, CAT assumes that this correlation will continue, meaning that we assume CO 2 process emissions to develop with the same trend as the CO 2 emissions from coal fired power plants in our current policy projections. Upper bound projection The upper bound of the current policy projections is based on the ‘existing policies scenario with reference growth rate’ by the University of Cape Town’s technical emissions scenario analysis to inform the 2021 NDC update (Marquard et al., 2021). The ‘existing policy scenario’ assumes the full implementation of the IRP2019, a new world-scale crude refinery coming online in 2028 in line with government procurements, other crude refining capacity and coal-to-liquids capacity available until 2050, and the forecasted modernisations introduced by the 1st and 2nd National Waste Management Strategies. We harmonise the scenario’s growth rates for total emissions excluding land use emissions to the latest historical datapoint of 2021. This harmonisation process results in significantly higher final estimates for 2030 than assumed by the University of Cape Town’s ‘existing policies scenario with reference growth rate’ (502MtCO 2 e compared to 479 MtCO 2 e excluding LULUCF). Note that the University uses GWP values from the IPCC’s Second Assessment Report (SAR), while the CAT uses GWP values from the Fourth Assessment Report (AR4).</t>
-  </si>
-  <si>
-    <t>Our current policy projection (CPP) for energy CO 2 is constructed using projections from the APEC Energy Demand and Supply Outlook for sectoral CO 2 emissions, energy balance, and energy mix (APEC, 2022). We have adjusted these projections to take into account the most recent developments announced by Singapore’s Energy Market Authority, as follows: Total electricity demand was revised upwards consistent with government base case projections outlined in (Energy Market Authority, 2023c). This is 22% higher than APEC projections for electricity demand in 2030. Electricity imports were increased to align with the government's targets. The emissions associated with this electricity was excluded from Singapore's domestic emissions, as these will occur outside of Singapore’s borders. Minimum and maximum trajectories for imports were constructed consistent with the government’s projections, which is the difference between our CPP min and CPP max scenarios (Energy Market Authority, 2023a). The gap between the increased electricity demand and the increases in solar and electricity imports was assumed to be met by gas-fired generation, consistent with the government’s plans to increase LNG imports and add gas-fired generation capacity (Energy Market Authority, 2022b, 2023d). The historic grid emissions factor (GEF) was applied to this generation. We derive our current policy projections for non-energy CO 2 and non-CO 2 emissions by applying growth rates to the latest historical data. For non-energy CO 2 , we have assumed GDP growth as a proxy for growth in emissions by applying projected IMF GDP growth rates (IMF, 2023). For non-CO 2 emissions, we have applied the growth rate for Singapore’s non-CO 2 emissions from the US EPA Global Non-CO 2 Greenhouse Gas Emission Projections &amp; Mitigation Potential, harmonised to the latest historical year (U.S. Environmental Protection Agency, 2019).</t>
-  </si>
-  <si>
-    <t>We use a business-as-usual (BAU) emissions scenario developed by the King Abdullah Petroleum Studies and Research Center (KAPSARC) for the upper end of our current policy projections (KAPSARC, 2021), adjusted to our latest historical data. Given the slow progress on renewable energy deployment and the lack substantial mitigation policies in other sectors, we estimate the BAU scenario to reflect current developments. The BAU scenario assumes 11 TWh of electricity generated with solar PV by 2030, which we estimate would translate to around 5–6 GW of solar PV capacity by 2030. Given that only 0.4 GW of renewable energy capacity had been installed by end of 2022 (IRENA, 2023), and that only few projects have been tendered since then, 5–6 GW of renewable capacity by 2030 is broadly in line with the current pace of deployment. For the lower end of our current policy scenario, we take the above BAU scenario but replaced it with CO 2 emissions provided in KAPSARC’s latest baseline forecasts of carbon dioxide emissions (KAPSARC, 2023a). We then adjusted the results to our latest historical data.</t>
-  </si>
-  <si>
-    <t>The lower bound of our current policy projection until 2030 is primarily based on the World Energy Outlook (WEO) 2021 Stated Policy scenario projections for CO 2 from energy related activities (IEA, 2021b). For non-CO 2 emissions, we use the US EPA’s growth rates for non-CO 2 emissions and extrapolate the historical trend (U.S. Environmental Protection Agency, 2019). We harmonised these projections to our 2021 estimate. The upper bound of our current policy projection until 2030 is primarily based on the APEC Outlook for Russia for CO 2 emissions (APEC, 2022). While CO 2 from industrial processes is included in WEO 2021 projections, we assume that it is not included in APEC projections because the ratio of CO 2 emissions from industry to total CO 2 emissions is lower in APEC than WEO projections (APEC, 2022; IEA, 2021b). Therefore, we adjusted the APEC scenario by applying the ratio of WEO’s industry emissions to total CO 2 e to calculate additional CO 2 emissions from industrial processes for APEC industry CO 2 emissions. For non-CO 2 emissions, we use the US EPA’s growth rates for non-CO 2 emissions and extrapolate the historical trend (U.S. Environmental Protection Agency, 2019). We harmonised these projections to our 2021 estimate. Previously, we quantified a flaring gas limit and a renewable electricity generation target. We have excluded these targets from the scenario because current policies do not indicate that these targets will be met. Both the WEO and APEC scenarios take into consideration the impact of the COVID-19 pandemic. The CAT has not quantitatively assessed the long-term effect of Russia’s illegal invasion of Ukraine and its numerous implications, for example with regards to a decrease in fossil fuel exports or potential economic decline in Russia.</t>
-  </si>
-  <si>
-    <t>We derive our current policies projection from two principle sources: the 8th edition of the APEC Energy Demand and Supply Outlook and the new Philippines Energy Plan 2020-2040. The lower end of the range is based on the APEC reference scenario (APEC, 2022). This scenario is based on recent trends and current policies, however it is guided by an older Philippines Energy Plan 2018-2040 as well as the AmBisyon Natin 2040 and the “Build Build Build” Program with energy supply and demand continuing to increase. The APEC reference scenario follows recent trends in energy efficiency and renewable energy. APEC scenarios only include energy related CO 2 data. To calculate remaining GHG emissions, the CAT has combined the APEC scenario with non-CO 2 energy data, estimated using a 5-year historical trend, and using the growth rates for non-CO 2 data from the US EPA (2019). All projections data was harmonised with the latest historical year. The upper end of the range is based on the Philippines Energy Plan (2020-2040) reference scenario (Department of Energy, 2022). The PEP 2020-2040 provides emissions for the energy sector, which we add to non-energy CO 2 and non-CO 2 emissions using the same approach as the lower end (described above). The PEP 2020-2040 reference scenario includes the current biofuels blending (2% biodiesel, 10% bioethanol) until 2040, 5% electric vehicles uptake by 2040 and current energy efficiency and conservation efforts maintained to 2040. Both the PEP and APEC scenarios account for the impact of COVID-19. The current policies and action emissions range accounts for the coal moratorium under the PEP 2020-2040 reference scenario. However, there is still an additional 2.6 GW of coal capacity of additional coal capacity added by 2025 in this scenario. Given the uncertainty of the global energy crisis, the CAT accounts for some uncertainty over the moratorium dates. The APEC reference scenario does not assume coal capacity is capped, and therefore does not anticipate the coal moratorium is maintained. APEC also produce a Carbon Neutral scenario, which does account for the coal moratorium, but the impacts are only seen by 2030. The CAT uses the APEC reference scenario to 2030 and takes the same assumption as the Carbon Neutral scenario that additional capacity may continue to 2030. Other moratoriums have been lifted in the past. The Department of Energy had a moratorium in oil and gas activities in the West Philippines sea, which was lifted for energy security reasons (APEC, 2022). The PEP 2020-2040 includes a clean energy scenario (CES) based on clean energy targets, so this is not considered under the CAT current policy and actions trajectory or planned policies. However, when applying the same calculations as applied to the PEP 2020-2040 reference scenario as mentioned above, the CES scenario falls within the CAT current policies and action range. For reference, the clean energy scenario assumes a 35% and 50% share of renewable energy in power generation in 2030 and 2040 respectively. It includes a 5% blending for biodiesel from 2022, a 1.5% increase in fossil gas consumption in transport and industry, a 10% penetration of EVs by 2040, 5% energy savings in oil products and electricity by 2040 and 12% reduction in GHG emissions for the NDC.</t>
-  </si>
-  <si>
-    <t>The current policy projections for total energy-related CO 2 emissions is based on the BAU scenario from the 7th edition of the APEC Energy Demand and Supply Outlook (APEC, 2019). APEC’s BAU scenario assumes that electricity generation will grow by 69% until 2050 due to rapid economic growth, while electricity capacity will increase by 48%. Peru’s generation mix remains dominated by hydropower and gas-fired generation, with wind and solar power together accounting for 6.7% in 2050. This scenario assumes that Peru becomes a net natural gas importer around 2039 as demand rises rapidly and domestic natural gas production declines with the depletion of the Camisea field. The APEC scenarios use historical energy and CO 2 data derived from IEA Energy Balances of non-OECD countries and CO 2 emissions from fuel combustion. The harmonisation of APEC energy-related CO 2 with historical data from PRIMAP-hist results in about a 6 MtCO 2 e decrease in emissions projections for 2030. Non-CO 2 emissions were taken directly from the US EPA “Non-CO 2 GHG emissions” report with data available for the period between 1990 and 2030 (U.S. Environmental Protection Agency, 2019). Other CO 2 emissions were estimated based on their share in the last inventory with data until 2016 (INGEI, 2021) and their expected contribution under BAU in 2030 (Ministry of Environment of Peru, 2020a). Data was interpolated linearly in between years and harmonised with historical data.</t>
-  </si>
-  <si>
-    <t>We use the latest emissions projections under current policies submitted by Norway to the European Environment Agency (EEA) in 2021 harmonised to actual 2020 emissions from Norway’s official GHG emissions inventory submitted to the UNFCCC. The 2021 EEA projections under current policies include the impact of the COVID-19 pandemic.</t>
-  </si>
-  <si>
-    <t>We derive our current policy projections from a combination of the Stated Policies Scenario from IEA’s Africa Energy Outlook 2019 and the Planned Energy Scenario from IRENA’s 2023 Renewable Energy Roadmap Nigeria for energy emissions and from the US EPA for agriculture and waste emissions, and the US EPA and Energy Transition Plan for industry (Federal Republic of Nigeria, 2022; IEA, 2019; IRENA, 2023b; US EPA, 2019). In general, the IEA Africa Energy Outlook 2019 report does not specify which of the policies have been included in the stated policies scenario. The IEA’s Africa Energy Outlook 2022 did not contain updated country level data, hence why we have continued to use the 2019 report (IEA, 2022a). The IEA’s Stated Policies Scenario was used to derive our lower bound projections for energy CO 2 emissions. This scenario assumes development of coal-fired generation in Nigeria; however, all recent coal plant projects have either been cancelled or shelved. Therefore, we have adjusted our lower bound to assume the coal generation in Stated Policies Scenario is met with renewable energy, in line with national targets. For the upper bound, IRENA’s Planned Energy Scenario was used for energy CO 2 emissions. In our lower and upper bound, projections for energy CH 4 and N 2 O are extended using recent historical trends. We have adjusted the energy emission projections from the IEA’s Africa Energy Outlook 2019 to take into consideration the impact of the pandemic. We distilled the emission intensity (GHG emissions/GDP) from the pre-pandemic IEA scenario starting in 2019. This emission intensity estimate was then applied to the most recent GDP projections from the IMF for Nigeria that take into account the effect of the pandemic (IMF, 2022). As these estimates only cover 2022 to 2027, we used the average GDP growth projected by the IMF for 2022-2027 to extend the projections until 2035. Results were then harmonised to our 2021 estimate (see Historical emissions above). The IRENA Planned Energy Scenario already considers the impact of COVID-19.</t>
-  </si>
-  <si>
-    <t>The policies and actions projections are based on the scenario presented on the Ministry for the Environment website in March 2022 and harmonised to historical emissions of 2021 (Ministry for the Environment 2022f). The projections include “existing policies including a carbon price of $35 per tonne of CO 2 e in the Emissions Trading Scheme”. The government projections from the Fourth Biennial Report include the effects of key quantifiable policies and measures implemented prior to 2019. Specifically, it includes the New Zealand Emissions Trading Scheme; Efficient Products Programme, Insulation and heating grants programmes; Productive and Low Emissions Business Programme; Kigali Amendment to the Montreal Protocol; National Policy Statement for Freshwater Management; Indirect effects of combined forestry land-use policies on agricultural land use; Afforestation Grant Scheme; Permanent Forest Sink Initiative; Sustainable Land Management Hill Country Erosion Programme; Erosion Control Funding Programme; One Billion Trees Programme; Crown Forestry Joint Ventures; National Environmental Standard for Air Quality (landfill methane); Waste Disposal Levy; Indirect effects of combined agricultural (forestry and land use) policies on waste; and the Tokelau Renewable Energy Project. The policies and actions projections do not include the NZ ETS reforms of June 2020.</t>
-  </si>
-  <si>
-    <t>The current policy scenario is based on projections from Nepal’s Long-term Strategy 2021 for CO 2 emissions from the energy, industry, agriculture and waste sectors (Government of Nepal, 2021); and EPA projections for non-CO 2 emissions (EPA, 2019). The LTS sketches emissions value in the WEM (With Existing Measures) and the WAM (With Additional Measures) scenarios. We based the calculations only on the with WEM scenario. We used interpolation to complete the series from 2019 to 2050. Then, the WEM scenario was harmonised to historical data from PRIMAP 2022 is used for current policy scenario.</t>
-  </si>
-  <si>
-    <t>Current policy projections are based on BAU emissions projections and the mitigation potential provided in the Third Biennial Update Report (Kingdom of Morocco, 2022b) and the Fourth National Communication (Kingdom of Morocco, 2022a). The BAU provided by Morocco only considers mitigation measures in place before 2010, which is used as the base year. In the two documents mentioned above, Morocco has put forward a detailed list of mitigation measures it will implement to reach its 2030 target, separated into conditional and unconditional measures (i.e., measures to be achieved with and without international financial support). There is little information on their state of implementation. However, despite initial delays, Morocco is ramping up efforts to meet its ambitious renewable energy target. As such, we believe Morocco is still on track to meet its 2030 targets. For the lower end of the current policy scenario, we start by determining the value for 2030, using the 2030 BAU minus the unconditional and conditional mitigation potentials. We then interpolate between 2021-2030, assuming Morocco could still catch up to reach the 2030 mitigation level (Morocco is already delayed on their mitigation trajectory in 2020-2021). For the upper end of the current policy scenario, we use the same approach but deduct the unconditional mitigation potential only from the BAU trajectory. There are still uncertainties regarding the extent of climate finance Morocco will receive, and therefore the mitigation measures they will be able to put in place. We also excluded the LULUCF related measures planned the in the agricultural in the current policies projection. It should be noted that plans to ramp up gas and start offshore extraction are not taken into account in the policy projections. Additionally, it is unclear what impact lifetime extension of existing coal fired power plants will have on the CPP range, as there is no information on what is exactly taken into account in the BAU provided by Morocco.</t>
-  </si>
-  <si>
-    <t>Upper range (CPP Max.) The upper bound of our current policy projection is based on a combination of data sources (IEA, 2019; U.S. Environmental Protection Agency, 2019). Energy-related CO 2 emissions are based on growth rates from the Stated Policies Scenario of the IEA Africa Energy Outlook 2019. This scenario assumes a partial implementation of Kenya’s National Electrification Strategy. We assumed other, non-energy CO 2 emissions would grow based on the same growth rate since most non-energy CO 2 emissions come from the industry sector. Industry, agriculture, waste, and other non-CO 2 emissions are based on non-CO 2 emissions projections from the US EPA. We have adjusted these projections to take into consideration the impact of the pandemic (see below) and have harmonised the series to the last historical year. Lower range (CPP Min.) In January 2017, the Ministry of Environment and Forestry released an assessment report containing an updated emissions baseline to inform how sectors could contribute to meeting Kenya’s NDC (Ministry of Environment and Natural Resources, 2017a). The objective of the assessment was to examine expected contributions to emissions reductions from each sector, explore sectoral mitigation actions to meet the NDC target, and examine new information that could impact the achievement of the NDC targets. The update was based on new historical activity data out to 2015 for each emission source as well as new information on drivers of future emissions (2016- 2030), such as GDP growth forecasts by sector, new projections on electricity generation projects and new forecasts for urbanisation. For the lower end of the range, we have taken the updated emissions baseline for all sectors except electricity generation, transport and agriculture (Ministry of Environment and Natural Resources, 2017a). The data for electricity generation is taken from the 2017-2037 Least Cost Power Development Plan (LCPDP), for the transport sector, the data is taken from the 2019/2020 Transport Sector Climate Change Annual Report, which indicates a list of mitigation actions the sector plans to implement that should allow it to achieve its sectoral NDC target, and for the agriculture sector, the data is taken from the Kenyan Climate Smart Agriculture Strategy 2017-2026, which includes an indicative 2026 emissions level based on proposed mitigation actions (Government of Kenya, 2019; Ministry of Agriculture, 2018; Republic of Kenya, 2018). We did not quantify the mitigation actions outlined in National Climate Change Action Plan (NCCAP) for the electricity generation, energy demand, industry, and waste sectors due to uncertainty about their current implementation status. We have adjusted these projections to take into consideration the impact of the pandemic (see below). This scenario is also harmonised to the last historical year.</t>
-  </si>
-  <si>
-    <t>Current policy projections stem from the “with measures” scenario from the Fifth Biennial Report . We harmonise this scenario to historical emissions reported in the latest country inventory using growth rates. The “with measures” scenario includes measures and policies to reduce greenhouse gas emissions that have been taken or are planned to be adopted in the near future. The majority of these measures possess sufficient certainty to be treated as a current policy scenario in our analysis. These include measures to develop the alternative and renewable energy sector in Kazakhstan (Republic of Kazakhstan, 2023a). The Biennial Report’s “with measures” scenario included a target to achieve a 10% share of renewables, in this case wind and solar power, in the country’s energy grid by 2030. However, following the achievement of the 2020 target of 3%, the government announced that they are raising the ambition of the renewables target to a 15% share by 2030 (Satubaldina, 2021). We used electrical power demand and supply projections from Kazakhstan’s Green Economy plan to estimate the emissions reduction potential of this 5% increase (Republic of Kazakhstan, 2015). We first used future coal demand (in TWh) and projected emissions from coal in 2030 under the BAU scenario to develop a coal emissions factor. Since we assume that an increase in renewables will result in a decrease in coal use, we used the difference between coal demand under 10% renewables and coal demand under 15% renewables and the coal emissions factor to determine the emissions reductions potential. This resulted in a reduction of 4 MtCO 2 e, which was subtracted from total emissions under the BR “with measures” scenario to get the new current policy projection.</t>
-  </si>
-  <si>
-    <t>Energy-related CO 2 emissions For the analysis of current policy projections, we used the IEA World Energy Outlook (WEO) 2023 Stated Policies Scenario (STEPS) as a basis (IEA, 2023). The WEO STEPS reflects both implemented policies as well as announced policies (see Annex B.6 of WEO 2023); only for the power sector the electricity mix targets of the updated NDC and the 6th Strategic Energy Plan (METI, 2021c) were assumed to be fully achieved. Since it is premature to assume that the 2030 electricity mix targets would fully be achieved, we explored different shares of renewable and nuclear power generation based on historical trends, estimates by external studies, and current status of nuclear reactor safety examinations. CO 2 emissions from the power sector were re-calculated based on the low and high emission electricity mix cases described below. In the low emissions case , we assumed that: The WEO2023 STEPS scenario projections will be fully achieved, which means that: Nuclear power generation share will reach 20%, the lower range of the 2030 target. The nuclear capacity in operation will reach 30 GW, which will be larger than the total of 25 reactors that have applied for restart and two reactors under construction that applied for future operation to the Nuclear Regulation Authority as of March 2024 (JAIF, 2024). Coal and oil power shares are kept to the NDC target (coal: 19%, oil: 2%). Renewable electricity generation reaches 385 TWh/year in 2030. The resulting share in total generation is 37 %, thus reaching the 36-38 % target. Gas power share is at 20%. In the high emissions case , we assumed that: All 27 reactors that have applied for restart (or future start of operation for plants under construction) as of March 2024 will be in operation by 2030 but only at the capacity factor of 49% (the 2021 level), taking into account the possible court cases and unplanned inspections. The resulting share in total generation is 11%. Oil power shares kept to the NDC target (2%). Renewable energy share reaches 315 TWh/year in 2030, based on the reference scenario for Japan included in the 2022 APEC Energy Demand and Supply Outlook (APEC, 2022). The resulting share in total generation is 30%, falling short of the 36-38% target. Gas and coal power meets the remaining demand with equal shares, leading to 26% share each. After the recalculation of the 2030 electricity mix, CO 2 emissions in 2030 were recalculated— CO 2 emission factors per technology were assumed to be identical to those in the WEO 2023 STEPS. Other emissions The projections for Industrial process CO 2 emissions were based on the growth rates between 2020 and 2030 from the IEA WEO 2023 STEPS, multiplied by the 2020 emissions from the UNFCCC GHG inventory (Government of Japan, 2023b; IEA, 2023). Agricultural &amp; waste CO 2 emissions were extended to 2030 using the trend of emissions intensity per GDP and per capita between 2011-2021 (UN DESA, 2022; World Bank, 2023). Other non-CO 2 emissions were extended to 2030 using the trend of emissions intensity per GDP and per capita between 2011-2021 (UN DESA, 2022; World Bank, 2023). For F-gas emissions, the expected impacts of the Act on Rational Use and Proper Management of Fluorocarbons (2013 amendment) to enhance management of F-gas use as well as the Ozone Layer Protection Act (‘F-gas Act’, 2018 amendment) to regulate the production and imports of F-gases to comply with the Kigali Amendment were considered. Our calculations show that the HFC emission levels are projected to fall far short of the levels targeted under the updated NDC. As described in the current policy projections section, the F-gas Act has not been successful in improving the recovery rate of refrigerants from end-of-life refrigeration and air conditioning equipment which was 41% against the targeted rate of 50% in 2020 (METI &amp; MOEJ, 2021b). The recovery rate even dropped to 40% in 2021 (MoEJ, 2022). Based on the historical trends reported by MOEJ (MoEJ, 2022), we assume that the HFC recovery rate will not improve over time. We also assume that the leakage rates for the in-use stock will also not improve under current policies. Regarding the 2018 amendment of the Ozone Layer Protection Act, the business-as-usual consumption levels are projected to be below the Kigali cap at least until 2025 (METI, 2018a): the Kigali cap for Japan becomes significantly lower only in 2029. Since there is some time lag between consumption and emissions, we assume that the amended Ozone Layer Protection Act will not affect the HFC emission levels up to 2030. The point of departure for the revised F-gas emission projections is the business-as-usual (BAU) projections provided in the background document of the Plan for Global Warming Countermeasures (MOEJ, 2016a) – the Plan projects F-gas emissions to increase from 39 MtCO 2 e/year in 2013 to 77 MtCO 2 e/year in 2030 under a BAU scenario. The three measures: (i) enhanced recovery from end-of-life equipment, (ii) avoidance of leakage from in-use equipment, and (iii) switch to lower GWP F-gas and non-F-gas refrigerants are expected to reduce emissions to the NDC target level of 29 MtCO 2 e/year in 2030. In our assessment, we assume that only part of the NDC implementation plan, i.e. the switch to lower GWP F-gas and non-F-gas refrigerants, would be achieved.</t>
-  </si>
-  <si>
-    <t>There is a high level of uncertainty regarding the emissions development in Iran. This is mostly due to uncertain economic growth projections linked to international economic sanctions. We capture this uncertainty by presenting a range for the current policy projections based on historical trends for agriculture and waste emissions, and GDP elasticity for energy and industry. Iran’s economic situation is expected to have bigger impact on the industry and the energy sector, which is why we apply GDP elasticity combined with historical GDP data with a forecast to obtain a range. Emissions from the energy and industry sector are most susceptible to fluctuations in GDP growth. For the agriculture and waste sector, which are traditionally less impacted by the economic sanctions and overall economic landscape, we just apply 5-year historical trend from 2017-2021. Lower end For the emissions in the agriculture and waste sector, we apply a five-year trend based on historical data for 2017-2021. For the energy and industry sector emissions, the projections are based on the historical trends of GDP elasticity of the sectors’ GHG emissions combined with GDP growth estimates from IMF (IMF, 2023) . Upper end For the emissions in the agriculture and waste sector, we apply a five-year trend based on historical data for 2017-2021. For the energy and emissions sector emissions, the projections are based on historical trends of GDP elasticity of the sectors’ GHG emissions combined with historical GDP growth estimates from the World Bank (World Bank, 2023a).</t>
-  </si>
-  <si>
-    <t>We use a combination of data sources to estimate the lower bound of our current policy projection (Federal Democratic Republic of Ethiopia, 2021; IEA, 2019; U.S. Environmental Protection Agency, 2019). Lower bound projections Our energy-related CO 2 emissions are based on growth rates from the Stated Policies Scenario (STEPS) for Ethiopia in the IEA’s Africa Energy Outlook 2019 (IEA, 2019). In general, neither the IEA Africa Energy Outlook 2019 report nor its annexes specify which of the policies have been included in the stated policies scenario. The IEA STEPS scenario was not updated in the IEA Africa Energy Outlook 2022 (IEA, 2022a). For the industry sector, we used the business as usual (BAU) projections from the updated NDC harmonised to our 2021 historical emissions estimate. For the agriculture and waste sectors, we used the US EPA’s non-CO 2 emissions projection but applied these to sector totals as the contribution from CO 2 in these sectors is negligible. For “other” emissions reported in PRIMAP (about 1% of emissions in 2019), we applied US EPA growth rates for N 2 O as these “other” emissions only included N 2 O. Upper bound projections The upper-bound of our current policy projection assumes that GHG emissions will grow according to the revised business as usual (BAU) scenario projections provided in the updated NDC of 2021 (Federal Democratic Republic of Ethiopia, 2021). The base year for the BAU scenario is 2010. We have harmonised the series to the last historical year estimate (2021). This approach could potentially overestimate emission levels as we do not have sufficient information on the state of emissions reduction efforts or current policy implementation, both of which might downward revise the trajectory.</t>
-  </si>
-  <si>
-    <t>We derive the range of projections under current policies according to the following method: Lower end of the range: Historical data shows that per capita emissions have been largely stable in the past. We assume that this correlation remains and apply the average per capita emissions to UN population prospects until 2030. Upper end of the range: We use projections from the IRENA RE Outlook for Egypt for energy related CO 2 emissions. For all other emissions, we assume a continued trend of past emissions up to 2030. We further investigate the impact of the RE targets on emissions. Meeting the target does not decrease emissions of the upper end of the range beyond the lower end. Even when assuming a lower electricity generation growth than in the IRENA reference scenario, the emissions reductions compared to the reference do not lead to lower emissions. We thus assume that the target is covered by our range.</t>
+    <t>The officially submitted LTS appears to confirm the commitment covers only carbon dioxide emissions. Due to the 2060 timeframe extending past our scope of analysis, as well as insufficient details in intermediary targets to reach the carbon neutrality target, we take a simplified linear approach for China’s pathway to carbon neutrality. The government is pursuing expansion of China’s carbon sinks in the LULUCF sector. While specific modelling details of these sinks are not provided, the updated NDC commits to increasing forest stock volume by 6 billion cubic meters from the 2005 level (Government of China, 2022). We regress the historical LULUCF sinks and forest stock volumes to predict the LULUCF sinks up to 2030, assuming a linear increase in forest stock volume from 2018 (the latest available data) to 2030. From 2030 to 2060, we assume the LULUCF sinks will remain constant at approximately -1270 Mt CO 2 e, pending new policies beyond 2030. Emissions until 2030 are established through our current policy projections. For CO 2 (incl. LULUCF), we assume a linear decarbonisation to zero in 2060 from 2030 levels, CO 2 (excl. LULUCF) is thus calculated based on the assumed constant LULUCF sinks. For non-CO 2 , we assume a more conservative phaseout path to zero in 2080 from 2030 levels. China’s resulting emissions in 2060 (excl. LULUCF) is then assumed to be the addition of CO 2 (excl. LULUCF) and leftover non-CO 2 GHGs. The pathway for all GHG emissions from 2030 to the emissions in 2060 is linearly interpolated.</t>
+  </si>
+  <si>
+    <t>As we now use baseline data that already captures impacts from COVID-19, we apply no further methods to estimate COVID-19 related changes in greenhouse gas emissions for China until 2030.</t>
+  </si>
+  <si>
+    <t>We applied a novel method to estimate the COVID-19 related dip in greenhouse gas emissions in 2020 and the trajectory to 2030. The uncertainty surrounding the severity and length of the pandemic creates a new level of uncertainty for current and future greenhouse gas emissions. We first update the current policy projections using most recent projections. We then distil the emission intensity (GHG emissions/GDP) from this pre-pandemic scenario and apply to it the most recent GDP projections that take into account the effect of the pandemic. As a result of the pandemic, Kenya’s GDP dropped by -0.3% in 2020 and rebounded by 7.2% in 2021 (IMF, 2022). We use recent estimates from IMF for GDP growth from 2022 to 2027 (IMF, 2022). Since the most recent GDP projections only provide values for the next few years (up to 2027), we used the same GDP growth rate as pre-pandemic current policy scenarios for the remaining years.</t>
+  </si>
+  <si>
+    <t>We applied a novel method to estimate the COVID-19 related dip in greenhouse gas emissions until 2030. The uncertainty surrounding the severity and length of the pandemic creates a new level of uncertainty for current and future greenhouse gas emissions. We take 2021 as the last historical data point and for emissions between 2022 and 2030, we first update the current and planned policy projections using the most recent projections, usually prepared before the pandemic. We then distil the emission intensity (GHG emissions/GDP) from this pre-pandemic scenario and apply to it most recent GDP projections that take into account the effect of the pandemic. To capture potential differentiated effects of COVID-19 on the economy, the lower bound of the current and planned projects capture the effects if COVID continues its impacts on the entire economy, while the upper bound captures the impacts of COVID-19 only on the energy and industry sectors (which consist of the significant majority of Thailand’s CO 2 emissions), assuming the agriculture and waste sectors are unaffected. The GDP projections from Thailand’s NESDC (2022) of 2.7% for 2022 were used to create the lower bound of our policy projections while the Board of Investment’s (2022) projection of 3.3% was the most optimistic estimate, creating the upper bound. For 2023, the lower bound uses the Board of Investment’s 4.2% estimate while the upper bound uses the Asian Development Bank’s 4.5% (2022). The forecast going forward relies on IMF (2021) projections until 2027.</t>
+  </si>
+  <si>
+    <t>We apply a novel method to estimate the COVID-19-related dip in greenhouse gas emissions in 2021 and the deployment through to 2030. The uncertainty surrounding the severity and length of the pandemic creates a new level of uncertainty for current and future greenhouse gas emissions. We first update the current policy projections using most recent projections, usually prepared before the pandemic. We then distil the emissions intensity (GHG emissions/GDP) from this pre-pandemic scenario and apply to it most recent GDP projections that take in to account the effect of the pandemic. To capture a range, we use projections from USEPA (2019), APEC (2022), and historical data series from PRIMAP 2022. The quantification of South Korea’s current policies projections focuses on energy-related CO 2 emissions reductions. For scenarios that already consider the impact of COVID-19, we do not adjust energy-related CO 2 emissions, to avoid double-counting.</t>
+  </si>
+  <si>
+    <t>The CAT uses Global Warming Potential (GWP) values from the IPCC's Fourth Assessment Report (AR4) for all its figures and time series. Assessments completed before December 2018 (COP24) used GWP values from the Second Assessment Report (SAR).</t>
+  </si>
+  <si>
+    <t>The CAT uses Global Warming Potential (GWP) values from the IPCC's Fourth Assessment Report (AR4) for all its figures and time series. Assessments completed prior to December 2018 (COP24) used GWP values from the Second Assessment Report (SAR).</t>
+  </si>
+  <si>
+    <t>The CAT uses Global Warming Potential (GWP) values from the IPCC’s Fourth Assessment Report (AR4) for all figures and time series. Assessments completed prior to December 2018 (COP24) used GWP values from the IPCC’s Second Assessment Report (SAR).</t>
+  </si>
+  <si>
+    <t>The CAT uses Global Warming Potential (GWP) values from the IPCC's Fourth Assessment Report (AR4) for all its figures and time series unless stated otherwise. Assessments completed prior to December 2018 (COP24) used GWP values from the Second Assessment Report (SAR). To be relevant to national context, values using AR5 are sometimes added to the text.</t>
+  </si>
+  <si>
+    <t>The CAT uses Global Warming Potential (GWP) values from the IPCC’s Fourth Assessment Report (AR4) for all figures and time series.</t>
+  </si>
+  <si>
+    <t>The CAT uses Global Warming Potential (GWP) values from the IPCC’s Fourth Assessment Report (AR4) for all its figures and time series. Assessments completed prior to December 2018 (COP24) used GWP values from the Second Assessment Report (SAR).</t>
+  </si>
+  <si>
+    <t>The CAT uses Global Warming Potential (GWP) values from the IPCC's Fourth Assessment Report (AR4) for all its figures and time series. Assessments completed prior to December 2018 (COP24) used GWP values from the Second Assessment Report (SAR). Some of the EU data used in our calculations is based on AR5 values. Please see the individual sections above for our conversion methods.</t>
+  </si>
+  <si>
+    <t>Chile has committed to being net-zero by 2050. According to Chile’s long-term strategy submitted to the UNFCCC, the target includes a LULUCF sink of 65 MtCO 2 e to neutralise remaining emissions. Thus, we estimate Chile’s total GHG emissions excluding LULUCF in 2050 to be 65 MtCO 2 e (Gobierno de Chile, 2021).</t>
+  </si>
+  <si>
+    <t>We use the most recent available update of the Long-Term Emissions Reduction Plan as a basis for assessing Australia’s climate trajectory to 2050. The government is currently preparing an update of the 2050 Net Zero Roadmap. To assess the net zero target, we used the scenario “The Plan”, modelled by DISER (Australian Government, 2021c). “The Plan” scenario incorporates a sequestration of 38 MtCO 2 e through bioenergy with carbon capture and storage (BECCS), which is considered in our target assessment. We converted these values to AR4 Global Warming Potentials (GWPs), using the AR5/AR4 ratio from current policy projections.</t>
+  </si>
+  <si>
+    <t>Argentina committed to a net zero GHG emissions by 2050. However, its long-term strategy does not include additional information on how Argentina plans to reach its target, particularly on sectoral pathways towards net zero and the expected contribution of sinks from the LULUCF sector. The CAT uses a simplified method to estimate residual emissions under Argentina’s net zero target in 2050. The calculation is based on LULUCF projections created by UNICEN for Argentina’s AFOLU sector in their net zero AFOLU scenario (Keesler &amp; Blanco, 2024). This scenario assumes net LULUCF emissions of -71 MtCO 2 e in 2050. For the simplified net zero pathway for Argentina’s economy-wide emissions, the CAT assumes residual emissions to match the LULUCF sinks of -71 MtCO 2 e in 2030 and assuming a linear decrease from the 2030 current policy pathways (i.e., 405 MtCO 2 e in 2030) to 71 MtCO 2 e in 2050, reaching economy-wide net zero GHG emissions.</t>
+  </si>
+  <si>
+    <t>The CAT calculates Nepal’s target of achieving carbon neutrality by 2045 using the WAM (With Additional Measures) scenario stated in its Long-term Strategy. The WAM scenario covers only CO 2 emission for each sector and projects a LULUCF sink of 10 MtCO 2 in 2045. To quantify a target in 2045 covering all GHG emission, we add our estimate of non-CO 2 to the projected CO 2 emissions excluding LULUCF from the LTS’ WAM scenario. We estimate non-CO 2 emissions in 2045 by taking historical non-CO 2 emissions from 2020 and applying the growth rate from the EPA’s BAU projections for non-CO 2 emissions until 2045 (EPA, 2019; Gütschow, Günther and Pflüger, 2022). The LTS’ WAM scenario uses GWP values from the Fifth Assessment Report (AR5), but the projection covers only CO 2 so an AR5 to AR4 conversion is not necessary.</t>
+  </si>
+  <si>
+    <t>The UK has set a target of reaching net zero greenhouse gas emissions by 2050. This target includes international aviation and shipping (IAS) emissions, as well as LULUCF emissions and removals from BECCS/DACCS (UK Government, 2019d). The CAT assesses IAS and LULUCF separately, and therefore these need to be removed from the projections. The UK Government does not provide detail on the LULUCF emissions they assume in 2050. In the absence of this, we take analysis from the CCC, which suggested that in the Balanced Net Zero pathway which reaches net zero by 2050, LULUCF emissions would be -19 MtCO 2 /yr (CCC, 2020). We also use this source to estimate future emissions from IAS. In the Balanced Net Zero pathway, emissions from aviation and shipping in 2050 are 24 MtCO 2 . Assuming an equal split between international and domestic aviation/shipping in 2050 as in 2019, this means that in 2050, IAS emissions would be 19 MtCO 2 /yr. Under these assumptions, the UK’s net zero target remains a 0 MtCO 2 e target in 2050 once LULUCF and IAS have been removed. However, in reality, the UK Government intends residual emissions to fall to around 70-80 MtCO 2 e/yr, with engineered removals from BECCS/DACCS offsetting these remaining emissions.</t>
+  </si>
+  <si>
+    <t>The UAE’s net zero strategy covers all GHG emissions except F-gases and assumes a 3.5 MtCO 2 e sink in 2050 to assist with achieving the country’s net zero target and so that is the value taken for their net zero target excluding LULUCF. Due to the uncertainty in estimating F-gases emissions in the UAE by 2050, the CAT does not include any estimation when calculating the UAE’s 2050 emissions excluding LULUCF. This can change in future updates once new emissions data for historical years and future projections are available.</t>
+  </si>
+  <si>
+    <t>To quantify Türkiye’s 2053 emissions, we assume that Türkiye maintains the LULUCF sink of -70 MtCO 2 in 2030 as indicated in its 5th Biennial Report ‘With Measures’ scenario through 2053 (Republic of Türkiye Ministry of Environment Urbanisation and Climate Change, 2023). This means that emissions from other sectors would have to be reduced to 70 MtCO 2 in 2053.</t>
+  </si>
+  <si>
+    <t>In its ZERO-basis scenario of the Energy perspectives 2050+, the Swiss government provides assumptions on their estimated residual emissions to meet its 2050 net-zero GHG target. The CAT approach assumes full implementation for all CDR and CCS planned for the target year, meaning that residual emissions are determined by the level of LULUCF emissions (zero assumed for Switzerland) and international offsets to compensate. Hence, the scenario “NET-ZERO scenario (EP2050+) incl. international offsets” was used, which assumes 4.7 MtCO 2 e of residual emissions in Switzerland in 2050 (Bundesamt für Energie, 2022).</t>
+  </si>
+  <si>
+    <t>South Korea’s 2050 carbon neutrality scenarios present 2050 emissions targets for each sector, in addition to details on targeted removals from LULUCF and CCUS. The CAT considers total emissions excl. LULUCF in 2050. The value is derived from the information provided and converted to AR4 by multiplying the value in SAR with the ratio of the 2017 values in AR4 and SAR. We assume that the target values presented cover all GHGs.</t>
+  </si>
+  <si>
+    <t>The Saudi government has announced it aims to achieve a sink of 200 MtCO 2 from 2030 onwards, which we assume to stay constant towards 2060 to meet Saudi Arabia’s net-zero CO 2 target. Given the lack of information on Saudi Arabia’s net zero target announcement, we have assumed it aims to reach net zero CO 2 emissions by 2060. We assume that CO 2 emissions will decline at a linear rate between 2030 and 2060 to balance LULUCF sinks in 2060. We further assume that non-CO 2 emissions will decline at a linear rate between 2030 and 2080 in line with the IPCC SR1.5 pathways.</t>
+  </si>
+  <si>
+    <t>The net zero by 2060 target covers all economic sectors and all GHG emissions. Kazakhstan plans to reduce emissions from 351.2 CO 2 -eq (2020) to 45.2 CO 2 -eq by 2060 and sets a removal goal of -45.2 CO 2 -eq for GHG absorption in the LULUCF sector. The Strategy for achieving carbon neutrality by 2060 contains decadal targets between 2020 and 2060, which are used in the tool.</t>
+  </si>
+  <si>
+    <t>The Japanese government provides no underlying assumptions on its 2050 net-zero GHG target. For this reason, we assumed that GHG emissions will balance LULUCF sinks in 2050. We estimate the LULUCF sink for 2050 to be 28–61 MtCO 2 e using a 10-years historical average between 2009–2019 (upper bound estimate) and a 10-years trend projection towards 2030 based on the period between 2009–2019 that we keep constant towards 2050 (lower bound estimate).</t>
+  </si>
+  <si>
+    <t>We estimate India’s emissions in 2070 consistent with its net zero target for the purpose of our global temperature estimate. We assume that India achieves the top end of its carbon sink NDC target of 3 GtCO 2 , which we average over the 2016-2030 period for an annual additional sink of 200 MtCO 2 . We add this to the last historical emissions data for LULUCF (308 MtCO 2 in 2016), for an estimated sink of 508 MtCO 2 in 2070, and assume that this will reflect India’s residual level of emissions of its net-zero target.</t>
+  </si>
+  <si>
+    <t>According to Germany’s Climate Law, the 2045 climate neutrality target includes a sink of 40 MtCO 2 e to compensate for some remaining emissions sources. We thus estimate the total GHG emissions excluding LULUCF in 2045 at 40 MtCO 2 e.</t>
+  </si>
+  <si>
+    <t>Morocco previously used Global Warming Potential (GWP) values from the IPCC Second Assessment Report (SAR). In the 2021 NDC and the other documents submitted to UNFCCC, GWP are communicated using the Fourth Assessment Report (AR4) values. The CAT reports all results using AR4 GWP.</t>
+  </si>
+  <si>
+    <t>The CAT uses Global Warming Potential (GWP) values from the IPCC's Fourth Assessment Report (AR4) for all its figures and time series. Assessments completed prior to December 2018 (COP24) used GWP values from the Second Assessment Report (SAR). Kenya has indicated that it will account for its NDC using GWP values from the IPCC’s fifth assessment report (AR5). However, we assume that its reference to a BAU of 143 MtCO 2 e is expressed in GWP values from the IPCC’s second assessment report (SAR). Similar to the first NDC, the updated NDC quantified the 2030 reference value based on the 2030 GHG emissions projected in the National Climate Change Action Plan (2013-2017) and values in that report are in SAR. For the purpose of this analysis, we assume that the sector contribution to achieving the target and LULUCF assumptions used in the CAT country assessment remain unchanged and we converted the IPCC SAR GWP values to AR4 GWP values. Converting from SAR to AR5 under these assumptions would increase the targets by a couple of MtCO 2 e. If, however, the BAU is already in AR5 values, then the targets will be lower than the estimates provided here.</t>
+  </si>
+  <si>
+    <t>The CAT uses Global Warming Potential (GWP) values from the IPCC's Fourth Assessment Report (AR4) for all its figures and time series. Assessments completed prior to December 2018 (COP24) used GWP values from the Second Assessment Report (SAR). The ‘NDC targets’ section above outlines the uncertainties on GWP assumed for the updated NDC target range.</t>
+  </si>
+  <si>
+    <t>The CAT uses Global Warming Potential (GWP) values from the IPCC's Fourth Assessment Report (AR4) for all its figures and time series. Assessments completed prior to December 2018 (COP24) used GWP values from the Second Assessment Report (SAR). Please see the NDC section for the assumptions made in calculating that figure.</t>
+  </si>
+  <si>
+    <t>Black carbon can have both a warming and a cooling effect in the atmosphere, depending on where it is: black carbon on snow reduces the albedo of the surface and thus leads to warming. It also leads to higher local temperature of the snow and thus to higher rate of snow melt. Both cooling and warming effects can emerge from interferences with other particles in the atmosphere (depending on the exact conditions). The IPCC’s 6th Assessment Report (AR6) indicates a net-positive effect of black carbon on warming over time, i.e. in sum, black carbon has contributed more to warming than cooling over the last centuries (Szopa et al. , 2021). AR6 also reports an increase in the radiative forcing of black carbon over time, meaning that the warming effects are growing more strongly than the cooling effects. The IPCC concludes that reducing emissions of black carbon (as well as other anthropogenic emissions like methane) in the short term would contribute to limiting temperature increase to 1.5°C. Along with the decarbonisation of the energy system that is required for 1.5°C, black carbon decreases in the 1.5°C compatible scenarios analysed in the IPCC's 6th Assessment Report. The climate response of black carbon differs from greenhouse gases in terms of the geographical reach of its impacts, its lifetime, and its interactions with other particles and gases in the atmosphere. The IPCC therefore does not provide any estimate of the global warming potential of black carbon</t>
+  </si>
+  <si>
+    <t>Our planned policy projection is based on the ‘with additional measures’ scenario provided by the government in its annual projections data, harmonised to the last historical emissions year of 2022 (Environment and Climate Change Canada, 2023b). In our last assessment, we excluded emissions reductions associated with hydrogen given the concerns of Canada’s Commissioner of the Environment and Sustainable Development over the validity of the modeling associated with those estimates (see the hydrogen section in the current policies tab for more details). The government has revised its assumptions for the impact of its hydrogen strategy downwards in its latest projection, so we no longer consider it necessary to make any adjustments to this pathway. Previously, the government had been assuming that 7.5% of blended marketable fossil gas would be from hydrogen, which has been revised down to 0.45%. Note – Our COP28 global temperature update was based on data from Canada’s Fifth Biennial Report, harmonised to the latest historical emissions and included the adjustment for the reduced impact of the hydrogen strategy.</t>
+  </si>
+  <si>
+    <t>The announced policy projections align with the ‘with additional measures’ scenario of the 2023 government projections, which includes policies that “have been announced but where detailed design is still under consultation” (DCCEEW, 2023b). The ‘with additional measures’ scenario includes the 82% renewable electricity target by 2030 for the country’s grids, but not the expansion of the Capacity Investment Scheme announced in November 2023, which is not included in either government scenario (DCCEEW, 2023b).</t>
+  </si>
+  <si>
+    <t>In the PDP8, the JETP targets are included separately to the domestic targets, with the specific mention that the JETP-related objectives are to be met conditionally on a fully and substantial implementation of the Partnership by international partners. The Resource Mobilisation Plan, detailing the implementation of the mobilisation required for the implementation of the JETP, is expected to be released in November 2023 (European Commission, 2022a). Hence, we have accounted the Planned Policy projections as the emissions that would result from a scenario where the “commitments under JETP are fully and substantively implemented by international partners” (Viet Nam Government, 2023a). The method used for determining power CO 2 emissions in the Current Policies scenario was applied in the Planned Policy scenario, using the 170 MtCO 2 e target instead of the domestic ones. For post-2030, power sector emissions are interpolated to the lower end of the range included in the PDP8 (Viet Nam Government, 2023a).</t>
+  </si>
+  <si>
+    <t>Thailand’s planned policy projections (PPP) follow the Power Development Plan (PDP) and Alternative Energy Development Plan (AEDP), with the following share targets to be achieved in 2037 (Ministry of Energy, 2019c, 2019a): Generation Energy consumption For generation, the PPP matches the CPP for all historical years until 2020 before specific fuel shares are expected to reach their targets linearly to 2037. Total generation from the power sector also matches CPP. Compared to the CPP, the PPP projects lower electricity generation for fossil fuel sources and also a larger reliance on gas compared to coal. For end-use sector consumption, historical data and projected total energy consumption data is also matched to the CPP, while we assume renewable energy share targets are reached linearly to 2037. The mix of fuel shares for fossil fuels are assumed to mirror the mix of the CPP over time. Overall, fossil fuel shares in energy consumption are lower than the CPP by 13% due to the large renewables target. The PPP uses the same methodology for electricity emission factors as the CPP to quantify emissions. The policies used for the PPP are already in force; however, energy sector transformation has yet to be realised. In addition, new unconfirmed high-level strategies, such as the National Energy Plan, may come with a revision of the PDP and AEDP. The COVID-pandemic aftermath and global energy crisis are also affecting the speed of energy transition in recent years. Until there is more certainty on these policies, the PDP and AEDP 2018 will stay as Thailand’s PPP pathway instead of the CPP.</t>
+  </si>
+  <si>
+    <t>The planned policy projections is based on the ‘planned policies scenario with reference growth rate’ by the University of Cape Town’s technical emissions scenario analysis to inform the 2021 NDC update (Marquard et al., 2021). Beyond the measures included under the ‘existing policy scenario’ (see section above), the ‘planned policy scenario’ assumes the full implementation of recently announced IRP2019 expansion plans, the Green Transport Strategy, the draft post-2015 National Energy Efficiency Strategy, and the carbon tax. We harmonise the scenario’s growth rates for total emissions excluding land use emissions to the latest historical datapoint of 2021. This harmonisation process results in significantly higher final estimates for 2030 than assumed by the University of Cape Town’s ‘existing policies scenario with reference growth rate’ (404 MtCO 2 e compared to 383 MtCO 2 e excluding LULUCF). Note that the University uses GWP values from the IPCC’s Second Assessment Report (SAR), while the CAT uses GWP values from the Fourth Assessment Report (AR4).</t>
+  </si>
+  <si>
+    <t>We use KAPSARC’s renewable energy scenario (“2030 MEIM RE target”) scenario for the upper end of our planned policies scenario (KAPSARC, 2021), adjusted to our latest historical data point. This scenario translates to about a 30% share of renewable energy in total electricity production by 2030. We estimate a 30% share of renewable energy to be roughly in line with the former (2019) Vision 2030 target of installing 57.8 GW of renewable energy by 2030. The lower end of our planned policy projections reflects the 50% renewable energy and 50% natural gas in electricity production by 2030, as foreseen in the 2021 NDC and the Vision 2030 targets from October 2021. To do so, we calculate the difference in electricity sector emissions resulting from KAPSARC’s renewable energy scenario and the new NDC target of 50% natural gas and renewable energy, and subtract it from the upper end of our planned policies range.</t>
+  </si>
+  <si>
+    <t>Our planned policy scenario is based on the Energy Transition Plan (ETP) which Nigeria released in August 2022 and for which it will need international support to implement (Federal Republic of Nigeria, 2022). We use the ETP growth rates for energy and industry emissions and the US EPA projection growth rates as proxies for the agriculture and waste sectors.</t>
+  </si>
+  <si>
+    <t>We estimate the emissions resulting from full implementation of the JETP pathway presented in the Comprehensive Investment and Policy Plan (CIPP), published in November 2023 (JETP Secretariat, 2023). The CIPP provides a table of on-grid power emissions in five-year intervals from 2025-2050. We interpolate between the values and to the last historical data point in 2022 to obtain a full series.</t>
   </si>
   <si>
     <t>We provide a range of projections for the EU’s planned policies. To develop a planned policies projection for the bottom of the range (i.e. maximum emission reductions), we modified our energy sector estimate to take into account the 45% indicative RE target, up from the 42.5% included in our current policy projections’ lower bound. For the other sectors, we use sector-specific growth rates from EEA’s 2023 ‘with additional measures’ (WAM) scenario to extend each sector out to 2030 individually. To devise the modified energy sector estimate, we took the energy emissions projections from the lower range of our current policy projection and multiplied it by the ratio between projected total energy emissions in 2030 with a 42.5% RE binding target compared to a 45% RE indicative target. We interpolated the data between total energy emissions in 2022 to this adjusted value for 2030 to complete the timeseries. To calculate the ratio indicated above, we started with the 2030 emissions estimates provided by the European Commission in its initial modelling of the higher emissions reduction goal published in 2021 (European Commission, 2021c). We select the MIX scenario for the 2030 domestic energy related CO 2 emissions (i.e. excluding international aviation and shipping). This modelling assumed a renewable energy share of 40% and when corrected to remove international bunkers, assumes a final energy consumption of 751 Mtoe. We calculated the emissions intensity for energy CO 2 emissions and then adjusted this figure to reflect the higher renewable energy share adopted by the EU (42.5% and 45%). To calculate energy CO 2 emissions we used this revised emissions intensity value and the Energy Efficiency Directive’s final energy consumption target of 11.7% below the 2020 EU Reference scenario we which calculate to be 726 Mtoe, excluding international aviation in 2030. We used the 2021 ratio between energy CO2 and all gases to estimate total emissions in 2030. For the other value in the ratio, we applied the same methods as indicated earlier but used the indicative additional target included in the Renewable Energy Directive of 2.5% (or 45% share total). To develop a planned policies projection for the upper end of the range (i.e. minimal emission reductions), we take the projected GHG emissions under the S3 scenario from the 2040 target communication impact assessment by the European Commission (in AR5) and convert it to AR4 while at the same time removing the influence of international aviation. In the EU’s Fit for 55 modelling scenarios, international aviation is included in the final energy consumption and GHG emissions (European Commission, 2021b). To omit it, we subtract the international aviation energy consumption and GHG emissions from the totals.</t>
-  </si>
-  <si>
-    <t>Our planned policy projection is based on the ‘with additional measures’ scenario provided by the government in its annual projections data, harmonised to the last historical emissions year of 2022 (Environment and Climate Change Canada, 2023b). In our last assessment, we excluded emissions reductions associated with hydrogen given the concerns of Canada’s Commissioner of the Environment and Sustainable Development over the validity of the modeling associated with those estimates (see the hydrogen section in the current policies tab for more details). The government has revised its assumptions for the impact of its hydrogen strategy downwards in its latest projection, so we no longer consider it necessary to make any adjustments to this pathway. Previously, the government had been assuming that 7.5% of blended marketable fossil gas would be from hydrogen, which has been revised down to 0.45%. Note – Our COP28 global temperature update was based on data from Canada’s Fifth Biennial Report, harmonised to the latest historical emissions and included the adjustment for the reduced impact of the hydrogen strategy.</t>
-  </si>
-  <si>
-    <t>The announced policy projections align with the ‘with additional measures’ scenario of the 2023 government projections, which includes policies that “have been announced but where detailed design is still under consultation” (DCCEEW, 2023b). The ‘with additional measures’ scenario includes the 82% renewable electricity target by 2030 for the country’s grids, but not the expansion of the Capacity Investment Scheme announced in November 2023, which is not included in either government scenario (DCCEEW, 2023b).</t>
-  </si>
-  <si>
-    <t>We estimate the emissions resulting from full implementation of the JETP pathway presented in the Comprehensive Investment and Policy Plan (CIPP), published in November 2023 (JETP Secretariat, 2023). The CIPP provides a table of on-grid power emissions in five-year intervals from 2025-2050. We interpolate between the values and to the last historical data point in 2022 to obtain a full series.</t>
-  </si>
-  <si>
-    <t>In the PDP8, the JETP targets are included separately to the domestic targets, with the specific mention that the JETP-related objectives are to be met conditionally on a fully and substantial implementation of the Partnership by international partners. The Resource Mobilisation Plan, detailing the implementation of the mobilisation required for the implementation of the JETP, is expected to be released in November 2023 (European Commission, 2022a). Hence, we have accounted the Planned Policy projections as the emissions that would result from a scenario where the “commitments under JETP are fully and substantively implemented by international partners” (Viet Nam Government, 2023a). The method used for determining power CO 2 emissions in the Current Policies scenario was applied in the Planned Policy scenario, using the 170 MtCO 2 e target instead of the domestic ones. For post-2030, power sector emissions are interpolated to the lower end of the range included in the PDP8 (Viet Nam Government, 2023a).</t>
-  </si>
-  <si>
-    <t>Thailand’s planned policy projections (PPP) follow the Power Development Plan (PDP) and Alternative Energy Development Plan (AEDP), with the following share targets to be achieved in 2037 (Ministry of Energy, 2019c, 2019a): Generation Energy consumption For generation, the PPP matches the CPP for all historical years until 2020 before specific fuel shares are expected to reach their targets linearly to 2037. Total generation from the power sector also matches CPP. Compared to the CPP, the PPP projects lower electricity generation for fossil fuel sources and also a larger reliance on gas compared to coal. For end-use sector consumption, historical data and projected total energy consumption data is also matched to the CPP, while we assume renewable energy share targets are reached linearly to 2037. The mix of fuel shares for fossil fuels are assumed to mirror the mix of the CPP over time. Overall, fossil fuel shares in energy consumption are lower than the CPP by 13% due to the large renewables target. The PPP uses the same methodology for electricity emission factors as the CPP to quantify emissions. The policies used for the PPP are already in force; however, energy sector transformation has yet to be realised. In addition, new unconfirmed high-level strategies, such as the National Energy Plan, may come with a revision of the PDP and AEDP. The COVID-pandemic aftermath and global energy crisis are also affecting the speed of energy transition in recent years. Until there is more certainty on these policies, the PDP and AEDP 2018 will stay as Thailand’s PPP pathway instead of the CPP.</t>
-  </si>
-  <si>
-    <t>The planned policy projections is based on the ‘planned policies scenario with reference growth rate’ by the University of Cape Town’s technical emissions scenario analysis to inform the 2021 NDC update (Marquard et al., 2021). Beyond the measures included under the ‘existing policy scenario’ (see section above), the ‘planned policy scenario’ assumes the full implementation of recently announced IRP2019 expansion plans, the Green Transport Strategy, the draft post-2015 National Energy Efficiency Strategy, and the carbon tax. We harmonise the scenario’s growth rates for total emissions excluding land use emissions to the latest historical datapoint of 2021. This harmonisation process results in significantly higher final estimates for 2030 than assumed by the University of Cape Town’s ‘existing policies scenario with reference growth rate’ (404 MtCO 2 e compared to 383 MtCO 2 e excluding LULUCF). Note that the University uses GWP values from the IPCC’s Second Assessment Report (SAR), while the CAT uses GWP values from the Fourth Assessment Report (AR4).</t>
-  </si>
-  <si>
-    <t>We use KAPSARC’s renewable energy scenario (“2030 MEIM RE target”) scenario for the upper end of our planned policies scenario (KAPSARC, 2021), adjusted to our latest historical data point. This scenario translates to about a 30% share of renewable energy in total electricity production by 2030. We estimate a 30% share of renewable energy to be roughly in line with the former (2019) Vision 2030 target of installing 57.8 GW of renewable energy by 2030. The lower end of our planned policy projections reflects the 50% renewable energy and 50% natural gas in electricity production by 2030, as foreseen in the 2021 NDC and the Vision 2030 targets from October 2021. To do so, we calculate the difference in electricity sector emissions resulting from KAPSARC’s renewable energy scenario and the new NDC target of 50% natural gas and renewable energy, and subtract it from the upper end of our planned policies range.</t>
-  </si>
-  <si>
-    <t>Our planned policy scenario is based on the Energy Transition Plan (ETP) which Nigeria released in August 2022 and for which it will need international support to implement (Federal Republic of Nigeria, 2022). We use the ETP growth rates for energy and industry emissions and the US EPA projection growth rates as proxies for the agriculture and waste sectors.</t>
-  </si>
-  <si>
-    <t>We take the EU’s modelled 2040 target from the S3 scenario presented in its impact assessment (European Commission, 2024b). We substitute the emissions from LULUCF in AR5 GWP and also excluding indirect CO 2 emissions and emissions from international aviation. We exclude the LULUCF emission but add in the planned assumptions for industrial carbon removals which include Direct Air Carbon Capture (DACCs) and Bioenergy Carbon Capture (BECCs). Regardless of scenario industrial removals are set at 75 MtCO 2 e. Finally, we convert the value from AR5 to AR4 using a conversion factor based on emissions in 1990. This results in an emission reduction of 86% GHG emission reduction from 1990 levels. We then apply the range of LULUCF assumptions (215, 317 and 376 MtCO 2 e) to determine the resulting emission reductions percentages from 1990. Building on the 85% baseline emission reductions, the added LULUCF options would resulting in 90%, 92% and 94% emissions reductions.</t>
-  </si>
-  <si>
-    <t>In December 2018, the European Commission published its assessment of the climate neutrality goal by 2050 for the EU28 (European Commission, 2018a, 2018c, 2018b). In 2024, as part of the EU’s 2040 target proposal’s Impact Assessment (European Commission, 2024b), new data was made available on the emission projections to 2050. Out of the four scenarios, we take the S3 scenario which best reflects the likely pathway the EU has indicated it will strive for. We take the GHG emission in 2050 (excluding LULUCF) in AR5 and add in the assumed industrial carbon removals from DACCs and BECCs from the 2040 Target Impact Assessment. We provide a single projection and not a range based on the S3 scenario in the 2040 target impact assessment. This approach reflects what the EU Commission said it will pursue. We convert the value from AR5 to AR4 using a conversion factor based on emissions in 1990 to get 295 MtCO 2 e as our target excluding LULUCF.</t>
-  </si>
-  <si>
-    <t>Viet Nam's National Climate Change Strategy (NCCS) establishes emission limits for each sector by the year 2050: the energy sector is set at 101 MtCO 2 e, agriculture at 56 MtCO 2 e , industrial processes at 20 MtCO 2 e , and waste at 8 MtCO 2 e . These sectors collectively will amount to 185 MtCO 2 e of residual emissions by 2050. Additionally, the Vietnamese governments assumes negative emissions from the LULUCF sector of 185 MtCO 2 e by 2050, resulting in a net zero emissions outcome by 2050. For this reason, we assume 185 MtCO 2 e of residual emissions remaining in Viet Nam’s net-zero target year of 2050. The NCCS, however, does not explicitly mention the global warming potential (GWP) utilized for estimating emissions. According to the NCCS, the percentage reduction targets from BAU emissions for each sector, aiming for net zero by 2050, are as follows: energy sector 91.6%, agriculture 63.1%, industrial processes 84.8%, waste 90.7%, and LULUCF at 90%. We have validated these percentage reduction figures against BAU emissions in GWP AR4, as indicated in the Nationally Determined Contributions (NDC) of 2022 (Viet Nam Government, 2022a).</t>
-  </si>
-  <si>
-    <t>The South African government provides no underlying assumptions on its 2050 net-zero CO 2 target as part of a visionary statement in its LTS (Republic of South Africa, 2020). For this reason, we assumed that CO 2 emissions will decline at a linear rate between 2030 and 2050 to balance LULUCF sinks in 2050. We assume that non-CO 2 emissions will decline at a linear rate between 2030 and 2080 in line with the IPCC SR1.5 pathways.</t>
-  </si>
-  <si>
-    <t>The CAT uses Global Warming Potential (GWP) values from the IPCC's Fourth Assessment Report (AR4) for all its figures and time series. Assessments completed prior to December 2018 (COP24) used GWP values from the Second Assessment Report (SAR). Some of the EU data used in our calculations is based on AR5 values. Please see the individual sections above for our conversion methods.</t>
-  </si>
-  <si>
-    <t>The CAT uses Global Warming Potential (GWP) values from the IPCC's Fourth Assessment Report (AR4) for all its figures and time series. Assessments completed before December 2018 (COP24) used GWP values from the Second Assessment Report (SAR).</t>
-  </si>
-  <si>
-    <t>The CAT uses Global Warming Potential (GWP) values from the IPCC's Fourth Assessment Report (AR4) for all its figures and time series. Assessments completed prior to December 2018 (COP24) used GWP values from the Second Assessment Report (SAR).</t>
-  </si>
-  <si>
-    <t>The CAT uses Global Warming Potential (GWP) values from the IPCC’s Fourth Assessment Report (AR4) for all figures and time series. Assessments completed prior to December 2018 (COP24) used GWP values from the IPCC’s Second Assessment Report (SAR).</t>
-  </si>
-  <si>
-    <t>The CAT uses Global Warming Potential (GWP) values from the IPCC's Fourth Assessment Report (AR4) for all its figures and time series unless stated otherwise. Assessments completed prior to December 2018 (COP24) used GWP values from the Second Assessment Report (SAR). To be relevant to national context, values using AR5 are sometimes added to the text.</t>
-  </si>
-  <si>
-    <t>The CAT uses Global Warming Potential (GWP) values from the IPCC’s Fourth Assessment Report (AR4) for all figures and time series.</t>
-  </si>
-  <si>
-    <t>The CAT uses Global Warming Potential (GWP) values from the IPCC’s Fourth Assessment Report (AR4) for all its figures and time series. Assessments completed prior to December 2018 (COP24) used GWP values from the Second Assessment Report (SAR).</t>
-  </si>
-  <si>
-    <t>To estimate current policy emissions levels, we subtract those mitigation measures outlined in Colombia’s NDC that are being implemented from the BAU projections provided in the NDC (excl. LULUCF) and harmonise to the last historic year (Gobierno de Colombia, 2020c) (IDEAM, 2021). We use the information provided in the BUR3 to determine which policies are being implemented and which are still in the planning stage. We use the mitigation potential estimates in the BUR3, in cases where those differ from the NDC update, except for fugitive emissions. There we use the estimated reductions from the regulations (Ministry of Mines and Energy (Colombia), 2022). The range of estimates is due to a range of estimates in the energy sector. We apply the same approach for the planned policies scenario, although we also include any new measures reported on in the BUR3 and not just those outlined in the NDC update. The key changes are in the waste sector, as Colombia has now provided mitigation potential estimates for some of the measures it is planning in that sector. We assume all mitigation potential quantifications in the NDC update and BUR3 use AR5 values, which we convert to AR4. The projections do not include measures planned in the land sector. Some of the mitigation measures proposed in agriculture will also affect land use. For the largest measure, sustainable beef production, we assumed that half of the mitigation potential is attributed to land use and the other half to agriculture.</t>
-  </si>
-  <si>
-    <t>The CAT uses Global Warming Potential (GWP) values from the IPCC's Fourth Assessment Report (AR4) for all its figures and time series.</t>
-  </si>
-  <si>
-    <t>The officially submitted LTS appears to confirm the commitment covers only carbon dioxide emissions. Due to the 2060 timeframe extending past our scope of analysis, as well as insufficient details in intermediary targets to reach the carbon neutrality target, we take a simplified linear approach for China’s pathway to carbon neutrality. The government is pursuing expansion of China’s carbon sinks in the LULUCF sector. While specific modelling details of these sinks are not provided, the updated NDC commits to increasing forest stock volume by 6 billion cubic meters from the 2005 level (Government of China, 2022). We regress the historical LULUCF sinks and forest stock volumes to predict the LULUCF sinks up to 2030, assuming a linear increase in forest stock volume from 2018 (the latest available data) to 2030. From 2030 to 2060, we assume the LULUCF sinks will remain constant at approximately -1270 Mt CO 2 e, pending new policies beyond 2030. Emissions until 2030 are established through our current policy projections. For CO 2 (incl. LULUCF), we assume a linear decarbonisation to zero in 2060 from 2030 levels, CO 2 (excl. LULUCF) is thus calculated based on the assumed constant LULUCF sinks. For non-CO 2 , we assume a more conservative phaseout path to zero in 2080 from 2030 levels. China’s resulting emissions in 2060 (excl. LULUCF) is then assumed to be the addition of CO 2 (excl. LULUCF) and leftover non-CO 2 GHGs. The pathway for all GHG emissions from 2030 to the emissions in 2060 is linearly interpolated.</t>
-  </si>
-  <si>
-    <t>As we now use baseline data that already captures impacts from COVID-19, we apply no further methods to estimate COVID-19 related changes in greenhouse gas emissions for China until 2030.</t>
-  </si>
-  <si>
-    <t>We applied a novel method to estimate the COVID-19 related dip in greenhouse gas emissions until 2030. The uncertainty surrounding the severity and length of the pandemic creates a new level of uncertainty for current and future greenhouse gas emissions. We take 2021 as the last historical data point and for emissions between 2022 and 2030, we first update the current and planned policy projections using the most recent projections, usually prepared before the pandemic. We then distil the emission intensity (GHG emissions/GDP) from this pre-pandemic scenario and apply to it most recent GDP projections that take into account the effect of the pandemic. To capture potential differentiated effects of COVID-19 on the economy, the lower bound of the current and planned projects capture the effects if COVID continues its impacts on the entire economy, while the upper bound captures the impacts of COVID-19 only on the energy and industry sectors (which consist of the significant majority of Thailand’s CO 2 emissions), assuming the agriculture and waste sectors are unaffected. The GDP projections from Thailand’s NESDC (2022) of 2.7% for 2022 were used to create the lower bound of our policy projections while the Board of Investment’s (2022) projection of 3.3% was the most optimistic estimate, creating the upper bound. For 2023, the lower bound uses the Board of Investment’s 4.2% estimate while the upper bound uses the Asian Development Bank’s 4.5% (2022). The forecast going forward relies on IMF (2021) projections until 2027.</t>
-  </si>
-  <si>
-    <t>We apply a novel method to estimate the COVID-19-related dip in greenhouse gas emissions in 2021 and the deployment through to 2030. The uncertainty surrounding the severity and length of the pandemic creates a new level of uncertainty for current and future greenhouse gas emissions. We first update the current policy projections using most recent projections, usually prepared before the pandemic. We then distil the emissions intensity (GHG emissions/GDP) from this pre-pandemic scenario and apply to it most recent GDP projections that take in to account the effect of the pandemic. To capture a range, we use projections from USEPA (2019), APEC (2022), and historical data series from PRIMAP 2022. The quantification of South Korea’s current policies projections focuses on energy-related CO 2 emissions reductions. For scenarios that already consider the impact of COVID-19, we do not adjust energy-related CO 2 emissions, to avoid double-counting.</t>
-  </si>
-  <si>
-    <t>We applied a novel method to estimate the COVID-19 related dip in greenhouse gas emissions in 2020 and the trajectory to 2030. The uncertainty surrounding the severity and length of the pandemic creates a new level of uncertainty for current and future greenhouse gas emissions. We first update the current policy projections using most recent projections. We then distil the emission intensity (GHG emissions/GDP) from this pre-pandemic scenario and apply to it the most recent GDP projections that take into account the effect of the pandemic. As a result of the pandemic, Kenya’s GDP dropped by -0.3% in 2020 and rebounded by 7.2% in 2021 (IMF, 2022). We use recent estimates from IMF for GDP growth from 2022 to 2027 (IMF, 2022). Since the most recent GDP projections only provide values for the next few years (up to 2027), we used the same GDP growth rate as pre-pandemic current policy scenarios for the remaining years.</t>
-  </si>
-  <si>
-    <t>Chile has committed to being net-zero by 2050. According to Chile’s long-term strategy submitted to the UNFCCC, the target includes a LULUCF sink of 65 MtCO 2 e to neutralise remaining emissions. Thus, we estimate Chile’s total GHG emissions excluding LULUCF in 2050 to be 65 MtCO 2 e (Gobierno de Chile, 2021).</t>
-  </si>
-  <si>
-    <t>We use the most recent available update of the Long-Term Emissions Reduction Plan as a basis for assessing Australia’s climate trajectory to 2050. The government is currently preparing an update of the 2050 Net Zero Roadmap. To assess the net zero target, we used the scenario “The Plan”, modelled by DISER (Australian Government, 2021c). “The Plan” scenario incorporates a sequestration of 38 MtCO 2 e through bioenergy with carbon capture and storage (BECCS), which is considered in our target assessment. We converted these values to AR4 Global Warming Potentials (GWPs), using the AR5/AR4 ratio from current policy projections.</t>
-  </si>
-  <si>
-    <t>Argentina committed to a net zero GHG emissions by 2050. However, its long-term strategy does not include additional information on how Argentina plans to reach its target, particularly on sectoral pathways towards net zero and the expected contribution of sinks from the LULUCF sector. The CAT uses a simplified method to estimate residual emissions under Argentina’s net zero target in 2050. The calculation is based on LULUCF projections created by UNICEN for Argentina’s AFOLU sector in their net zero AFOLU scenario (Keesler &amp; Blanco, 2024). This scenario assumes net LULUCF emissions of -71 MtCO 2 e in 2050. For the simplified net zero pathway for Argentina’s economy-wide emissions, the CAT assumes residual emissions to match the LULUCF sinks of -71 MtCO 2 e in 2030 and assuming a linear decrease from the 2030 current policy pathways (i.e., 405 MtCO 2 e in 2030) to 71 MtCO 2 e in 2050, reaching economy-wide net zero GHG emissions.</t>
-  </si>
-  <si>
-    <t>We estimate India’s emissions in 2070 consistent with its net zero target for the purpose of our global temperature estimate. We assume that India achieves the top end of its carbon sink NDC target of 3 GtCO 2 , which we average over the 2016-2030 period for an annual additional sink of 200 MtCO 2 . We add this to the last historical emissions data for LULUCF (308 MtCO 2 in 2016), for an estimated sink of 508 MtCO 2 in 2070, and assume that this will reflect India’s residual level of emissions of its net-zero target.</t>
-  </si>
-  <si>
-    <t>According to Germany’s Climate Law, the 2045 climate neutrality target includes a sink of 40 MtCO 2 e to compensate for some remaining emissions sources. We thus estimate the total GHG emissions excluding LULUCF in 2045 at 40 MtCO 2 e.</t>
-  </si>
-  <si>
-    <t>The UK has set a target of reaching net zero greenhouse gas emissions by 2050. This target includes international aviation and shipping (IAS) emissions, as well as LULUCF emissions and removals from BECCS/DACCS (UK Government, 2019d). The CAT assesses IAS and LULUCF separately, and therefore these need to be removed from the projections. The UK Government does not provide detail on the LULUCF emissions they assume in 2050. In the absence of this, we take analysis from the CCC, which suggested that in the Balanced Net Zero pathway which reaches net zero by 2050, LULUCF emissions would be -19 MtCO 2 /yr (CCC, 2020). We also use this source to estimate future emissions from IAS. In the Balanced Net Zero pathway, emissions from aviation and shipping in 2050 are 24 MtCO 2 . Assuming an equal split between international and domestic aviation/shipping in 2050 as in 2019, this means that in 2050, IAS emissions would be 19 MtCO 2 /yr. Under these assumptions, the UK’s net zero target remains a 0 MtCO 2 e target in 2050 once LULUCF and IAS have been removed. However, in reality, the UK Government intends residual emissions to fall to around 70-80 MtCO 2 e/yr, with engineered removals from BECCS/DACCS offsetting these remaining emissions.</t>
-  </si>
-  <si>
-    <t>The UAE’s net zero strategy covers all GHG emissions except F-gases and assumes a 3.5 MtCO 2 e sink in 2050 to assist with achieving the country’s net zero target and so that is the value taken for their net zero target excluding LULUCF. Due to the uncertainty in estimating F-gases emissions in the UAE by 2050, the CAT does not include any estimation when calculating the UAE’s 2050 emissions excluding LULUCF. This can change in future updates once new emissions data for historical years and future projections are available.</t>
-  </si>
-  <si>
-    <t>To quantify Türkiye’s 2053 emissions, we assume that Türkiye maintains the LULUCF sink of -70 MtCO 2 in 2030 as indicated in its 5th Biennial Report ‘With Measures’ scenario through 2053 (Republic of Türkiye Ministry of Environment Urbanisation and Climate Change, 2023). This means that emissions from other sectors would have to be reduced to 70 MtCO 2 in 2053.</t>
-  </si>
-  <si>
-    <t>In its ZERO-basis scenario of the Energy perspectives 2050+, the Swiss government provides assumptions on their estimated residual emissions to meet its 2050 net-zero GHG target. The CAT approach assumes full implementation for all CDR and CCS planned for the target year, meaning that residual emissions are determined by the level of LULUCF emissions (zero assumed for Switzerland) and international offsets to compensate. Hence, the scenario “NET-ZERO scenario (EP2050+) incl. international offsets” was used, which assumes 4.7 MtCO 2 e of residual emissions in Switzerland in 2050 (Bundesamt für Energie, 2022).</t>
-  </si>
-  <si>
-    <t>South Korea’s 2050 carbon neutrality scenarios present 2050 emissions targets for each sector, in addition to details on targeted removals from LULUCF and CCUS. The CAT considers total emissions excl. LULUCF in 2050. The value is derived from the information provided and converted to AR4 by multiplying the value in SAR with the ratio of the 2017 values in AR4 and SAR. We assume that the target values presented cover all GHGs.</t>
-  </si>
-  <si>
-    <t>The Saudi government has announced it aims to achieve a sink of 200 MtCO 2 from 2030 onwards, which we assume to stay constant towards 2060 to meet Saudi Arabia’s net-zero CO 2 target. Given the lack of information on Saudi Arabia’s net zero target announcement, we have assumed it aims to reach net zero CO 2 emissions by 2060. We assume that CO 2 emissions will decline at a linear rate between 2030 and 2060 to balance LULUCF sinks in 2060. We further assume that non-CO 2 emissions will decline at a linear rate between 2030 and 2080 in line with the IPCC SR1.5 pathways.</t>
-  </si>
-  <si>
-    <t>The CAT calculates Nepal’s target of achieving carbon neutrality by 2045 using the WAM (With Additional Measures) scenario stated in its Long-term Strategy. The WAM scenario covers only CO 2 emission for each sector and projects a LULUCF sink of 10 MtCO 2 in 2045. To quantify a target in 2045 covering all GHG emission, we add our estimate of non-CO 2 to the projected CO 2 emissions excluding LULUCF from the LTS’ WAM scenario. We estimate non-CO 2 emissions in 2045 by taking historical non-CO 2 emissions from 2020 and applying the growth rate from the EPA’s BAU projections for non-CO 2 emissions until 2045 (EPA, 2019; Gütschow, Günther and Pflüger, 2022). The LTS’ WAM scenario uses GWP values from the Fifth Assessment Report (AR5), but the projection covers only CO 2 so an AR5 to AR4 conversion is not necessary.</t>
-  </si>
-  <si>
-    <t>The net zero by 2060 target covers all economic sectors and all GHG emissions. Kazakhstan plans to reduce emissions from 351.2 CO 2 -eq (2020) to 45.2 CO 2 -eq by 2060 and sets a removal goal of -45.2 CO 2 -eq for GHG absorption in the LULUCF sector. The Strategy for achieving carbon neutrality by 2060 contains decadal targets between 2020 and 2060, which are used in the tool.</t>
-  </si>
-  <si>
-    <t>The Japanese government provides no underlying assumptions on its 2050 net-zero GHG target. For this reason, we assumed that GHG emissions will balance LULUCF sinks in 2050. We estimate the LULUCF sink for 2050 to be 28–61 MtCO 2 e using a 10-years historical average between 2009–2019 (upper bound estimate) and a 10-years trend projection towards 2030 based on the period between 2009–2019 that we keep constant towards 2050 (lower bound estimate).</t>
-  </si>
-  <si>
-    <t>The CAT uses Global Warming Potential (GWP) values from the IPCC's Fourth Assessment Report (AR4) for all its figures and time series. Assessments completed prior to December 2018 (COP24) used GWP values from the Second Assessment Report (SAR). The ‘NDC targets’ section above outlines the uncertainties on GWP assumed for the updated NDC target range.</t>
-  </si>
-  <si>
-    <t>The CAT uses Global Warming Potential (GWP) values from the IPCC's Fourth Assessment Report (AR4) for all its figures and time series. Assessments completed prior to December 2018 (COP24) used GWP values from the Second Assessment Report (SAR). Please see the NDC section for the assumptions made in calculating that figure.</t>
-  </si>
-  <si>
-    <t>Morocco previously used Global Warming Potential (GWP) values from the IPCC Second Assessment Report (SAR). In the 2021 NDC and the other documents submitted to UNFCCC, GWP are communicated using the Fourth Assessment Report (AR4) values. The CAT reports all results using AR4 GWP.</t>
-  </si>
-  <si>
-    <t>The CAT uses Global Warming Potential (GWP) values from the IPCC's Fourth Assessment Report (AR4) for all its figures and time series. Assessments completed prior to December 2018 (COP24) used GWP values from the Second Assessment Report (SAR). Kenya has indicated that it will account for its NDC using GWP values from the IPCC’s fifth assessment report (AR5). However, we assume that its reference to a BAU of 143 MtCO 2 e is expressed in GWP values from the IPCC’s second assessment report (SAR). Similar to the first NDC, the updated NDC quantified the 2030 reference value based on the 2030 GHG emissions projected in the National Climate Change Action Plan (2013-2017) and values in that report are in SAR. For the purpose of this analysis, we assume that the sector contribution to achieving the target and LULUCF assumptions used in the CAT country assessment remain unchanged and we converted the IPCC SAR GWP values to AR4 GWP values. Converting from SAR to AR5 under these assumptions would increase the targets by a couple of MtCO 2 e. If, however, the BAU is already in AR5 values, then the targets will be lower than the estimates provided here.</t>
-  </si>
-  <si>
-    <t>Black carbon can have both a warming and a cooling effect in the atmosphere, depending on where it is: black carbon on snow reduces the albedo of the surface and thus leads to warming. It also leads to higher local temperature of the snow and thus to higher rate of snow melt. Both cooling and warming effects can emerge from interferences with other particles in the atmosphere (depending on the exact conditions). The IPCC’s 6th Assessment Report (AR6) indicates a net-positive effect of black carbon on warming over time, i.e. in sum, black carbon has contributed more to warming than cooling over the last centuries (Szopa et al. , 2021). AR6 also reports an increase in the radiative forcing of black carbon over time, meaning that the warming effects are growing more strongly than the cooling effects. The IPCC concludes that reducing emissions of black carbon (as well as other anthropogenic emissions like methane) in the short term would contribute to limiting temperature increase to 1.5°C. Along with the decarbonisation of the energy system that is required for 1.5°C, black carbon decreases in the 1.5°C compatible scenarios analysed in the IPCC's 6th Assessment Report. The climate response of black carbon differs from greenhouse gases in terms of the geographical reach of its impacts, its lifetime, and its interactions with other particles and gases in the atmosphere. The IPCC therefore does not provide any estimate of the global warming potential of black carbon</t>
   </si>
   <si>
     <t>Canada’s net zero strategy assumes a 100 MtCO 2 e sink in 2050 to assist with achieving the country’s net zero target. We use this value for the residual emissions in their net zero target excluding LULUCF (Environment and Climate Change Canada, 2022c).</t>
@@ -1303,221 +1289,6 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" t="s">
-        <v>187</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1534,26 +1305,26 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1561,23 +1332,23 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1585,7 +1356,7 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1593,7 +1364,7 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1601,23 +1372,23 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>188</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>189</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1625,39 +1396,39 @@
         <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>190</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>191</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>168</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1665,7 +1436,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1683,10 +1454,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -1694,7 +1465,100 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
+        <v>188</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -1712,18 +1576,18 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -1781,7 +1645,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -1829,7 +1693,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
         <v>90</v>
@@ -1837,7 +1701,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
         <v>91</v>
@@ -1845,7 +1709,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
         <v>92</v>
@@ -1853,7 +1717,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
         <v>93</v>
@@ -1861,7 +1725,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
         <v>94</v>
@@ -1869,7 +1733,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
         <v>95</v>
@@ -1877,7 +1741,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>96</v>
@@ -1885,7 +1749,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>97</v>
@@ -1893,7 +1757,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
         <v>98</v>
@@ -1901,7 +1765,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21" t="s">
         <v>99</v>
@@ -1909,7 +1773,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
         <v>100</v>
@@ -1917,7 +1781,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
         <v>101</v>
@@ -1925,7 +1789,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B24" t="s">
         <v>102</v>
@@ -1933,7 +1797,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B25" t="s">
         <v>103</v>
@@ -1941,7 +1805,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B26" t="s">
         <v>104</v>
@@ -1949,7 +1813,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B27" t="s">
         <v>105</v>
@@ -1957,7 +1821,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B28" t="s">
         <v>106</v>
@@ -1981,7 +1845,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B31" t="s">
         <v>109</v>
@@ -1989,7 +1853,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B32" t="s">
         <v>110</v>
@@ -2001,6 +1865,64 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B37"/>
   <sheetViews>
@@ -2018,10 +1940,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2029,7 +1951,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2037,7 +1959,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2045,7 +1967,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2053,7 +1975,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2061,7 +1983,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2069,7 +1991,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2077,7 +1999,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2085,7 +2007,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2093,167 +2015,167 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2261,7 +2183,7 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2269,7 +2191,7 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2277,7 +2199,7 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -2285,7 +2207,7 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -2293,7 +2215,7 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -2301,7 +2223,7 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -2309,7 +2231,89 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B10"/>
   <sheetViews>
@@ -2327,10 +2331,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2338,63 +2342,63 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -2402,9 +2406,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2420,206 +2424,114 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
         <v>37</v>
       </c>
-      <c r="B10" t="s">
-        <v>162</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>168</v>
+      <c r="B15" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/climate_tracker/assumptions.xlsx
+++ b/climate_tracker/assumptions.xlsx
@@ -8,25 +8,22 @@
   </bookViews>
   <sheets>
     <sheet name="Historical emissions" sheetId="1" r:id="rId1"/>
-    <sheet name="NDC and other targets" sheetId="2" r:id="rId2"/>
-    <sheet name="Current policy &amp; planned polic" sheetId="3" r:id="rId3"/>
-    <sheet name="Global Warming Potential value" sheetId="4" r:id="rId4"/>
-    <sheet name="Current policy projections" sheetId="5" r:id="rId5"/>
-    <sheet name="Mid-Century Long-Term Low Gree" sheetId="6" r:id="rId6"/>
-    <sheet name="COVID-19 impact" sheetId="7" r:id="rId7"/>
-    <sheet name="Global Warming Potentials" sheetId="8" r:id="rId8"/>
-    <sheet name="Net-zero target and other long" sheetId="9" r:id="rId9"/>
-    <sheet name="Global Warming Potentials valu" sheetId="10" r:id="rId10"/>
-    <sheet name="Black carbon" sheetId="11" r:id="rId11"/>
-    <sheet name="Planned policy projections" sheetId="12" r:id="rId12"/>
-    <sheet name="Net zero target and other long" sheetId="13" r:id="rId13"/>
+    <sheet name="Current policy projections" sheetId="2" r:id="rId2"/>
+    <sheet name="Net-zero target and other long" sheetId="3" r:id="rId3"/>
+    <sheet name="Global Warming Potentials valu" sheetId="4" r:id="rId4"/>
+    <sheet name="NDC and other targets" sheetId="5" r:id="rId5"/>
+    <sheet name="Global warming potentials" sheetId="6" r:id="rId6"/>
+    <sheet name="NDC" sheetId="7" r:id="rId7"/>
+    <sheet name="Planned policy projections" sheetId="8" r:id="rId8"/>
+    <sheet name="Proposed 2040 target" sheetId="9" r:id="rId9"/>
+    <sheet name="Net-zero target" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="187">
   <si>
     <t>country_name</t>
   </si>
@@ -34,6 +31,18 @@
     <t>assumption_description</t>
   </si>
   <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>EU</t>
+  </si>
+  <si>
     <t>Colombia</t>
   </si>
   <si>
@@ -58,6 +67,57 @@
     <t>Argentina</t>
   </si>
   <si>
+    <t>Viet Nam</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>UAE</t>
+  </si>
+  <si>
+    <t>Türkiye</t>
+  </si>
+  <si>
+    <t>The Gambia</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Russian Federation</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
     <t>New Zealand</t>
   </si>
   <si>
@@ -73,57 +133,6 @@
     <t>Kenya</t>
   </si>
   <si>
-    <t>Viet Nam</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>UAE</t>
-  </si>
-  <si>
-    <t>Türkiye</t>
-  </si>
-  <si>
-    <t>The Gambia</t>
-  </si>
-  <si>
-    <t>Thailand</t>
-  </si>
-  <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
-    <t>South Korea</t>
-  </si>
-  <si>
-    <t>South Africa</t>
-  </si>
-  <si>
-    <t>Singapore</t>
-  </si>
-  <si>
-    <t>Saudi Arabia</t>
-  </si>
-  <si>
-    <t>Russian Federation</t>
-  </si>
-  <si>
-    <t>Philippines</t>
-  </si>
-  <si>
-    <t>Peru</t>
-  </si>
-  <si>
-    <t>Norway</t>
-  </si>
-  <si>
-    <t>Nigeria</t>
-  </si>
-  <si>
     <t>Kazakhstan</t>
   </si>
   <si>
@@ -139,16 +148,16 @@
     <t>India</t>
   </si>
   <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>Ethiopia</t>
-  </si>
-  <si>
-    <t>Egypt</t>
-  </si>
-  <si>
-    <t>EU</t>
+    <t>Historical emissions are taken from the Federal Environment Agency published in March 2024 (UBA, 2024b). UBA provides the data using Global Warming Potentials from AR5, we convert the data using Global Warming Potentials from AR4 (see more detail below). Note there is an unexplained jump from -18 to -80 MtCO 2 in sinks from forests in the inventory data from 1990 to 1991.</t>
+  </si>
+  <si>
+    <t>Ethiopia provided revised historical data for 2010 in its NDC update using global warming potential values (GWPs) from the IPCC’s fifth assessment report (AR5) (Federal Democratic Republic of Ethiopia, 2021). The government provides sector-level emissions data, but no information on the gas-by-gas breakdown. It also provided information on emissions data from livestock and managed soils, which we take to be the entirety of agriculture sector emissions. To complete the sector information for the industry and managed soils sectors, we used the sector-by-sector emission ratios for the NDC’s 2020 business as usual estimate. We use the gas-by-gas breakdown in PRIMAP for the year 2010 to estimate sectoral emissions by gas and then converted these from AR5 to AR4 values (Gütschow, J.; Günther, A.; Jeffery, L.; Gieseke, 2021). The NDC update covers the three main gases (CO 2 , CH 4 and N 2 O). We added an estimate for HFCs using PRIMAP data for 2010 and scaling this estimate to our industry sector’s emissions total for 2010. We used PRIMAP growth rates for the energy, industry, agriculture, and waste to extend the historical time series for 1990-2019 based off of the 2010 estimate provided in the NDC update. To estimate emissions for 2020 and 2021, we applied a sectoral approach. For energy and industry, we applied growth rates from Global Carbon Budget for the year 2020 (Global Carbon Project, 2021), and the GDP growth rates from IMF for 2021, assuming a directly proportional development of CO 2 emissions. For agriculture and waste, we assume a continuation of a 5-year trend. We assume that the impact of the pandemic on agriculture, waste and other emissions is minimal and so have extrapolated emissions for 2015–2019 up to 2021 using a 5-year average from historical emissions.</t>
+  </si>
+  <si>
+    <t>Historical emissions from 1990 to 2021 are taken from PRIMAP (Gütschow and Pflüger, 2023).</t>
+  </si>
+  <si>
+    <t>Historical emissions between 1990 and 2022 are based on the national inventory submitted by the EU to the UNFCCC (European Environment Agency, 2024). The data is presented in AR5 GWP values, so we convert it to AR4 GWP using gas-by-gas conversions.</t>
   </si>
   <si>
     <t>Historical emissions for 1990-2021 are taken from PRIMAP (Gütschow et al., 2022) . LULUCF LULUCF data for 1990-2018 is from the Third Biennial Report (BUR3). Data in the BUR3 uses global warming potential values from the IPCC’s fifth assessment report (AR5). The CAT uses AR4 values for all countries to ensure comparability of data. We have taken emissions for the land category (3B) and harvested wood products (3D1) only. No conversion is needed as these are CO 2 emissions only. There is insufficient data to extract any land sector emissions from the 3C category. This category is between 8-12 MtCO 2 e (AR5) for the time series, thus our historic series may slightly overestimate Colombian emissions, excluding land use.</t>
@@ -175,6 +184,57 @@
     <t>Historical emissions in all sectors excluding LULUCF for the period 1990–2020 as well as LULUCF emissions for 1990–2020 were taken from the national GHG inventory submitted as part of Argentina’s Fifth BUR submitted in December 2023 to the UNFCCC (Government of Argentina, 2023a). These were extended until 2022 using growth rates from PRIMAP v2.5 Final (Gütschow &amp; Pflüger, 2023).</t>
   </si>
   <si>
+    <t>Historical emissions for the period 1990-2021 are from PRIMAPhist dataset (for energy, industry, agriculture and waste) (Gütschow et al., 2022a). Energy emissions for 2022 are calculated using CO 2 emissions growth rate data from the Energy Institute Statistical Review of World Energy 2023 (Energy Institute, 2023). Industry’s emissions for 2022 have been estimated using GDP growth rate. We used the 5-year trend (2017-2021) to estimate emissions for the agriculture, waste and other sectors. LULUCF LULUCF data is from the third Biennial Update Report (Viet Nam Government, 2020b). These estimates are calculated using global warming potential (GWP) values from the IPCC’s Fifth Assessment Report (AR5). We have not converted these into AR4 values assuming contribution from non-CO 2 gases is negligible.</t>
+  </si>
+  <si>
+    <t>Historical emissions data for 1990–2021 were obtained from the UK Government (BEIS &amp; DESNZ, 2023a). Provisional emissions data for 2022 was also included to extend the time series to 2021 (BEIS &amp; DESNZ, 2023b). The UK provides inventory data to the UNFCCC that includes emissions from Overseas Territories and Crown Dependencies, which are not covered by UK climate policy and are not included in government emission projections. For this reason, we have chosen to use national emissions statistics rather than UNFCCC inventory emissions.</t>
+  </si>
+  <si>
+    <t>Historical emissions are based on the 1990–2022 inventory emissions developed by the US Environmental Protection Agency (EPA) (U.S. Environmental Protection Agency, 2024k). The national inventory was reported in AR5 Global Warming Potential (GWP) values. We converted all values to AR4 GWP.</t>
+  </si>
+  <si>
+    <t>Historical emissions for the years 1994, 2000, 2005, 2014, and 2021 are taken from the UAE’s 5 th National Communication to the UNFCCC (Government of the UAE, 2024a). For the years between 1994 and 2021 emissions are estimated by interpolating values between reported values. For the period 1990-1994 and 2021-2022 we estimate values by using growth rates from PRIMAP-hist (Gütschow et al., 2024). The UAE now includes an F-gases estimate in its latest national inventory data, submitted along with its 5 th National Communication to the UNFCCC (Government of the UAE, 2024a). However, there are still significant limitations regarding the UAE’s F-gases reporting, mainly related to data availability. To address this, the UAE plans to broaden its monitoring and reporting activities, including exchanges with relevant stakeholders. While F-gases currently represent a negligible share of the UAE’s total GHG emissions (only 0.15 MtCO 2 e in 2021), this can change once the UAE updates its inventory again. The historical data used in our previous assessment estimated emissions to be around 15% higher in 2022 compared to our current assessment. The data from PRIMAP-hist (Gütschow et al., 2024) was based on the UAE’s latest inventory published in 2016, and used different methods to fill the gaps in the inventory and extend the estimates until 2022. The new GHG inventory published by the UAE in 2024 presents a significant upgrade in terms of data quality. The difference in economy-wide emissions estimates is mostly explained by a decrease in industrial process emissions, which are roughly half in the UAE’s own inventory compared to PRIMAP in 2022, and to differences in fugitive emissions data for 2021. According to PRIMAP’s estimates, the emissions they calculated for the UAE in 2022 based on their old inventory are 98% higher than the ones calculated based on the UAE’s new inventory for 2022. The UAE’s old inventory published in 2015 (Ministry of Energy, 2015) includes estimates for 1994 and 2014, while the new inventory published in 2024 (Government of the UAE, 2024a) includes an estimate only for 2021.</t>
+  </si>
+  <si>
+    <t>Historical emissions for 1990-2021 are taken from the common reporting format tables in Türkiye’s 2023 National Inventory Report (Republic of Türkiye Ministry of Energy and Natural Resources, 2023). To estimate 2022 emissions, we apply GHG sectoral growth rates for 2022 from the Turkish Statistical Institute’s (TURKSTAT) to 2021 historical emissions for energy and industry, agriculture and waste sectors (Turkish Statistical Institute, 2024).</t>
+  </si>
+  <si>
+    <t>The Gambia’s historical emissions are based on the 2010 GHG emissions reported by The Gambia’s Third National Communication (Republic of The Gambia, 2020). We have completed the time series from 1990-2019 using growth rates from PRIMAP (Gütschow et al., 2021). We consider the government reported data to be the most up to date estimate available and so use it as a starting point, rather than simply using the entire PRIMAP data set. Our estimates are about 0.5MtCO 2 e higher than PRIMAP. 2020-2021 estimates To estimate historic emissions in 2020-2021, we first derived individual gas estimates for 2019 using the ratios for CO 2 , CH 4 , and N 2 O in PRIMAP. As PRIMAP did not provide data for F-gases, we estimated F-gas emissions in 2019 using the ratio of CH 4 to F-gases in the US EPA’s non-CO 2 projections (U.S. Environmental Protection Agency, 2019). To estimate CO 2 emissions, we used the growth rate from the Global Carbon Budget (Global Carbon Project, 2022) for 2020 and GDP growth rate for 2021 (IMF, 2022). For CH 4 and N 2 O, we extended the series from 2019-2021 using the 5-year trend from 2015-2019. For F-gases, we applied the GDP growth rate for 2020 and 2021 to approximate the impact of COVID-19 on the industry (IMF, 2022).</t>
+  </si>
+  <si>
+    <t>To first establish historical emissions from 1990–2000, data excl. the LULUCF sector for 1994 and 2000 was obtained from Thailand’s Second Biennial Update Report (BUR2), with emissions interpolated in between (ONEP, 2017). Historical emissions from 1990 to 1994 were extrapolated backwards based on emission trends. The time series was harmonized to Thailand’s Third Biennial Update Report (BUR3), in AR4 GWPs, by applying emissions growth rates backwards from the BUR3’s earliest inventory year (2000) to the base year of 1990 (Ministry of Natural Resources and Environment, 2020b). Historical emissions data from 2000–2016 were taken from the BUR3. From 2016 to 2021, all GHGs follow the growth rates of PRIMAP-hist national historical emissions time series (Gütschow and Pflüger, 2022).</t>
+  </si>
+  <si>
+    <t>Historical emissions data for 1990-2022 are taken from the April 2024 update of Switzerland’s GHG inventory (Bundesamt für Umwelt BAFU, 2024b).</t>
+  </si>
+  <si>
+    <t>Historical emissions in South Korea were taken from the PRIMAP National Historical Greenhouse Gas Emissions Database (Gütschow &amp; Pflüger, 2022). This data is provided in AR4. The latest historical datapoint in this set is 2021.</t>
+  </si>
+  <si>
+    <t>For historical data, GHG inventory data submitted to the UNFCCC accessed via the UNFCCC data portal was used for 1990 and 1994 (UNFCCC, 2019) and the National GHG Inventory Report published by the Ministry of Forestry, Fisheries and the Environment in 2022 was used for 2000 to 2020 (DFFE, 2023), with linear interpolation between 1990–1994 and 1994–2000. We used multiple sources because no single source provides a full data set from 1990-2021. For the year 2021, we use growth rates from PRIMAP historical emissions applied to the 2020 inventory data points (Gütschow &amp; Pflüger, 2023). Important to highlight, the University of Cape Town’s technical emissions scenario analysis which informed the 2021 NDC update found significantly lower emission levels compared to the 2023 National GHG Inventory report due to the use of different methodologies and data sources (Marquard et al., 2021). For 2017, for example, there is a 15 MtCO 2 e difference between both estimates. We currently rely on official estimates provided by the Government of South Africa as explained above.</t>
+  </si>
+  <si>
+    <t>Historical emissions for the period 2000-2020 were taken from national greenhouse gas inventory data, covering CO 2 , CH 4 , N 2 O and F-gases (Department of Statistics Singapore, 2023). This was supplemented with data from the Fifth Biennial Update Report (BUR5) which provides emissions by sector for years 1994, 2000, 2010, 2012, 2014, 2016 and 2018 (National Environment Agency, 2022). To estimate emissions for 2021-22, we applied a gas-by-gas approach. For energy CO 2 emissions, which accounted for 93% of Singapore’s emissions in 2018, we applied growth rates for energy CO 2 from the APEC Energy Demand and Supply Outlook, 8thedition for the years 2020/21 and 2021/22 (APEC, 2022). For non-energy CO 2 , we used the growth in GDP as a proxy for the growth in non-energy CO 2 emissions, assuming constant elasticity of emissions and GDP (IMF, 2023). For non-CO 2 emissions, we have extrapolated emissions using a five-year average from historic emissions. For historical years where national greenhouse gas inventory data was not available, i.e., 1990-93 and 1995-99, we also applied a gas-by-gas approach. For energy CO 2 emissions, we applied a linear regression using IEA energy-related CO 2 (IEA, 2023). For non-energy CO 2 and non-CO 2 , we extrapolated linearly from historical data points. A weighted average from the Fifth Biennial Update Report (BUR5) was used to convert HFCs and PFCs from Global Warming Potentials (GWPs) used in the IPPC’s Fifth Assessment Report (AR5) to those used in the Fourth Assessment Report (AR4) as these gases are not reported separately in the Department of Statistics data (Department of Statistics Singapore, 2023). All other gases are converted to AR4 GWPs on a gas-by-gas basis. Singapore is a city-state with one of the highest population densities in the world and is nearly completely dependent on imports for food. Most of the remaining natural areas are sanctuaries. We therefore do not consider emissions related to LULUCF sector for the analysis, as they are negligible.</t>
+  </si>
+  <si>
+    <t>Historical emissions from 1990 to 2022 are taken from PRIMAP National Greenhouse Gas Emission Database 2023 (Gütschow and Pflüger, 2023). Saudi Arabia’s own national inventory data from the UNFCCC only extends to 2012. LULUCF values for 1990, 2000, 2010 and 2012 are still taken from the UNFCCC emissions inventory (2018).</t>
+  </si>
+  <si>
+    <t>Historical emissions levels are taken from the inventory data submitted to the UNFCCC until the last available year, here 2020 (Russian Federation, 2022b). To estimate emissions for 2021, we applied a gas-by-gas approach. We applied growth rates from PRIMAP to historic 2020 emissions for each gas (Gütschow &amp; Pflüger, 2022).</t>
+  </si>
+  <si>
+    <t>The historical GHG emissions between 1990 and 2021 are taken from the PRIMAP database (Gütschow &amp; Pflüger, 2023). For the LULUCF sector, the historical GHG emissions data is taken from UNFCCC database as officially reported by the country for years 1994 and 2000, and 2010 emissions were taken from the government website (NICCDIES, 2021; UNFCCC, 2017).</t>
+  </si>
+  <si>
+    <t>Historical emissions from 1990 to 2019 are taken from PRIMAPhist (Gütschow et al., 2021). To estimate emissions for 2020 and 2021, we applied the following approach: For the energy and industry sectors, we assumed a directly proportional development of these sectors’ emissions with GDP growth rates from IMF for 2020–2021. For all other sectors, we assumed a continuation of a 5-year trend. We assume that the impact of the pandemic on agriculture, waste and other emissions is minimal and so have extrapolated emissions for 2015–2019 up to 2021 using a 5-year average from historical emissions. The LULUCF data points until 2016 were taken from the national inventory of emissions (INGEI, 2021).</t>
+  </si>
+  <si>
+    <t>Greenhouse gas emission inventories for 1990–2020 are based on the National Inventory Report 2022 submitted to the UNFCCC (Government of Norway, 2022).</t>
+  </si>
+  <si>
+    <t>Nigeria’s NDC update provided revised historical emissions for 2010 and 2018 using AR5 global warming potentials (GWPs) (Federal Government of Nigeria, 2021). We converted 2018 emissions to AR4 using sector-by-sector gas shares from PRIMAP for the same year (Gütschow &amp; Pflüger, 2022). Land use was excluded using the AFOLU sub-sector breakdown provided for 2018 in the NDC update. The NDC update notes that the significant jump observed in emissions between 2017 and 2018 depicted in Nigeria’s sector-by-sector bar chart of historical emissions is due to differences in data sources for the energy sector for those years. We have used PRIMAP sector growth rates to extend the historical time series, both back to 1990 and forwards to 2021, rather than the data provided in the NDC until 2010, as it is likely a more accurate depiction of the year over year change. There is a significant difference between the emissions reported in the NDC and PRIMAP estimates (around 100Mt higher in PRIMAP than the NDC in recent years), largely due to the differences in estimates for energy sector emissions. We have continued to base our estimates around governments sources for consistency with the national dialog, but strongly urge the government to focus on its inventory and trying to understand the differences between its figures and international sources of data.</t>
+  </si>
+  <si>
     <t>Historical emissions data were obtained from latest government data, the New Zealand’s Greenhouse Gas Inventory 1990-2020 published in April 2022 (Ministry for the Environment 2022g). Emissions for 2021 have been estimated by the CAT. The energy sector emissions in 2021 are estimated using GDP growth rate from IMF as proxy (IMF 2022). For industry, agriculture, waste and other emissions, the pre-COVID 5 year trend (2015-2019) has been applied.</t>
   </si>
   <si>
@@ -190,57 +250,6 @@
     <t>Historical emissions for the years 1990–2019, excluding LULUCF, are taken from PRIMAP data (Gütschow et al., 2021). LULUCF emissions for the years 1994, 1995, 2000, 2005, and 2010 are taken from the data reported to the UNFCCC GHG inventory database and interpolated between years. To estimate emissions for 2020, we applied a gas-by-gas approach. For direct CO 2 emissions, we applied growth rates from the Global Carbon Budget to the latest historical data point. For non-CO 2 emissions, we used a sectoral split. For energy non-CO 2 emissions, we estimated the emissions intensity (GHG emissions/GDP) from pre-COVID scenarios and apply it to 2020 GDP projections (see below). We assume that the impact of the pandemic on industry, agriculture, waste, and other non-CO 2 emissions will be minimal, and so have extended the historical 5-year trend. To estimate emissions for 2021, we applied the same method, but used the emissions intensity approach for direct CO 2 emissions as well.</t>
   </si>
   <si>
-    <t>Historical emissions for the period 1990-2021 are from PRIMAPhist dataset (for energy, industry, agriculture and waste) (Gütschow et al., 2022a). Energy emissions for 2022 are calculated using CO 2 emissions growth rate data from the Energy Institute Statistical Review of World Energy 2023 (Energy Institute, 2023). Industry’s emissions for 2022 have been estimated using GDP growth rate. We used the 5-year trend (2017-2021) to estimate emissions for the agriculture, waste and other sectors. LULUCF LULUCF data is from the third Biennial Update Report (Viet Nam Government, 2020b). These estimates are calculated using global warming potential (GWP) values from the IPCC’s Fifth Assessment Report (AR5). We have not converted these into AR4 values assuming contribution from non-CO 2 gases is negligible.</t>
-  </si>
-  <si>
-    <t>Historical emissions data for 1990–2021 were obtained from the UK Government (BEIS &amp; DESNZ, 2023a). Provisional emissions data for 2022 was also included to extend the time series to 2021 (BEIS &amp; DESNZ, 2023b). The UK provides inventory data to the UNFCCC that includes emissions from Overseas Territories and Crown Dependencies, which are not covered by UK climate policy and are not included in government emission projections. For this reason, we have chosen to use national emissions statistics rather than UNFCCC inventory emissions.</t>
-  </si>
-  <si>
-    <t>Historical emissions are based on the 1990–2022 inventory emissions developed by the US Environmental Protection Agency (EPA) (U.S. Environmental Protection Agency, 2024k). The national inventory was reported in AR5 Global Warming Potential (GWP) values. We converted all values to AR4 GWP.</t>
-  </si>
-  <si>
-    <t>Historical emissions for the years 1994, 2000, 2005, 2014, and 2021 are taken from the UAE’s 5 th National Communication to the UNFCCC (Government of the UAE, 2024a). For the years between 1994 and 2021 emissions are estimated by interpolating values between reported values. For the period 1990-1994 and 2021-2022 we estimate values by using growth rates from PRIMAP-hist (Gütschow et al., 2024). The UAE now includes an F-gases estimate in its latest national inventory data, submitted along with its 5 th National Communication to the UNFCCC (Government of the UAE, 2024a). However, there are still significant limitations regarding the UAE’s F-gases reporting, mainly related to data availability. To address this, the UAE plans to broaden its monitoring and reporting activities, including exchanges with relevant stakeholders. While F-gases currently represent a negligible share of the UAE’s total GHG emissions (only 0.15 MtCO 2 e in 2021), this can change once the UAE updates its inventory again. The historical data used in our previous assessment estimated emissions to be around 15% higher in 2022 compared to our current assessment. The data from PRIMAP-hist (Gütschow et al., 2024) was based on the UAE’s latest inventory published in 2016, and used different methods to fill the gaps in the inventory and extend the estimates until 2022. The new GHG inventory published by the UAE in 2024 presents a significant upgrade in terms of data quality. The difference in economy-wide emissions estimates is mostly explained by a decrease in industrial process emissions, which are roughly half in the UAE’s own inventory compared to PRIMAP in 2022, and to differences in fugitive emissions data for 2021. According to PRIMAP’s estimates, the emissions they calculated for the UAE in 2022 based on their old inventory are 98% higher than the ones calculated based on the UAE’s new inventory for 2022. The UAE’s old inventory published in 2015 (Ministry of Energy, 2015) includes estimates for 1994 and 2014, while the new inventory published in 2024 (Government of the UAE, 2024a) includes an estimate only for 2021.</t>
-  </si>
-  <si>
-    <t>Historical emissions for 1990-2021 are taken from the common reporting format tables in Türkiye’s 2023 National Inventory Report (Republic of Türkiye Ministry of Energy and Natural Resources, 2023). To estimate 2022 emissions, we apply GHG sectoral growth rates for 2022 from the Turkish Statistical Institute’s (TURKSTAT) to 2021 historical emissions for energy and industry, agriculture and waste sectors (Turkish Statistical Institute, 2024).</t>
-  </si>
-  <si>
-    <t>The Gambia’s historical emissions are based on the 2010 GHG emissions reported by The Gambia’s Third National Communication (Republic of The Gambia, 2020). We have completed the time series from 1990-2019 using growth rates from PRIMAP (Gütschow et al., 2021). We consider the government reported data to be the most up to date estimate available and so use it as a starting point, rather than simply using the entire PRIMAP data set. Our estimates are about 0.5MtCO 2 e higher than PRIMAP. 2020-2021 estimates To estimate historic emissions in 2020-2021, we first derived individual gas estimates for 2019 using the ratios for CO 2 , CH 4 , and N 2 O in PRIMAP. As PRIMAP did not provide data for F-gases, we estimated F-gas emissions in 2019 using the ratio of CH 4 to F-gases in the US EPA’s non-CO 2 projections (U.S. Environmental Protection Agency, 2019). To estimate CO 2 emissions, we used the growth rate from the Global Carbon Budget (Global Carbon Project, 2022) for 2020 and GDP growth rate for 2021 (IMF, 2022). For CH 4 and N 2 O, we extended the series from 2019-2021 using the 5-year trend from 2015-2019. For F-gases, we applied the GDP growth rate for 2020 and 2021 to approximate the impact of COVID-19 on the industry (IMF, 2022).</t>
-  </si>
-  <si>
-    <t>To first establish historical emissions from 1990–2000, data excl. the LULUCF sector for 1994 and 2000 was obtained from Thailand’s Second Biennial Update Report (BUR2), with emissions interpolated in between (ONEP, 2017). Historical emissions from 1990 to 1994 were extrapolated backwards based on emission trends. The time series was harmonized to Thailand’s Third Biennial Update Report (BUR3), in AR4 GWPs, by applying emissions growth rates backwards from the BUR3’s earliest inventory year (2000) to the base year of 1990 (Ministry of Natural Resources and Environment, 2020b). Historical emissions data from 2000–2016 were taken from the BUR3. From 2016 to 2021, all GHGs follow the growth rates of PRIMAP-hist national historical emissions time series (Gütschow and Pflüger, 2022).</t>
-  </si>
-  <si>
-    <t>Historical emissions data for 1990-2022 are taken from the April 2024 update of Switzerland’s GHG inventory (Bundesamt für Umwelt BAFU, 2024b).</t>
-  </si>
-  <si>
-    <t>Historical emissions in South Korea were taken from the PRIMAP National Historical Greenhouse Gas Emissions Database (Gütschow &amp; Pflüger, 2022). This data is provided in AR4. The latest historical datapoint in this set is 2021.</t>
-  </si>
-  <si>
-    <t>For historical data, GHG inventory data submitted to the UNFCCC accessed via the UNFCCC data portal was used for 1990 and 1994 (UNFCCC, 2019) and the National GHG Inventory Report published by the Ministry of Forestry, Fisheries and the Environment in 2022 was used for 2000 to 2020 (DFFE, 2023), with linear interpolation between 1990–1994 and 1994–2000. We used multiple sources because no single source provides a full data set from 1990-2021. For the year 2021, we use growth rates from PRIMAP historical emissions applied to the 2020 inventory data points (Gütschow &amp; Pflüger, 2023). Important to highlight, the University of Cape Town’s technical emissions scenario analysis which informed the 2021 NDC update found significantly lower emission levels compared to the 2023 National GHG Inventory report due to the use of different methodologies and data sources (Marquard et al., 2021). For 2017, for example, there is a 15 MtCO 2 e difference between both estimates. We currently rely on official estimates provided by the Government of South Africa as explained above.</t>
-  </si>
-  <si>
-    <t>Historical emissions for the period 2000-2020 were taken from national greenhouse gas inventory data, covering CO 2 , CH 4 , N 2 O and F-gases (Department of Statistics Singapore, 2023). This was supplemented with data from the Fifth Biennial Update Report (BUR5) which provides emissions by sector for years 1994, 2000, 2010, 2012, 2014, 2016 and 2018 (National Environment Agency, 2022). To estimate emissions for 2021-22, we applied a gas-by-gas approach. For energy CO 2 emissions, which accounted for 93% of Singapore’s emissions in 2018, we applied growth rates for energy CO 2 from the APEC Energy Demand and Supply Outlook, 8thedition for the years 2020/21 and 2021/22 (APEC, 2022). For non-energy CO 2 , we used the growth in GDP as a proxy for the growth in non-energy CO 2 emissions, assuming constant elasticity of emissions and GDP (IMF, 2023). For non-CO 2 emissions, we have extrapolated emissions using a five-year average from historic emissions. For historical years where national greenhouse gas inventory data was not available, i.e., 1990-93 and 1995-99, we also applied a gas-by-gas approach. For energy CO 2 emissions, we applied a linear regression using IEA energy-related CO 2 (IEA, 2023). For non-energy CO 2 and non-CO 2 , we extrapolated linearly from historical data points. A weighted average from the Fifth Biennial Update Report (BUR5) was used to convert HFCs and PFCs from Global Warming Potentials (GWPs) used in the IPPC’s Fifth Assessment Report (AR5) to those used in the Fourth Assessment Report (AR4) as these gases are not reported separately in the Department of Statistics data (Department of Statistics Singapore, 2023). All other gases are converted to AR4 GWPs on a gas-by-gas basis. Singapore is a city-state with one of the highest population densities in the world and is nearly completely dependent on imports for food. Most of the remaining natural areas are sanctuaries. We therefore do not consider emissions related to LULUCF sector for the analysis, as they are negligible.</t>
-  </si>
-  <si>
-    <t>Historical emissions from 1990 to 2022 are taken from PRIMAP National Greenhouse Gas Emission Database 2023 (Gütschow and Pflüger, 2023). Saudi Arabia’s own national inventory data from the UNFCCC only extends to 2012. LULUCF values for 1990, 2000, 2010 and 2012 are still taken from the UNFCCC emissions inventory (2018).</t>
-  </si>
-  <si>
-    <t>Historical emissions levels are taken from the inventory data submitted to the UNFCCC until the last available year, here 2020 (Russian Federation, 2022b). To estimate emissions for 2021, we applied a gas-by-gas approach. We applied growth rates from PRIMAP to historic 2020 emissions for each gas (Gütschow &amp; Pflüger, 2022).</t>
-  </si>
-  <si>
-    <t>The historical GHG emissions between 1990 and 2021 are taken from the PRIMAP database (Gütschow &amp; Pflüger, 2023). For the LULUCF sector, the historical GHG emissions data is taken from UNFCCC database as officially reported by the country for years 1994 and 2000, and 2010 emissions were taken from the government website (NICCDIES, 2021; UNFCCC, 2017).</t>
-  </si>
-  <si>
-    <t>Historical emissions from 1990 to 2019 are taken from PRIMAPhist (Gütschow et al., 2021). To estimate emissions for 2020 and 2021, we applied the following approach: For the energy and industry sectors, we assumed a directly proportional development of these sectors’ emissions with GDP growth rates from IMF for 2020–2021. For all other sectors, we assumed a continuation of a 5-year trend. We assume that the impact of the pandemic on agriculture, waste and other emissions is minimal and so have extrapolated emissions for 2015–2019 up to 2021 using a 5-year average from historical emissions. The LULUCF data points until 2016 were taken from the national inventory of emissions (INGEI, 2021).</t>
-  </si>
-  <si>
-    <t>Greenhouse gas emission inventories for 1990–2020 are based on the National Inventory Report 2022 submitted to the UNFCCC (Government of Norway, 2022).</t>
-  </si>
-  <si>
-    <t>Nigeria’s NDC update provided revised historical emissions for 2010 and 2018 using AR5 global warming potentials (GWPs) (Federal Government of Nigeria, 2021). We converted 2018 emissions to AR4 using sector-by-sector gas shares from PRIMAP for the same year (Gütschow &amp; Pflüger, 2022). Land use was excluded using the AFOLU sub-sector breakdown provided for 2018 in the NDC update. The NDC update notes that the significant jump observed in emissions between 2017 and 2018 depicted in Nigeria’s sector-by-sector bar chart of historical emissions is due to differences in data sources for the energy sector for those years. We have used PRIMAP sector growth rates to extend the historical time series, both back to 1990 and forwards to 2021, rather than the data provided in the NDC until 2010, as it is likely a more accurate depiction of the year over year change. There is a significant difference between the emissions reported in the NDC and PRIMAP estimates (around 100Mt higher in PRIMAP than the NDC in recent years), largely due to the differences in estimates for energy sector emissions. We have continued to base our estimates around governments sources for consistency with the national dialog, but strongly urge the government to focus on its inventory and trying to understand the differences between its figures and international sources of data.</t>
-  </si>
-  <si>
     <t>Historical data are based on the most recent national inventory submissions reported in AR4 GWPs (Republic of Kazakhstan, 2023b). The historical emissions time series published in 2023 differs to an extent from the previous historical emissions time series. The main differences are in the agriculture and LULUCF sectors, with total emissions increasing by a range of 15 to 55 MtCO 2 e between 1994 and 2004 and by 16 and 63 MtCO 2 e between 2003 and 2013, respectively.</t>
   </si>
   <si>
@@ -256,16 +265,181 @@
     <t>Historical emissions are taken from the PRIMAP data for the period 1990-2022 (Gütschow &amp; Pflüger, 2023). LULUCF emissions are taken directly from India’s third Biennial Report (MoEFCC, 2021). These estimates are calculated using global warming potential (GWP) values from the IPCC’s second assessment report. We have not converted these into AR4 values as the contribution from non-CO 2 gases is negligible.</t>
   </si>
   <si>
-    <t>Historical emissions are taken from the Federal Environment Agency published in March 2024 (UBA, 2024b). UBA provides the data using Global Warming Potentials from AR5, we convert the data using Global Warming Potentials from AR4 (see more detail below). Note there is an unexplained jump from -18 to -80 MtCO 2 in sinks from forests in the inventory data from 1990 to 1991.</t>
-  </si>
-  <si>
-    <t>Ethiopia provided revised historical data for 2010 in its NDC update using global warming potential values (GWPs) from the IPCC’s fifth assessment report (AR5) (Federal Democratic Republic of Ethiopia, 2021). The government provides sector-level emissions data, but no information on the gas-by-gas breakdown. It also provided information on emissions data from livestock and managed soils, which we take to be the entirety of agriculture sector emissions. To complete the sector information for the industry and managed soils sectors, we used the sector-by-sector emission ratios for the NDC’s 2020 business as usual estimate. We use the gas-by-gas breakdown in PRIMAP for the year 2010 to estimate sectoral emissions by gas and then converted these from AR5 to AR4 values (Gütschow, J.; Günther, A.; Jeffery, L.; Gieseke, 2021). The NDC update covers the three main gases (CO 2 , CH 4 and N 2 O). We added an estimate for HFCs using PRIMAP data for 2010 and scaling this estimate to our industry sector’s emissions total for 2010. We used PRIMAP growth rates for the energy, industry, agriculture, and waste to extend the historical time series for 1990-2019 based off of the 2010 estimate provided in the NDC update. To estimate emissions for 2020 and 2021, we applied a sectoral approach. For energy and industry, we applied growth rates from Global Carbon Budget for the year 2020 (Global Carbon Project, 2021), and the GDP growth rates from IMF for 2021, assuming a directly proportional development of CO 2 emissions. For agriculture and waste, we assume a continuation of a 5-year trend. We assume that the impact of the pandemic on agriculture, waste and other emissions is minimal and so have extrapolated emissions for 2015–2019 up to 2021 using a 5-year average from historical emissions.</t>
-  </si>
-  <si>
-    <t>Historical emissions from 1990 to 2021 are taken from PRIMAP (Gütschow and Pflüger, 2023).</t>
-  </si>
-  <si>
-    <t>Historical emissions between 1990 and 2022 are based on the national inventory submitted by the EU to the UNFCCC (European Environment Agency, 2024). The data is presented in AR5 GWP values, so we convert it to AR4 GWP using gas-by-gas conversions.</t>
+    <t>The current policy projections are adapted from the projections report (“Projektionsbericht 2024”) published by the kba Agency (UBA) in March 2024, which includes all measures that were agreed by October 2023 (UBA, 2024c). The base year value of 2019 from the projections varies slightly from the latest historical inventory data from 2023, and we harmonise the projections to the inventory by assuming that the relative difference in 2019 for each sector is constant in the future for the projections. UBA provides in their most recent publication the scenario “With implemented measures” . For some sectors, we make corrections to the numbers to reflect most recent policy developments: Power: The UBA projection assumes that the targeted RE capacity additions set early 2022 will be achieved. For solar, this has been the case, but only about a quarter of the targeted wind capacity for 2023 and 2024 has been installed so far. We thus provide a range for this sector and for the upper end of emissions projections for energy supply assume that only half of the additions of wind will be achieved by 2030 and beyond. This assumption would lead to about 107 GW of wind by 2030, as opposed to 145 GW as targeted. The difference in emissions is about 12 MtCO2 in 2030. Transport: The projection report assumes that passenger EV sales will continue to increase every year until 2035: in 2024, registrations of new passenger EVs are projected to increase by 37.7% relative to 2023 and amount to over 720,000 new EVs (KBA, 2023; UBA, 2024a). However, since the publication of the projection report, the German government eliminated its purchase incentives for passenger EVs at the end of 2023. In the first four months of 2024, passenger EV registrations were weaker than expected: only approximately 106,000 passenger EVs have been registered (KBA, 2024b, 2024c, 2024d, 2024a). To consider the lower-than-expected growth in EV registrations, we delay the share of passenger car emissions reduction by one year. Passenger cars accounted for approximately 60% (59.71%) of total road transport emissions between 2018 and 2022 (Eurostat, 2024) Therefore, 60% of sectoral emissions reduction is delayed by one year. Buildings, Industry, Agriculture and Waste: no adjustments, using scenario with implemented measures.</t>
+  </si>
+  <si>
+    <t>We use a combination of data sources to estimate the lower bound of our current policy projection (Federal Democratic Republic of Ethiopia, 2021; IEA, 2019; U.S. Environmental Protection Agency, 2019). Lower bound projections Our energy-related CO 2 emissions are based on growth rates from the Stated Policies Scenario (STEPS) for Ethiopia in the IEA’s Africa Energy Outlook 2019 (IEA, 2019). In general, neither the IEA Africa Energy Outlook 2019 report nor its annexes specify which of the policies have been included in the stated policies scenario. The IEA STEPS scenario was not updated in the IEA Africa Energy Outlook 2022 (IEA, 2022a). For the industry sector, we used the business as usual (BAU) projections from the updated NDC harmonised to our 2021 historical emissions estimate. For the agriculture and waste sectors, we used the US EPA’s non-CO 2 emissions projection but applied these to sector totals as the contribution from CO 2 in these sectors is negligible. For “other” emissions reported in PRIMAP (about 1% of emissions in 2019), we applied US EPA growth rates for N 2 O as these “other” emissions only included N 2 O. Upper bound projections The upper-bound of our current policy projection assumes that GHG emissions will grow according to the revised business as usual (BAU) scenario projections provided in the updated NDC of 2021 (Federal Democratic Republic of Ethiopia, 2021). The base year for the BAU scenario is 2010. We have harmonised the series to the last historical year estimate (2021). This approach could potentially overestimate emission levels as we do not have sufficient information on the state of emissions reduction efforts or current policy implementation, both of which might downward revise the trajectory.</t>
+  </si>
+  <si>
+    <t>We derive the range of projections under current policies according to the following method: Lower end of the range: Historical data shows that per capita emissions have been largely stable in the past. We assume that this correlation remains and apply the average per capita emissions to UN population prospects until 2030. Upper end of the range: We use projections from the IRENA RE Outlook for Egypt for energy related CO 2 emissions. For all other emissions, we assume a continued trend of past emissions up to 2030. We further investigate the impact of the RE targets on emissions. Meeting the target does not decrease emissions of the upper end of the range beyond the lower end. Even when assuming a lower electricity generation growth than in the IRENA reference scenario, the emissions reductions compared to the reference do not lead to lower emissions. We thus assume that the target is covered by our range.</t>
+  </si>
+  <si>
+    <t>The assessment of the EU’s policy projections reflects both policies and measures implemented at the national level (the top end of our range), as well as these adopted at the EU level but not yet transposed by the Member States (the bottom end of our range). To reflect policies adopted at the national level, we use the EEA’s compilation of national projections prepared by Member States in 2023 (European Environment Agency, 2023b). We apply the growth rate from the ‘with existing measures’ (WEM) scenario for total GHG emissions (excl. LULUCF and excl. int. aviation) to total GHG emissions (excl. LULUCF and excl. int. aviation) in 2022. To calculate the bottom end of the range, we replace estimates for power CO 2 emissions in the States Policies (STEPS) projections from the World Energy Outlook (WEO) with those from the Announced Pledges (APS) to account for the implementation of the 42.5% RE share in final gross consumption in the Fit for 55 package. From the Fit for 55 modelled projections, we take the MIX scenario which better reflects the current policies in place. We then take the growth rate of this revised projection for total CO 2 emissions from WEO and apply that to total GHG emission from the energy sector in 2022 and extend out to 2035. Non-CO 2 emissions represent about 3% of energy sector emissions, so we think WEO is a good proxy for the entire sector. For all other sectors, we use sector-specific growth rates from EEA’s 2023 WEM scenario to extend each sector out to 2035 individually. Note: Our data download includes projections until 2035; however, our graphics display the data until 2030 only.</t>
+  </si>
+  <si>
+    <t>Energy-related CO 2 emissions: For our current policy projections (CPP), we establish a conservative (CPP max) and optimistic (CPP min) range based on different scenarios projecting the development of China’s energy sector based on policies and developments. For the CPP max scenario, we start with the CETO (ERI et al. , 2023) BLS — developed by projecting current trends in China's energy system development and calibrated to align with the 2°C goal under the Paris Agreement. The scenario assumes that China meets a range of policy targets including: 25% non-fossil share of energy mix by 2030 (Xinhua News Agency, 2021) 50% renewable energy capacity by 2025 (SASAC, 2021) 39% non-fossil share and 33% RE share (3300 TWh) in electricity generation for 2025 (NDRC and NEA, 2022) Reduce energy intensity of economy by 13.5% from 2021 to 2025 (Xinhua News Agency, 2021) The CETO BLS reveals no short-term projection, only TPEDs for the year of 2025 and 2030. From a conservative perspective, we cannot rule out the possibility that China's emissions will plateau at a high level over the next 5 years. We therefore force the energy-related CO 2 emissions projection for CPP max to stay at 2023 emission level until 2025, and then decline at a rate consistent with the emissions calculated under the CETO BLS. This scenario describes a least ambitious transition in China’s energy system. The CPP max will miss a range of short-term policy targets including: 20% non-fossil share of energy mix by 2025 (Xinhua News Agency, 2021) over 50% of incremental electricity consumption is met by renewables from 2021-2025 (NDRC, 2022) Reduce CO 2 intensity of economy by 18% from 2021 to 2025 (Xinhua News Agency, 2021) For the CPP min scenario, we start with the IEA WEO 2023 STEPS —which for China we take as a basis for the current policies scenario as stated policies are highly certain to be achieved in the country— and calculate total primary energy demand (TPED) based on the Chinese methodology of applying the average efficiency of coal-fired power plants to calculate TPED from non-fossil sources (renewables and nuclear) (IEA, 2022b). We start with an efficiency of 305.5 grams coal equivalent (gce) per kWh (around 8.9 MJ/kWh for Chinese coal-fired power plants), based on NDRC (2021), which improves over time to 300 gce/kWh in 2025 and 295 gce/kWh in 2030 based on a conservative scenario from IEA (2021b). This is deemed as an optimistic end of the CPP as it is an ambitious interpretation of current policies and achieves China’s NDC targets. Given that China’s NDC targets are now subsumed under domestic policies, and that China’s current policy developments are highly likely to overachieve its targets, we employ this as a minimum bound. In addition to the policies in the max scenario and NDC targets, the CPP min additionally integrates: Reduce CO 2 intensity of economy by 18% from 2021 to 2025 Doubling wind and solar generation from 2021 to 2025 (L. Wang, 2022) 20% non-fossil share of energy mix by 2025 over 50% of incremental electricity consumption is met by renewables from 2021-2025 This scenario describes a different projection of China’s energy system, now freed from the national shift from dual-energy to dual-carbon controls (no longer limiting energy demand growth in guidance to policymakers and developers). This scenario shows a growing energy demand off the back of an accelerated power sector transformation: energy demand is met by an exponential rise in renewable (wind and solar) development and integration. Renewables can both meet the rise of demand and also displace fossil fuels, namely coal consumption which drops steeply to 2030. In both scenarios, supply-side targets such as the production capacity of fossil fuels and installed capacity targets from the 14th FYP on energy are not considered binding as these policies will likely result in excess capacity with uncertain outcomes for emissions. After integrating the aforementioned policies into the energy sector results, we calculate energy sector emissions using IEA WEO STEPS (IEA, 2022a) emission factors for fossil fuels in both scenarios and account for developments in carbon, capture and storage (CCS) after 2030. Industrial-process emissions: We project industrial-process CO 2 emissions by applying growth rates from cement process emissions for the non-OECD region based on the IEA Energy Technology Perspectives 2016 report’s 6DS scenario to our latest 2022 value estimates. CO 2 emissions for industry peak have been revised to peak in 2025, five years earlier than China’s building materials peaking plan (MIIT of China, NDRC, MEE, et al. , 2022). According to the China Cement Association, it is predicted that cement clinker will reach peak consumption and production during the "14th FYP" period (2021-2025), with its carbon emissions declining after peaking at approximately 1.45 billion tons (Zhang, 2021). Other non-CO 2 emissions: For non-CO 2 emissions from energy, fugitive emissions, agriculture, industrial processes, and waste, we apply sector-specific growth rates for non-CO 2 emissions from (Lin et al. , 2019) to our latest 2022 value estimates. This source considers recent policies implemented since 2015, leading to improved certainty on Chinese non-CO 2 emissions in 2030, compared to previous assessments. The reference scenario used assumes that no non-CO 2 mitigation measures will be implemented before 2050, except for efforts made to reach the Montreal Protocol targets for HFCs from HCFC-22 production, which are phased out. We additionally quantify the impacts of the Kigali Amendment on HFCs following the staged phaseout schedule eventually leading to an 80% reduction from baseline levels by 2045.</t>
+  </si>
+  <si>
+    <t>Current policy projections have been harmonised to historical emissions up to 2022. We derive our current policy projections using a few different sources. For the upper range of our current policy projections, we use: Energy CO2 emissions: based on the Asian and Pacific Economic Cooperation (APEC) 2022 Outlook. As this scenario includes all current key policies, no additional calculations were added. These policies include Chile’s Energy Efficiency Law, the retirement of coal plants by 2040, with 65% of coal plant capacity shutting down before 2025, the National Electromobility Strategy, as well as its Hydrogen Strategy (APEC, 2022). Energy non-CO2 emissions: based on non-CO 2 emissions projections from the U.S. Environmental Protection Agency (U.S. Environmental Protection Agency, 2019). Industrial processes, agriculture, and waste emissions: based on Chile’s Fifth Biennial Update Report (BUR5) (Ministerio del Medio Ambiente, 2022). For the lower range of our current policy projections, we use: All sectors, including energy: based on the ‘Transición tardía’ projections from Chile’s Fifth Biennial Report (Ministerio del Medio Ambiente, 2022). For ‘other’ sector emissions in both scenarios, we have taken a 10-year historical trend (2010-2019) from PRIMAP (Gütschow and Pflüger, 2023). We also compared our current policy projections to those from Observatorio de Carbono Neutralidad (across all sectors) harmonised to 2022 emissions, but this currently falls between the lower and upper end of our CPP (Observatorio de Carbono Neutralidad, 2024). Some policy developments such as the update on the Distributed Generation Law (also referred to as the “Net Billing” Law) (Law 20.571), which triples the capacity threshold for installed capacity for projects of self-consumption, are not quantified due to lack of available data.</t>
+  </si>
+  <si>
+    <t>Our current policy projection is based on the ‘Reference Case’, which is updated annually by the Government of Canada, harmonised to the last historical year of 2022 (Environment and Climate Change Canada, 2023b). The projections include policy measures in place as of August 2023. In December 2023, Canada adopted its EV sales mandate regulations. We have adjusted our current policy projection to reflect this change. Beyond that change, we consider the current policy projection to be an accurate picture of the policy landscape as of January 2024. The EV sales mandate adjustment is based on the estimated impact of the measure as outlined in the Regulatory Impact Statement and the difference between the reference and with additional measures scenario (Government of Canada, 2023e). We do not include any contribution from LULUCF or market credits from the Western Climate Initiative in our estimates.</t>
+  </si>
+  <si>
+    <t>For the current policies scenario, we present a range which is calculated as described below. Higher end of the range: Energy and Industry sector CO 2 emissions are taken from the latest projections from the World Energy Outlook (IEA, 2023b). Energy, Industry, Agriculture and Waste sector non-CO 2 emissions are taken from the US EPA “Non-CO 2 GHG emissions” report with data available for the period between 1990 to 2030 (U.S. Environmental Protection Agency, 2019). Other CO 2 emissions from the agriculture sector are calculated based on the historical trend of the sector’s CO 2 emissions (2013-2022). Other CO 2 emissions for the waste sector are calculated by taking the average level of the last four years at 2022 levels. All of the above were harmonised to the last historical data point. Lower end of the range: Total GHG emissions excluding LULUCF taken from the 2023 Global Energy and Climate Outlook (JRC, 2023) and harmonised to the last historical data point.</t>
+  </si>
+  <si>
+    <t>To estimate Bhutan’s emissions under current policies, we subtracted the estimated mitigation potential for policies for which we could find evidence of implementation from our business as usual (BAU) estimates. BAU projections The bottom end of our BAU range is based on the low-growth scenario included in Bhutan’s Third National Communication, harmonized to latest historic year. The GDP growth in this scenario is 4.2% (Royal Government of Bhutan 2020a). BUR1 does not provide any updated BAU estimates. The top end of BAU has been derived using IMF GDP growth rates as a proxy for emissions growth for the period 2023-2027 and assuming emissions follow the 5-year trend for the remainder of the decade (2028-2030) (IMF 2022). Average GDP growth under this method is 5%. The Third National Communication’s high-growth scenario assumed 8%; however, in light of the pandemic, we consider the estimates from the IMF to be more likely. Implemented policies The Third National Communication lists the mitigation potential of various sectoral measures (Royal Government of Bhutan 2020a). Several sector LEDS also provided information on the mitigation potential of various measures. We have considered only those measures for which we could find evidence of implementation and subtracted their impact from our BAU estimates to derive our current policy projections. Sector specific policies considered for the current policy projections are outlined below. These mitigation potential estimates are developed using various BAU trajectories, however we have not adjusted for this fact. Transport We could only find evidence of implementation of the Euro VI emissions standard and some EV related measures (EV charging station and promotion of electric taxis) for transport sector (Kuensel Online 2022c; Ministry of Information and Communication 2021a; Kuensel Online 2022b). The Euro VI emission standard has been implemented since January 2022 (Kuensel Online 2022b). To estimate an annual reduction, we divided the cumulative mitigation potential estimate, provided in transport LEDS for the period 2021-2025, by 4 (as the measures was planned to begin in 2022). We assume that the level of annual reductions will remain constant throughout the rest of the decade. This reduction is included in both policy projections. For the EV measures, we used the electric passenger vehicle mitigation potential estimate provided in the transport LEDS. As it is not clear whether all EV related measures associated with this estimate are being implemented, we only included the mitigation potential from this measure in the lower end of the current policy projection. We assume that the emissions estimates provided in the transport LEDS is for CO 2 only. Agriculture &amp; waste While Bhutan did not achieve its organic farming target, we think it is still advancing policy action in this area (see main policy section for details) and is also advancing on its biogas plans (see discussion in the Waste section of the policy tab ). We have taken mitigation potential of organic farming and biogas production from the LEDS of Food Security to estimate the effect of these policy actions (Ministry of Agriculture and Forests 2021). The LEDS does not specify which GWPs are used to calculate its figures, however we assume it to be SAR values as that is what was used in the NDC update. BUR1 does not provide a gas by gas breakdown of emissions for the agriculture sector, however based on the information provided we estimate that emissions are roughly 80% methane and 20% N 2 O (Royal Government of Bhutan 2022). (This breakdown is also consistent with PRIMAP data for the sector for the pre-pandemic period). We use this split to convert the organic farming estimate to AR4 GWP. For biogas production, only methane emissions will be reduced and GWP is converted to AR4 accordingly. The Human Settlement LEDS includes two measures for the waste sector relating to composting and wastewater management for which activities are being implemented (see the discussion in the Waste sector of our policies tab for more details) (Ministry of Works and Human Settlement 2021). We assume that these measures will reduce methane emissions only (the electricity generation associated with the wastewater management is negligible) and have converted the GWP from SAR to AR4 for that gas only. Energy efficiency Roadmap In 2019, Bhutan adopted Energy Efficiency and Conservation Roadmap for building, appliances and industries (Dept. Renewable Energy 2019). As Bhutan’s hydroelectricity is considered to have zero emissions, the energy savings from the appliance measures will have no impact on Bhutan’s emissions (though may allow it to export more electricity to India, offsetting higher emitting sources of power there). Much of the building sector mitigation potential is from biomass use reduction, which will eventually contribute to Bhutan’s sink capacity, and not fossil emissions. CAT estimates are excluding LULUCF, thus we have only considered industry sector mitigation potential from Energy Efficiency Roadmap. This estimate still includes some biomass, albeit a much smaller amount, and we have not adjusted it. We assume all emission reductions are CO 2 only. The Roadmap includes two estimates, the maximum potential reductions for the sector 0.02 MtCO 2 e over a 15-year period as well as an estimate for the selected measures the government will purse, we use the latter.</t>
+  </si>
+  <si>
+    <t>The policies and action projection are based on government projections from 2023 (DCCEEW, 2023b). The CAT always provides policies and action projections excluding LULUCF. To this end, the CAT subtracted the projections provided for LULUCF. The current policy projections are based on the ‘baseline’ scenario of the 2023 projections, adjusted to include mitigation from the New Vehicle Efficiency Standard (NVES) as this measure has now been implemented. The NVES is part of the government’s 2023 ‘with additional measures’ scenario. The government’s baseline scenario includes "current policies and measures and announced policies where there is sufficient detail to make robust assumptions in the modelling” (DCCEEW, 2023b). New policies introduced in the 2023 baseline scenario that were not included in the 2022 version, include: the Safeguard Mechanism reform, the Safeguard Transformation Stream, elements of the National Electric Vehicle Strategy, notably the Fringe Benefits Tax exemption, the Household Energy Upgrade Fund the original framework of the Capacity Investment Scheme (before its November 2023 modification), and the Renewable Energy Guarantee of Origin. The full list of policies integrated in this scenario is available in the 2023 projections (DCCEEW, 2023b).</t>
+  </si>
+  <si>
+    <t>The CAT uses the projections developed by Gabriel Blanco and Daniela Keesler (UNICEN), in the report “Transición energética en la Argentina: Construyendo alternativas”, and “Escenarios 2050 para la Argentina: sector agrícola, ganadero, forestal y otros usos de la tierra” (Blanco &amp; Keesler, 2022; Keesler &amp; Blanco, 2024) to develop our current policy projections. These studies provide projections for all sectors based on current sectoral plans and actions in place, including the exploitation of non-conventional fossil fuels as of 2022. The UNICEN business-as-usual (BAU) scenario for the power sector has the following assumptions: Accounts for the penetration of renewable energy in the power sector following the current trend Adjusts the emissions curve of the power sector to capture the current development of nuclear energy Accounts for barriers in the implementation of energy efficiency measures presented in the sectoral plans (buildings, industry, and transport) Takes into account the significant development plan for the exploration and exploitation of fossil fuels (fracking and off-shore oil and gas production) The document does not mention the carbon tax We apply the growth rates from the UNICEN BAU scenario for the energy, industry, and waste sectors to the 2022 historical data points for those sectors. The agriculture sector projections have the following assumptions: Livestock: An increase in the number of heads of cattle for beef, reaching almost 62 million heads by 2050, representing a 24% increase compared to the current stock, driven by the combined increase in domestic consumption and exports. A 10% increase in the efficiency of beef production by 2050 compared to the current 216 kg/head slaughtered. A 28% growth in beef exports compared to 2020 values, following the trend of international beef trade projected by OECD/FAO (2021). Although global per capita consumption is expected to decline by 5% by 2030, population growth will result in a 0.7% increase in global beef demand in the same period (OECD, 2021) . Agriculture: A 14% increase in the use of synthetic nitrogen fertilizers by 2050 compared to the current 16.6 kg fertilizer/ton of grain, considering usage trends from the last 30 years (1990-2020). No change in the management of harvest residues compared to current practices. A 90% reduction in the burning of forests and grasslands compared to the 1,000,000 ha that are currently burned.</t>
+  </si>
+  <si>
+    <t>Power CO 2 emissions The emission estimates from the 8th Power Development Plan (PDP8) are based on coal and gas emissions factors derived from the IEA’s Emissions Factors for Viet Nam, and the plan’s power sector emissions targets (204-254 MtCO 2 e in 2030). The yearly coal and gas generation is interpolated to 2030 by taking into account the combined domestic gas and LNG-fired generation values of 157 TWh by 2030 mentioned in the plan, aligning with the overall emissions targets for 2030 (IEA, 2021b; Viet Nam Government, 2023a). The percentage of coal generation within the 2030 power mix was determined based on the anticipated 2030 generation value of 567 TWh included in the PDP8 (Viet Nam Government, 2023a). For post-2030, sectoral current policy projections were interpolated with the 2050 power sector emissions range included in the PDP8. The upper bound of the current policies power sector emissions projections coincides with the upper bound of the range indicated in the PDP8. The lower bound of the current policy projections was calculated using the average of the growth rate of power sector emissions from both ends of the range included in the PDP8 (Viet Nam Government, 2023a). Non power energy CO 2 emissions Non-power energy CO 2 emissions are assumed to follow the same growth rate as in the APEC Energy Demand &amp; Supply Outlook 2022 (APEC, 2022). The current policy projections takes into account the energy savings from the Viet Nam National Energy Efficiency Program 3, but do not include the World Bank funded Viet Nam Scaling Up Energy Efficiency Project which would further reduce energy demand (APEC, 2022). Non-CO 2 emissions The emissions of energy related non-CO 2 greenhouse gases, agriculture and the waste sector are based on non-CO 2 emissions projection of US-EPA (U.S. Environmental Protection Agency, 2019). For the lower end of industrial emissions, we assume that the last historical year (2021) growth rate will continue, and for the upper end we assume average growth rate of the last 5 years (2017-2021) will continue.</t>
+  </si>
+  <si>
+    <t>NOTE: Current policy projections for the UK have not been updated since the September 2023 CAT profile. A new current policy projection will be quantified in 2025. To estimate current policy projections, we use the 2023 progress report from the UK’s Climate Change Committee (CCC, 2023a). In this report, the CCC estimates the impact of current UK policies on emissions. Policies are ranked as ‘credible’, displaying ‘some risks’ to delivery, displaying ‘significant risks’ to delivery, or ‘insufficient’. To calculate the upper range of the current policies trajectory, we take the impact of all credible policies. These are policies where there are proven delivery mechanisms, a credible combination of public/private financing and clear timelines in place. The resulting emissions savings come predominantly from the zero-emissions vehicle mandate to drive EV sales and the renewable electricity supply policies in the power sector. To estimate the lower end of the current policy trajectory, we additionally include the impact of all policies ranked as displaying ‘some risks’. These include policies around home decarbonisation, industrial CCS, hydrogen, and also some policies in the transport and electricity supply sectors. The CCC estimates that in 2030, there are credible policies to cut emissions by 42 MtCO 2 e, relative to the baseline. Policies with some risks to delivery could cut emissions by a further 51 MtCO 2 e in 2030. This gives an emissions level in 2030 (converting to AR4 GWPs and removing international aviation and shipping and LULUCF emissions, all of which are included in the CCC’s estimates) of 340–394 MtCO 2 e. The conversion from AR5 to AR4 GWPs is done in the same way as when calculating the UK’s emissions targets, by calculating the ratio between AR5 and AR4 GWPs for 2021. Future LULUCF and international bunker emissions are taken from the UK’s Net Zero Strategy (UK Government, 2021b). Note: Our data download includes projections until 2035; however, our graphics display the data until 2030 only.</t>
+  </si>
+  <si>
+    <t>The current policy projections were generated in five steps: First, we estimate the total emissions projections under current policies as the aggregation of the energy, industry, agriculture, and waste sectors: GHG emissions in the energy sector: Energy-related CO 2 emissions projections: short-term projections (2023–2025) were taken from the US Energy Information Agency’s (EIA) Short-term Outlook from August 2024 (U.S. Energy Information Administration, 2024e). These projections are harmonised with long-term projections (2024–2035) taken from a model comparison study by the US Environmental Protection Agency (EPA) (U.S. Environmental Protection Agency, 2023d) . The modelling comparison study includes the implementation of the Inflation Reduction Act (IRA). It represents the upper range of emissions projections. Non-CO 2 emissions in the energy sector from EPA’s U.S. State-level Non-CO₂ Greenhouse Gas Mitigation Potential: 2025–2050 (U.S. Environmental Protection Agency, 2022b). All GHGs emissions in the energy sector result from the sum of the CO 2 and non-CO 2 estimates as described above. The resulting projections are harmonised to the latest historical year using growth rates. GHG emissions from industrial processes: the projection of GHG emissions in industrial processes was calculated by type of industry and then aggregated. GHG emissions in the mineral, chemical, and metal industries were projected by applying projected production growth of each industry in terms of value of shipments taken from EIA’s Annual Energy Outlook 2023 (U.S. Energy Information Administration, 2023f), to their respective GHG emissions in the base year. We use two scenarios from the Annual Energy Outlook—the reference scenario and the low economic growth scenario—to create a range of emissions projections. To project the rest of industry processes, we apply the growth rates from industrial process F-gas emissions from the EPA’s U.S. State-level Non-CO₂ Greenhouse Gas Mitigation Potential: 2025–2050, which includes policies that were implemented until early 2015 (U.S. Environmental Protection Agency, 2022b). GHG emissions in the agriculture and waste sectors follow the growth rates of the respective sector in the EPA’s U.S. State-level Non-CO₂ Greenhouse Gas Mitigation Potential: 2025–2050 (U.S. Environmental Protection Agency, 2022b). We did not consider alternative economic growth scenarios for GHG emissions in the agriculture and waste sectors. Second, each of the above emissions categories was harmonised to historical data for each sector by applying the estimated annual percentage change from the projected dataset to the base year. The projections for all sectors were then aggregated to obtain total GHG emissions, excluding LULUCF. These projections are the baseline scenarios. Third, the quantification of the Inflation Reduction Act (IRA) in non-CO 2 emissions and in non-energy sectors: Non-CO 2 emissions: The IRA has the potential to reduce non-CO 2 GHG emissions. The quantification of such impact is based on the assessment of this policy on total GHG emissions (Zero Lab, 2024). We use the mitigation potential range of the current policy scenario (including the IRA) compared to the frozen policy scenario (not including the IRA) on non-CO 2 emissions reported for years 2030 and 2035 and made a linear interpolation for the years in between and zero for 2022. The mitigation potential is subtracted from the baseline scenario emissions, whereby the mitigation effect is 90–100 MtCO 2 e in 2030 and 80–90 MtCO 2 e in 2035. Non-energy CO 2 emissions: The IRA also has the potential to reduce CO 2 emissions in non-energy sectors, mainly in Industry Processes and Product Use (IPPU), which are not quantified in the baseline scenarios. We assume that such emissions reductions will be achieved mainly through Carbon Capture, Utilisation, and Storage (CCUS). The quantification of such impact is based on the assessment of IRA on mitigation potential of CCUS in the study conducted by King, Gaffney, et al. (2024). We assume a range of mitigation potential between zero, to capture the uncertainty around the deployment of CCUS, and the mitigation potential reported in 2030 and 2035, assuming a start of emissions reduction in 2025. We carried out a linear interpolation for the years in between. The resulting mitigation potential for each year is subtracted from the baseline scenarios emissions, resulting in a reduction of the emissions level of up to 77 MtCO 2 e in 2030 and 85 MtCO 2 e in 2035. Fourth, the quantification of the AIM Act, which was not part of the policies considered in the baseline scenario taken from Global Non-CO 2 Greenhouse Gas Emission Projections &amp; Mitigation Potential: Phase down of the production and consumption of hydrofluorocarbons (HFCs) by 85% over the next 15 years. The annual mitigation potential is calculated as a range of between two mitigation potential trajectories for HFC emissions: The first mitigation potential trajectory is based on the HFC emissions projection reported in the 5th Biennial Report in 2020, 2030, 2035, and 2040 (U.S. Department of State, 2022), which considers the implementation of the AIM Act, although does not achieve the proposed target. After harmonising the projections with the latest historical year, we interpolated the years in between and calculated the annual mitigation potential against the baseline scenario. The second is based directly on the annual HFCs consumption caps defined in the AIM Act (U.S. Environmental Protection Agency, 2021a). We then calculated the mitigation potential against the baseline scenario. The resulting mitigation potential range for each year is subtracted from the baseline scenario emissions, resulting in a reduced emission levels of 50–150 MtCO 2 e in 2030 and 100–200 MtCO 2 e in 2035. Fifth, economy wide emission projections from a 2024 study by the Rhodium Group (King, Kolus, et al., 2024) were included in the analysis as well, after deducting LULUCF sinks based on the 5th BUR. The study includes additional policies, including the impact of the EPA's emissions standards for vehicles beginning in model year 2027 (U.S. Environmental Protection Agency, 2024i) and the EPA's pollution standards for fossil fuel power plants (U.S. Environmental Protection Agency, 2024m). This study represents the lower end of the current policy projections range.</t>
+  </si>
+  <si>
+    <t>Lower bound The UAE’s LTS includes current policy projections which are used as a baseline for the net zero scenario (Government of the UAE, 2024b). The current policy projections include all mitigation measures in force up to 2024 in all sectors of the economy, while the net zero scenario includes planned measures and their estimated contribution towards the target. The CAT uses the UAE’s LTS current policy scenario for the lower bound of its own current policy projections. The CAT harmonizes the UAE’s LTS current policy scenarios to the latest available historical GHG emissions data (from 2022) using the growth rates of the original scenario for the period 2022-2035. The UAE only provided data for its current policies for the years 2019, 2030, 2040 and 2050. To create a pathway, the CAT linearly interpolates the values between these years. Because the original projections include emissions and sinks from LULUCF, the CAT assumes that LULUCF emissions remain at 2019 levels (latest historical data available) under current policies. The UAE’s 2019 LULUCF emissions are -1 MtCO 2 e. Upper bound For the upper bound of our current policy projections, we estimate the impacts of the 2050 Energy Strategy on emissions with a range to reflect for uncertainties around the efficiency target and total energy generation. We use IRENA’s Renewable Energy Prospects report as our basis for energy-related CO 2 emissions (Masdar Institute/IRENA, 2015) and calculate the difference in emissions that would result from the 2050 Energy Strategy. The upper end of our range reflects the installed capacity targets for 2030 in the 2050 Energy Strategy, without calculating the impacts of energy efficiency measures. For this projection, we estimate total power generation by technology using capacity factors estimated based on the IRENA REMAP BAU scenario (Masdar Institute/IRENA, 2015). In summary, the CPP upper end of the range for the UAE’s energy-related CO 2 emissions is based on assumptions both about which targets will be implemented, as well as the role of fossil gas in the development of the power system. For CO 2 process emissions (from industry), we continue a linear trend based on total industrial process emissions from the years 2011–2022 until 2030 (Masdar Institute/IRENA, 2015). For non-CO 2 emissions, we apply the growth rate from the Global Anthropogenic Non-CO 2 Greenhouse Gas Emissions: 1990–2030 to PRIMAP historical data (US EPA, 2019). We use the following data sources in our estimates: Energy-related CO 2 from fuel combustion: “Renewable Energy Prospects – United Arab Emirates” (Masdar Institute/IRENA, 2015) CO 2 process emissions (from industry): Own assumption to continue linear trend based on total industrial process emissions from the years 2011–2022 until 2030. Non-CO 2 emissions: Global Anthropogenic Non-CO 2 Greenhouse Gas Emissions: 1990–2030 (US EPA, 2019) Historical installed capacity data: IRENA capacity and generation statistics 2023 (IRENASTAT, 2023) Historical electricity generation data: IEA World Energy Balances 2022 (IEA, 2022) Historical emissions factors: IEA Emissions Factors 2021 (IEA, 2021a).</t>
+  </si>
+  <si>
+    <t>In the previous update from 2023, we used a method for quantifying the current policy projections that relied heavily on the ‘With Measures’ (WM) scenario developed by Türkiye for its 2015 INDC with a historic base year of 2012. Türkiye has not updated its WM scenario since then and by its own admission the WM scenario does not reflect the results of its current policies and measures (Republic of Türkiye Ministry of Environment Urbanisation and Climate Change, 2023). It is working on updated the WM scenario and is expected to share the updated scenario in the Ninth National Communication. We have therefore chosen to no longer use the WM scenario and construct our current policy projections based on the best available sources. To construct the current policy projections, we use a sectoral and gas-by-gas approach. We start by applying the historical ratio from 2021 of CO 2 , CH 4 , N 2 0, and F-gases in the Energy, Industry, Agriculture, and Waste sectors to the estimated GHG emissions for each sector in 2022 (Republic of Türkiye Ministry of Energy and Natural Resources, 2023). For the upper bound of our current policies projections, we apply the Baseline Scenario’s growth rate for total CO 2 from the Istanbul Policy Centre’s report “Turkey’s Decarbonization Pathway: Net Zero in 2050” (Şahin et al., 2021). We apply growth rates for non-CO 2 emissions from the US Environmental Protection Agency’s (US EPA) projections to each non-CO 2 gas in energy and industry (U.S. Environmental Protection Agency, 2019). For the agriculture and waste sectors, we apply US EPA’s total non-CO 2 growth rate for the respective agriculture and waste sectors to all gases in those sectors in 2022. While the US EPA estimates are for non-CO 2 emissions only, the amount of CO 2 emitted by the agriculture and waste sectors is so small as to be non-existent, so we use the growth rates for the sector as a whole. For the lower bound of our current policies projections, we use the World Energy Outlook (WEO) (IEA, 2023). We subtract the EU’s total energy CO 2 in the State Policies Scenario (STEPS) from Europe’s STEPS total energy CO 2 to get other-Europe total energy CO 2 which includes other countries than just Türkiye. Then we apply the growth rate of STEPS other-Europe energy CO 2 to historical CO 2 from energy in 2022. For industry CO 2 , we apply the growth rate STEPS other-Europe industry CO 2 to historical CO 2 from industry in 2022. For non-CO 2 from energy and industry as well as all gases in agriculture and waste, we follow the same method as indicated above. Finally, we sum all the individual gas projections and sectoral projections together to have an upper and lower bound for all GHG emissions under current policy projections.</t>
+  </si>
+  <si>
+    <t>The lower bound of our current policy projection assumes that GHG emissions will grow according to the 5-year trend extension (2015-2019). We have not accounted for any potential policy measures The Gambia has proposed due to a lack of data regarding the status of their implementation and thus were not able to create a policy projection based on the updated business as usual (BAU) projection provided in The Gambia’s 2021 NDC (Republic of The Gambia, 2021a). The upper bound of our current policy projection uses the growth rates from the IEA’s Africa Energy Outlook 2019 Stated Policies Scenario for CO 2 emissions and the US EPA’s growth rates for non-CO 2 emissions (IEA, 2019; U.S. Environmental Protection Agency, 2019). The AEO SPS covers the entire continent. We were not able to find any estimates for The Gambia specifically and thus used the AEO SPS as a proxy.</t>
+  </si>
+  <si>
+    <t>For our current policy projections, we use a study be the Zurich University of Applied Sciences (ZHAW), which is the only scenario analysis identified that quantifies the impacts of the new RE Act of June 2024 (Rohrer et al., 2024). The study builds on the modelled Energy perspectives 2050+ (scenario WWB) (Bundesamt für Energie, 2022), which are also used for the “with existing measures” scenario submitted to the UNFCCC in Switzerland’s 5th Biennial Update Report (Swiss Federal Office for the Environment, 2022). The projection is then harmonised to actual 2022 emissions from the most recent national inventory (Bundesamt für Umwelt BAFU, 2024b).</t>
+  </si>
+  <si>
+    <t>Current policy projections are calculated based on emissions reductions below the BAU scenario from the 8th Edition of APEC Energy Demand and Supply Outlook (APERC, 2019) and the US EPA non-CO 2 emission projections until 2030 (US EPA, 2019). Non-energy related CO 2 emissions are assumed to remain constant at the 2021 level. The APEC BAU is not used as a current policy scenario as its forecast for renewables share in power generation (7.6%) is comparable to the 2020 share of renewables (6%) (IEA, 2021c) and much lower than other studies, which range from 14% to 20% (J. H. Hong et al., 2019; Keramidas et al., 2018; Wood Mackenzie, 2019). With no change to the five-year trend in renewables share, this would reach around 15% in 2030. We therefore consider the 10 th Electricity Plan for the upper bound of current policies projections – 21.6% of RE in 2030. We derive the emissions projection from the APEC BAU by assuming additional generation from renewables replaces coal-fired power generation. We consider the targeted share under the revised Renewable Portfolio Standard (RPS) of 25% power generation from RE by 2030 (MOTIE, 2020) for the lower bound current policies projections. The average electricity CO 2 emission factors for each fossil fuel type in South Korea were assumed to be similar to the values forecast for Japan in the IEA’s World Energy Outlook 2020 (IEA, 2020).</t>
+  </si>
+  <si>
+    <t>Lower bound projection The lower bound of the current policy projections is based on a combination of the IEA World Energy Outlook (WEO) 2020 for CO 2 emissions from fuel combustion (IEA, 2020) and non-CO 2 emissions from the US EPA (2019). For other CO 2 emissions (fugitive CO 2 emissions and process emissions), we used historical data from the National GHG Inventory Report extended to 2021 with growth rates from PRIMAP and assume a direct correlation to emissions from coal-fired power plants afterwards (DFFE, 2023; Gütschow &amp; Pflüger, 2023). The WEO2020 Stated Policies Scenario for CO 2 emissions from fuel combustion assumes full implementation of the 2019 Integrated Resource Plan with COVID-19 delay. For this reason, we do not further need to adjust installed energy capacities by 2030 as in past CAT assessments for South Africa using the Current Policies Scenario available in previous WEO reports. For non-CO 2 emissions, we applied the growth rate from US EPA (2019) projections until 2030 to historical emissions. For CO 2 process emissions and fugitive CO 2 emissions, historical emissions data from PRIMAP (Gütschow &amp; Pflüger, 2023) was used to check the correlation to emissions from coal-fired power plants. For projections, CAT assumes that this correlation will continue, meaning that we assume CO 2 process emissions to develop with the same trend as the CO 2 emissions from coal fired power plants in our current policy projections. Upper bound projection The upper bound of the current policy projections is based on the ‘existing policies scenario with reference growth rate’ by the University of Cape Town’s technical emissions scenario analysis to inform the 2021 NDC update (Marquard et al., 2021). The ‘existing policy scenario’ assumes the full implementation of the IRP2019, a new world-scale crude refinery coming online in 2028 in line with government procurements, other crude refining capacity and coal-to-liquids capacity available until 2050, and the forecasted modernisations introduced by the 1st and 2nd National Waste Management Strategies. We harmonise the scenario’s growth rates for total emissions excluding land use emissions to the latest historical datapoint of 2021. This harmonisation process results in significantly higher final estimates for 2030 than assumed by the University of Cape Town’s ‘existing policies scenario with reference growth rate’ (502MtCO 2 e compared to 479 MtCO 2 e excluding LULUCF). Note that the University uses GWP values from the IPCC’s Second Assessment Report (SAR), while the CAT uses GWP values from the Fourth Assessment Report (AR4).</t>
+  </si>
+  <si>
+    <t>Our current policy projection (CPP) for energy CO 2 is constructed using projections from the APEC Energy Demand and Supply Outlook for sectoral CO 2 emissions, energy balance, and energy mix (APEC, 2022). We have adjusted these projections to take into account the most recent developments announced by Singapore’s Energy Market Authority, as follows: Total electricity demand was revised upwards consistent with government base case projections outlined in (Energy Market Authority, 2023c). This is 22% higher than APEC projections for electricity demand in 2030. Electricity imports were increased to align with the government's targets. The emissions associated with this electricity was excluded from Singapore's domestic emissions, as these will occur outside of Singapore’s borders. Minimum and maximum trajectories for imports were constructed consistent with the government’s projections, which is the difference between our CPP min and CPP max scenarios (Energy Market Authority, 2023a). The gap between the increased electricity demand and the increases in solar and electricity imports was assumed to be met by gas-fired generation, consistent with the government’s plans to increase LNG imports and add gas-fired generation capacity (Energy Market Authority, 2022b, 2023d). The historic grid emissions factor (GEF) was applied to this generation. We derive our current policy projections for non-energy CO 2 and non-CO 2 emissions by applying growth rates to the latest historical data. For non-energy CO 2 , we have assumed GDP growth as a proxy for growth in emissions by applying projected IMF GDP growth rates (IMF, 2023). For non-CO 2 emissions, we have applied the growth rate for Singapore’s non-CO 2 emissions from the US EPA Global Non-CO 2 Greenhouse Gas Emission Projections &amp; Mitigation Potential, harmonised to the latest historical year (U.S. Environmental Protection Agency, 2019).</t>
+  </si>
+  <si>
+    <t>We use a business-as-usual (BAU) emissions scenario developed by the King Abdullah Petroleum Studies and Research Center (KAPSARC) for the upper end of our current policy projections (KAPSARC, 2021), adjusted to our latest historical data. Given the slow progress on renewable energy deployment and the lack substantial mitigation policies in other sectors, we estimate the BAU scenario to reflect current developments. The BAU scenario assumes 11 TWh of electricity generated with solar PV by 2030, which we estimate would translate to around 5–6 GW of solar PV capacity by 2030. Given that only 0.4 GW of renewable energy capacity had been installed by end of 2022 (IRENA, 2023), and that only few projects have been tendered since then, 5–6 GW of renewable capacity by 2030 is broadly in line with the current pace of deployment. For the lower end of our current policy scenario, we take the above BAU scenario but replaced it with CO 2 emissions provided in KAPSARC’s latest baseline forecasts of carbon dioxide emissions (KAPSARC, 2023a). We then adjusted the results to our latest historical data.</t>
+  </si>
+  <si>
+    <t>The lower bound of our current policy projection until 2030 is primarily based on the World Energy Outlook (WEO) 2021 Stated Policy scenario projections for CO 2 from energy related activities (IEA, 2021b). For non-CO 2 emissions, we use the US EPA’s growth rates for non-CO 2 emissions and extrapolate the historical trend (U.S. Environmental Protection Agency, 2019). We harmonised these projections to our 2021 estimate. The upper bound of our current policy projection until 2030 is primarily based on the APEC Outlook for Russia for CO 2 emissions (APEC, 2022). While CO 2 from industrial processes is included in WEO 2021 projections, we assume that it is not included in APEC projections because the ratio of CO 2 emissions from industry to total CO 2 emissions is lower in APEC than WEO projections (APEC, 2022; IEA, 2021b). Therefore, we adjusted the APEC scenario by applying the ratio of WEO’s industry emissions to total CO 2 e to calculate additional CO 2 emissions from industrial processes for APEC industry CO 2 emissions. For non-CO 2 emissions, we use the US EPA’s growth rates for non-CO 2 emissions and extrapolate the historical trend (U.S. Environmental Protection Agency, 2019). We harmonised these projections to our 2021 estimate. Previously, we quantified a flaring gas limit and a renewable electricity generation target. We have excluded these targets from the scenario because current policies do not indicate that these targets will be met. Both the WEO and APEC scenarios take into consideration the impact of the COVID-19 pandemic. The CAT has not quantitatively assessed the long-term effect of Russia’s illegal invasion of Ukraine and its numerous implications, for example with regards to a decrease in fossil fuel exports or potential economic decline in Russia.</t>
+  </si>
+  <si>
+    <t>We derive our current policies projection from two principle sources: the 8th edition of the APEC Energy Demand and Supply Outlook and the new Philippines Energy Plan 2020-2040. The lower end of the range is based on the APEC reference scenario (APEC, 2022). This scenario is based on recent trends and current policies, however it is guided by an older Philippines Energy Plan 2018-2040 as well as the AmBisyon Natin 2040 and the “Build Build Build” Program with energy supply and demand continuing to increase. The APEC reference scenario follows recent trends in energy efficiency and renewable energy. APEC scenarios only include energy related CO 2 data. To calculate remaining GHG emissions, the CAT has combined the APEC scenario with non-CO 2 energy data, estimated using a 5-year historical trend, and using the growth rates for non-CO 2 data from the US EPA (2019). All projections data was harmonised with the latest historical year. The upper end of the range is based on the Philippines Energy Plan (2020-2040) reference scenario (Department of Energy, 2022). The PEP 2020-2040 provides emissions for the energy sector, which we add to non-energy CO 2 and non-CO 2 emissions using the same approach as the lower end (described above). The PEP 2020-2040 reference scenario includes the current biofuels blending (2% biodiesel, 10% bioethanol) until 2040, 5% electric vehicles uptake by 2040 and current energy efficiency and conservation efforts maintained to 2040. Both the PEP and APEC scenarios account for the impact of COVID-19. The current policies and action emissions range accounts for the coal moratorium under the PEP 2020-2040 reference scenario. However, there is still an additional 2.6 GW of coal capacity of additional coal capacity added by 2025 in this scenario. Given the uncertainty of the global energy crisis, the CAT accounts for some uncertainty over the moratorium dates. The APEC reference scenario does not assume coal capacity is capped, and therefore does not anticipate the coal moratorium is maintained. APEC also produce a Carbon Neutral scenario, which does account for the coal moratorium, but the impacts are only seen by 2030. The CAT uses the APEC reference scenario to 2030 and takes the same assumption as the Carbon Neutral scenario that additional capacity may continue to 2030. Other moratoriums have been lifted in the past. The Department of Energy had a moratorium in oil and gas activities in the West Philippines sea, which was lifted for energy security reasons (APEC, 2022). The PEP 2020-2040 includes a clean energy scenario (CES) based on clean energy targets, so this is not considered under the CAT current policy and actions trajectory or planned policies. However, when applying the same calculations as applied to the PEP 2020-2040 reference scenario as mentioned above, the CES scenario falls within the CAT current policies and action range. For reference, the clean energy scenario assumes a 35% and 50% share of renewable energy in power generation in 2030 and 2040 respectively. It includes a 5% blending for biodiesel from 2022, a 1.5% increase in fossil gas consumption in transport and industry, a 10% penetration of EVs by 2040, 5% energy savings in oil products and electricity by 2040 and 12% reduction in GHG emissions for the NDC.</t>
+  </si>
+  <si>
+    <t>The current policy projections for total energy-related CO 2 emissions is based on the BAU scenario from the 7th edition of the APEC Energy Demand and Supply Outlook (APEC, 2019). APEC’s BAU scenario assumes that electricity generation will grow by 69% until 2050 due to rapid economic growth, while electricity capacity will increase by 48%. Peru’s generation mix remains dominated by hydropower and gas-fired generation, with wind and solar power together accounting for 6.7% in 2050. This scenario assumes that Peru becomes a net natural gas importer around 2039 as demand rises rapidly and domestic natural gas production declines with the depletion of the Camisea field. The APEC scenarios use historical energy and CO 2 data derived from IEA Energy Balances of non-OECD countries and CO 2 emissions from fuel combustion. The harmonisation of APEC energy-related CO 2 with historical data from PRIMAP-hist results in about a 6 MtCO 2 e decrease in emissions projections for 2030. Non-CO 2 emissions were taken directly from the US EPA “Non-CO 2 GHG emissions” report with data available for the period between 1990 and 2030 (U.S. Environmental Protection Agency, 2019). Other CO 2 emissions were estimated based on their share in the last inventory with data until 2016 (INGEI, 2021) and their expected contribution under BAU in 2030 (Ministry of Environment of Peru, 2020a). Data was interpolated linearly in between years and harmonised with historical data.</t>
+  </si>
+  <si>
+    <t>We use the latest emissions projections under current policies submitted by Norway to the European Environment Agency (EEA) in 2021 harmonised to actual 2020 emissions from Norway’s official GHG emissions inventory submitted to the UNFCCC. The 2021 EEA projections under current policies include the impact of the COVID-19 pandemic.</t>
+  </si>
+  <si>
+    <t>We derive our current policy projections from a combination of the Stated Policies Scenario from IEA’s Africa Energy Outlook 2019 and the Planned Energy Scenario from IRENA’s 2023 Renewable Energy Roadmap Nigeria for energy emissions and from the US EPA for agriculture and waste emissions, and the US EPA and Energy Transition Plan for industry (Federal Republic of Nigeria, 2022; IEA, 2019; IRENA, 2023b; US EPA, 2019). In general, the IEA Africa Energy Outlook 2019 report does not specify which of the policies have been included in the stated policies scenario. The IEA’s Africa Energy Outlook 2022 did not contain updated country level data, hence why we have continued to use the 2019 report (IEA, 2022a). The IEA’s Stated Policies Scenario was used to derive our lower bound projections for energy CO 2 emissions. This scenario assumes development of coal-fired generation in Nigeria; however, all recent coal plant projects have either been cancelled or shelved. Therefore, we have adjusted our lower bound to assume the coal generation in Stated Policies Scenario is met with renewable energy, in line with national targets. For the upper bound, IRENA’s Planned Energy Scenario was used for energy CO 2 emissions. In our lower and upper bound, projections for energy CH 4 and N 2 O are extended using recent historical trends. We have adjusted the energy emission projections from the IEA’s Africa Energy Outlook 2019 to take into consideration the impact of the pandemic. We distilled the emission intensity (GHG emissions/GDP) from the pre-pandemic IEA scenario starting in 2019. This emission intensity estimate was then applied to the most recent GDP projections from the IMF for Nigeria that take into account the effect of the pandemic (IMF, 2022). As these estimates only cover 2022 to 2027, we used the average GDP growth projected by the IMF for 2022-2027 to extend the projections until 2035. Results were then harmonised to our 2021 estimate (see Historical emissions above). The IRENA Planned Energy Scenario already considers the impact of COVID-19.</t>
+  </si>
+  <si>
+    <t>The policies and actions projections are based on the scenario presented on the Ministry for the Environment website in March 2022 and harmonised to historical emissions of 2021 (Ministry for the Environment 2022f). The projections include “existing policies including a carbon price of $35 per tonne of CO 2 e in the Emissions Trading Scheme”. The government projections from the Fourth Biennial Report include the effects of key quantifiable policies and measures implemented prior to 2019. Specifically, it includes the New Zealand Emissions Trading Scheme; Efficient Products Programme, Insulation and heating grants programmes; Productive and Low Emissions Business Programme; Kigali Amendment to the Montreal Protocol; National Policy Statement for Freshwater Management; Indirect effects of combined forestry land-use policies on agricultural land use; Afforestation Grant Scheme; Permanent Forest Sink Initiative; Sustainable Land Management Hill Country Erosion Programme; Erosion Control Funding Programme; One Billion Trees Programme; Crown Forestry Joint Ventures; National Environmental Standard for Air Quality (landfill methane); Waste Disposal Levy; Indirect effects of combined agricultural (forestry and land use) policies on waste; and the Tokelau Renewable Energy Project. The policies and actions projections do not include the NZ ETS reforms of June 2020.</t>
+  </si>
+  <si>
+    <t>The current policy scenario is based on projections from Nepal’s Long-term Strategy 2021 for CO 2 emissions from the energy, industry, agriculture and waste sectors (Government of Nepal, 2021); and EPA projections for non-CO 2 emissions (EPA, 2019). The LTS sketches emissions value in the WEM (With Existing Measures) and the WAM (With Additional Measures) scenarios. We based the calculations only on the with WEM scenario. We used interpolation to complete the series from 2019 to 2050. Then, the WEM scenario was harmonised to historical data from PRIMAP 2022 is used for current policy scenario.</t>
+  </si>
+  <si>
+    <t>Current policy projections are based on BAU emissions projections and the mitigation potential provided in the Third Biennial Update Report (Kingdom of Morocco, 2022b) and the Fourth National Communication (Kingdom of Morocco, 2022a). The BAU provided by Morocco only considers mitigation measures in place before 2010, which is used as the base year. In the two documents mentioned above, Morocco has put forward a detailed list of mitigation measures it will implement to reach its 2030 target, separated into conditional and unconditional measures (i.e., measures to be achieved with and without international financial support). There is little information on their state of implementation. However, despite initial delays, Morocco is ramping up efforts to meet its ambitious renewable energy target. As such, we believe Morocco is still on track to meet its 2030 targets. For the lower end of the current policy scenario, we start by determining the value for 2030, using the 2030 BAU minus the unconditional and conditional mitigation potentials. We then interpolate between 2021-2030, assuming Morocco could still catch up to reach the 2030 mitigation level (Morocco is already delayed on their mitigation trajectory in 2020-2021). For the upper end of the current policy scenario, we use the same approach but deduct the unconditional mitigation potential only from the BAU trajectory. There are still uncertainties regarding the extent of climate finance Morocco will receive, and therefore the mitigation measures they will be able to put in place. We also excluded the LULUCF related measures planned the in the agricultural in the current policies projection. It should be noted that plans to ramp up gas and start offshore extraction are not taken into account in the policy projections. Additionally, it is unclear what impact lifetime extension of existing coal fired power plants will have on the CPP range, as there is no information on what is exactly taken into account in the BAU provided by Morocco.</t>
+  </si>
+  <si>
+    <t>Upper range (CPP Max.) The upper bound of our current policy projection is based on a combination of data sources (IEA, 2019; U.S. Environmental Protection Agency, 2019). Energy-related CO 2 emissions are based on growth rates from the Stated Policies Scenario of the IEA Africa Energy Outlook 2019. This scenario assumes a partial implementation of Kenya’s National Electrification Strategy. We assumed other, non-energy CO 2 emissions would grow based on the same growth rate since most non-energy CO 2 emissions come from the industry sector. Industry, agriculture, waste, and other non-CO 2 emissions are based on non-CO 2 emissions projections from the US EPA. We have adjusted these projections to take into consideration the impact of the pandemic (see below) and have harmonised the series to the last historical year. Lower range (CPP Min.) In January 2017, the Ministry of Environment and Forestry released an assessment report containing an updated emissions baseline to inform how sectors could contribute to meeting Kenya’s NDC (Ministry of Environment and Natural Resources, 2017a). The objective of the assessment was to examine expected contributions to emissions reductions from each sector, explore sectoral mitigation actions to meet the NDC target, and examine new information that could impact the achievement of the NDC targets. The update was based on new historical activity data out to 2015 for each emission source as well as new information on drivers of future emissions (2016- 2030), such as GDP growth forecasts by sector, new projections on electricity generation projects and new forecasts for urbanisation. For the lower end of the range, we have taken the updated emissions baseline for all sectors except electricity generation, transport and agriculture (Ministry of Environment and Natural Resources, 2017a). The data for electricity generation is taken from the 2017-2037 Least Cost Power Development Plan (LCPDP), for the transport sector, the data is taken from the 2019/2020 Transport Sector Climate Change Annual Report, which indicates a list of mitigation actions the sector plans to implement that should allow it to achieve its sectoral NDC target, and for the agriculture sector, the data is taken from the Kenyan Climate Smart Agriculture Strategy 2017-2026, which includes an indicative 2026 emissions level based on proposed mitigation actions (Government of Kenya, 2019; Ministry of Agriculture, 2018; Republic of Kenya, 2018). We did not quantify the mitigation actions outlined in National Climate Change Action Plan (NCCAP) for the electricity generation, energy demand, industry, and waste sectors due to uncertainty about their current implementation status. We have adjusted these projections to take into consideration the impact of the pandemic (see below). This scenario is also harmonised to the last historical year.</t>
+  </si>
+  <si>
+    <t>Current policy projections stem from the “with measures” scenario from the Fifth Biennial Report . We harmonise this scenario to historical emissions reported in the latest country inventory using growth rates. The “with measures” scenario includes measures and policies to reduce greenhouse gas emissions that have been taken or are planned to be adopted in the near future. The majority of these measures possess sufficient certainty to be treated as a current policy scenario in our analysis. These include measures to develop the alternative and renewable energy sector in Kazakhstan (Republic of Kazakhstan, 2023a). The Biennial Report’s “with measures” scenario included a target to achieve a 10% share of renewables, in this case wind and solar power, in the country’s energy grid by 2030. However, following the achievement of the 2020 target of 3%, the government announced that they are raising the ambition of the renewables target to a 15% share by 2030 (Satubaldina, 2021). We used electrical power demand and supply projections from Kazakhstan’s Green Economy plan to estimate the emissions reduction potential of this 5% increase (Republic of Kazakhstan, 2015). We first used future coal demand (in TWh) and projected emissions from coal in 2030 under the BAU scenario to develop a coal emissions factor. Since we assume that an increase in renewables will result in a decrease in coal use, we used the difference between coal demand under 10% renewables and coal demand under 15% renewables and the coal emissions factor to determine the emissions reductions potential. This resulted in a reduction of 4 MtCO 2 e, which was subtracted from total emissions under the BR “with measures” scenario to get the new current policy projection.</t>
+  </si>
+  <si>
+    <t>Energy-related CO 2 emissions For the analysis of current policy projections, we used the IEA World Energy Outlook (WEO) 2023 Stated Policies Scenario (STEPS) as a basis (IEA, 2023). The WEO STEPS reflects both implemented policies as well as announced policies (see Annex B.6 of WEO 2023); only for the power sector the electricity mix targets of the updated NDC and the 6th Strategic Energy Plan (METI, 2021c) were assumed to be fully achieved. Since it is premature to assume that the 2030 electricity mix targets would fully be achieved, we explored different shares of renewable and nuclear power generation based on historical trends, estimates by external studies, and current status of nuclear reactor safety examinations. CO 2 emissions from the power sector were re-calculated based on the low and high emission electricity mix cases described below. In the low emissions case , we assumed that: The WEO2023 STEPS scenario projections will be fully achieved, which means that: Nuclear power generation share will reach 20%, the lower range of the 2030 target. The nuclear capacity in operation will reach 30 GW, which will be larger than the total of 25 reactors that have applied for restart and two reactors under construction that applied for future operation to the Nuclear Regulation Authority as of March 2024 (JAIF, 2024). Coal and oil power shares are kept to the NDC target (coal: 19%, oil: 2%). Renewable electricity generation reaches 385 TWh/year in 2030. The resulting share in total generation is 37 %, thus reaching the 36-38 % target. Gas power share is at 20%. In the high emissions case , we assumed that: All 27 reactors that have applied for restart (or future start of operation for plants under construction) as of March 2024 will be in operation by 2030 but only at the capacity factor of 49% (the 2021 level), taking into account the possible court cases and unplanned inspections. The resulting share in total generation is 11%. Oil power shares kept to the NDC target (2%). Renewable energy share reaches 315 TWh/year in 2030, based on the reference scenario for Japan included in the 2022 APEC Energy Demand and Supply Outlook (APEC, 2022). The resulting share in total generation is 30%, falling short of the 36-38% target. Gas and coal power meets the remaining demand with equal shares, leading to 26% share each. After the recalculation of the 2030 electricity mix, CO 2 emissions in 2030 were recalculated— CO 2 emission factors per technology were assumed to be identical to those in the WEO 2023 STEPS. Other emissions The projections for Industrial process CO 2 emissions were based on the growth rates between 2020 and 2030 from the IEA WEO 2023 STEPS, multiplied by the 2020 emissions from the UNFCCC GHG inventory (Government of Japan, 2023b; IEA, 2023). Agricultural &amp; waste CO 2 emissions were extended to 2030 using the trend of emissions intensity per GDP and per capita between 2011-2021 (UN DESA, 2022; World Bank, 2023). Other non-CO 2 emissions were extended to 2030 using the trend of emissions intensity per GDP and per capita between 2011-2021 (UN DESA, 2022; World Bank, 2023). For F-gas emissions, the expected impacts of the Act on Rational Use and Proper Management of Fluorocarbons (2013 amendment) to enhance management of F-gas use as well as the Ozone Layer Protection Act (‘F-gas Act’, 2018 amendment) to regulate the production and imports of F-gases to comply with the Kigali Amendment were considered. Our calculations show that the HFC emission levels are projected to fall far short of the levels targeted under the updated NDC. As described in the current policy projections section, the F-gas Act has not been successful in improving the recovery rate of refrigerants from end-of-life refrigeration and air conditioning equipment which was 41% against the targeted rate of 50% in 2020 (METI &amp; MOEJ, 2021b). The recovery rate even dropped to 40% in 2021 (MoEJ, 2022). Based on the historical trends reported by MOEJ (MoEJ, 2022), we assume that the HFC recovery rate will not improve over time. We also assume that the leakage rates for the in-use stock will also not improve under current policies. Regarding the 2018 amendment of the Ozone Layer Protection Act, the business-as-usual consumption levels are projected to be below the Kigali cap at least until 2025 (METI, 2018a): the Kigali cap for Japan becomes significantly lower only in 2029. Since there is some time lag between consumption and emissions, we assume that the amended Ozone Layer Protection Act will not affect the HFC emission levels up to 2030. The point of departure for the revised F-gas emission projections is the business-as-usual (BAU) projections provided in the background document of the Plan for Global Warming Countermeasures (MOEJ, 2016a) – the Plan projects F-gas emissions to increase from 39 MtCO 2 e/year in 2013 to 77 MtCO 2 e/year in 2030 under a BAU scenario. The three measures: (i) enhanced recovery from end-of-life equipment, (ii) avoidance of leakage from in-use equipment, and (iii) switch to lower GWP F-gas and non-F-gas refrigerants are expected to reduce emissions to the NDC target level of 29 MtCO 2 e/year in 2030. In our assessment, we assume that only part of the NDC implementation plan, i.e. the switch to lower GWP F-gas and non-F-gas refrigerants, would be achieved.</t>
+  </si>
+  <si>
+    <t>There is a high level of uncertainty regarding the emissions development in Iran. This is mostly due to uncertain economic growth projections linked to international economic sanctions. We capture this uncertainty by presenting a range for the current policy projections based on historical trends for agriculture and waste emissions, and GDP elasticity for energy and industry. Iran’s economic situation is expected to have bigger impact on the industry and the energy sector, which is why we apply GDP elasticity combined with historical GDP data with a forecast to obtain a range. Emissions from the energy and industry sector are most susceptible to fluctuations in GDP growth. For the agriculture and waste sector, which are traditionally less impacted by the economic sanctions and overall economic landscape, we just apply 5-year historical trend from 2017-2021. Lower end For the emissions in the agriculture and waste sector, we apply a five-year trend based on historical data for 2017-2021. For the energy and industry sector emissions, the projections are based on the historical trends of GDP elasticity of the sectors’ GHG emissions combined with GDP growth estimates from IMF (IMF, 2023) . Upper end For the emissions in the agriculture and waste sector, we apply a five-year trend based on historical data for 2017-2021. For the energy and emissions sector emissions, the projections are based on historical trends of GDP elasticity of the sectors’ GHG emissions combined with historical GDP growth estimates from the World Bank (World Bank, 2023a).</t>
+  </si>
+  <si>
+    <t>We construct current policy projections by combining a APERC and PLN projections for the power sector, with our own projections of energy non-CO 2 and non-energy emissions. Emissions from the huge pipeline of captive coal plants are largely missing from APERC, IEA, and PLN projections (on-grid). We quantify emissions from these power plants using Global Coal Plant Tracker data on operation start date, lifetime, capacity, and assume default capacity and emissions factors (Global Energy Monitor, 2023). For energy-CO 2 we combine the reference “Business-as-usual” scenario from the Asia Pacific Energy Research Centre (APERC), which "assumes current policies and trends continue" (APEC, 2022) and Indonesia’s 10-year electricity supply plan RUPTL 2021–2030 (Republic of Indonesia, 2021b). We use coal, oil, and gas emission factors from the IEA’s Current Policies Scenario for Southeast Asia to estimate emissions from planned generation. We add these energy-CO 2 projections to energy non-CO 2 and non-energy emissions projections to obtain current policies projections for total emissions excl. LULUCF. For each sector we create a projection based on the growth rates forecast in Indonesia’s Second Biennial Update Report (Republic of Indonesia, 2018a). We develop a range by looking at other possible sector-specific trends. For industry we apply GDP growth rates from our post-COVID GDP series, which includes forecasts from the IMF, World Bank, ADB, and OECD (ADB, 2023; IMF, 2023; OECD, 2023; World Bank, 2023). For agriculture, waste, and other sectors, we apply a five-year trend. The two alternatives create a minimum and maximum current policies projections for energy non-CO 2 and non-energy emissions. We subsequently harmonise these projections to historical data. The emissions levels are sensitive to the method of harmonisation. Thus, we apply two methods: Apply growth rates of the calculated scenarios to the last historical year (2022); Adjust all future years by the difference of the calculated scenario and the inventory in the last available year (2022). Both methods are included in the range presented for current policy projections.</t>
+  </si>
+  <si>
+    <t>CO 2 emissions Upper end of the scenario range: We use the growth rates from the IEA’s World Energy Outlook 2023 (WEO 2023) Stated Policies Scenario for India’s CO 2 emissions. The IEA’s CO 2 emissions estimate now includes industry process emissions and thus is a good proxy for all of India’s CO 2 emissions (IEA, 2023c). Lower end of the scenario range: We use the CO 2 emissions estimates in the final National Electricity Plan (NEP2023) for 2022-2032 for the power sector and use a 5-year historical trend to extend to 2035 (Ministry of Power, 2023b). India reports data on a Q2 to Q1 of the following year basis. For the sake of simplicity, we allot the data for a fiscal year (e.g. April 2021-March 2022) to the calendar year (e.g. 2021). We use the WEO 2023 data for the rest of the CO 2 emissions. To replace the power sector emissions in the total CO 2 emissions from WEO2023, we replace the power sector emissions in the unharmonised data sets and then assume a constant ratio with our WEO2023 emissions harmonised to the latest historical data to derive estimates for 2030-2035. We use interpolation to complete the timeseries for 2023-2030. NEP’s power sector emissions are lower than WEO’s for the historical timeseries and so assuming a constant ratio throughout would result in an artificial drop in emissions in 2023. Other gases We use the US EPA non-CO 2 emissions projection growth rates for the CH 4 , N 2 0 and F-gases and harmonise these to the latest historical year (U.S. Environmental Protection Agency, 2019). Note: Our data download includes projections until 2035; however, our graphics display the data until 2030 only.</t>
+  </si>
+  <si>
+    <t>According to Germany’s Climate Law, the 2045 climate neutrality target includes a sink of 40 MtCO 2 e to compensate for some remaining emissions sources. We thus estimate the total GHG emissions excluding LULUCF in 2045 at 40 MtCO 2 e.</t>
+  </si>
+  <si>
+    <t>Chile has committed to being net-zero by 2050. According to Chile’s long-term strategy submitted to the UNFCCC, the target includes a LULUCF sink of 65 MtCO 2 e to neutralise remaining emissions. Thus, we estimate Chile’s total GHG emissions excluding LULUCF in 2050 to be 65 MtCO 2 e (Gobierno de Chile, 2021).</t>
+  </si>
+  <si>
+    <t>We use the most recent available update of the Long-Term Emissions Reduction Plan as a basis for assessing Australia’s climate trajectory to 2050. The government is currently preparing an update of the 2050 Net Zero Roadmap. To assess the net zero target, we used the scenario “The Plan”, modelled by DISER (Australian Government, 2021c). “The Plan” scenario incorporates a sequestration of 38 MtCO 2 e through bioenergy with carbon capture and storage (BECCS), which is considered in our target assessment. We converted these values to AR4 Global Warming Potentials (GWPs), using the AR5/AR4 ratio from current policy projections.</t>
+  </si>
+  <si>
+    <t>Argentina committed to a net zero GHG emissions by 2050. However, its long-term strategy does not include additional information on how Argentina plans to reach its target, particularly on sectoral pathways towards net zero and the expected contribution of sinks from the LULUCF sector. The CAT uses a simplified method to estimate residual emissions under Argentina’s net zero target in 2050. The calculation is based on LULUCF projections created by UNICEN for Argentina’s AFOLU sector in their net zero AFOLU scenario (Keesler &amp; Blanco, 2024). This scenario assumes net LULUCF emissions of -71 MtCO 2 e in 2050. For the simplified net zero pathway for Argentina’s economy-wide emissions, the CAT assumes residual emissions to match the LULUCF sinks of -71 MtCO 2 e in 2030 and assuming a linear decrease from the 2030 current policy pathways (i.e., 405 MtCO 2 e in 2030) to 71 MtCO 2 e in 2050, reaching economy-wide net zero GHG emissions.</t>
+  </si>
+  <si>
+    <t>The UK has set a target of reaching net zero greenhouse gas emissions by 2050. This target includes international aviation and shipping (IAS) emissions, as well as LULUCF emissions and removals from BECCS/DACCS (UK Government, 2019d). The CAT assesses IAS and LULUCF separately, and therefore these need to be removed from the projections. The UK Government does not provide detail on the LULUCF emissions they assume in 2050. In the absence of this, we take analysis from the CCC, which suggested that in the Balanced Net Zero pathway which reaches net zero by 2050, LULUCF emissions would be -19 MtCO 2 /yr (CCC, 2020). We also use this source to estimate future emissions from IAS. In the Balanced Net Zero pathway, emissions from aviation and shipping in 2050 are 24 MtCO 2 . Assuming an equal split between international and domestic aviation/shipping in 2050 as in 2019, this means that in 2050, IAS emissions would be 19 MtCO 2 /yr. Under these assumptions, the UK’s net zero target remains a 0 MtCO 2 e target in 2050 once LULUCF and IAS have been removed. However, in reality, the UK Government intends residual emissions to fall to around 70-80 MtCO 2 e/yr, with engineered removals from BECCS/DACCS offsetting these remaining emissions.</t>
+  </si>
+  <si>
+    <t>The UAE’s net zero strategy covers all GHG emissions except F-gases and assumes a 3.5 MtCO 2 e sink in 2050 to assist with achieving the country’s net zero target and so that is the value taken for their net zero target excluding LULUCF. Due to the uncertainty in estimating F-gases emissions in the UAE by 2050, the CAT does not include any estimation when calculating the UAE’s 2050 emissions excluding LULUCF. This can change in future updates once new emissions data for historical years and future projections are available.</t>
+  </si>
+  <si>
+    <t>To quantify Türkiye’s 2053 emissions, we assume that Türkiye maintains the LULUCF sink of -70 MtCO 2 in 2030 as indicated in its 5th Biennial Report ‘With Measures’ scenario through 2053 (Republic of Türkiye Ministry of Environment Urbanisation and Climate Change, 2023). This means that emissions from other sectors would have to be reduced to 70 MtCO 2 in 2053. As Türkiye’s LTS provides no further clarity on how much of a carbon sink LULUCF is expected to be, we continue to use this quantification method.</t>
+  </si>
+  <si>
+    <t>In its ZERO-basis scenario of the Energy perspectives 2050+, the Swiss government provides assumptions on their estimated residual emissions to meet its 2050 net-zero GHG target. The CAT approach assumes full implementation for all CDR and CCS planned for the target year, meaning that residual emissions are determined by the level of LULUCF emissions (zero assumed for Switzerland) and international offsets to compensate. Hence, the scenario “NET-ZERO scenario (EP2050+) incl. international offsets” was used, which assumes 4.7 MtCO 2 e of residual emissions in Switzerland in 2050 (Bundesamt für Energie, 2022).</t>
+  </si>
+  <si>
+    <t>South Korea’s 2050 carbon neutrality scenarios present 2050 emissions targets for each sector, in addition to details on targeted removals from LULUCF and CCUS. The CAT considers total emissions excl. LULUCF in 2050. The value is derived from the information provided and converted to AR4 by multiplying the value in SAR with the ratio of the 2017 values in AR4 and SAR. We assume that the target values presented cover all GHGs.</t>
+  </si>
+  <si>
+    <t>The Saudi government has announced it aims to achieve a sink of 200 MtCO 2 from 2030 onwards, which we assume to stay constant towards 2060 to meet Saudi Arabia’s net-zero CO 2 target. Given the lack of information on Saudi Arabia’s net zero target announcement, we have assumed it aims to reach net zero CO 2 emissions by 2060. We assume that CO 2 emissions will decline at a linear rate between 2030 and 2060 to balance LULUCF sinks in 2060. We further assume that non-CO 2 emissions will decline at a linear rate between 2030 and 2080 in line with the IPCC SR1.5 pathways.</t>
+  </si>
+  <si>
+    <t>The CAT calculates Nepal’s target of achieving carbon neutrality by 2045 using the WAM (With Additional Measures) scenario stated in its Long-term Strategy. The WAM scenario covers only CO 2 emission for each sector and projects a LULUCF sink of 10 MtCO 2 in 2045. To quantify a target in 2045 covering all GHG emission, we add our estimate of non-CO 2 to the projected CO 2 emissions excluding LULUCF from the LTS’ WAM scenario. We estimate non-CO 2 emissions in 2045 by taking historical non-CO 2 emissions from 2020 and applying the growth rate from the EPA’s BAU projections for non-CO 2 emissions until 2045 (EPA, 2019; Gütschow, Günther and Pflüger, 2022). The LTS’ WAM scenario uses GWP values from the Fifth Assessment Report (AR5), but the projection covers only CO 2 so an AR5 to AR4 conversion is not necessary.</t>
+  </si>
+  <si>
+    <t>The net zero by 2060 target covers all economic sectors and all GHG emissions. Kazakhstan plans to reduce emissions from 351.2 CO 2 -eq (2020) to 45.2 CO 2 -eq by 2060 and sets a removal goal of -45.2 CO 2 -eq for GHG absorption in the LULUCF sector. The Strategy for achieving carbon neutrality by 2060 contains decadal targets between 2020 and 2060, which are used in the tool.</t>
+  </si>
+  <si>
+    <t>The Japanese government provides no underlying assumptions on its 2050 net-zero GHG target. For this reason, we assumed that GHG emissions will balance LULUCF sinks in 2050. We estimate the LULUCF sink for 2050 to be 28–61 MtCO 2 e using a 10-years historical average between 2009–2019 (upper bound estimate) and a 10-years trend projection towards 2030 based on the period between 2009–2019 that we keep constant towards 2050 (lower bound estimate).</t>
+  </si>
+  <si>
+    <t>We estimate India’s emissions in 2070 consistent with its net zero target for the purpose of our global temperature estimate. We assume that India achieves the top end of its carbon sink NDC target of 3 GtCO 2 , which we average over the 2016-2030 period for an annual additional sink of 200 MtCO 2 . We add this to the last historical emissions data for LULUCF (308 MtCO 2 in 2016), for an estimated sink of 508 MtCO 2 in 2070, and assume that this will reflect India’s residual level of emissions of its net-zero target.</t>
+  </si>
+  <si>
+    <t>The CAT uses Global Warming Potential (GWP) values from the IPCC's Fourth Assessment Report (AR4) for all its figures and time series.</t>
+  </si>
+  <si>
+    <t>The CAT uses Global Warming Potential (GWP) values from the IPCC's Fourth Assessment Report (AR4) for all its figures and time series. Assessments completed prior to December 2018 (COP24) used GWP values from the Second Assessment Report (SAR).</t>
+  </si>
+  <si>
+    <t>The CAT uses Global Warming Potential (GWP) values from the IPCC’s Fourth Assessment Report (AR4) for all figures and time series. Assessments completed prior to December 2018 (COP24) used GWP values from the IPCC’s Second Assessment Report (SAR).</t>
+  </si>
+  <si>
+    <t>The CAT uses Global Warming Potential (GWP) values from the IPCC's Fourth Assessment Report (AR4) for all its figures and time series. Assessments completed prior to December 2018 (COP24) used GWP values from the Second Assessment Report (SAR). The ‘NDC targets’ section above outlines the uncertainties on GWP assumed for the updated NDC target range.</t>
+  </si>
+  <si>
+    <t>The CAT uses Global Warming Potential (GWP) values from the IPCC's Fourth Assessment Report (AR4) for all its figures and time series. Assessments completed prior to December 2018 (COP24) used GWP values from the Second Assessment Report (SAR). Please see the NDC section for the assumptions made in calculating that figure.</t>
+  </si>
+  <si>
+    <t>Morocco previously used Global Warming Potential (GWP) values from the IPCC Second Assessment Report (SAR). In the 2021 NDC and the other documents submitted to UNFCCC, GWP are communicated using the Fourth Assessment Report (AR4) values. The CAT reports all results using AR4 GWP.</t>
+  </si>
+  <si>
+    <t>The CAT uses Global Warming Potential (GWP) values from the IPCC's Fourth Assessment Report (AR4) for all its figures and time series. Assessments completed prior to December 2018 (COP24) used GWP values from the Second Assessment Report (SAR). Kenya has indicated that it will account for its NDC using GWP values from the IPCC’s fifth assessment report (AR5). However, we assume that its reference to a BAU of 143 MtCO 2 e is expressed in GWP values from the IPCC’s second assessment report (SAR). Similar to the first NDC, the updated NDC quantified the 2030 reference value based on the 2030 GHG emissions projected in the National Climate Change Action Plan (2013-2017) and values in that report are in SAR. For the purpose of this analysis, we assume that the sector contribution to achieving the target and LULUCF assumptions used in the CAT country assessment remain unchanged and we converted the IPCC SAR GWP values to AR4 GWP values. Converting from SAR to AR5 under these assumptions would increase the targets by a couple of MtCO 2 e. If, however, the BAU is already in AR5 values, then the targets will be lower than the estimates provided here.</t>
+  </si>
+  <si>
+    <t>2030 NDC target Ethiopia provides an estimate of each sector’s mitigation contribution to meeting its unconditional and conditional targets in its final NDC update submitted in July 2021 (Federal Democratic Republic of Ethiopia, 2021). These estimates are given using AR5 GWP values. We exclude the contribution of LULUCF, which we assume to be CO2 only, and then convert all other sector from AR5 to AR4 using the gas-by-gas breakdown for 2010 historic data from PRIMAP (Gütschow, J.; Günther, A.; Jeffery, L.; Gieseke, 2021). The estimate provided in the final NDC update is for the main three gases only (CO 2 , CH 4 and N 2 O). Our historical and current policy projections also include HFCs, however their contribution is very small and we have not taken it into account here.</t>
+  </si>
+  <si>
+    <t>Since our last update in February 2024, the CAT has not changed its methodology for quantifying the EU’s 2030 absolute emissions target. Our current approach aligns with the EEA’s quantification of the target (European Environment Agency, 2023c). Note that the EEA’s NDC quantification includes international aviation. We take the EU’s 1990 emissions including LULUCF in AR5 GWP, excluding indirect CO 2 emissions and emissions from international aviation, and apply a 55% reduction to this value (European Environment Agency, 2024). Then we add the difference between the sink (217 MtCO 2 e) in 1990 and the sink of 225 MtCO 2 e that the EU is allowed to use towards achieving its NDC target as outlined in the European Climate Law. As the CAT excludes LULUCF from absolute target values, we then remove sink of 225 MtCO 2 e and convert the value from AR5 to AR4 using a conversion factor based on emissions in 1990. While the LULUCF Regulation, passed in April 2023, adopts an EU-wide LULUCF sink of 310 MtCO 2 e, the EU has made clear that this additional sink capacity will help it exceed its 55% target and not count towards achieving it (European Parliament, 2022; European Parliament &amp; Council of the European Union, 2023b). As such, we do not exclude this additional LULUCF capacity from our quantification of the target. CO 2 emissions from intra-EU flights, (as well as those departing flights to Switzerland and the United Kingdom) fall within the scope of the NDC as they are covered under the EU ETS. However, we do not consider these emissions to be part of the target quantification itself (as described above), but relevant to assessing compliance with it. As such, intra-EU CO 2 aviation are not included in our NDC target calculations.</t>
   </si>
   <si>
     <t>NDC targets were obtained from the Colombia’s updated NDC submitted to the UNFCCC in December 2020 and were calculated excluding LULUCF. In its updated NDC, Colombia provided a sectoral breakdown for its BAU projections, including disaggregating its net AFOLU emissions by IPCC category. We have assumed net LULUCF emissions for Colombia’s BAU projections are equivalent to IPCC category 3B. While there are some net emissions in 3C, historically, these have been negligible. We estimate the extent to which Colombia will use land sector reductions to achieve its NDC based on the estimates provided in Annex M1 of its NDC update and the accompanying mitigation annex and exclude these from our estimate. The listed measures are not enough to achieve Colombia’s emissions limit, based on its BAU projections. In past assessments to account for the uncertainty around the extent to which future mitigation measures will rely on the land sector, we used a range. The lower bound was based solely on the LULUCF measures as listed in the NDC. For the upper end of the range, we applied the relative ratio of LULUCF mitigation measures to other mitigation measures, as contained in the NDC Annex, and apply that to the additional emission reductions needed to achieve the target. In other words, we assumed that Colombia would adopt additional LULUCF measures at the same ratio as those listed in its NDC to account for the needed NDC reductions. In its latest Biennial Report, Colombia has provided further information on the mitigation measures it will undertake to achieve its NDC, while some of these measures may address land sector emissions to a small degree, they are largely focused on other sectors, principally the waste sector. As such, it is unlikely that Colombia will announce additional LULUCF measures at the same ratio and thus we have dropped the top end of our NDC range. Note: In this assessment, we have used a AR5 to AR4 conversion factor based on the a gas-by-gas breakdown for 2018 emissions from the BUR3, so the quantification of the target varies slightly from the numbers used in previous assessments.</t>
@@ -289,6 +463,45 @@
     <t>NDC absolute emissions levels including LULUCF are provided directly in the NDC for the unconditional target (Government of Argentina, 2021). To obtain the NDC emissions level excluding LULUCF, the CAT uses a Business-As-Usual scenario for the LULUCF sector developed by UNICEN (Keesler &amp; Blanco, 2024). This scenario shows that under current policies, LULUCF emissions in Argentina will steadily decrease, reaching 15.2 MtCO 2 e by 2030. We also recalculate the target, that is originally communicated as an absolute number calculated using SAR GWP, to AR4 GWP. To do so, we calculate the difference in emissions between the last inventory year (2020) and the target year (2030) in SAR and apply the growth rate to the last historical value (from 2022) in AR4.</t>
   </si>
   <si>
+    <t>The UK’s 2030 NDC target of at least a 68% reduction below 1990 levels is expressed using 100 year global warming potentials (GWP 100 ) from the IPCC’s Fifth Assessment Report (AR5) (Government of the UK, 2022). In addition, the UK Government has specified that the target reference year includes F-gas emissions from 1995. Thus, to quantify the expected 2030 emissions, we apply the 68% reduction to a reference emissions level consisting of the UK’s emissions in 1990 but including F-gas from 1995 instead of 1990, all expressed in AR5 GWPs. As the CAT presents all data across countries in GWP from the IPCC Fourth Assessment Report (AR4), the 2030 emissions implied by the NDC target in AR5 GWPs are then converted back into AR4 GWP. This is done by calculating a historical conversion factor from AR5 GWPs to AR4 GWPs, using historical data from 2021. This conversion factor can then be used to calculate the NDC in 2030 in AR4 GWPs. The UK’s 2030 (NDC) and 2035 (Sixth Carbon Budget) emissions targets includes LULUCF emissions. This needs to be subtracted for comparability with other countries. We use projections from the CCC’s Sixth Carbon Budget to estimate LULUCF emissions in 2030 and 2035 (CCC, 2020). While the government’s approach to achieving the NDC and Sixth Carbon Budget differs somewhat from the CCC, there is strong alignment on afforestation pledges, and so LULUCF emissions will likely be closely aligned with the CCC’s projections, if these targets are to be met. The UK’s 2035 emissions target additionally includes emissions from international aviation and shipping. These emissions were added to the 1990 baseline when calculating what a 78% reduction would entail. Projected 2035 emissions from international aviation and shipping were then removed from the implied 2035 target, as these emissions are captured under our IMO and ICAO assessments and would be double counted if they remained as part of the UK’s total emissions. Data is taken from the UK’s Carbon Budget Delivery Plan (DESNZ, 2023a). The UK’s 2050 net-zero target also includes both LULUCF and international aviation and shipping, which need to be removed. In the absence of long-term projections from the UK Government, we use the Sixth Carbon Budget to calculate LULUCF and international shipping emissions in 2050, while the high ambition scenario from the recent Jet Zero strategy is used to estimate aviation emissions in 2050 (CCC, 2020; Department for Transport, 2022).</t>
+  </si>
+  <si>
+    <t>2030 NDC target For the 2030 NDC target, we apply the indicated target of 50%–52% reduction to the 2005 base year including LULUCF, and then subtract the projected emissions for the LULUCF sector. The LULUCF emission projections in 2030 were taken from the 5th Biennial Report which reported sinks of 0.6–0.8 GtCO 2 e/year in 2030 (U.S. Department of State, 2022). 2050 net zero target For the net zero target, we assume total GHG emissions in 2050 are balanced by projected sinks in 2050. The LULUCF sinks in 2050 were taken from the US long-term strategy (LTS) submitted to the UNFCCC in November 2021 (U.S. Department of State, 2021). Since the document does not provide exact figures, we have extracted the approximated figures from the graphs in the report. The reading of the graphs results in an approximation of minus 0.6-1.4 GtCO 2 e/year for LULUCF sinks in 2050, we add this sink to the residual estimate in 2050 to get 0.6-1.5 GtCO 2 e/year in 2050. We include also estimates for 2040 in our pathway using a similar approach.</t>
+  </si>
+  <si>
+    <t>NDC target values are calculated based on the conditional and unconditional mitigation actions and their estimated impact in The Gambia’s NDC submitted in 2021 (Republic of The Gambia, 2021a). The Gambia’s NDC includes information on the extent to which the land sector is included in its 2030 BAU as well as the extent to which it intends to rely on that sector to meet its conditional and unconditional targets. We have excluded these emissions from our calculations.</t>
+  </si>
+  <si>
+    <t>Thailand’s 2020 NAMA targets, 7–20% under business-as-usual (BAU) (applying to the energy and transport sector) are quantified (Ministry of Natural Resources and Environment, 2014). As there is no BAU published for 2020, we calculate the value in 2020 based on reports from BUR3 that the country had achieved a 15.76% GHG emission reduction from BAU as of 2018 (Ministry of Natural Resources and Environment, 2020b). Based on our calculations, the BAU for 2020 was set at 469 MtCO 2 e/year excl. LULUCF, implying 2020 emission level targets of between 375 to 436 MtCO 2 e/year. According to our analysis, Thailand overachieved the range of its targets with emission levels at 342 MtCO 2 e/year in 2020, largely due to the economic down-turn caused by COVID-19. Prior to COVID-19, Thailand was on track to be safely within the range. The Second NDC targets for 2030 consists of a 30% unconditional and 40% conditional target in emissions reduction under BAU (Government of the Kingdom of Thailand, 2022). The targets exclude emissions from LULUCF. As noted in Thailand’s NDC submission, the BAU for 2030 was set at 555 MtCO 2 e/year excluding LULUCF, implying unconditional and conditional targets of 389 and 333 MtCO 2 e/year respectively. Thailand’s LT-LEDS (revised) we build the emissions pathway from 2030 to 2065 based on modelling results from ONEP and confirmed in the official document. Data points include CO 2 and GHG emissions over five-year timesteps. The level of LULUCF sinks are also extracted from documents along the same time series, stabilising at -120 MtCO 2 /yr after 2037 (ONEP, 2022). As the CAT excludes LULUCF (see explanation ), we calculate GHG emission levels at five year timesteps from 2030 to 2065 by subtracting LULUCF sinks from net GHGs. We linearly interpolate emission levels between the timesteps as data is not available on an annual resolution.</t>
+  </si>
+  <si>
+    <t>We calculated the 2030 targets using the most recent national inventory (Bundesamt für Umwelt BAFU, 2024b). Switzerland has not officially communicated the domestic share of its NDC target and has removed any specific information from the current version of the CO 2 Reduction Act. In a previous draft from 2021 it stated that 33% (66% of 50%) of emissions will be reduced domestically (by 2030 below 1990 levels). From other official communication documents, it becomes evident that there is a consensus by the Federal Council that at least 30% will be reduced within the borders. After proposals for a 75% and a 70% (of the 50%) reduction were rejected in parliament in 2024, the Environment Minister Albert Rösti announced that he would propose a 66% share to the Federal Council (Das Schweizer Parlament, 2024). Due to a lack of clearer information, we have therefore decided to take a range between 30% and 33% by 2030 below 1990 levels as Switzerland’s domestic share. Switzerland’s NDC includes LULUCF. The NDC states the desire to use a reference level for forest land, while emissions for other land uses will be included both in the target and baseline years. To assess LULUCF emissions in 2030, we take an average between the two projections WEM (with existing measures) and WAM (with additional measures) as to reach the 2030 target the emissions reduction pathway would need to be in between the two scenarios. Since there is some uncertainty on both the accounted LULUCF emissions and the target itself, we show the target as a range, with the lower end of the range representing emission levels of 33% reductions without the accounted LULUCF emissions.</t>
+  </si>
+  <si>
+    <t>The updated 2021 NDC sets a new target of 40% below 2018 levels (total emissions excl. LULUCF in 2018 compared to net emissions in 2030 – incl. reductions from LULUCF and international credits). The government report on the NDC update, published in October 2021, provides a breakdown of emissions per sector, in addition to details on targeted reductions and removals from LULUCF, CCUS, and overseas (Republic of Korea, 2021b). We convert the domestic and overall targets from SAR to AR4 following the method outlined below. We recalculate the 2020 NDC with this information on the contribution of LULUCF sinks and international credits. This results in a 1 MtCO 2 e increase to 541 MtCO 2 e from our previous calculations that used assumptions on the use of LULUCF and international credits from South Korea’s first NDC (see assumptions in September 2021 assessment). South Korea uses GWP values from the IPCC’s Second Assessment Report (SAR). We convert to AR4 GWP values to ease comparison of countries’ targets and emission trajectories. We use detailed emissions data per gas from the national inventory (SAR), and the SAR/AR4 GWPs to derive a full emissions dataset in AR4. We use the ratio of total emissions in SAR and AR4 in 2017 to convert the BAU to AR4 (the annual difference between SAR and AR4 is around 4.5 MtCO 2 e, with low variance). We apply the reduction stated in the NDC to the total emissions in AR4 GWPs.</t>
+  </si>
+  <si>
+    <t>Singapore’s updated NDC provides an absolute emissions level (60 MtCO 2 e) for 2030 in AR5 GWP (Singapore Government, 2022), which translates to 60.3 MtCO 2 e in AR4 GWP. The conversion between AR5 and AR4 is insignificant because Singapore’s emissions are predominantly CO2 (94% in 2020).</t>
+  </si>
+  <si>
+    <t>2021 NDC As Saudi Arabia has not communicated the business as usual (BAU) scenario for its NDC target, we quantified the target based on a business-as-usual scenario developed by the King Abdullah Petroleum Studies and Research Center (KAPSARC). The lower end of the NDC range reflects the KAPSARC BAU scenario, excluding land use, land use change and forestry (LULUCF). For the upper end of the range, we have assumed that LULUCF measures would contribute 200 MtCO 2 e of the total 278 MtCO 2 e emissions reductions in the NDC. This number is based on the announcements made at the Saudi Green Initiative Forum in 2021 (Kingdom of Saudi Arabia, 2021d). In 2012, the latest year for which national data is available, the land use and forestry sink stood at just 9 MtCO 2 e, with forests covering a mere 0.5% of Saudi Arabia’s total land area in 2020. The Global Warming Potential (GWP) values used for the NDC have not been communicated. We have assumed these to be expressed in either AR4 or SAR and have included both calculations in our range.</t>
+  </si>
+  <si>
+    <t>The NDC target is calculated using LULUCF projections from the Fourth Biennial Report to the UNFCCC and historic emissions from the latest inventory data (Russian Federation, 2019a, 2022b). For the 2030 NDC target, we assume that LULUCF emissions are included in the NDC target. The 2060 net zero target is calculated by assuming that Russia’s LULUCF sink for 2050 (-1200 MtCO 2 e) would remain constant until 2060 (Russian Federation, 2022c). We make this assumption because Russia’s LTS does not have a projection to 2060 which would outline what the level of reductions required to reach net zero emissions.</t>
+  </si>
+  <si>
+    <t>The updated NDC target is based on a cumulative BAU of 3,340.3 MtCO 2 e for the period of 2020-2030; however, the update does not include any details on how this BAU was calculated. An annual sector by sector breakdown was subsequently published by the Climate Change Commission (CCC, 2022). We use this information as the basis of our calculations. GWP values The NDC update and CCC document do not mention the Global Warming Potential values used. The CCC has used GWP from the IPCC’s Fourth Assessment Report (AR4) in past stakeholder consultations and so we assume that that is the basis upon which these NDC calculations have been prepared (Climate Change Commission, 2020). LULUCF The NDC update and CCC document to not explicitly discuss the role of the land sector in the NDC target. The 3,340.3 MtCO 2 e cumulative BAU does include LULUCF, the details for which are provided in the CCC’s document. The NDC update describes the target sectoral coverage as ‘agriculture, wastes, industry, transport, and energy’. We take this statement to mean that efforts in the land sector do not fall within the scope of the Philippines’ target. According to the CCC’s figures, the land use represents a small net sink in 2020 (-24 MtCO 2 e), which will shrink over the course of the decade to become a small source of emissions in 2030 (3.8 MtCO 2 e). Target quantification We apply the target reductions to the 2030 BAU value provided in the CCC’s document to calculate 2030 emissions including LULUCF. As the CAT excludes LULUCF from its analysis and the Philippines will not rely on LULUCF measures to achieve its NDC target, we subtract the LULUCF BAU emissions (3.8 MtCO 2 e) to derive the target value excluding LULUCF.</t>
+  </si>
+  <si>
+    <t>The pledge for 2030 is based on the latest NDC submission document from December 2020 (Gobierno del Peru, 2020). Peru’s submission covers emissions from all sectors and six gases (CO 2 , CH 4 , N 2 O, HFCs, PFCs and SF6). The previous NDC covered only CO 2 , CH 4 and N 2 O, for all sectors. An absolute emissions level, including LULUCF, is provided directly in the NDC for the unconditional and conditional targets. To distinguish emissions reductions that are attributable to the LULUCF sector, the CAT assumes that the share of LULUCF mitigation efforts will be the same as it was in the first NDC submission, for both unconditional and conditional targets. The assessment of Peru’s first NDC considers the mitigation split presented in the roadmap for NDC implementation (Government of Peru, 2018). According to the technical background document of the first NDC, for the unconditional target, 76% of the 20% emission reductions below BAU will be obtained from measures in the LULUCF sector. For the conditional target, 69% of the 30% emission reductions below BAU will be obtained in the LULUCF sector.</t>
+  </si>
+  <si>
+    <t>The NDC and long-term target were calculated from the most recent national inventory submissions.</t>
+  </si>
+  <si>
+    <t>NDC targets Nigeria’s NDC update uses global warming potentials (GWP) values from the IPCC’s fifth assessment report (AR5). CAT uses GWP values from the fourth assessment report (AR4) to ensure comparability across countries. The NDC provides a sector-by-sector breakdown of emissions in 2018 and 2030. We have converted from AR5 to AR4 using the gas-by-gas breakdown for each sector from PRIMAP for the year 2018. We have not converted HFCs as we do not have information on individual gases; however, these gases represent only 1 MtCO 2 e in 2018. The final NDC update provides LULUCF emissions for 2018 and AFOLU emissions for the 2030 BAU. To estimate LULUCF emissions in the 2030 BAU, we applied the same ratio of LULUCF/AFOLU as in 2018. The update provides no information on the extent to which Nigeria intends to rely on reducing land sector emissions to meet its NDC targets. However, the update does estimate the potential of nature-based solutions as about 115 MtCO 2 e. Of these solutions, the top three are identified as agroforestry, improved forest management, and forest restoration, making up about 89 MtCO 2 e of the total potential. We use the 89 MtCO 2 e estimate as the upper bound of our estimate for the contribution of the land sector in meeting Nigeria’s conditional target and a proportional share of the 89 MtCO 2 e estimate for the unconditional target. We assume this estimate is all CO 2 and thus there is no need to convert from AR5 values. For the lower bound, we assume the land sector contributes an equal share as remaining sectors for both targets. The Third National Communication identified significant abatement potential in the land sector, though its estimation of land sector emissions may have been higher than what is now reported in the final NDC update. Overall, there is significant uncertainty in the land sector emissions and our estimates are best guesses based on the available data. Net zero target Nigeria has not provided detailed information about how it intends to reach its net zero target. We have quantified the target for the purposes of our ‘Optimistic’ global temperature estimate. We assume emissions (excluding LULUCF) are reduced 50% below 2018 levels by 2050 in line with Nigeria’s long-term vision and assume the country reaches 0 emissions in 2070 (DCC, 2021). The long-term vision does not specify the role that LULUCF will play in meeting this target, so we assume the 50% target applies equally to LULUCF and non-LULUCF emissions.</t>
+  </si>
+  <si>
     <t>Target emissions levels were calculated from New Zealand’s Greenhouse Gas Inventory 1990-2020 (Ministry for the Environment 2022g). The target for 2020 (5% below 1990) is based in the gross emissions in 1990 (i.e., LULUCF emissions are not included in the base year). The comparison calculations using the CP1 surplus and Kyoto Protocol forestry activities data is from the latest net position report (Ministry for the Environment 2021a). The target for 2030 (Paris Agreement Nationally Determined Contribution or NDC) is a 50% emissions reduction below 2005 levels The same target is reiterated in New Zealand’s updated NDC (New Zealand Government 2021a). New Zealand uses a gross-net approach (Ministry for the Environment 2021d). A gross-net approach is when a Party does not include the LULUCF sector in its base year (gross) but accounts for net emissions and removals from LULUCF for the target year (net). Such an approach is a logical and categorical error. In the year 2005, New Zealand had a LULUCF carbon sink of 25 MtCO 2 e. However, New Zealand has chosen to exclude the carbon sink to ensure a higher baseline to apply the 30% reduction from 2005 levels. New Zealand then includes the LULUCF carbon sink in the target year 2030, which allows for higher emissions elsewhere in the economy. Such an approach undermines the purpose of the Paris Agreement as it allows for net emissions to continue to increase. For the 2030 pledge, the CAT has estimated levels of emissions excl. LULUCF resulting from the NDC by subtracting Kyoto Protocol forestry activity emissions in 2030 from the targeted level (2030 data from: (Ministry for the Environment 2021c)). The 2050 Long-Term Target has been quantified using the latest government historical data (Ministry for the Environment 2021b). The CAT estimates the target by subtracting LULUCF and including methane emissions. The projected LULUCF emissions for 2050 are based on the latest government projections (Ministry for the Environment 2021c). The government LULUCF projections provide a range based on “lower removals” and “upper removals”. These projections appear to be very optimistic when compared to government policy in the sector. CH4 emissions for 2017 were also available in the government data (Ministry for the Environment 2021b). We include emissions from methane and exclude LULUCF.</t>
   </si>
   <si>
@@ -304,45 +517,6 @@
     <t>Unconditional target: The NDC states that Kenya will bear 21% of the estimated required mitigation costs itself. In the absence of information on sectoral mitigation costs, we assume that this 21% financial contribution is equivalent to a 21% share of the targeted emission reductions. On that basis, we calculate the unconditional contribution to be equivalent to an unconditional target of 7% below BAU, including LULUCF – or 4% below BAU, excluding LULUCF emissions. This corresponds to emissions levels of 126 MtCO 2 e by 2030 (excluding LULUCF) (expressed in AR4 values) (see further assumptions on GWP below). In its first NDC, Kenya included a separate target of 47% below BAU by 2030 for the LULUCF sector. While explicit reference to this target has been dropped in the update, we assume that Kenya will meet about half of its NDC with reductions in land sector emissions. Conditional target: If the target is met, emissions in 2030 will be 108 MtCO 2 e (excl. LULUCF). The conditional contribution is equivalent to a 17% reduction below BAU by 2030 (excl. LULUCF).</t>
   </si>
   <si>
-    <t>The UK’s 2030 NDC target of at least a 68% reduction below 1990 levels is expressed using 100 year global warming potentials (GWP 100 ) from the IPCC’s Fifth Assessment Report (AR5) (Government of the UK, 2022). In addition, the UK Government has specified that the target reference year includes F-gas emissions from 1995. Thus, to quantify the expected 2030 emissions, we apply the 68% reduction to a reference emissions level consisting of the UK’s emissions in 1990 but including F-gas from 1995 instead of 1990, all expressed in AR5 GWPs. As the CAT presents all data across countries in GWP from the IPCC Fourth Assessment Report (AR4), the 2030 emissions implied by the NDC target in AR5 GWPs are then converted back into AR4 GWP. This is done by calculating a historical conversion factor from AR5 GWPs to AR4 GWPs, using historical data from 2021. This conversion factor can then be used to calculate the NDC in 2030 in AR4 GWPs. The UK’s 2030 (NDC) and 2035 (Sixth Carbon Budget) emissions targets includes LULUCF emissions. This needs to be subtracted for comparability with other countries. We use projections from the CCC’s Sixth Carbon Budget to estimate LULUCF emissions in 2030 and 2035 (CCC, 2020). While the government’s approach to achieving the NDC and Sixth Carbon Budget differs somewhat from the CCC, there is strong alignment on afforestation pledges, and so LULUCF emissions will likely be closely aligned with the CCC’s projections, if these targets are to be met. The UK’s 2035 emissions target additionally includes emissions from international aviation and shipping. These emissions were added to the 1990 baseline when calculating what a 78% reduction would entail. Projected 2035 emissions from international aviation and shipping were then removed from the implied 2035 target, as these emissions are captured under our IMO and ICAO assessments and would be double counted if they remained as part of the UK’s total emissions. Data is taken from the UK’s Carbon Budget Delivery Plan (DESNZ, 2023a). The UK’s 2050 net-zero target also includes both LULUCF and international aviation and shipping, which need to be removed. In the absence of long-term projections from the UK Government, we use the Sixth Carbon Budget to calculate LULUCF and international shipping emissions in 2050, while the high ambition scenario from the recent Jet Zero strategy is used to estimate aviation emissions in 2050 (CCC, 2020; Department for Transport, 2022).</t>
-  </si>
-  <si>
-    <t>2030 NDC target For the 2030 NDC target, we apply the indicated target of 50%–52% reduction to the 2005 base year including LULUCF, and then subtract the projected emissions for the LULUCF sector. The LULUCF emission projections in 2030 were taken from the 5th Biennial Report which reported sinks of 0.6–0.8 GtCO 2 e/year in 2030 (U.S. Department of State, 2022). 2050 net zero target For the net zero target, we assume total GHG emissions in 2050 are balanced by projected sinks in 2050. The LULUCF sinks in 2050 were taken from the US long-term strategy (LTS) submitted to the UNFCCC in November 2021 (U.S. Department of State, 2021). Since the document does not provide exact figures, we have extracted the approximated figures from the graphs in the report. The reading of the graphs results in an approximation of minus 0.6-1.4 GtCO 2 e/year for LULUCF sinks in 2050, we add this sink to the residual estimate in 2050 to get 0.6-1.5 GtCO 2 e/year in 2050. We include also estimates for 2040 in our pathway using a similar approach.</t>
-  </si>
-  <si>
-    <t>NDC target values are calculated based on the conditional and unconditional mitigation actions and their estimated impact in The Gambia’s NDC submitted in 2021 (Republic of The Gambia, 2021a). The Gambia’s NDC includes information on the extent to which the land sector is included in its 2030 BAU as well as the extent to which it intends to rely on that sector to meet its conditional and unconditional targets. We have excluded these emissions from our calculations.</t>
-  </si>
-  <si>
-    <t>Thailand’s 2020 NAMA targets, 7–20% under business-as-usual (BAU) (applying to the energy and transport sector) are quantified (Ministry of Natural Resources and Environment, 2014). As there is no BAU published for 2020, we calculate the value in 2020 based on reports from BUR3 that the country had achieved a 15.76% GHG emission reduction from BAU as of 2018 (Ministry of Natural Resources and Environment, 2020b). Based on our calculations, the BAU for 2020 was set at 469 MtCO 2 e/year excl. LULUCF, implying 2020 emission level targets of between 375 to 436 MtCO 2 e/year. According to our analysis, Thailand overachieved the range of its targets with emission levels at 342 MtCO 2 e/year in 2020, largely due to the economic down-turn caused by COVID-19. Prior to COVID-19, Thailand was on track to be safely within the range. The Second NDC targets for 2030 consists of a 30% unconditional and 40% conditional target in emissions reduction under BAU (Government of the Kingdom of Thailand, 2022). The targets exclude emissions from LULUCF. As noted in Thailand’s NDC submission, the BAU for 2030 was set at 555 MtCO 2 e/year excluding LULUCF, implying unconditional and conditional targets of 389 and 333 MtCO 2 e/year respectively. Thailand’s LT-LEDS (revised) we build the emissions pathway from 2030 to 2065 based on modelling results from ONEP and confirmed in the official document. Data points include CO 2 and GHG emissions over five-year timesteps. The level of LULUCF sinks are also extracted from documents along the same time series, stabilising at -120 MtCO 2 /yr after 2037 (ONEP, 2022). As the CAT excludes LULUCF (see explanation ), we calculate GHG emission levels at five year timesteps from 2030 to 2065 by subtracting LULUCF sinks from net GHGs. We linearly interpolate emission levels between the timesteps as data is not available on an annual resolution.</t>
-  </si>
-  <si>
-    <t>We calculated the 2030 targets using the most recent national inventory (Bundesamt für Umwelt BAFU, 2024b). Switzerland has not officially communicated the domestic share of its NDC target and has removed any specific information from the current version of the CO 2 Reduction Act. In a previous draft from 2021 it stated that 33% (66% of 50%) of emissions will be reduced domestically (by 2030 below 1990 levels). From other official communication documents, it becomes evident that there is a consensus by the Federal Council that at least 30% will be reduced within the borders. After proposals for a 75% and a 70% (of the 50%) reduction were rejected in parliament in 2024, the Environment Minister Albert Rösti announced that he would propose a 66% share to the Federal Council (Das Schweizer Parlament, 2024). Due to a lack of clearer information, we have therefore decided to take a range between 30% and 33% by 2030 below 1990 levels as Switzerland’s domestic share. Switzerland’s NDC includes LULUCF. The NDC states the desire to use a reference level for forest land, while emissions for other land uses will be included both in the target and baseline years. To assess LULUCF emissions in 2030, we take an average between the two projections WEM (with existing measures) and WAM (with additional measures) as to reach the 2030 target the emissions reduction pathway would need to be in between the two scenarios. Since there is some uncertainty on both the accounted LULUCF emissions and the target itself, we show the target as a range, with the lower end of the range representing emission levels of 33% reductions without the accounted LULUCF emissions.</t>
-  </si>
-  <si>
-    <t>The updated 2021 NDC sets a new target of 40% below 2018 levels (total emissions excl. LULUCF in 2018 compared to net emissions in 2030 – incl. reductions from LULUCF and international credits). The government report on the NDC update, published in October 2021, provides a breakdown of emissions per sector, in addition to details on targeted reductions and removals from LULUCF, CCUS, and overseas (Republic of Korea, 2021b). We convert the domestic and overall targets from SAR to AR4 following the method outlined below. We recalculate the 2020 NDC with this information on the contribution of LULUCF sinks and international credits. This results in a 1 MtCO 2 e increase to 541 MtCO 2 e from our previous calculations that used assumptions on the use of LULUCF and international credits from South Korea’s first NDC (see assumptions in September 2021 assessment). South Korea uses GWP values from the IPCC’s Second Assessment Report (SAR). We convert to AR4 GWP values to ease comparison of countries’ targets and emission trajectories. We use detailed emissions data per gas from the national inventory (SAR), and the SAR/AR4 GWPs to derive a full emissions dataset in AR4. We use the ratio of total emissions in SAR and AR4 in 2017 to convert the BAU to AR4 (the annual difference between SAR and AR4 is around 4.5 MtCO 2 e, with low variance). We apply the reduction stated in the NDC to the total emissions in AR4 GWPs.</t>
-  </si>
-  <si>
-    <t>Singapore’s updated NDC provides an absolute emissions level (60 MtCO 2 e) for 2030 in AR5 GWP (Singapore Government, 2022), which translates to 60.3 MtCO 2 e in AR4 GWP. The conversion between AR5 and AR4 is insignificant because Singapore’s emissions are predominantly CO2 (94% in 2020).</t>
-  </si>
-  <si>
-    <t>2021 NDC As Saudi Arabia has not communicated the business as usual (BAU) scenario for its NDC target, we quantified the target based on a business-as-usual scenario developed by the King Abdullah Petroleum Studies and Research Center (KAPSARC). The lower end of the NDC range reflects the KAPSARC BAU scenario, excluding land use, land use change and forestry (LULUCF). For the upper end of the range, we have assumed that LULUCF measures would contribute 200 MtCO 2 e of the total 278 MtCO 2 e emissions reductions in the NDC. This number is based on the announcements made at the Saudi Green Initiative Forum in 2021 (Kingdom of Saudi Arabia, 2021d). In 2012, the latest year for which national data is available, the land use and forestry sink stood at just 9 MtCO 2 e, with forests covering a mere 0.5% of Saudi Arabia’s total land area in 2020. The Global Warming Potential (GWP) values used for the NDC have not been communicated. We have assumed these to be expressed in either AR4 or SAR and have included both calculations in our range.</t>
-  </si>
-  <si>
-    <t>The NDC target is calculated using LULUCF projections from the Fourth Biennial Report to the UNFCCC and historic emissions from the latest inventory data (Russian Federation, 2019a, 2022b). For the 2030 NDC target, we assume that LULUCF emissions are included in the NDC target. The 2060 net zero target is calculated by assuming that Russia’s LULUCF sink for 2050 (-1200 MtCO 2 e) would remain constant until 2060 (Russian Federation, 2022c). We make this assumption because Russia’s LTS does not have a projection to 2060 which would outline what the level of reductions required to reach net zero emissions.</t>
-  </si>
-  <si>
-    <t>The updated NDC target is based on a cumulative BAU of 3,340.3 MtCO 2 e for the period of 2020-2030; however, the update does not include any details on how this BAU was calculated. An annual sector by sector breakdown was subsequently published by the Climate Change Commission (CCC, 2022). We use this information as the basis of our calculations. GWP values The NDC update and CCC document do not mention the Global Warming Potential values used. The CCC has used GWP from the IPCC’s Fourth Assessment Report (AR4) in past stakeholder consultations and so we assume that that is the basis upon which these NDC calculations have been prepared (Climate Change Commission, 2020). LULUCF The NDC update and CCC document to not explicitly discuss the role of the land sector in the NDC target. The 3,340.3 MtCO 2 e cumulative BAU does include LULUCF, the details for which are provided in the CCC’s document. The NDC update describes the target sectoral coverage as ‘agriculture, wastes, industry, transport, and energy’. We take this statement to mean that efforts in the land sector do not fall within the scope of the Philippines’ target. According to the CCC’s figures, the land use represents a small net sink in 2020 (-24 MtCO 2 e), which will shrink over the course of the decade to become a small source of emissions in 2030 (3.8 MtCO 2 e). Target quantification We apply the target reductions to the 2030 BAU value provided in the CCC’s document to calculate 2030 emissions including LULUCF. As the CAT excludes LULUCF from its analysis and the Philippines will not rely on LULUCF measures to achieve its NDC target, we subtract the LULUCF BAU emissions (3.8 MtCO 2 e) to derive the target value excluding LULUCF.</t>
-  </si>
-  <si>
-    <t>The pledge for 2030 is based on the latest NDC submission document from December 2020 (Gobierno del Peru, 2020). Peru’s submission covers emissions from all sectors and six gases (CO 2 , CH 4 , N 2 O, HFCs, PFCs and SF6). The previous NDC covered only CO 2 , CH 4 and N 2 O, for all sectors. An absolute emissions level, including LULUCF, is provided directly in the NDC for the unconditional and conditional targets. To distinguish emissions reductions that are attributable to the LULUCF sector, the CAT assumes that the share of LULUCF mitigation efforts will be the same as it was in the first NDC submission, for both unconditional and conditional targets. The assessment of Peru’s first NDC considers the mitigation split presented in the roadmap for NDC implementation (Government of Peru, 2018). According to the technical background document of the first NDC, for the unconditional target, 76% of the 20% emission reductions below BAU will be obtained from measures in the LULUCF sector. For the conditional target, 69% of the 30% emission reductions below BAU will be obtained in the LULUCF sector.</t>
-  </si>
-  <si>
-    <t>The NDC and long-term target were calculated from the most recent national inventory submissions.</t>
-  </si>
-  <si>
-    <t>NDC targets Nigeria’s NDC update uses global warming potentials (GWP) values from the IPCC’s fifth assessment report (AR5). CAT uses GWP values from the fourth assessment report (AR4) to ensure comparability across countries. The NDC provides a sector-by-sector breakdown of emissions in 2018 and 2030. We have converted from AR5 to AR4 using the gas-by-gas breakdown for each sector from PRIMAP for the year 2018. We have not converted HFCs as we do not have information on individual gases; however, these gases represent only 1 MtCO 2 e in 2018. The final NDC update provides LULUCF emissions for 2018 and AFOLU emissions for the 2030 BAU. To estimate LULUCF emissions in the 2030 BAU, we applied the same ratio of LULUCF/AFOLU as in 2018. The update provides no information on the extent to which Nigeria intends to rely on reducing land sector emissions to meet its NDC targets. However, the update does estimate the potential of nature-based solutions as about 115 MtCO 2 e. Of these solutions, the top three are identified as agroforestry, improved forest management, and forest restoration, making up about 89 MtCO 2 e of the total potential. We use the 89 MtCO 2 e estimate as the upper bound of our estimate for the contribution of the land sector in meeting Nigeria’s conditional target and a proportional share of the 89 MtCO 2 e estimate for the unconditional target. We assume this estimate is all CO 2 and thus there is no need to convert from AR5 values. For the lower bound, we assume the land sector contributes an equal share as remaining sectors for both targets. The Third National Communication identified significant abatement potential in the land sector, though its estimation of land sector emissions may have been higher than what is now reported in the final NDC update. Overall, there is significant uncertainty in the land sector emissions and our estimates are best guesses based on the available data. Net zero target Nigeria has not provided detailed information about how it intends to reach its net zero target. We have quantified the target for the purposes of our ‘Optimistic’ global temperature estimate. We assume emissions (excluding LULUCF) are reduced 50% below 2018 levels by 2050 in line with Nigeria’s long-term vision and assume the country reaches 0 emissions in 2070 (DCC, 2021). The long-term vision does not specify the role that LULUCF will play in meeting this target, so we assume the 50% target applies equally to LULUCF and non-LULUCF emissions.</t>
-  </si>
-  <si>
     <t>The NDC was quantified based on the latest national inventory submission and information provided in the Fifth Biennial Report (Republic of Kazakhstan, 2023a). Kazakhstan’s unconditional NDC is an emissions reduction target of 15% by 2030 and its conditional NDC is an emissions reduction target of 25% by 2030 (both compared to 1990 emission levels). Since the targets include LULUCF, they were converted to values excluding LULUCF using projections for LULUCF emissions “with current measures” from BR5. As the historical emissions used in the CAT’s previous assessment slightly differ from this year’s historical emissions (see historical emissions section), there is a difference in the calculated targeted emission levels from the NDC between the two analyses. Based on calculations from the CAT’s previous assessment, the unconditional NDC equalled an emissions level of 331 MtCO 2 e in 2030 (excluding LULUCF). Based on the updated historical emissions data, the unconditional NDC (a reduction of 15% compared to 1990 emission levels) equals an emissions level of 318 MtCO 2 e in 2030. The conditional NDC (a 25% reduction compared to 1990 levels) equals an emissions level of 280 MtCO 2 e in 2030 (excluding LULUCF).</t>
   </si>
   <si>
@@ -355,217 +529,25 @@
     <t>2030 target Emissions intensity target Historical GDP data for 1990-2018 is from Reserve Bank of India’s GDP data and 2019-2022 is from IMF (IMF, 2023; India, 2020). We estimate 2030 GDP using IMF GDP growth estimates for 2023-2028 and trend estimates for the rest of the decade (IMF, 2023). We calculate the emissions intensity in 2005 using our historical emissions estimate and RBI GDP data and then apply a 45% reduction. We multiply this emissions intensity level with our 2030 GDP estimate to derive our emissions estimate. As India has a separate target to enhance its carbon sink, we assume that LULUCF has been excluded from its emissions intensity target. It has not provided a historical estimate for LULUCF for 2005 in its GHG inventory. 50% non-fossil installed capacity target The 50% capacity target is based on the current policy pathway (details below) and is calculated by replacing non-fossil power with fossil power. This is necessary because, as discussed above, the NEP2023 includes more than 50% non-fossil capacity. We use the generation factor of the underlying scenario (WEO2023 or NEP2023) to calculate the extent of non-fossil generation and then subtract that from total generation to derive the new level of fossil generation. We use the emissions factor of the underlying scenario to determine the level of emissions and then harmonise the anticipated higher emissions to our current policy scenario.</t>
   </si>
   <si>
-    <t>2030 NDC target Ethiopia provides an estimate of each sector’s mitigation contribution to meeting its unconditional and conditional targets in its final NDC update submitted in July 2021 (Federal Democratic Republic of Ethiopia, 2021). These estimates are given using AR5 GWP values. We exclude the contribution of LULUCF, which we assume to be CO2 only, and then convert all other sector from AR5 to AR4 using the gas-by-gas breakdown for 2010 historic data from PRIMAP (Gütschow, J.; Günther, A.; Jeffery, L.; Gieseke, 2021). The estimate provided in the final NDC update is for the main three gases only (CO 2 , CH 4 and N 2 O). Our historical and current policy projections also include HFCs, however their contribution is very small and we have not taken it into account here.</t>
-  </si>
-  <si>
-    <t>Since our last update in February 2024, the CAT has not changed its methodology for quantifying the EU’s 2030 absolute emissions target. Our current approach aligns with the EEA’s quantification of the target (European Environment Agency, 2023c). Note that the EEA’s NDC quantification includes international aviation. We take the EU’s 1990 emissions including LULUCF in AR5 GWP, excluding indirect CO 2 emissions and emissions from international aviation, and apply a 55% reduction to this value (European Environment Agency, 2024). Then we add the difference between the sink (217 MtCO 2 e) in 1990 and the sink of 225 MtCO 2 e that the EU is allowed to use towards achieving its NDC target as outlined in the European Climate Law. As the CAT excludes LULUCF from absolute target values, we then remove sink of 225 MtCO 2 e and convert the value from AR5 to AR4 using a conversion factor based on emissions in 1990. While the LULUCF Regulation, passed in April 2023, adopts an EU-wide LULUCF sink of 310 MtCO 2 e, the EU has made clear that this additional sink capacity will help it exceed its 55% target and not count towards achieving it (European Parliament, 2022; European Parliament &amp; Council of the European Union, 2023b). As such, we do not exclude this additional LULUCF capacity from our quantification of the target. CO 2 emissions from intra-EU flights, (as well as those departing flights to Switzerland and the United Kingdom) fall within the scope of the NDC as they are covered under the EU ETS. However, we do not consider these emissions to be part of the target quantification itself (as described above), but relevant to assessing compliance with it. As such, intra-EU CO 2 aviation are not included in our NDC target calculations.</t>
-  </si>
-  <si>
-    <t>To estimate current policy emissions levels, we subtract those mitigation measures outlined in Colombia’s NDC that are being implemented from the BAU projections provided in the NDC (excl. LULUCF) and harmonise to the last historic year (Gobierno de Colombia, 2020c) (IDEAM, 2021). We use the information provided in the BUR3 to determine which policies are being implemented and which are still in the planning stage. We use the mitigation potential estimates in the BUR3, in cases where those differ from the NDC update, except for fugitive emissions. There we use the estimated reductions from the regulations (Ministry of Mines and Energy (Colombia), 2022). The range of estimates is due to a range of estimates in the energy sector. We apply the same approach for the planned policies scenario, although we also include any new measures reported on in the BUR3 and not just those outlined in the NDC update. The key changes are in the waste sector, as Colombia has now provided mitigation potential estimates for some of the measures it is planning in that sector. We assume all mitigation potential quantifications in the NDC update and BUR3 use AR5 values, which we convert to AR4. The projections do not include measures planned in the land sector. Some of the mitigation measures proposed in agriculture will also affect land use. For the largest measure, sustainable beef production, we assumed that half of the mitigation potential is attributed to land use and the other half to agriculture.</t>
-  </si>
-  <si>
-    <t>The CAT uses Global Warming Potential (GWP) values from the IPCC's Fourth Assessment Report (AR4) for all its figures and time series.</t>
-  </si>
-  <si>
-    <t>Energy-related CO 2 emissions: For our current policy projections (CPP), we establish a conservative (CPP max) and optimistic (CPP min) range based on different scenarios projecting the development of China’s energy sector based on policies and developments. For the CPP max scenario, we start with the CETO (ERI et al. , 2023) BLS — developed by projecting current trends in China's energy system development and calibrated to align with the 2°C goal under the Paris Agreement. The scenario assumes that China meets a range of policy targets including: 25% non-fossil share of energy mix by 2030 (Xinhua News Agency, 2021) 50% renewable energy capacity by 2025 (SASAC, 2021) 39% non-fossil share and 33% RE share (3300 TWh) in electricity generation for 2025 (NDRC and NEA, 2022) Reduce energy intensity of economy by 13.5% from 2021 to 2025 (Xinhua News Agency, 2021) The CETO BLS reveals no short-term projection, only TPEDs for the year of 2025 and 2030. From a conservative perspective, we cannot rule out the possibility that China's emissions will plateau at a high level over the next 5 years. We therefore force the energy-related CO 2 emissions projection for CPP max to stay at 2023 emission level until 2025, and then decline at a rate consistent with the emissions calculated under the CETO BLS. This scenario describes a least ambitious transition in China’s energy system. The CPP max will miss a range of short-term policy targets including: 20% non-fossil share of energy mix by 2025 (Xinhua News Agency, 2021) over 50% of incremental electricity consumption is met by renewables from 2021-2025 (NDRC, 2022) Reduce CO 2 intensity of economy by 18% from 2021 to 2025 (Xinhua News Agency, 2021) For the CPP min scenario, we start with the IEA WEO 2023 STEPS —which for China we take as a basis for the current policies scenario as stated policies are highly certain to be achieved in the country— and calculate total primary energy demand (TPED) based on the Chinese methodology of applying the average efficiency of coal-fired power plants to calculate TPED from non-fossil sources (renewables and nuclear) (IEA, 2022b). We start with an efficiency of 305.5 grams coal equivalent (gce) per kWh (around 8.9 MJ/kWh for Chinese coal-fired power plants), based on NDRC (2021), which improves over time to 300 gce/kWh in 2025 and 295 gce/kWh in 2030 based on a conservative scenario from IEA (2021b). This is deemed as an optimistic end of the CPP as it is an ambitious interpretation of current policies and achieves China’s NDC targets. Given that China’s NDC targets are now subsumed under domestic policies, and that China’s current policy developments are highly likely to overachieve its targets, we employ this as a minimum bound. In addition to the policies in the max scenario and NDC targets, the CPP min additionally integrates: Reduce CO 2 intensity of economy by 18% from 2021 to 2025 Doubling wind and solar generation from 2021 to 2025 (L. Wang, 2022) 20% non-fossil share of energy mix by 2025 over 50% of incremental electricity consumption is met by renewables from 2021-2025 This scenario describes a different projection of China’s energy system, now freed from the national shift from dual-energy to dual-carbon controls (no longer limiting energy demand growth in guidance to policymakers and developers). This scenario shows a growing energy demand off the back of an accelerated power sector transformation: energy demand is met by an exponential rise in renewable (wind and solar) development and integration. Renewables can both meet the rise of demand and also displace fossil fuels, namely coal consumption which drops steeply to 2030. In both scenarios, supply-side targets such as the production capacity of fossil fuels and installed capacity targets from the 14th FYP on energy are not considered binding as these policies will likely result in excess capacity with uncertain outcomes for emissions. After integrating the aforementioned policies into the energy sector results, we calculate energy sector emissions using IEA WEO STEPS (IEA, 2022a) emission factors for fossil fuels in both scenarios and account for developments in carbon, capture and storage (CCS) after 2030. Industrial-process emissions: We project industrial-process CO 2 emissions by applying growth rates from cement process emissions for the non-OECD region based on the IEA Energy Technology Perspectives 2016 report’s 6DS scenario to our latest 2022 value estimates. CO 2 emissions for industry peak have been revised to peak in 2025, five years earlier than China’s building materials peaking plan (MIIT of China, NDRC, MEE, et al. , 2022). According to the China Cement Association, it is predicted that cement clinker will reach peak consumption and production during the "14th FYP" period (2021-2025), with its carbon emissions declining after peaking at approximately 1.45 billion tons (Zhang, 2021). Other non-CO 2 emissions: For non-CO 2 emissions from energy, fugitive emissions, agriculture, industrial processes, and waste, we apply sector-specific growth rates for non-CO 2 emissions from (Lin et al. , 2019) to our latest 2022 value estimates. This source considers recent policies implemented since 2015, leading to improved certainty on Chinese non-CO 2 emissions in 2030, compared to previous assessments. The reference scenario used assumes that no non-CO 2 mitigation measures will be implemented before 2050, except for efforts made to reach the Montreal Protocol targets for HFCs from HCFC-22 production, which are phased out. We additionally quantify the impacts of the Kigali Amendment on HFCs following the staged phaseout schedule eventually leading to an 80% reduction from baseline levels by 2045.</t>
-  </si>
-  <si>
-    <t>Current policy projections have been harmonised to historical emissions up to 2022. We derive our current policy projections using a few different sources. For the upper range of our current policy projections, we use: Energy CO2 emissions: based on the Asian and Pacific Economic Cooperation (APEC) 2022 Outlook. As this scenario includes all current key policies, no additional calculations were added. These policies include Chile’s Energy Efficiency Law, the retirement of coal plants by 2040, with 65% of coal plant capacity shutting down before 2025, the National Electromobility Strategy, as well as its Hydrogen Strategy (APEC, 2022). Energy non-CO2 emissions: based on non-CO 2 emissions projections from the U.S. Environmental Protection Agency (U.S. Environmental Protection Agency, 2019). Industrial processes, agriculture, and waste emissions: based on Chile’s Fifth Biennial Update Report (BUR5) (Ministerio del Medio Ambiente, 2022). For the lower range of our current policy projections, we use: All sectors, including energy: based on the ‘Transición tardía’ projections from Chile’s Fifth Biennial Report (Ministerio del Medio Ambiente, 2022). For ‘other’ sector emissions in both scenarios, we have taken a 10-year historical trend (2010-2019) from PRIMAP (Gütschow and Pflüger, 2023). We also compared our current policy projections to those from Observatorio de Carbono Neutralidad (across all sectors) harmonised to 2022 emissions, but this currently falls between the lower and upper end of our CPP (Observatorio de Carbono Neutralidad, 2024). Some policy developments such as the update on the Distributed Generation Law (also referred to as the “Net Billing” Law) (Law 20.571), which triples the capacity threshold for installed capacity for projects of self-consumption, are not quantified due to lack of available data.</t>
-  </si>
-  <si>
-    <t>Our current policy projection is based on the ‘Reference Case’, which is updated annually by the Government of Canada, harmonised to the last historical year of 2022 (Environment and Climate Change Canada, 2023b). The projections include policy measures in place as of August 2023. In December 2023, Canada adopted its EV sales mandate regulations. We have adjusted our current policy projection to reflect this change. Beyond that change, we consider the current policy projection to be an accurate picture of the policy landscape as of January 2024. The EV sales mandate adjustment is based on the estimated impact of the measure as outlined in the Regulatory Impact Statement and the difference between the reference and with additional measures scenario (Government of Canada, 2023e). We do not include any contribution from LULUCF or market credits from the Western Climate Initiative in our estimates.</t>
-  </si>
-  <si>
-    <t>For the current policies scenario, we present a range which is calculated as described below. Higher end of the range: Energy and Industry sector CO 2 emissions are taken from the latest projections from the World Energy Outlook (IEA, 2023b). Energy, Industry, Agriculture and Waste sector non-CO 2 emissions are taken from the US EPA “Non-CO 2 GHG emissions” report with data available for the period between 1990 to 2030 (U.S. Environmental Protection Agency, 2019). Other CO 2 emissions from the agriculture sector are calculated based on the historical trend of the sector’s CO 2 emissions (2013-2022). Other CO 2 emissions for the waste sector are calculated by taking the average level of the last four years at 2022 levels. All of the above were harmonised to the last historical data point. Lower end of the range: Total GHG emissions excluding LULUCF taken from the 2023 Global Energy and Climate Outlook (JRC, 2023) and harmonised to the last historical data point.</t>
-  </si>
-  <si>
-    <t>To estimate Bhutan’s emissions under current policies, we subtracted the estimated mitigation potential for policies for which we could find evidence of implementation from our business as usual (BAU) estimates. BAU projections The bottom end of our BAU range is based on the low-growth scenario included in Bhutan’s Third National Communication, harmonized to latest historic year. The GDP growth in this scenario is 4.2% (Royal Government of Bhutan 2020a). BUR1 does not provide any updated BAU estimates. The top end of BAU has been derived using IMF GDP growth rates as a proxy for emissions growth for the period 2023-2027 and assuming emissions follow the 5-year trend for the remainder of the decade (2028-2030) (IMF 2022). Average GDP growth under this method is 5%. The Third National Communication’s high-growth scenario assumed 8%; however, in light of the pandemic, we consider the estimates from the IMF to be more likely. Implemented policies The Third National Communication lists the mitigation potential of various sectoral measures (Royal Government of Bhutan 2020a). Several sector LEDS also provided information on the mitigation potential of various measures. We have considered only those measures for which we could find evidence of implementation and subtracted their impact from our BAU estimates to derive our current policy projections. Sector specific policies considered for the current policy projections are outlined below. These mitigation potential estimates are developed using various BAU trajectories, however we have not adjusted for this fact. Transport We could only find evidence of implementation of the Euro VI emissions standard and some EV related measures (EV charging station and promotion of electric taxis) for transport sector (Kuensel Online 2022c; Ministry of Information and Communication 2021a; Kuensel Online 2022b). The Euro VI emission standard has been implemented since January 2022 (Kuensel Online 2022b). To estimate an annual reduction, we divided the cumulative mitigation potential estimate, provided in transport LEDS for the period 2021-2025, by 4 (as the measures was planned to begin in 2022). We assume that the level of annual reductions will remain constant throughout the rest of the decade. This reduction is included in both policy projections. For the EV measures, we used the electric passenger vehicle mitigation potential estimate provided in the transport LEDS. As it is not clear whether all EV related measures associated with this estimate are being implemented, we only included the mitigation potential from this measure in the lower end of the current policy projection. We assume that the emissions estimates provided in the transport LEDS is for CO 2 only. Agriculture &amp; waste While Bhutan did not achieve its organic farming target, we think it is still advancing policy action in this area (see main policy section for details) and is also advancing on its biogas plans (see discussion in the Waste section of the policy tab ). We have taken mitigation potential of organic farming and biogas production from the LEDS of Food Security to estimate the effect of these policy actions (Ministry of Agriculture and Forests 2021). The LEDS does not specify which GWPs are used to calculate its figures, however we assume it to be SAR values as that is what was used in the NDC update. BUR1 does not provide a gas by gas breakdown of emissions for the agriculture sector, however based on the information provided we estimate that emissions are roughly 80% methane and 20% N 2 O (Royal Government of Bhutan 2022). (This breakdown is also consistent with PRIMAP data for the sector for the pre-pandemic period). We use this split to convert the organic farming estimate to AR4 GWP. For biogas production, only methane emissions will be reduced and GWP is converted to AR4 accordingly. The Human Settlement LEDS includes two measures for the waste sector relating to composting and wastewater management for which activities are being implemented (see the discussion in the Waste sector of our policies tab for more details) (Ministry of Works and Human Settlement 2021). We assume that these measures will reduce methane emissions only (the electricity generation associated with the wastewater management is negligible) and have converted the GWP from SAR to AR4 for that gas only. Energy efficiency Roadmap In 2019, Bhutan adopted Energy Efficiency and Conservation Roadmap for building, appliances and industries (Dept. Renewable Energy 2019). As Bhutan’s hydroelectricity is considered to have zero emissions, the energy savings from the appliance measures will have no impact on Bhutan’s emissions (though may allow it to export more electricity to India, offsetting higher emitting sources of power there). Much of the building sector mitigation potential is from biomass use reduction, which will eventually contribute to Bhutan’s sink capacity, and not fossil emissions. CAT estimates are excluding LULUCF, thus we have only considered industry sector mitigation potential from Energy Efficiency Roadmap. This estimate still includes some biomass, albeit a much smaller amount, and we have not adjusted it. We assume all emission reductions are CO 2 only. The Roadmap includes two estimates, the maximum potential reductions for the sector 0.02 MtCO 2 e over a 15-year period as well as an estimate for the selected measures the government will purse, we use the latter.</t>
-  </si>
-  <si>
-    <t>The policies and action projection are based on government projections from 2023 (DCCEEW, 2023b). The CAT always provides policies and action projections excluding LULUCF. To this end, the CAT subtracted the projections provided for LULUCF. The current policy projections are based on the ‘baseline’ scenario of the 2023 projections, adjusted to include mitigation from the New Vehicle Efficiency Standard (NVES) as this measure has now been implemented. The NVES is part of the government’s 2023 ‘with additional measures’ scenario. The government’s baseline scenario includes "current policies and measures and announced policies where there is sufficient detail to make robust assumptions in the modelling” (DCCEEW, 2023b). New policies introduced in the 2023 baseline scenario that were not included in the 2022 version, include: the Safeguard Mechanism reform, the Safeguard Transformation Stream, elements of the National Electric Vehicle Strategy, notably the Fringe Benefits Tax exemption, the Household Energy Upgrade Fund the original framework of the Capacity Investment Scheme (before its November 2023 modification), and the Renewable Energy Guarantee of Origin. The full list of policies integrated in this scenario is available in the 2023 projections (DCCEEW, 2023b).</t>
-  </si>
-  <si>
-    <t>The CAT uses the projections developed by Gabriel Blanco and Daniela Keesler (UNICEN), in the report “Transición energética en la Argentina: Construyendo alternativas”, and “Escenarios 2050 para la Argentina: sector agrícola, ganadero, forestal y otros usos de la tierra” (Blanco &amp; Keesler, 2022; Keesler &amp; Blanco, 2024) to develop our current policy projections. These studies provide projections for all sectors based on current sectoral plans and actions in place, including the exploitation of non-conventional fossil fuels as of 2022. The UNICEN business-as-usual (BAU) scenario for the power sector has the following assumptions: Accounts for the penetration of renewable energy in the power sector following the current trend Adjusts the emissions curve of the power sector to capture the current development of nuclear energy Accounts for barriers in the implementation of energy efficiency measures presented in the sectoral plans (buildings, industry, and transport) Takes into account the significant development plan for the exploration and exploitation of fossil fuels (fracking and off-shore oil and gas production) The document does not mention the carbon tax We apply the growth rates from the UNICEN BAU scenario for the energy, industry, and waste sectors to the 2022 historical data points for those sectors. The agriculture sector projections have the following assumptions: Livestock: An increase in the number of heads of cattle for beef, reaching almost 62 million heads by 2050, representing a 24% increase compared to the current stock, driven by the combined increase in domestic consumption and exports. A 10% increase in the efficiency of beef production by 2050 compared to the current 216 kg/head slaughtered. A 28% growth in beef exports compared to 2020 values, following the trend of international beef trade projected by OECD/FAO (2021). Although global per capita consumption is expected to decline by 5% by 2030, population growth will result in a 0.7% increase in global beef demand in the same period (OECD, 2021) . Agriculture: A 14% increase in the use of synthetic nitrogen fertilizers by 2050 compared to the current 16.6 kg fertilizer/ton of grain, considering usage trends from the last 30 years (1990-2020). No change in the management of harvest residues compared to current practices. A 90% reduction in the burning of forests and grasslands compared to the 1,000,000 ha that are currently burned.</t>
-  </si>
-  <si>
-    <t>The policies and actions projections are based on the scenario presented on the Ministry for the Environment website in March 2022 and harmonised to historical emissions of 2021 (Ministry for the Environment 2022f). The projections include “existing policies including a carbon price of $35 per tonne of CO 2 e in the Emissions Trading Scheme”. The government projections from the Fourth Biennial Report include the effects of key quantifiable policies and measures implemented prior to 2019. Specifically, it includes the New Zealand Emissions Trading Scheme; Efficient Products Programme, Insulation and heating grants programmes; Productive and Low Emissions Business Programme; Kigali Amendment to the Montreal Protocol; National Policy Statement for Freshwater Management; Indirect effects of combined forestry land-use policies on agricultural land use; Afforestation Grant Scheme; Permanent Forest Sink Initiative; Sustainable Land Management Hill Country Erosion Programme; Erosion Control Funding Programme; One Billion Trees Programme; Crown Forestry Joint Ventures; National Environmental Standard for Air Quality (landfill methane); Waste Disposal Levy; Indirect effects of combined agricultural (forestry and land use) policies on waste; and the Tokelau Renewable Energy Project. The policies and actions projections do not include the NZ ETS reforms of June 2020.</t>
-  </si>
-  <si>
-    <t>The current policy scenario is based on projections from Nepal’s Long-term Strategy 2021 for CO 2 emissions from the energy, industry, agriculture and waste sectors (Government of Nepal, 2021); and EPA projections for non-CO 2 emissions (EPA, 2019). The LTS sketches emissions value in the WEM (With Existing Measures) and the WAM (With Additional Measures) scenarios. We based the calculations only on the with WEM scenario. We used interpolation to complete the series from 2019 to 2050. Then, the WEM scenario was harmonised to historical data from PRIMAP 2022 is used for current policy scenario.</t>
-  </si>
-  <si>
-    <t>Current policy projections are based on BAU emissions projections and the mitigation potential provided in the Third Biennial Update Report (Kingdom of Morocco, 2022b) and the Fourth National Communication (Kingdom of Morocco, 2022a). The BAU provided by Morocco only considers mitigation measures in place before 2010, which is used as the base year. In the two documents mentioned above, Morocco has put forward a detailed list of mitigation measures it will implement to reach its 2030 target, separated into conditional and unconditional measures (i.e., measures to be achieved with and without international financial support). There is little information on their state of implementation. However, despite initial delays, Morocco is ramping up efforts to meet its ambitious renewable energy target. As such, we believe Morocco is still on track to meet its 2030 targets. For the lower end of the current policy scenario, we start by determining the value for 2030, using the 2030 BAU minus the unconditional and conditional mitigation potentials. We then interpolate between 2021-2030, assuming Morocco could still catch up to reach the 2030 mitigation level (Morocco is already delayed on their mitigation trajectory in 2020-2021). For the upper end of the current policy scenario, we use the same approach but deduct the unconditional mitigation potential only from the BAU trajectory. There are still uncertainties regarding the extent of climate finance Morocco will receive, and therefore the mitigation measures they will be able to put in place. We also excluded the LULUCF related measures planned the in the agricultural in the current policies projection. It should be noted that plans to ramp up gas and start offshore extraction are not taken into account in the policy projections. Additionally, it is unclear what impact lifetime extension of existing coal fired power plants will have on the CPP range, as there is no information on what is exactly taken into account in the BAU provided by Morocco.</t>
-  </si>
-  <si>
-    <t>Upper range (CPP Max.) The upper bound of our current policy projection is based on a combination of data sources (IEA, 2019; U.S. Environmental Protection Agency, 2019). Energy-related CO 2 emissions are based on growth rates from the Stated Policies Scenario of the IEA Africa Energy Outlook 2019. This scenario assumes a partial implementation of Kenya’s National Electrification Strategy. We assumed other, non-energy CO 2 emissions would grow based on the same growth rate since most non-energy CO 2 emissions come from the industry sector. Industry, agriculture, waste, and other non-CO 2 emissions are based on non-CO 2 emissions projections from the US EPA. We have adjusted these projections to take into consideration the impact of the pandemic (see below) and have harmonised the series to the last historical year. Lower range (CPP Min.) In January 2017, the Ministry of Environment and Forestry released an assessment report containing an updated emissions baseline to inform how sectors could contribute to meeting Kenya’s NDC (Ministry of Environment and Natural Resources, 2017a). The objective of the assessment was to examine expected contributions to emissions reductions from each sector, explore sectoral mitigation actions to meet the NDC target, and examine new information that could impact the achievement of the NDC targets. The update was based on new historical activity data out to 2015 for each emission source as well as new information on drivers of future emissions (2016- 2030), such as GDP growth forecasts by sector, new projections on electricity generation projects and new forecasts for urbanisation. For the lower end of the range, we have taken the updated emissions baseline for all sectors except electricity generation, transport and agriculture (Ministry of Environment and Natural Resources, 2017a). The data for electricity generation is taken from the 2017-2037 Least Cost Power Development Plan (LCPDP), for the transport sector, the data is taken from the 2019/2020 Transport Sector Climate Change Annual Report, which indicates a list of mitigation actions the sector plans to implement that should allow it to achieve its sectoral NDC target, and for the agriculture sector, the data is taken from the Kenyan Climate Smart Agriculture Strategy 2017-2026, which includes an indicative 2026 emissions level based on proposed mitigation actions (Government of Kenya, 2019; Ministry of Agriculture, 2018; Republic of Kenya, 2018). We did not quantify the mitigation actions outlined in National Climate Change Action Plan (NCCAP) for the electricity generation, energy demand, industry, and waste sectors due to uncertainty about their current implementation status. We have adjusted these projections to take into consideration the impact of the pandemic (see below). This scenario is also harmonised to the last historical year.</t>
-  </si>
-  <si>
-    <t>Power CO 2 emissions The emission estimates from the 8th Power Development Plan (PDP8) are based on coal and gas emissions factors derived from the IEA’s Emissions Factors for Viet Nam, and the plan’s power sector emissions targets (204-254 MtCO 2 e in 2030). The yearly coal and gas generation is interpolated to 2030 by taking into account the combined domestic gas and LNG-fired generation values of 157 TWh by 2030 mentioned in the plan, aligning with the overall emissions targets for 2030 (IEA, 2021b; Viet Nam Government, 2023a). The percentage of coal generation within the 2030 power mix was determined based on the anticipated 2030 generation value of 567 TWh included in the PDP8 (Viet Nam Government, 2023a). For post-2030, sectoral current policy projections were interpolated with the 2050 power sector emissions range included in the PDP8. The upper bound of the current policies power sector emissions projections coincides with the upper bound of the range indicated in the PDP8. The lower bound of the current policy projections was calculated using the average of the growth rate of power sector emissions from both ends of the range included in the PDP8 (Viet Nam Government, 2023a). Non power energy CO 2 emissions Non-power energy CO 2 emissions are assumed to follow the same growth rate as in the APEC Energy Demand &amp; Supply Outlook 2022 (APEC, 2022). The current policy projections takes into account the energy savings from the Viet Nam National Energy Efficiency Program 3, but do not include the World Bank funded Viet Nam Scaling Up Energy Efficiency Project which would further reduce energy demand (APEC, 2022). Non-CO 2 emissions The emissions of energy related non-CO 2 greenhouse gases, agriculture and the waste sector are based on non-CO 2 emissions projection of US-EPA (U.S. Environmental Protection Agency, 2019). For the lower end of industrial emissions, we assume that the last historical year (2021) growth rate will continue, and for the upper end we assume average growth rate of the last 5 years (2017-2021) will continue.</t>
-  </si>
-  <si>
-    <t>NOTE: Current policy projections for the UK have not been updated since the September 2023 CAT profile. A new current policy projection will be quantified in 2025. To estimate current policy projections, we use the 2023 progress report from the UK’s Climate Change Committee (CCC, 2023a). In this report, the CCC estimates the impact of current UK policies on emissions. Policies are ranked as ‘credible’, displaying ‘some risks’ to delivery, displaying ‘significant risks’ to delivery, or ‘insufficient’. To calculate the upper range of the current policies trajectory, we take the impact of all credible policies. These are policies where there are proven delivery mechanisms, a credible combination of public/private financing and clear timelines in place. The resulting emissions savings come predominantly from the zero-emissions vehicle mandate to drive EV sales and the renewable electricity supply policies in the power sector. To estimate the lower end of the current policy trajectory, we additionally include the impact of all policies ranked as displaying ‘some risks’. These include policies around home decarbonisation, industrial CCS, hydrogen, and also some policies in the transport and electricity supply sectors. The CCC estimates that in 2030, there are credible policies to cut emissions by 42 MtCO 2 e, relative to the baseline. Policies with some risks to delivery could cut emissions by a further 51 MtCO 2 e in 2030. This gives an emissions level in 2030 (converting to AR4 GWPs and removing international aviation and shipping and LULUCF emissions, all of which are included in the CCC’s estimates) of 340–394 MtCO 2 e. The conversion from AR5 to AR4 GWPs is done in the same way as when calculating the UK’s emissions targets, by calculating the ratio between AR5 and AR4 GWPs for 2021. Future LULUCF and international bunker emissions are taken from the UK’s Net Zero Strategy (UK Government, 2021b). Note: Our data download includes projections until 2035; however, our graphics display the data until 2030 only.</t>
-  </si>
-  <si>
-    <t>The current policy projections were generated in five steps: First, we estimate the total emissions projections under current policies as the aggregation of the energy, industry, agriculture, and waste sectors: GHG emissions in the energy sector: Energy-related CO 2 emissions projections: short-term projections (2023–2025) were taken from the US Energy Information Agency’s (EIA) Short-term Outlook from August 2024 (U.S. Energy Information Administration, 2024e). These projections are harmonised with long-term projections (2024–2035) taken from a model comparison study by the US Environmental Protection Agency (EPA) (U.S. Environmental Protection Agency, 2023d) . The modelling comparison study includes the implementation of the Inflation Reduction Act (IRA). It represents the upper range of emissions projections. Non-CO 2 emissions in the energy sector from EPA’s U.S. State-level Non-CO₂ Greenhouse Gas Mitigation Potential: 2025–2050 (U.S. Environmental Protection Agency, 2022b). All GHGs emissions in the energy sector result from the sum of the CO 2 and non-CO 2 estimates as described above. The resulting projections are harmonised to the latest historical year using growth rates. GHG emissions from industrial processes: the projection of GHG emissions in industrial processes was calculated by type of industry and then aggregated. GHG emissions in the mineral, chemical, and metal industries were projected by applying projected production growth of each industry in terms of value of shipments taken from EIA’s Annual Energy Outlook 2023 (U.S. Energy Information Administration, 2023f), to their respective GHG emissions in the base year. We use two scenarios from the Annual Energy Outlook—the reference scenario and the low economic growth scenario—to create a range of emissions projections. To project the rest of industry processes, we apply the growth rates from industrial process F-gas emissions from the EPA’s U.S. State-level Non-CO₂ Greenhouse Gas Mitigation Potential: 2025–2050, which includes policies that were implemented until early 2015 (U.S. Environmental Protection Agency, 2022b). GHG emissions in the agriculture and waste sectors follow the growth rates of the respective sector in the EPA’s U.S. State-level Non-CO₂ Greenhouse Gas Mitigation Potential: 2025–2050 (U.S. Environmental Protection Agency, 2022b). We did not consider alternative economic growth scenarios for GHG emissions in the agriculture and waste sectors. Second, each of the above emissions categories was harmonised to historical data for each sector by applying the estimated annual percentage change from the projected dataset to the base year. The projections for all sectors were then aggregated to obtain total GHG emissions, excluding LULUCF. These projections are the baseline scenarios. Third, the quantification of the Inflation Reduction Act (IRA) in non-CO 2 emissions and in non-energy sectors: Non-CO 2 emissions: The IRA has the potential to reduce non-CO 2 GHG emissions. The quantification of such impact is based on the assessment of this policy on total GHG emissions (Zero Lab, 2024). We use the mitigation potential range of the current policy scenario (including the IRA) compared to the frozen policy scenario (not including the IRA) on non-CO 2 emissions reported for years 2030 and 2035 and made a linear interpolation for the years in between and zero for 2022. The mitigation potential is subtracted from the baseline scenario emissions, whereby the mitigation effect is 90–100 MtCO 2 e in 2030 and 80–90 MtCO 2 e in 2035. Non-energy CO 2 emissions: The IRA also has the potential to reduce CO 2 emissions in non-energy sectors, mainly in Industry Processes and Product Use (IPPU), which are not quantified in the baseline scenarios. We assume that such emissions reductions will be achieved mainly through Carbon Capture, Utilisation, and Storage (CCUS). The quantification of such impact is based on the assessment of IRA on mitigation potential of CCUS in the study conducted by King, Gaffney, et al. (2024). We assume a range of mitigation potential between zero, to capture the uncertainty around the deployment of CCUS, and the mitigation potential reported in 2030 and 2035, assuming a start of emissions reduction in 2025. We carried out a linear interpolation for the years in between. The resulting mitigation potential for each year is subtracted from the baseline scenarios emissions, resulting in a reduction of the emissions level of up to 77 MtCO 2 e in 2030 and 85 MtCO 2 e in 2035. Fourth, the quantification of the AIM Act, which was not part of the policies considered in the baseline scenario taken from Global Non-CO 2 Greenhouse Gas Emission Projections &amp; Mitigation Potential: Phase down of the production and consumption of hydrofluorocarbons (HFCs) by 85% over the next 15 years. The annual mitigation potential is calculated as a range of between two mitigation potential trajectories for HFC emissions: The first mitigation potential trajectory is based on the HFC emissions projection reported in the 5th Biennial Report in 2020, 2030, 2035, and 2040 (U.S. Department of State, 2022), which considers the implementation of the AIM Act, although does not achieve the proposed target. After harmonising the projections with the latest historical year, we interpolated the years in between and calculated the annual mitigation potential against the baseline scenario. The second is based directly on the annual HFCs consumption caps defined in the AIM Act (U.S. Environmental Protection Agency, 2021a). We then calculated the mitigation potential against the baseline scenario. The resulting mitigation potential range for each year is subtracted from the baseline scenario emissions, resulting in a reduced emission levels of 50–150 MtCO 2 e in 2030 and 100–200 MtCO 2 e in 2035. Fifth, economy wide emission projections from a 2024 study by the Rhodium Group (King, Kolus, et al., 2024) were included in the analysis as well, after deducting LULUCF sinks based on the 5th BUR. The study includes additional policies, including the impact of the EPA's emissions standards for vehicles beginning in model year 2027 (U.S. Environmental Protection Agency, 2024i) and the EPA's pollution standards for fossil fuel power plants (U.S. Environmental Protection Agency, 2024m). This study represents the lower end of the current policy projections range.</t>
-  </si>
-  <si>
-    <t>Lower bound The UAE’s LTS includes current policy projections which are used as a baseline for the net zero scenario (Government of the UAE, 2024b). The current policy projections include all mitigation measures in force up to 2024 in all sectors of the economy, while the net zero scenario includes planned measures and their estimated contribution towards the target. The CAT uses the UAE’s LTS current policy scenario for the lower bound of its own current policy projections. The CAT harmonizes the UAE’s LTS current policy scenarios to the latest available historical GHG emissions data (from 2022) using the growth rates of the original scenario for the period 2022-2035. The UAE only provided data for its current policies for the years 2019, 2030, 2040 and 2050. To create a pathway, the CAT linearly interpolates the values between these years. Because the original projections include emissions and sinks from LULUCF, the CAT assumes that LULUCF emissions remain at 2019 levels (latest historical data available) under current policies. The UAE’s 2019 LULUCF emissions are -1 MtCO 2 e. Upper bound For the upper bound of our current policy projections, we estimate the impacts of the 2050 Energy Strategy on emissions with a range to reflect for uncertainties around the efficiency target and total energy generation. We use IRENA’s Renewable Energy Prospects report as our basis for energy-related CO 2 emissions (Masdar Institute/IRENA, 2015) and calculate the difference in emissions that would result from the 2050 Energy Strategy. The upper end of our range reflects the installed capacity targets for 2030 in the 2050 Energy Strategy, without calculating the impacts of energy efficiency measures. For this projection, we estimate total power generation by technology using capacity factors estimated based on the IRENA REMAP BAU scenario (Masdar Institute/IRENA, 2015). In summary, the CPP upper end of the range for the UAE’s energy-related CO 2 emissions is based on assumptions both about which targets will be implemented, as well as the role of fossil gas in the development of the power system. For CO 2 process emissions (from industry), we continue a linear trend based on total industrial process emissions from the years 2011–2022 until 2030 (Masdar Institute/IRENA, 2015). For non-CO 2 emissions, we apply the growth rate from the Global Anthropogenic Non-CO 2 Greenhouse Gas Emissions: 1990–2030 to PRIMAP historical data (US EPA, 2019). We use the following data sources in our estimates: Energy-related CO 2 from fuel combustion: “Renewable Energy Prospects – United Arab Emirates” (Masdar Institute/IRENA, 2015) CO 2 process emissions (from industry): Own assumption to continue linear trend based on total industrial process emissions from the years 2011–2022 until 2030. Non-CO 2 emissions: Global Anthropogenic Non-CO 2 Greenhouse Gas Emissions: 1990–2030 (US EPA, 2019) Historical installed capacity data: IRENA capacity and generation statistics 2023 (IRENASTAT, 2023) Historical electricity generation data: IEA World Energy Balances 2022 (IEA, 2022) Historical emissions factors: IEA Emissions Factors 2021 (IEA, 2021a).</t>
-  </si>
-  <si>
-    <t>In the previous update from 2023, we used a method for quantifying the current policy projections that relied heavily on the ‘With Measures’ (WM) scenario developed by Türkiye for its 2015 INDC with a historic base year of 2012. Türkiye has not updated its WM scenario since then and by its own admission the WM scenario does not reflect the results of its current policies and measures (Republic of Türkiye Ministry of Environment Urbanisation and Climate Change, 2023). It is working on updated the WM scenario and is expected to share the updated scenario in the Ninth National Communication. We have therefore chosen to no longer use the WM scenario and construct our current policy projections based on the best available sources. To construct the current policy projections, we use a sectoral and gas-by-gas approach. We start by applying the historical ratio from 2021 of CO 2 , CH 4 , N 2 0, and F-gases in the Energy, Industry, Agriculture, and Waste sectors to the estimated GHG emissions for each sector in 2022 (Republic of Türkiye Ministry of Energy and Natural Resources, 2023). For the upper bound of our current policies projections, we apply the Baseline Scenario’s growth rate for total CO 2 from the Istanbul Policy Centre’s report “Turkey’s Decarbonization Pathway: Net Zero in 2050” (Şahin et al., 2021). We apply growth rates for non-CO 2 emissions from the US Environmental Protection Agency’s (US EPA) projections to each non-CO2 gas in energy and industry (U.S. Environmental Protection Agency, 2019). For the agriculture and waste sectors, we apply US EPA’s total non-CO 2 growth rate for the respective agriculture and waste sectors to all gases in those sectors in 2022. While the US EPA estimates are for non-CO 2 emissions only, the amount of CO 2 emitted by the agriculture and waste sectors is so small as to be non-existent, so we use the growth rates for the sector as a whole. For the lower bound of our current policies projections, we use the World Energy Outlook (WEO) (IEA, 2023). We subtract the EU’s total energy CO 2 in the State Policies Scenario (STEPS) from Europe’s STEPS total energy CO 2 to get other-Europe total energy CO 2 which includes other countries than just Türkiye. Then we apply the growth rate of STEPS other-Europe energy CO 2 to historical CO 2 from energy in 2022. For industry CO 2 , we apply the growth rate STEPS other-Europe industry CO 2 to historical CO 2 from industry in 2022. For non-CO 2 from energy and industry as well as all gases in agriculture and waste, we follow the same method as indicated above. Finally, we sum all the individual gas projections and sectoral projections together to have an upper and lower bound for all GHG emissions under current policy projections.</t>
-  </si>
-  <si>
-    <t>The lower bound of our current policy projection assumes that GHG emissions will grow according to the 5-year trend extension (2015-2019). We have not accounted for any potential policy measures The Gambia has proposed due to a lack of data regarding the status of their implementation and thus were not able to create a policy projection based on the updated business as usual (BAU) projection provided in The Gambia’s 2021 NDC (Republic of The Gambia, 2021a). The upper bound of our current policy projection uses the growth rates from the IEA’s Africa Energy Outlook 2019 Stated Policies Scenario for CO 2 emissions and the US EPA’s growth rates for non-CO 2 emissions (IEA, 2019; U.S. Environmental Protection Agency, 2019). The AEO SPS covers the entire continent. We were not able to find any estimates for The Gambia specifically and thus used the AEO SPS as a proxy.</t>
-  </si>
-  <si>
-    <t>For our current policy projections, we use a study be the Zurich University of Applied Sciences (ZHAW), which is the only scenario analysis identified that quantifies the impacts of the new RE Act of June 2024 (Rohrer et al., 2024). The study builds on the modelled Energy perspectives 2050+ (scenario WWB) (Bundesamt für Energie, 2022), which are also used for the “with existing measures” scenario submitted to the UNFCCC in Switzerland’s 5th Biennial Update Report (Swiss Federal Office for the Environment, 2022). The projection is then harmonised to actual 2022 emissions from the most recent national inventory (Bundesamt für Umwelt BAFU, 2024b).</t>
-  </si>
-  <si>
-    <t>Current policy projections are calculated based on emissions reductions below the BAU scenario from the 8th Edition of APEC Energy Demand and Supply Outlook (APERC, 2019) and the US EPA non-CO 2 emission projections until 2030 (US EPA, 2019). Non-energy related CO 2 emissions are assumed to remain constant at the 2021 level. The APEC BAU is not used as a current policy scenario as its forecast for renewables share in power generation (7.6%) is comparable to the 2020 share of renewables (6%) (IEA, 2021c) and much lower than other studies, which range from 14% to 20% (J. H. Hong et al., 2019; Keramidas et al., 2018; Wood Mackenzie, 2019). With no change to the five-year trend in renewables share, this would reach around 15% in 2030. We therefore consider the 10 th Electricity Plan for the upper bound of current policies projections – 21.6% of RE in 2030. We derive the emissions projection from the APEC BAU by assuming additional generation from renewables replaces coal-fired power generation. We consider the targeted share under the revised Renewable Portfolio Standard (RPS) of 25% power generation from RE by 2030 (MOTIE, 2020) for the lower bound current policies projections. The average electricity CO 2 emission factors for each fossil fuel type in South Korea were assumed to be similar to the values forecast for Japan in the IEA’s World Energy Outlook 2020 (IEA, 2020).</t>
-  </si>
-  <si>
-    <t>Lower bound projection The lower bound of the current policy projections is based on a combination of the IEA World Energy Outlook (WEO) 2020 for CO 2 emissions from fuel combustion (IEA, 2020) and non-CO 2 emissions from the US EPA (2019). For other CO 2 emissions (fugitive CO 2 emissions and process emissions), we used historical data from the National GHG Inventory Report extended to 2021 with growth rates from PRIMAP and assume a direct correlation to emissions from coal-fired power plants afterwards (DFFE, 2023; Gütschow &amp; Pflüger, 2023). The WEO2020 Stated Policies Scenario for CO 2 emissions from fuel combustion assumes full implementation of the 2019 Integrated Resource Plan with COVID-19 delay. For this reason, we do not further need to adjust installed energy capacities by 2030 as in past CAT assessments for South Africa using the Current Policies Scenario available in previous WEO reports. For non-CO 2 emissions, we applied the growth rate from US EPA (2019) projections until 2030 to historical emissions. For CO 2 process emissions and fugitive CO 2 emissions, historical emissions data from PRIMAP (Gütschow &amp; Pflüger, 2023) was used to check the correlation to emissions from coal-fired power plants. For projections, CAT assumes that this correlation will continue, meaning that we assume CO 2 process emissions to develop with the same trend as the CO 2 emissions from coal fired power plants in our current policy projections. Upper bound projection The upper bound of the current policy projections is based on the ‘existing policies scenario with reference growth rate’ by the University of Cape Town’s technical emissions scenario analysis to inform the 2021 NDC update (Marquard et al., 2021). The ‘existing policy scenario’ assumes the full implementation of the IRP2019, a new world-scale crude refinery coming online in 2028 in line with government procurements, other crude refining capacity and coal-to-liquids capacity available until 2050, and the forecasted modernisations introduced by the 1st and 2nd National Waste Management Strategies. We harmonise the scenario’s growth rates for total emissions excluding land use emissions to the latest historical datapoint of 2021. This harmonisation process results in significantly higher final estimates for 2030 than assumed by the University of Cape Town’s ‘existing policies scenario with reference growth rate’ (502MtCO 2 e compared to 479 MtCO 2 e excluding LULUCF). Note that the University uses GWP values from the IPCC’s Second Assessment Report (SAR), while the CAT uses GWP values from the Fourth Assessment Report (AR4).</t>
-  </si>
-  <si>
-    <t>Our current policy projection (CPP) for energy CO 2 is constructed using projections from the APEC Energy Demand and Supply Outlook for sectoral CO 2 emissions, energy balance, and energy mix (APEC, 2022). We have adjusted these projections to take into account the most recent developments announced by Singapore’s Energy Market Authority, as follows: Total electricity demand was revised upwards consistent with government base case projections outlined in (Energy Market Authority, 2023c). This is 22% higher than APEC projections for electricity demand in 2030. Electricity imports were increased to align with the government's targets. The emissions associated with this electricity was excluded from Singapore's domestic emissions, as these will occur outside of Singapore’s borders. Minimum and maximum trajectories for imports were constructed consistent with the government’s projections, which is the difference between our CPP min and CPP max scenarios (Energy Market Authority, 2023a). The gap between the increased electricity demand and the increases in solar and electricity imports was assumed to be met by gas-fired generation, consistent with the government’s plans to increase LNG imports and add gas-fired generation capacity (Energy Market Authority, 2022b, 2023d). The historic grid emissions factor (GEF) was applied to this generation. We derive our current policy projections for non-energy CO 2 and non-CO 2 emissions by applying growth rates to the latest historical data. For non-energy CO 2 , we have assumed GDP growth as a proxy for growth in emissions by applying projected IMF GDP growth rates (IMF, 2023). For non-CO 2 emissions, we have applied the growth rate for Singapore’s non-CO 2 emissions from the US EPA Global Non-CO 2 Greenhouse Gas Emission Projections &amp; Mitigation Potential, harmonised to the latest historical year (U.S. Environmental Protection Agency, 2019).</t>
-  </si>
-  <si>
-    <t>We use a business-as-usual (BAU) emissions scenario developed by the King Abdullah Petroleum Studies and Research Center (KAPSARC) for the upper end of our current policy projections (KAPSARC, 2021), adjusted to our latest historical data. Given the slow progress on renewable energy deployment and the lack substantial mitigation policies in other sectors, we estimate the BAU scenario to reflect current developments. The BAU scenario assumes 11 TWh of electricity generated with solar PV by 2030, which we estimate would translate to around 5–6 GW of solar PV capacity by 2030. Given that only 0.4 GW of renewable energy capacity had been installed by end of 2022 (IRENA, 2023), and that only few projects have been tendered since then, 5–6 GW of renewable capacity by 2030 is broadly in line with the current pace of deployment. For the lower end of our current policy scenario, we take the above BAU scenario but replaced it with CO 2 emissions provided in KAPSARC’s latest baseline forecasts of carbon dioxide emissions (KAPSARC, 2023a). We then adjusted the results to our latest historical data.</t>
-  </si>
-  <si>
-    <t>The lower bound of our current policy projection until 2030 is primarily based on the World Energy Outlook (WEO) 2021 Stated Policy scenario projections for CO 2 from energy related activities (IEA, 2021b). For non-CO 2 emissions, we use the US EPA’s growth rates for non-CO 2 emissions and extrapolate the historical trend (U.S. Environmental Protection Agency, 2019). We harmonised these projections to our 2021 estimate. The upper bound of our current policy projection until 2030 is primarily based on the APEC Outlook for Russia for CO 2 emissions (APEC, 2022). While CO 2 from industrial processes is included in WEO 2021 projections, we assume that it is not included in APEC projections because the ratio of CO 2 emissions from industry to total CO 2 emissions is lower in APEC than WEO projections (APEC, 2022; IEA, 2021b). Therefore, we adjusted the APEC scenario by applying the ratio of WEO’s industry emissions to total CO 2 e to calculate additional CO 2 emissions from industrial processes for APEC industry CO 2 emissions. For non-CO 2 emissions, we use the US EPA’s growth rates for non-CO 2 emissions and extrapolate the historical trend (U.S. Environmental Protection Agency, 2019). We harmonised these projections to our 2021 estimate. Previously, we quantified a flaring gas limit and a renewable electricity generation target. We have excluded these targets from the scenario because current policies do not indicate that these targets will be met. Both the WEO and APEC scenarios take into consideration the impact of the COVID-19 pandemic. The CAT has not quantitatively assessed the long-term effect of Russia’s illegal invasion of Ukraine and its numerous implications, for example with regards to a decrease in fossil fuel exports or potential economic decline in Russia.</t>
-  </si>
-  <si>
-    <t>We derive our current policies projection from two principle sources: the 8th edition of the APEC Energy Demand and Supply Outlook and the new Philippines Energy Plan 2020-2040. The lower end of the range is based on the APEC reference scenario (APEC, 2022). This scenario is based on recent trends and current policies, however it is guided by an older Philippines Energy Plan 2018-2040 as well as the AmBisyon Natin 2040 and the “Build Build Build” Program with energy supply and demand continuing to increase. The APEC reference scenario follows recent trends in energy efficiency and renewable energy. APEC scenarios only include energy related CO 2 data. To calculate remaining GHG emissions, the CAT has combined the APEC scenario with non-CO 2 energy data, estimated using a 5-year historical trend, and using the growth rates for non-CO 2 data from the US EPA (2019). All projections data was harmonised with the latest historical year. The upper end of the range is based on the Philippines Energy Plan (2020-2040) reference scenario (Department of Energy, 2022). The PEP 2020-2040 provides emissions for the energy sector, which we add to non-energy CO 2 and non-CO 2 emissions using the same approach as the lower end (described above). The PEP 2020-2040 reference scenario includes the current biofuels blending (2% biodiesel, 10% bioethanol) until 2040, 5% electric vehicles uptake by 2040 and current energy efficiency and conservation efforts maintained to 2040. Both the PEP and APEC scenarios account for the impact of COVID-19. The current policies and action emissions range accounts for the coal moratorium under the PEP 2020-2040 reference scenario. However, there is still an additional 2.6 GW of coal capacity of additional coal capacity added by 2025 in this scenario. Given the uncertainty of the global energy crisis, the CAT accounts for some uncertainty over the moratorium dates. The APEC reference scenario does not assume coal capacity is capped, and therefore does not anticipate the coal moratorium is maintained. APEC also produce a Carbon Neutral scenario, which does account for the coal moratorium, but the impacts are only seen by 2030. The CAT uses the APEC reference scenario to 2030 and takes the same assumption as the Carbon Neutral scenario that additional capacity may continue to 2030. Other moratoriums have been lifted in the past. The Department of Energy had a moratorium in oil and gas activities in the West Philippines sea, which was lifted for energy security reasons (APEC, 2022). The PEP 2020-2040 includes a clean energy scenario (CES) based on clean energy targets, so this is not considered under the CAT current policy and actions trajectory or planned policies. However, when applying the same calculations as applied to the PEP 2020-2040 reference scenario as mentioned above, the CES scenario falls within the CAT current policies and action range. For reference, the clean energy scenario assumes a 35% and 50% share of renewable energy in power generation in 2030 and 2040 respectively. It includes a 5% blending for biodiesel from 2022, a 1.5% increase in fossil gas consumption in transport and industry, a 10% penetration of EVs by 2040, 5% energy savings in oil products and electricity by 2040 and 12% reduction in GHG emissions for the NDC.</t>
-  </si>
-  <si>
-    <t>The current policy projections for total energy-related CO 2 emissions is based on the BAU scenario from the 7th edition of the APEC Energy Demand and Supply Outlook (APEC, 2019). APEC’s BAU scenario assumes that electricity generation will grow by 69% until 2050 due to rapid economic growth, while electricity capacity will increase by 48%. Peru’s generation mix remains dominated by hydropower and gas-fired generation, with wind and solar power together accounting for 6.7% in 2050. This scenario assumes that Peru becomes a net natural gas importer around 2039 as demand rises rapidly and domestic natural gas production declines with the depletion of the Camisea field. The APEC scenarios use historical energy and CO 2 data derived from IEA Energy Balances of non-OECD countries and CO 2 emissions from fuel combustion. The harmonisation of APEC energy-related CO 2 with historical data from PRIMAP-hist results in about a 6 MtCO 2 e decrease in emissions projections for 2030. Non-CO 2 emissions were taken directly from the US EPA “Non-CO 2 GHG emissions” report with data available for the period between 1990 and 2030 (U.S. Environmental Protection Agency, 2019). Other CO 2 emissions were estimated based on their share in the last inventory with data until 2016 (INGEI, 2021) and their expected contribution under BAU in 2030 (Ministry of Environment of Peru, 2020a). Data was interpolated linearly in between years and harmonised with historical data.</t>
-  </si>
-  <si>
-    <t>We use the latest emissions projections under current policies submitted by Norway to the European Environment Agency (EEA) in 2021 harmonised to actual 2020 emissions from Norway’s official GHG emissions inventory submitted to the UNFCCC. The 2021 EEA projections under current policies include the impact of the COVID-19 pandemic.</t>
-  </si>
-  <si>
-    <t>We derive our current policy projections from a combination of the Stated Policies Scenario from IEA’s Africa Energy Outlook 2019 and the Planned Energy Scenario from IRENA’s 2023 Renewable Energy Roadmap Nigeria for energy emissions and from the US EPA for agriculture and waste emissions, and the US EPA and Energy Transition Plan for industry (Federal Republic of Nigeria, 2022; IEA, 2019; IRENA, 2023b; US EPA, 2019). In general, the IEA Africa Energy Outlook 2019 report does not specify which of the policies have been included in the stated policies scenario. The IEA’s Africa Energy Outlook 2022 did not contain updated country level data, hence why we have continued to use the 2019 report (IEA, 2022a). The IEA’s Stated Policies Scenario was used to derive our lower bound projections for energy CO 2 emissions. This scenario assumes development of coal-fired generation in Nigeria; however, all recent coal plant projects have either been cancelled or shelved. Therefore, we have adjusted our lower bound to assume the coal generation in Stated Policies Scenario is met with renewable energy, in line with national targets. For the upper bound, IRENA’s Planned Energy Scenario was used for energy CO 2 emissions. In our lower and upper bound, projections for energy CH 4 and N 2 O are extended using recent historical trends. We have adjusted the energy emission projections from the IEA’s Africa Energy Outlook 2019 to take into consideration the impact of the pandemic. We distilled the emission intensity (GHG emissions/GDP) from the pre-pandemic IEA scenario starting in 2019. This emission intensity estimate was then applied to the most recent GDP projections from the IMF for Nigeria that take into account the effect of the pandemic (IMF, 2022). As these estimates only cover 2022 to 2027, we used the average GDP growth projected by the IMF for 2022-2027 to extend the projections until 2035. Results were then harmonised to our 2021 estimate (see Historical emissions above). The IRENA Planned Energy Scenario already considers the impact of COVID-19.</t>
-  </si>
-  <si>
-    <t>Current policy projections stem from the “with measures” scenario from the Fifth Biennial Report . We harmonise this scenario to historical emissions reported in the latest country inventory using growth rates. The “with measures” scenario includes measures and policies to reduce greenhouse gas emissions that have been taken or are planned to be adopted in the near future. The majority of these measures possess sufficient certainty to be treated as a current policy scenario in our analysis. These include measures to develop the alternative and renewable energy sector in Kazakhstan (Republic of Kazakhstan, 2023a). The Biennial Report’s “with measures” scenario included a target to achieve a 10% share of renewables, in this case wind and solar power, in the country’s energy grid by 2030. However, following the achievement of the 2020 target of 3%, the government announced that they are raising the ambition of the renewables target to a 15% share by 2030 (Satubaldina, 2021). We used electrical power demand and supply projections from Kazakhstan’s Green Economy plan to estimate the emissions reduction potential of this 5% increase (Republic of Kazakhstan, 2015). We first used future coal demand (in TWh) and projected emissions from coal in 2030 under the BAU scenario to develop a coal emissions factor. Since we assume that an increase in renewables will result in a decrease in coal use, we used the difference between coal demand under 10% renewables and coal demand under 15% renewables and the coal emissions factor to determine the emissions reductions potential. This resulted in a reduction of 4 MtCO 2 e, which was subtracted from total emissions under the BR “with measures” scenario to get the new current policy projection.</t>
-  </si>
-  <si>
-    <t>Energy-related CO 2 emissions For the analysis of current policy projections, we used the IEA World Energy Outlook (WEO) 2023 Stated Policies Scenario (STEPS) as a basis (IEA, 2023). The WEO STEPS reflects both implemented policies as well as announced policies (see Annex B.6 of WEO 2023); only for the power sector the electricity mix targets of the updated NDC and the 6th Strategic Energy Plan (METI, 2021c) were assumed to be fully achieved. Since it is premature to assume that the 2030 electricity mix targets would fully be achieved, we explored different shares of renewable and nuclear power generation based on historical trends, estimates by external studies, and current status of nuclear reactor safety examinations. CO 2 emissions from the power sector were re-calculated based on the low and high emission electricity mix cases described below. In the low emissions case , we assumed that: The WEO2023 STEPS scenario projections will be fully achieved, which means that: Nuclear power generation share will reach 20%, the lower range of the 2030 target. The nuclear capacity in operation will reach 30 GW, which will be larger than the total of 25 reactors that have applied for restart and two reactors under construction that applied for future operation to the Nuclear Regulation Authority as of March 2024 (JAIF, 2024). Coal and oil power shares are kept to the NDC target (coal: 19%, oil: 2%). Renewable electricity generation reaches 385 TWh/year in 2030. The resulting share in total generation is 37 %, thus reaching the 36-38 % target. Gas power share is at 20%. In the high emissions case , we assumed that: All 27 reactors that have applied for restart (or future start of operation for plants under construction) as of March 2024 will be in operation by 2030 but only at the capacity factor of 49% (the 2021 level), taking into account the possible court cases and unplanned inspections. The resulting share in total generation is 11%. Oil power shares kept to the NDC target (2%). Renewable energy share reaches 315 TWh/year in 2030, based on the reference scenario for Japan included in the 2022 APEC Energy Demand and Supply Outlook (APEC, 2022). The resulting share in total generation is 30%, falling short of the 36-38% target. Gas and coal power meets the remaining demand with equal shares, leading to 26% share each. After the recalculation of the 2030 electricity mix, CO 2 emissions in 2030 were recalculated— CO 2 emission factors per technology were assumed to be identical to those in the WEO 2023 STEPS. Other emissions The projections for Industrial process CO 2 emissions were based on the growth rates between 2020 and 2030 from the IEA WEO 2023 STEPS, multiplied by the 2020 emissions from the UNFCCC GHG inventory (Government of Japan, 2023b; IEA, 2023). Agricultural &amp; waste CO 2 emissions were extended to 2030 using the trend of emissions intensity per GDP and per capita between 2011-2021 (UN DESA, 2022; World Bank, 2023). Other non-CO 2 emissions were extended to 2030 using the trend of emissions intensity per GDP and per capita between 2011-2021 (UN DESA, 2022; World Bank, 2023). For F-gas emissions, the expected impacts of the Act on Rational Use and Proper Management of Fluorocarbons (2013 amendment) to enhance management of F-gas use as well as the Ozone Layer Protection Act (‘F-gas Act’, 2018 amendment) to regulate the production and imports of F-gases to comply with the Kigali Amendment were considered. Our calculations show that the HFC emission levels are projected to fall far short of the levels targeted under the updated NDC. As described in the current policy projections section, the F-gas Act has not been successful in improving the recovery rate of refrigerants from end-of-life refrigeration and air conditioning equipment which was 41% against the targeted rate of 50% in 2020 (METI &amp; MOEJ, 2021b). The recovery rate even dropped to 40% in 2021 (MoEJ, 2022). Based on the historical trends reported by MOEJ (MoEJ, 2022), we assume that the HFC recovery rate will not improve over time. We also assume that the leakage rates for the in-use stock will also not improve under current policies. Regarding the 2018 amendment of the Ozone Layer Protection Act, the business-as-usual consumption levels are projected to be below the Kigali cap at least until 2025 (METI, 2018a): the Kigali cap for Japan becomes significantly lower only in 2029. Since there is some time lag between consumption and emissions, we assume that the amended Ozone Layer Protection Act will not affect the HFC emission levels up to 2030. The point of departure for the revised F-gas emission projections is the business-as-usual (BAU) projections provided in the background document of the Plan for Global Warming Countermeasures (MOEJ, 2016a) – the Plan projects F-gas emissions to increase from 39 MtCO 2 e/year in 2013 to 77 MtCO 2 e/year in 2030 under a BAU scenario. The three measures: (i) enhanced recovery from end-of-life equipment, (ii) avoidance of leakage from in-use equipment, and (iii) switch to lower GWP F-gas and non-F-gas refrigerants are expected to reduce emissions to the NDC target level of 29 MtCO 2 e/year in 2030. In our assessment, we assume that only part of the NDC implementation plan, i.e. the switch to lower GWP F-gas and non-F-gas refrigerants, would be achieved.</t>
-  </si>
-  <si>
-    <t>There is a high level of uncertainty regarding the emissions development in Iran. This is mostly due to uncertain economic growth projections linked to international economic sanctions. We capture this uncertainty by presenting a range for the current policy projections based on historical trends for agriculture and waste emissions, and GDP elasticity for energy and industry. Iran’s economic situation is expected to have bigger impact on the industry and the energy sector, which is why we apply GDP elasticity combined with historical GDP data with a forecast to obtain a range. Emissions from the energy and industry sector are most susceptible to fluctuations in GDP growth. For the agriculture and waste sector, which are traditionally less impacted by the economic sanctions and overall economic landscape, we just apply 5-year historical trend from 2017-2021. Lower end For the emissions in the agriculture and waste sector, we apply a five-year trend based on historical data for 2017-2021. For the energy and industry sector emissions, the projections are based on the historical trends of GDP elasticity of the sectors’ GHG emissions combined with GDP growth estimates from IMF (IMF, 2023) . Upper end For the emissions in the agriculture and waste sector, we apply a five-year trend based on historical data for 2017-2021. For the energy and emissions sector emissions, the projections are based on historical trends of GDP elasticity of the sectors’ GHG emissions combined with historical GDP growth estimates from the World Bank (World Bank, 2023a).</t>
-  </si>
-  <si>
-    <t>We construct current policy projections by combining a APERC and PLN projections for the power sector, with our own projections of energy non-CO 2 and non-energy emissions. Emissions from the huge pipeline of captive coal plants are largely missing from APERC, IEA, and PLN projections (on-grid). We quantify emissions from these power plants using Global Coal Plant Tracker data on operation start date, lifetime, capacity, and assume default capacity and emissions factors (Global Energy Monitor, 2023). For energy-CO 2 we combine the reference “Business-as-usual” scenario from the Asia Pacific Energy Research Centre (APERC), which "assumes current policies and trends continue" (APEC, 2022) and Indonesia’s 10-year electricity supply plan RUPTL 2021–2030 (Republic of Indonesia, 2021b). We use coal, oil, and gas emission factors from the IEA’s Current Policies Scenario for Southeast Asia to estimate emissions from planned generation. We add these energy-CO 2 projections to energy non-CO 2 and non-energy emissions projections to obtain current policies projections for total emissions excl. LULUCF. For each sector we create a projection based on the growth rates forecast in Indonesia’s Second Biennial Update Report (Republic of Indonesia, 2018a). We develop a range by looking at other possible sector-specific trends. For industry we apply GDP growth rates from our post-COVID GDP series, which includes forecasts from the IMF, World Bank, ADB, and OECD (ADB, 2023; IMF, 2023; OECD, 2023; World Bank, 2023). For agriculture, waste, and other sectors, we apply a five-year trend. The two alternatives create a minimum and maximum current policies projections for energy non-CO 2 and non-energy emissions. We subsequently harmonise these projections to historical data. The emissions levels are sensitive to the method of harmonisation. Thus, we apply two methods: Apply growth rates of the calculated scenarios to the last historical year (2022); Adjust all future years by the difference of the calculated scenario and the inventory in the last available year (2022). Both methods are included in the range presented for current policy projections.</t>
-  </si>
-  <si>
-    <t>CO 2 emissions Upper end of the scenario range: We use the growth rates from the IEA’s World Energy Outlook 2023 (WEO 2023) Stated Policies Scenario for India’s CO 2 emissions. The IEA’s CO 2 emissions estimate now includes industry process emissions and thus is a good proxy for all of India’s CO 2 emissions (IEA, 2023c). Lower end of the scenario range: We use the CO 2 emissions estimates in the final National Electricity Plan (NEP2023) for 2022-2032 for the power sector and use a 5-year historical trend to extend to 2035 (Ministry of Power, 2023b). India reports data on a Q2 to Q1 of the following year basis. For the sake of simplicity, we allot the data for a fiscal year (e.g. April 2021-March 2022) to the calendar year (e.g. 2021). We use the WEO 2023 data for the rest of the CO 2 emissions. To replace the power sector emissions in the total CO 2 emissions from WEO2023, we replace the power sector emissions in the unharmonised data sets and then assume a constant ratio with our WEO2023 emissions harmonised to the latest historical data to derive estimates for 2030-2035. We use interpolation to complete the timeseries for 2023-2030. NEP’s power sector emissions are lower than WEO’s for the historical timeseries and so assuming a constant ratio throughout would result in an artificial drop in emissions in 2023. Other gases We use the US EPA non-CO 2 emissions projection growth rates for the CH 4 , N 2 0 and F-gases and harmonise these to the latest historical year (U.S. Environmental Protection Agency, 2019). Note: Our data download includes projections until 2035; however, our graphics display the data until 2030 only.</t>
-  </si>
-  <si>
-    <t>The current policy projections are adapted from the projections report (“Projektionsbericht 2024”) published by the kba Agency (UBA) in March 2024, which includes all measures that were agreed by October 2023 (UBA, 2024c). The base year value of 2019 from the projections varies slightly from the latest historical inventory data from 2023, and we harmonise the projections to the inventory by assuming that the relative difference in 2019 for each sector is constant in the future for the projections. UBA provides in their most recent publication the scenario “With implemented measures” . For some sectors, we make corrections to the numbers to reflect most recent policy developments: Power: The UBA projection assumes that the targeted RE capacity additions set early 2022 will be achieved. For solar, this has been the case, but only about a quarter of the targeted wind capacity for 2023 and 2024 has been installed so far. We thus provide a range for this sector and for the upper end of emissions projections for energy supply assume that only half of the additions of wind will be achieved by 2030 and beyond. This assumption would lead to about 107 GW of wind by 2030, as opposed to 145 GW as targeted. The difference in emissions is about 12 MtCO2 in 2030. Transport: The projection report assumes that passenger EV sales will continue to increase every year until 2035: in 2024, registrations of new passenger EVs are projected to increase by 37.7% relative to 2023 and amount to over 720,000 new EVs (KBA, 2023; UBA, 2024a). However, since the publication of the projection report, the German government eliminated its purchase incentives for passenger EVs at the end of 2023. In the first four months of 2024, passenger EV registrations were weaker than expected: only approximately 106,000 passenger EVs have been registered (KBA, 2024b, 2024c, 2024d, 2024a). To consider the lower-than-expected growth in EV registrations, we delay the share of passenger car emissions reduction by one year. Passenger cars accounted for approximately 60% (59.71%) of total road transport emissions between 2018 and 2022 (Eurostat, 2024) Therefore, 60% of sectoral emissions reduction is delayed by one year. Buildings, Industry, Agriculture and Waste: no adjustments, using scenario with implemented measures.</t>
-  </si>
-  <si>
-    <t>We use a combination of data sources to estimate the lower bound of our current policy projection (Federal Democratic Republic of Ethiopia, 2021; IEA, 2019; U.S. Environmental Protection Agency, 2019). Lower bound projections Our energy-related CO 2 emissions are based on growth rates from the Stated Policies Scenario (STEPS) for Ethiopia in the IEA’s Africa Energy Outlook 2019 (IEA, 2019). In general, neither the IEA Africa Energy Outlook 2019 report nor its annexes specify which of the policies have been included in the stated policies scenario. The IEA STEPS scenario was not updated in the IEA Africa Energy Outlook 2022 (IEA, 2022a). For the industry sector, we used the business as usual (BAU) projections from the updated NDC harmonised to our 2021 historical emissions estimate. For the agriculture and waste sectors, we used the US EPA’s non-CO 2 emissions projection but applied these to sector totals as the contribution from CO 2 in these sectors is negligible. For “other” emissions reported in PRIMAP (about 1% of emissions in 2019), we applied US EPA growth rates for N 2 O as these “other” emissions only included N 2 O. Upper bound projections The upper-bound of our current policy projection assumes that GHG emissions will grow according to the revised business as usual (BAU) scenario projections provided in the updated NDC of 2021 (Federal Democratic Republic of Ethiopia, 2021). The base year for the BAU scenario is 2010. We have harmonised the series to the last historical year estimate (2021). This approach could potentially overestimate emission levels as we do not have sufficient information on the state of emissions reduction efforts or current policy implementation, both of which might downward revise the trajectory.</t>
-  </si>
-  <si>
-    <t>We derive the range of projections under current policies according to the following method: Lower end of the range: Historical data shows that per capita emissions have been largely stable in the past. We assume that this correlation remains and apply the average per capita emissions to UN population prospects until 2030. Upper end of the range: We use projections from the IRENA RE Outlook for Egypt for energy related CO 2 emissions. For all other emissions, we assume a continued trend of past emissions up to 2030. We further investigate the impact of the RE targets on emissions. Meeting the target does not decrease emissions of the upper end of the range beyond the lower end. Even when assuming a lower electricity generation growth than in the IRENA reference scenario, the emissions reductions compared to the reference do not lead to lower emissions. We thus assume that the target is covered by our range.</t>
-  </si>
-  <si>
-    <t>The assessment of the EU’s policy projections reflects both policies and measures implemented at the national level (the top end of our range), as well as these adopted at the EU level but not yet transposed by the Member States (the bottom end of our range). To reflect policies adopted at the national level, we use the EEA’s compilation of national projections prepared by Member States in 2023 (European Environment Agency, 2023b). We apply the growth rate from the ‘with existing measures’ (WEM) scenario for total GHG emissions (excl. LULUCF and excl. int. aviation) to total GHG emissions (excl. LULUCF and excl. int. aviation) in 2022. To calculate the bottom end of the range, we replace estimates for power CO 2 emissions in the States Policies (STEPS) projections from the World Energy Outlook (WEO) with those from the Announced Pledges (APS) to account for the implementation of the 42.5% RE share in final gross consumption in the Fit for 55 package. From the Fit for 55 modelled projections, we take the MIX scenario which better reflects the current policies in place. We then take the growth rate of this revised projection for total CO 2 emissions from WEO and apply that to total GHG emission from the energy sector in 2022 and extend out to 2035. Non-CO 2 emissions represent about 3% of energy sector emissions, so we think WEO is a good proxy for the entire sector. For all other sectors, we use sector-specific growth rates from EEA’s 2023 WEM scenario to extend each sector out to 2035 individually. Note: Our data download includes projections until 2035; however, our graphics display the data until 2030 only.</t>
-  </si>
-  <si>
-    <t>The officially submitted LTS appears to confirm the commitment covers only carbon dioxide emissions. Due to the 2060 timeframe extending past our scope of analysis, as well as insufficient details in intermediary targets to reach the carbon neutrality target, we take a simplified linear approach for China’s pathway to carbon neutrality. The government is pursuing expansion of China’s carbon sinks in the LULUCF sector. While specific modelling details of these sinks are not provided, the updated NDC commits to increasing forest stock volume by 6 billion cubic meters from the 2005 level (Government of China, 2022). We regress the historical LULUCF sinks and forest stock volumes to predict the LULUCF sinks up to 2030, assuming a linear increase in forest stock volume from 2018 (the latest available data) to 2030. From 2030 to 2060, we assume the LULUCF sinks will remain constant at approximately -1270 Mt CO 2 e, pending new policies beyond 2030. Emissions until 2030 are established through our current policy projections. For CO 2 (incl. LULUCF), we assume a linear decarbonisation to zero in 2060 from 2030 levels, CO 2 (excl. LULUCF) is thus calculated based on the assumed constant LULUCF sinks. For non-CO 2 , we assume a more conservative phaseout path to zero in 2080 from 2030 levels. China’s resulting emissions in 2060 (excl. LULUCF) is then assumed to be the addition of CO 2 (excl. LULUCF) and leftover non-CO 2 GHGs. The pathway for all GHG emissions from 2030 to the emissions in 2060 is linearly interpolated.</t>
-  </si>
-  <si>
-    <t>As we now use baseline data that already captures impacts from COVID-19, we apply no further methods to estimate COVID-19 related changes in greenhouse gas emissions for China until 2030.</t>
-  </si>
-  <si>
-    <t>We applied a novel method to estimate the COVID-19 related dip in greenhouse gas emissions in 2020 and the trajectory to 2030. The uncertainty surrounding the severity and length of the pandemic creates a new level of uncertainty for current and future greenhouse gas emissions. We first update the current policy projections using most recent projections. We then distil the emission intensity (GHG emissions/GDP) from this pre-pandemic scenario and apply to it the most recent GDP projections that take into account the effect of the pandemic. As a result of the pandemic, Kenya’s GDP dropped by -0.3% in 2020 and rebounded by 7.2% in 2021 (IMF, 2022). We use recent estimates from IMF for GDP growth from 2022 to 2027 (IMF, 2022). Since the most recent GDP projections only provide values for the next few years (up to 2027), we used the same GDP growth rate as pre-pandemic current policy scenarios for the remaining years.</t>
-  </si>
-  <si>
-    <t>We applied a novel method to estimate the COVID-19 related dip in greenhouse gas emissions until 2030. The uncertainty surrounding the severity and length of the pandemic creates a new level of uncertainty for current and future greenhouse gas emissions. We take 2021 as the last historical data point and for emissions between 2022 and 2030, we first update the current and planned policy projections using the most recent projections, usually prepared before the pandemic. We then distil the emission intensity (GHG emissions/GDP) from this pre-pandemic scenario and apply to it most recent GDP projections that take into account the effect of the pandemic. To capture potential differentiated effects of COVID-19 on the economy, the lower bound of the current and planned projects capture the effects if COVID continues its impacts on the entire economy, while the upper bound captures the impacts of COVID-19 only on the energy and industry sectors (which consist of the significant majority of Thailand’s CO 2 emissions), assuming the agriculture and waste sectors are unaffected. The GDP projections from Thailand’s NESDC (2022) of 2.7% for 2022 were used to create the lower bound of our policy projections while the Board of Investment’s (2022) projection of 3.3% was the most optimistic estimate, creating the upper bound. For 2023, the lower bound uses the Board of Investment’s 4.2% estimate while the upper bound uses the Asian Development Bank’s 4.5% (2022). The forecast going forward relies on IMF (2021) projections until 2027.</t>
-  </si>
-  <si>
-    <t>We apply a novel method to estimate the COVID-19-related dip in greenhouse gas emissions in 2021 and the deployment through to 2030. The uncertainty surrounding the severity and length of the pandemic creates a new level of uncertainty for current and future greenhouse gas emissions. We first update the current policy projections using most recent projections, usually prepared before the pandemic. We then distil the emissions intensity (GHG emissions/GDP) from this pre-pandemic scenario and apply to it most recent GDP projections that take in to account the effect of the pandemic. To capture a range, we use projections from USEPA (2019), APEC (2022), and historical data series from PRIMAP 2022. The quantification of South Korea’s current policies projections focuses on energy-related CO 2 emissions reductions. For scenarios that already consider the impact of COVID-19, we do not adjust energy-related CO 2 emissions, to avoid double-counting.</t>
-  </si>
-  <si>
-    <t>The CAT uses Global Warming Potential (GWP) values from the IPCC's Fourth Assessment Report (AR4) for all its figures and time series. Assessments completed before December 2018 (COP24) used GWP values from the Second Assessment Report (SAR).</t>
-  </si>
-  <si>
-    <t>The CAT uses Global Warming Potential (GWP) values from the IPCC's Fourth Assessment Report (AR4) for all its figures and time series. Assessments completed prior to December 2018 (COP24) used GWP values from the Second Assessment Report (SAR).</t>
-  </si>
-  <si>
-    <t>The CAT uses Global Warming Potential (GWP) values from the IPCC’s Fourth Assessment Report (AR4) for all figures and time series. Assessments completed prior to December 2018 (COP24) used GWP values from the IPCC’s Second Assessment Report (SAR).</t>
-  </si>
-  <si>
-    <t>The CAT uses Global Warming Potential (GWP) values from the IPCC's Fourth Assessment Report (AR4) for all its figures and time series unless stated otherwise. Assessments completed prior to December 2018 (COP24) used GWP values from the Second Assessment Report (SAR). To be relevant to national context, values using AR5 are sometimes added to the text.</t>
-  </si>
-  <si>
-    <t>The CAT uses Global Warming Potential (GWP) values from the IPCC’s Fourth Assessment Report (AR4) for all figures and time series.</t>
-  </si>
-  <si>
-    <t>The CAT uses Global Warming Potential (GWP) values from the IPCC’s Fourth Assessment Report (AR4) for all its figures and time series. Assessments completed prior to December 2018 (COP24) used GWP values from the Second Assessment Report (SAR).</t>
-  </si>
-  <si>
-    <t>The CAT uses Global Warming Potential (GWP) values from the IPCC's Fourth Assessment Report (AR4) for all its figures and time series. Assessments completed prior to December 2018 (COP24) used GWP values from the Second Assessment Report (SAR). Some of the EU data used in our calculations is based on AR5 values. Please see the individual sections above for our conversion methods.</t>
-  </si>
-  <si>
-    <t>Chile has committed to being net-zero by 2050. According to Chile’s long-term strategy submitted to the UNFCCC, the target includes a LULUCF sink of 65 MtCO 2 e to neutralise remaining emissions. Thus, we estimate Chile’s total GHG emissions excluding LULUCF in 2050 to be 65 MtCO 2 e (Gobierno de Chile, 2021).</t>
-  </si>
-  <si>
-    <t>We use the most recent available update of the Long-Term Emissions Reduction Plan as a basis for assessing Australia’s climate trajectory to 2050. The government is currently preparing an update of the 2050 Net Zero Roadmap. To assess the net zero target, we used the scenario “The Plan”, modelled by DISER (Australian Government, 2021c). “The Plan” scenario incorporates a sequestration of 38 MtCO 2 e through bioenergy with carbon capture and storage (BECCS), which is considered in our target assessment. We converted these values to AR4 Global Warming Potentials (GWPs), using the AR5/AR4 ratio from current policy projections.</t>
-  </si>
-  <si>
-    <t>Argentina committed to a net zero GHG emissions by 2050. However, its long-term strategy does not include additional information on how Argentina plans to reach its target, particularly on sectoral pathways towards net zero and the expected contribution of sinks from the LULUCF sector. The CAT uses a simplified method to estimate residual emissions under Argentina’s net zero target in 2050. The calculation is based on LULUCF projections created by UNICEN for Argentina’s AFOLU sector in their net zero AFOLU scenario (Keesler &amp; Blanco, 2024). This scenario assumes net LULUCF emissions of -71 MtCO 2 e in 2050. For the simplified net zero pathway for Argentina’s economy-wide emissions, the CAT assumes residual emissions to match the LULUCF sinks of -71 MtCO 2 e in 2030 and assuming a linear decrease from the 2030 current policy pathways (i.e., 405 MtCO 2 e in 2030) to 71 MtCO 2 e in 2050, reaching economy-wide net zero GHG emissions.</t>
-  </si>
-  <si>
-    <t>The CAT calculates Nepal’s target of achieving carbon neutrality by 2045 using the WAM (With Additional Measures) scenario stated in its Long-term Strategy. The WAM scenario covers only CO 2 emission for each sector and projects a LULUCF sink of 10 MtCO 2 in 2045. To quantify a target in 2045 covering all GHG emission, we add our estimate of non-CO 2 to the projected CO 2 emissions excluding LULUCF from the LTS’ WAM scenario. We estimate non-CO 2 emissions in 2045 by taking historical non-CO 2 emissions from 2020 and applying the growth rate from the EPA’s BAU projections for non-CO 2 emissions until 2045 (EPA, 2019; Gütschow, Günther and Pflüger, 2022). The LTS’ WAM scenario uses GWP values from the Fifth Assessment Report (AR5), but the projection covers only CO 2 so an AR5 to AR4 conversion is not necessary.</t>
-  </si>
-  <si>
-    <t>The UK has set a target of reaching net zero greenhouse gas emissions by 2050. This target includes international aviation and shipping (IAS) emissions, as well as LULUCF emissions and removals from BECCS/DACCS (UK Government, 2019d). The CAT assesses IAS and LULUCF separately, and therefore these need to be removed from the projections. The UK Government does not provide detail on the LULUCF emissions they assume in 2050. In the absence of this, we take analysis from the CCC, which suggested that in the Balanced Net Zero pathway which reaches net zero by 2050, LULUCF emissions would be -19 MtCO 2 /yr (CCC, 2020). We also use this source to estimate future emissions from IAS. In the Balanced Net Zero pathway, emissions from aviation and shipping in 2050 are 24 MtCO 2 . Assuming an equal split between international and domestic aviation/shipping in 2050 as in 2019, this means that in 2050, IAS emissions would be 19 MtCO 2 /yr. Under these assumptions, the UK’s net zero target remains a 0 MtCO 2 e target in 2050 once LULUCF and IAS have been removed. However, in reality, the UK Government intends residual emissions to fall to around 70-80 MtCO 2 e/yr, with engineered removals from BECCS/DACCS offsetting these remaining emissions.</t>
-  </si>
-  <si>
-    <t>The UAE’s net zero strategy covers all GHG emissions except F-gases and assumes a 3.5 MtCO 2 e sink in 2050 to assist with achieving the country’s net zero target and so that is the value taken for their net zero target excluding LULUCF. Due to the uncertainty in estimating F-gases emissions in the UAE by 2050, the CAT does not include any estimation when calculating the UAE’s 2050 emissions excluding LULUCF. This can change in future updates once new emissions data for historical years and future projections are available.</t>
-  </si>
-  <si>
-    <t>To quantify Türkiye’s 2053 emissions, we assume that Türkiye maintains the LULUCF sink of -70 MtCO 2 in 2030 as indicated in its 5th Biennial Report ‘With Measures’ scenario through 2053 (Republic of Türkiye Ministry of Environment Urbanisation and Climate Change, 2023). This means that emissions from other sectors would have to be reduced to 70 MtCO 2 in 2053.</t>
-  </si>
-  <si>
-    <t>In its ZERO-basis scenario of the Energy perspectives 2050+, the Swiss government provides assumptions on their estimated residual emissions to meet its 2050 net-zero GHG target. The CAT approach assumes full implementation for all CDR and CCS planned for the target year, meaning that residual emissions are determined by the level of LULUCF emissions (zero assumed for Switzerland) and international offsets to compensate. Hence, the scenario “NET-ZERO scenario (EP2050+) incl. international offsets” was used, which assumes 4.7 MtCO 2 e of residual emissions in Switzerland in 2050 (Bundesamt für Energie, 2022).</t>
-  </si>
-  <si>
-    <t>South Korea’s 2050 carbon neutrality scenarios present 2050 emissions targets for each sector, in addition to details on targeted removals from LULUCF and CCUS. The CAT considers total emissions excl. LULUCF in 2050. The value is derived from the information provided and converted to AR4 by multiplying the value in SAR with the ratio of the 2017 values in AR4 and SAR. We assume that the target values presented cover all GHGs.</t>
-  </si>
-  <si>
-    <t>The Saudi government has announced it aims to achieve a sink of 200 MtCO 2 from 2030 onwards, which we assume to stay constant towards 2060 to meet Saudi Arabia’s net-zero CO 2 target. Given the lack of information on Saudi Arabia’s net zero target announcement, we have assumed it aims to reach net zero CO 2 emissions by 2060. We assume that CO 2 emissions will decline at a linear rate between 2030 and 2060 to balance LULUCF sinks in 2060. We further assume that non-CO 2 emissions will decline at a linear rate between 2030 and 2080 in line with the IPCC SR1.5 pathways.</t>
-  </si>
-  <si>
-    <t>The net zero by 2060 target covers all economic sectors and all GHG emissions. Kazakhstan plans to reduce emissions from 351.2 CO 2 -eq (2020) to 45.2 CO 2 -eq by 2060 and sets a removal goal of -45.2 CO 2 -eq for GHG absorption in the LULUCF sector. The Strategy for achieving carbon neutrality by 2060 contains decadal targets between 2020 and 2060, which are used in the tool.</t>
-  </si>
-  <si>
-    <t>The Japanese government provides no underlying assumptions on its 2050 net-zero GHG target. For this reason, we assumed that GHG emissions will balance LULUCF sinks in 2050. We estimate the LULUCF sink for 2050 to be 28–61 MtCO 2 e using a 10-years historical average between 2009–2019 (upper bound estimate) and a 10-years trend projection towards 2030 based on the period between 2009–2019 that we keep constant towards 2050 (lower bound estimate).</t>
-  </si>
-  <si>
-    <t>We estimate India’s emissions in 2070 consistent with its net zero target for the purpose of our global temperature estimate. We assume that India achieves the top end of its carbon sink NDC target of 3 GtCO 2 , which we average over the 2016-2030 period for an annual additional sink of 200 MtCO 2 . We add this to the last historical emissions data for LULUCF (308 MtCO 2 in 2016), for an estimated sink of 508 MtCO 2 in 2070, and assume that this will reflect India’s residual level of emissions of its net-zero target.</t>
-  </si>
-  <si>
-    <t>According to Germany’s Climate Law, the 2045 climate neutrality target includes a sink of 40 MtCO 2 e to compensate for some remaining emissions sources. We thus estimate the total GHG emissions excluding LULUCF in 2045 at 40 MtCO 2 e.</t>
-  </si>
-  <si>
-    <t>Morocco previously used Global Warming Potential (GWP) values from the IPCC Second Assessment Report (SAR). In the 2021 NDC and the other documents submitted to UNFCCC, GWP are communicated using the Fourth Assessment Report (AR4) values. The CAT reports all results using AR4 GWP.</t>
-  </si>
-  <si>
-    <t>The CAT uses Global Warming Potential (GWP) values from the IPCC's Fourth Assessment Report (AR4) for all its figures and time series. Assessments completed prior to December 2018 (COP24) used GWP values from the Second Assessment Report (SAR). Kenya has indicated that it will account for its NDC using GWP values from the IPCC’s fifth assessment report (AR5). However, we assume that its reference to a BAU of 143 MtCO 2 e is expressed in GWP values from the IPCC’s second assessment report (SAR). Similar to the first NDC, the updated NDC quantified the 2030 reference value based on the 2030 GHG emissions projected in the National Climate Change Action Plan (2013-2017) and values in that report are in SAR. For the purpose of this analysis, we assume that the sector contribution to achieving the target and LULUCF assumptions used in the CAT country assessment remain unchanged and we converted the IPCC SAR GWP values to AR4 GWP values. Converting from SAR to AR5 under these assumptions would increase the targets by a couple of MtCO 2 e. If, however, the BAU is already in AR5 values, then the targets will be lower than the estimates provided here.</t>
-  </si>
-  <si>
-    <t>The CAT uses Global Warming Potential (GWP) values from the IPCC's Fourth Assessment Report (AR4) for all its figures and time series. Assessments completed prior to December 2018 (COP24) used GWP values from the Second Assessment Report (SAR). The ‘NDC targets’ section above outlines the uncertainties on GWP assumed for the updated NDC target range.</t>
-  </si>
-  <si>
-    <t>The CAT uses Global Warming Potential (GWP) values from the IPCC's Fourth Assessment Report (AR4) for all its figures and time series. Assessments completed prior to December 2018 (COP24) used GWP values from the Second Assessment Report (SAR). Please see the NDC section for the assumptions made in calculating that figure.</t>
-  </si>
-  <si>
-    <t>Black carbon can have both a warming and a cooling effect in the atmosphere, depending on where it is: black carbon on snow reduces the albedo of the surface and thus leads to warming. It also leads to higher local temperature of the snow and thus to higher rate of snow melt. Both cooling and warming effects can emerge from interferences with other particles in the atmosphere (depending on the exact conditions). The IPCC’s 6th Assessment Report (AR6) indicates a net-positive effect of black carbon on warming over time, i.e. in sum, black carbon has contributed more to warming than cooling over the last centuries (Szopa et al. , 2021). AR6 also reports an increase in the radiative forcing of black carbon over time, meaning that the warming effects are growing more strongly than the cooling effects. The IPCC concludes that reducing emissions of black carbon (as well as other anthropogenic emissions like methane) in the short term would contribute to limiting temperature increase to 1.5°C. Along with the decarbonisation of the energy system that is required for 1.5°C, black carbon decreases in the 1.5°C compatible scenarios analysed in the IPCC's 6th Assessment Report. The climate response of black carbon differs from greenhouse gases in terms of the geographical reach of its impacts, its lifetime, and its interactions with other particles and gases in the atmosphere. The IPCC therefore does not provide any estimate of the global warming potential of black carbon</t>
+    <t>The CAT uses Global Warming Potential (GWP) values from the IPCC’s Fourth Assessment Report (AR4) for all figures and time series. Assessment completed prior to December 2018 (COP24) used GWP values from the IPCC’s Second Assessment Report (SAR).</t>
+  </si>
+  <si>
+    <t>The CAT uses Global Warming Potential (GWP) values from the IPCC's Fourth Assessment Report (AR4) for all its figures and time series, unless otherwise stated. Assessments completed prior to December 2018 (COP24) used GWP values from the Second Assessment Report (SAR).</t>
+  </si>
+  <si>
+    <t>Business-as-usual scenario Egypt’s updated NDC target is expressed as a reduction below a BAU scenario. Egypt’s NDC only provides BAU values for the electricity, transport and oil &amp; gas sub-sectors. For energy-related CO 2 emissions not covered by electricity and transport, we have used a reference scenario from IRENA’s Renewable Energy Outlook report to estimate the BAU values (IRENA, 2018). For other sectors and gases (including the “associated gases” oil &amp; gas sub-sector), we have used a ten-year trend (2006–2015) up to the 2015 baseline year specified in the NDC. As Egypt’s NDC only covers emissions from CO 2 , CH 4 and N 2 0, we have used our current policy projections values for F-gases (instead of estimating a business-as-usual scenario). Conditional NDC target We have used the reductions in Egypt’s NDC for the electricity, transport and oil &amp; gas sectors. These reductions represent the upper end of the conditional NDC quantification. For the lower end of the range, we also estimated emissions reductions from the industry and buildings sectors. Egypt’s NDC refers to the Low-Carbon Roadmap for Egypt’s Cement Sector, which targets a 15% reduction in CO 2 emissions from the cement sector (Vanderborght et al. , 2016). As cement represents a large share of Egypt’s CO 2 emissions in the industry sector, we have assumed this reduction applies to the entire sector and subtracted it from our industry BAU (IRENA’s reference scenario for industry) (IRENA, 2018). For the buildings sector, we have assumed an 8% reduction below IRENA’s reference scenario, in line with the reduction in non-renewable energy use between 2015 and 2030 in IRENA’s enhanced renewable energy (REmap) scenario compared to the reference one in 2030. Global warming potentials Egypt’s NDC uses the IPCC’s Second Assessment Report (SAR) Global Warming Potential (GWP) values. The CAT expresses emissions in the IPCC’s Fourth Assessment Report GWPs. For the transport and electricity sectors, we have used the original values from Egypt’s NDC, as most of the emissions in those sectors are from CO 2 . In 2015, 98% of transport emissions and nearly 100% of emissions from energy industries were from CO 2 according to Egypt’s first Biennial Update Report . For the oil &amp; gas sub-sector, we have assumed all emissions are methane, and have converted values from SAR to AR4 GWP.</t>
+  </si>
+  <si>
+    <t>The CAT rating of Brazil’s NDC is based on its 2030 target as communicated in their NDC submitted in October 2023 (Government of Brazil, 2023b). Brazil’s 2030 NDC target covers emissions from all sectors and six gases (CO 2 , CH 4 , N 2 O, HFCs, PFCs and SF 6 ). Brazil’s NDC provides an absolute emissions level for 2025 and 2030, including LULUCF, and is reported using AR5 GWP values. The CAT converted the emissions level for both 2025 and 2030 to AR4 GWP using a gas-by-gas and sector-by-sector approach to recalculate emissions from 2005 (baseline year) in AR4. This results in emissions levels of 1.30 GtCO 2 e in 2025 and 1.18 GtCO 2 e in 2030. The CAT then proceeds to estimate and exclude emissions from the LULUCF sector. For this, we take LULUCF emissions for 2025 and 2030 as reported in the government’s report titled “Mitigation trajectories and public policy instruments to achieve Brazil's goals under the Paris Agreement” (Ministério da Ciência Tecnologia Inovações e Comunicações Brasil, 2017). The LULUCF emissions levels in 2025 and 2030 are 321 MtCO 2 e and 298 MtCO 2 e, respectively. These national projections for LULUCF do not include the current fluctuations in deforestation rates; if emissions from deforestation would rise again, Brazil would need to further reduce emissions in other sectors in order to meet their NDC target. Our NDC estimates are highly dependent on the assumptions of the LULUCF contribution to overall emissions which, based on historical trends, can vary significantly. We use projections as reported by the government in 2017 for consistency and to allow for comparison between target updates in recent years. We expect additional clarity from Brazil on the role of LULUCF emissions in its targets for its next communication.</t>
+  </si>
+  <si>
+    <t>The absolute emissions level for the NDC target incl. LULUCF is taken directly from the NDC document. F-gases Because F-gases are excluded from the UAE’s 2030 NDC target, the CAT adds them into the quantification of the NDC by assuming that F-gases remain constant from the last historical year (2021) until the target year (2030). The F-gases estimate comes from the UAE’s latest inventory data, submitted along with its 5 th National Communication to the UNFCCC (Government of the UAE, 2024a). However, there are still significant limitations regarding the UAE’s F-gases reporting, mainly due to data limitations. To address this, the UAE plans to broaden its monitoring and reporting activities, including exchanges with relevant stakeholders. While F-gases currently represent a negligible share of the UAE’s total GHG emissions (only 0.15 MtCO 2 e in 2021), this can change once the UAE updates its inventory again. LULUCF The target in the UAE’s 2023 NDC includes LULUCF emissions. To estimate the emissions level resulting from the target excluding LULUCF, we take the value for its 2030 LULUCF target (included in the NDC) and subtract it from the main NDC target. Global Warming Potential (GWP) values The UAE’s 2023 NDC specifies that it currently uses AR4 both for the BAU scenario and the NDC and sectoral targets. For the 2020 NDC, which was presented in SAR, we converted the 2030 BAU value from SAR to AR4 using a conversion factor from the last available nationally reported historical data point (2021).</t>
+  </si>
+  <si>
+    <t>The updated NDC of 2023 continues to use the same BAU scenario including LULUCF as the first NDC and INDC (Government of the Republic of Türkiye, 2023). The CAT excludes LULUCF from its calculations. Since the updated NDC does not provide projections for LULUCF, we assume that the LULUCF sink is the same as what is reported in Türkiye’s 5th Biennial Report ‘with measures’ scenario which corresponded to the mitigation scenario from Türkiye’s first NDC (2021)(Republic of Türkiye Ministry of Environment Urbanisation and Climate Change, 2023). We calculated the new 41% reduction target excluding LULUCF using these values.</t>
+  </si>
+  <si>
+    <t>We provide a range of projections for the EU’s planned policies. To develop a planned policies projection for the bottom of the range (i.e. maximum emission reductions), we modified our energy sector estimate to take into account the 45% indicative RE target, up from the 42.5% included in our current policy projections’ lower bound. For the other sectors, we use sector-specific growth rates from EEA’s 2023 ‘with additional measures’ (WAM) scenario to extend each sector out to 2030 individually. To devise the modified energy sector estimate, we took the energy emissions projections from the lower range of our current policy projection and multiplied it by the ratio between projected total energy emissions in 2030 with a 42.5% RE binding target compared to a 45% RE indicative target. We interpolated the data between total energy emissions in 2022 to this adjusted value for 2030 to complete the timeseries. To calculate the ratio indicated above, we started with the 2030 emissions estimates provided by the European Commission in its initial modelling of the higher emissions reduction goal published in 2021 (European Commission, 2021c). We select the MIX scenario for the 2030 domestic energy related CO 2 emissions (i.e. excluding international aviation and shipping). This modelling assumed a renewable energy share of 40% and when corrected to remove international bunkers, assumes a final energy consumption of 751 Mtoe. We calculated the emissions intensity for energy CO 2 emissions and then adjusted this figure to reflect the higher renewable energy share adopted by the EU (42.5% and 45%). To calculate energy CO 2 emissions we used this revised emissions intensity value and the Energy Efficiency Directive’s final energy consumption target of 11.7% below the 2020 EU Reference scenario we which calculate to be 726 Mtoe, excluding international aviation in 2030. We used the 2021 ratio between energy CO2 and all gases to estimate total emissions in 2030. For the other value in the ratio, we applied the same methods as indicated earlier but used the indicative additional target included in the Renewable Energy Directive of 2.5% (or 45% share total). To develop a planned policies projection for the upper end of the range (i.e. minimal emission reductions), we take the projected GHG emissions under the S3 scenario from the 2040 target communication impact assessment by the European Commission (in AR5) and convert it to AR4 while at the same time removing the influence of international aviation. In the EU’s Fit for 55 modelling scenarios, international aviation is included in the final energy consumption and GHG emissions (European Commission, 2021b). To omit it, we subtract the international aviation energy consumption and GHG emissions from the totals.</t>
   </si>
   <si>
     <t>Our planned policy projection is based on the ‘with additional measures’ scenario provided by the government in its annual projections data, harmonised to the last historical emissions year of 2022 (Environment and Climate Change Canada, 2023b). In our last assessment, we excluded emissions reductions associated with hydrogen given the concerns of Canada’s Commissioner of the Environment and Sustainable Development over the validity of the modeling associated with those estimates (see the hydrogen section in the current policies tab for more details). The government has revised its assumptions for the impact of its hydrogen strategy downwards in its latest projection, so we no longer consider it necessary to make any adjustments to this pathway. Previously, the government had been assuming that 7.5% of blended marketable fossil gas would be from hydrogen, which has been revised down to 0.45%. Note – Our COP28 global temperature update was based on data from Canada’s Fifth Biennial Report, harmonised to the latest historical emissions and included the adjustment for the reduced impact of the hydrogen strategy.</t>
@@ -592,13 +574,16 @@
     <t>We estimate the emissions resulting from full implementation of the JETP pathway presented in the Comprehensive Investment and Policy Plan (CIPP), published in November 2023 (JETP Secretariat, 2023). The CIPP provides a table of on-grid power emissions in five-year intervals from 2025-2050. We interpolate between the values and to the last historical data point in 2022 to obtain a full series.</t>
   </si>
   <si>
-    <t>We provide a range of projections for the EU’s planned policies. To develop a planned policies projection for the bottom of the range (i.e. maximum emission reductions), we modified our energy sector estimate to take into account the 45% indicative RE target, up from the 42.5% included in our current policy projections’ lower bound. For the other sectors, we use sector-specific growth rates from EEA’s 2023 ‘with additional measures’ (WAM) scenario to extend each sector out to 2030 individually. To devise the modified energy sector estimate, we took the energy emissions projections from the lower range of our current policy projection and multiplied it by the ratio between projected total energy emissions in 2030 with a 42.5% RE binding target compared to a 45% RE indicative target. We interpolated the data between total energy emissions in 2022 to this adjusted value for 2030 to complete the timeseries. To calculate the ratio indicated above, we started with the 2030 emissions estimates provided by the European Commission in its initial modelling of the higher emissions reduction goal published in 2021 (European Commission, 2021c). We select the MIX scenario for the 2030 domestic energy related CO 2 emissions (i.e. excluding international aviation and shipping). This modelling assumed a renewable energy share of 40% and when corrected to remove international bunkers, assumes a final energy consumption of 751 Mtoe. We calculated the emissions intensity for energy CO 2 emissions and then adjusted this figure to reflect the higher renewable energy share adopted by the EU (42.5% and 45%). To calculate energy CO 2 emissions we used this revised emissions intensity value and the Energy Efficiency Directive’s final energy consumption target of 11.7% below the 2020 EU Reference scenario we which calculate to be 726 Mtoe, excluding international aviation in 2030. We used the 2021 ratio between energy CO2 and all gases to estimate total emissions in 2030. For the other value in the ratio, we applied the same methods as indicated earlier but used the indicative additional target included in the Renewable Energy Directive of 2.5% (or 45% share total). To develop a planned policies projection for the upper end of the range (i.e. minimal emission reductions), we take the projected GHG emissions under the S3 scenario from the 2040 target communication impact assessment by the European Commission (in AR5) and convert it to AR4 while at the same time removing the influence of international aviation. In the EU’s Fit for 55 modelling scenarios, international aviation is included in the final energy consumption and GHG emissions (European Commission, 2021b). To omit it, we subtract the international aviation energy consumption and GHG emissions from the totals.</t>
-  </si>
-  <si>
-    <t>Canada’s net zero strategy assumes a 100 MtCO 2 e sink in 2050 to assist with achieving the country’s net zero target. We use this value for the residual emissions in their net zero target excluding LULUCF (Environment and Climate Change Canada, 2022c).</t>
-  </si>
-  <si>
-    <t>To quantify Singapore’s residual emissions in 2050, when it aims to achieve net zero, we assume that Singapore will maintain its average historical LULUCF emissions until 2050. We estimate LULUCF emissions in 2050 of 0.08 MtCO 2 e by taking the average LULUCF emissions for the years 2014, 2016, and 2018 from BUR5 data (National Environment Agency, 2022).</t>
+    <t>We take the EU’s modelled 2040 target from the S3 scenario presented in its impact assessment (European Commission, 2024b). We substitute the emissions from LULUCF in AR5 GWP and also excluding indirect CO 2 emissions and emissions from international aviation. We exclude the LULUCF emission but add in the planned assumptions for industrial carbon removals which include Direct Air Carbon Capture (DACCs) and Bioenergy Carbon Capture (BECCs). Regardless of scenario industrial removals are set at 75 MtCO 2 e. Finally, we convert the value from AR5 to AR4 using a conversion factor based on emissions in 1990. This results in an emission reduction of 86% GHG emission reduction from 1990 levels. We then apply the range of LULUCF assumptions (215, 317 and 376 MtCO 2 e) to determine the resulting emission reductions percentages from 1990. Building on the 85% baseline emission reductions, the added LULUCF options would resulting in 90%, 92% and 94% emissions reductions.</t>
+  </si>
+  <si>
+    <t>In December 2018, the European Commission published its assessment of the climate neutrality goal by 2050 for the EU28 (European Commission, 2018a, 2018c, 2018b). In 2024, as part of the EU’s 2040 target proposal’s Impact Assessment (European Commission, 2024b), new data was made available on the emission projections to 2050. Out of the four scenarios, we take the S3 scenario which best reflects the likely pathway the EU has indicated it will strive for. We take the GHG emission in 2050 (excluding LULUCF) in AR5 and add in the assumed industrial carbon removals from DACCs and BECCs from the 2040 Target Impact Assessment. We provide a single projection and not a range based on the S3 scenario in the 2040 target impact assessment. This approach reflects what the EU Commission said it will pursue. We convert the value from AR5 to AR4 using a conversion factor based on emissions in 1990 to get 295 MtCO 2 e as our target excluding LULUCF.</t>
+  </si>
+  <si>
+    <t>Viet Nam's National Climate Change Strategy (NCCS) establishes emission limits for each sector by the year 2050: the energy sector is set at 101 MtCO 2 e, agriculture at 56 MtCO 2 e , industrial processes at 20 MtCO 2 e , and waste at 8 MtCO 2 e . These sectors collectively will amount to 185 MtCO 2 e of residual emissions by 2050. Additionally, the Vietnamese governments assumes negative emissions from the LULUCF sector of 185 MtCO 2 e by 2050, resulting in a net zero emissions outcome by 2050. For this reason, we assume 185 MtCO 2 e of residual emissions remaining in Viet Nam’s net-zero target year of 2050. The NCCS, however, does not explicitly mention the global warming potential (GWP) utilized for estimating emissions. According to the NCCS, the percentage reduction targets from BAU emissions for each sector, aiming for net zero by 2050, are as follows: energy sector 91.6%, agriculture 63.1%, industrial processes 84.8%, waste 90.7%, and LULUCF at 90%. We have validated these percentage reduction figures against BAU emissions in GWP AR4, as indicated in the Nationally Determined Contributions (NDC) of 2022 (Viet Nam Government, 2022a).</t>
+  </si>
+  <si>
+    <t>The South African government provides no underlying assumptions on its 2050 net-zero CO 2 target as part of a visionary statement in its LTS (Republic of South Africa, 2020). For this reason, we assumed that CO 2 emissions will decline at a linear rate between 2030 and 2050 to balance LULUCF sinks in 2050. We assume that non-CO 2 emissions will decline at a linear rate between 2030 and 2080 in line with the IPCC SR1.5 pathways.</t>
   </si>
 </sst>
 </file>
@@ -1289,6 +1274,493 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1305,26 +1777,26 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>175</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1332,23 +1804,23 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>176</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1356,7 +1828,7 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1364,7 +1836,7 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1372,23 +1844,23 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>177</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1396,31 +1868,31 @@
         <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>178</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1428,7 +1900,7 @@
         <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1436,166 +1908,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" t="s">
-        <v>188</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B32"/>
   <sheetViews>
@@ -1613,242 +1926,242 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>88</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>89</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>92</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>93</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>94</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>95</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>96</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>97</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>98</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>99</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>100</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>101</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>102</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>103</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>104</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>105</v>
+        <v>162</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>106</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>107</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B30" t="s">
-        <v>108</v>
+        <v>165</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B31" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1856,7 +2169,7 @@
         <v>40</v>
       </c>
       <c r="B32" t="s">
-        <v>110</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -1864,9 +2177,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1882,377 +2195,66 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B37"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>116</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37" t="s">
-        <v>148</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -2278,34 +2280,34 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -2331,74 +2333,74 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -2408,7 +2410,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2424,114 +2426,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
